--- a/Pasajeros_por_aerolinea_inter.xlsx
+++ b/Pasajeros_por_aerolinea_inter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CE74A1-FD34-45D4-A1C2-CC06AB6195AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84BE6CC-E198-4C97-8E25-889D932EE540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="26">
   <si>
     <t>Total</t>
   </si>
@@ -78,6 +78,42 @@
   </si>
   <si>
     <t>Centro y Sudamérica</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
   </si>
 </sst>
 </file>
@@ -273,9 +309,6 @@
     <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -300,6 +333,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -307,8 +343,19 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -333,26 +380,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -362,6 +391,13 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -417,7 +453,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I85" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I85" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="B5:I85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
@@ -427,16 +463,16 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{2051D858-46B5-4ACF-B1D7-53B660A11E46}" name="Mes" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{2051D858-46B5-4ACF-B1D7-53B660A11E46}" name="Mes" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="5">
       <calculatedColumnFormula>SUM(E6:I6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Asiáticas" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Canadienses" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{F9140D29-C7E4-4D31-B7AE-8EE26419CAD1}" name="Centro y Sudamérica" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{91FE24AB-9044-4B4D-AFB5-421D9D5419B0}" name="EE.UU." dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{5F27ADD4-283D-4D9E-93E7-161DE8FD8403}" name="Europeas" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Asiáticas" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Canadienses" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{F9140D29-C7E4-4D31-B7AE-8EE26419CAD1}" name="Centro y Sudamérica" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{91FE24AB-9044-4B4D-AFB5-421D9D5419B0}" name="EE.UU." dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{5F27ADD4-283D-4D9E-93E7-161DE8FD8403}" name="Europeas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -699,14 +735,14 @@
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
@@ -735,11 +771,11 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>2024</v>
       </c>
-      <c r="C6" s="19">
-        <v>8</v>
+      <c r="C6" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ref="D6:D40" si="0">SUM(E6:I6)</f>
@@ -762,11 +798,11 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>2024</v>
       </c>
-      <c r="C7" s="21">
-        <v>7</v>
+      <c r="C7" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ref="D7:D9" si="1">SUM(E7:I7)</f>
@@ -789,11 +825,11 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>2024</v>
       </c>
-      <c r="C8" s="19">
-        <v>6</v>
+      <c r="C8" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="1"/>
@@ -816,11 +852,11 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>2024</v>
       </c>
-      <c r="C9" s="21">
-        <v>5</v>
+      <c r="C9" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
@@ -843,11 +879,11 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>2024</v>
       </c>
-      <c r="C10" s="19">
-        <v>4</v>
+      <c r="C10" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -870,11 +906,11 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>2024</v>
       </c>
-      <c r="C11" s="21">
-        <v>3</v>
+      <c r="C11" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="0"/>
@@ -897,11 +933,11 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>2024</v>
       </c>
-      <c r="C12" s="19">
-        <v>2</v>
+      <c r="C12" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -924,11 +960,11 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="22">
+      <c r="B13" s="21">
         <v>2024</v>
       </c>
-      <c r="C13" s="23">
-        <v>1</v>
+      <c r="C13" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="0"/>
@@ -951,11 +987,11 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>2023</v>
       </c>
-      <c r="C14" s="25">
-        <v>12</v>
+      <c r="C14" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
@@ -978,11 +1014,11 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>2023</v>
       </c>
-      <c r="C15" s="21">
-        <v>11</v>
+      <c r="C15" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="0"/>
@@ -1005,11 +1041,11 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>2023</v>
       </c>
-      <c r="C16" s="19">
-        <v>10</v>
+      <c r="C16" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="0"/>
@@ -1032,11 +1068,11 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>2023</v>
       </c>
-      <c r="C17" s="21">
-        <v>9</v>
+      <c r="C17" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="0"/>
@@ -1059,11 +1095,11 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <v>2023</v>
       </c>
-      <c r="C18" s="19">
-        <v>8</v>
+      <c r="C18" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="0"/>
@@ -1086,11 +1122,11 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>2023</v>
       </c>
-      <c r="C19" s="21">
-        <v>7</v>
+      <c r="C19" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="0"/>
@@ -1113,11 +1149,11 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>2023</v>
       </c>
-      <c r="C20" s="19">
-        <v>6</v>
+      <c r="C20" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="0"/>
@@ -1140,11 +1176,11 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>2023</v>
       </c>
-      <c r="C21" s="21">
-        <v>5</v>
+      <c r="C21" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="0"/>
@@ -1167,11 +1203,11 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="18">
+      <c r="B22" s="17">
         <v>2023</v>
       </c>
-      <c r="C22" s="19">
-        <v>4</v>
+      <c r="C22" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="0"/>
@@ -1194,11 +1230,11 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <v>2023</v>
       </c>
-      <c r="C23" s="21">
-        <v>3</v>
+      <c r="C23" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="0"/>
@@ -1221,11 +1257,11 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="18">
+      <c r="B24" s="17">
         <v>2023</v>
       </c>
-      <c r="C24" s="19">
-        <v>2</v>
+      <c r="C24" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="0"/>
@@ -1248,11 +1284,11 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>2023</v>
       </c>
-      <c r="C25" s="23">
-        <v>1</v>
+      <c r="C25" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
@@ -1275,11 +1311,11 @@
       </c>
     </row>
     <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="24">
+      <c r="B26" s="23">
         <v>2022</v>
       </c>
-      <c r="C26" s="25">
-        <v>12</v>
+      <c r="C26" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
@@ -1302,11 +1338,11 @@
       </c>
     </row>
     <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="20">
+      <c r="B27" s="19">
         <v>2022</v>
       </c>
-      <c r="C27" s="21">
-        <v>11</v>
+      <c r="C27" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="D27" s="8">
         <f t="shared" si="0"/>
@@ -1329,11 +1365,11 @@
       </c>
     </row>
     <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="18">
+      <c r="B28" s="17">
         <v>2022</v>
       </c>
-      <c r="C28" s="19">
-        <v>10</v>
+      <c r="C28" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="0"/>
@@ -1356,11 +1392,11 @@
       </c>
     </row>
     <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="20">
+      <c r="B29" s="19">
         <v>2022</v>
       </c>
-      <c r="C29" s="21">
-        <v>9</v>
+      <c r="C29" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="D29" s="8">
         <f t="shared" si="0"/>
@@ -1383,11 +1419,11 @@
       </c>
     </row>
     <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="18">
+      <c r="B30" s="17">
         <v>2022</v>
       </c>
-      <c r="C30" s="19">
-        <v>8</v>
+      <c r="C30" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" si="0"/>
@@ -1410,11 +1446,11 @@
       </c>
     </row>
     <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="20">
+      <c r="B31" s="19">
         <v>2022</v>
       </c>
-      <c r="C31" s="21">
-        <v>7</v>
+      <c r="C31" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="D31" s="8">
         <f t="shared" si="0"/>
@@ -1437,11 +1473,11 @@
       </c>
     </row>
     <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="18">
+      <c r="B32" s="17">
         <v>2022</v>
       </c>
-      <c r="C32" s="19">
-        <v>6</v>
+      <c r="C32" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" si="0"/>
@@ -1464,11 +1500,11 @@
       </c>
     </row>
     <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="20">
+      <c r="B33" s="19">
         <v>2022</v>
       </c>
-      <c r="C33" s="21">
-        <v>5</v>
+      <c r="C33" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" si="0"/>
@@ -1491,11 +1527,11 @@
       </c>
     </row>
     <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="18">
+      <c r="B34" s="17">
         <v>2022</v>
       </c>
-      <c r="C34" s="19">
-        <v>4</v>
+      <c r="C34" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D34" s="9">
         <f t="shared" si="0"/>
@@ -1518,11 +1554,11 @@
       </c>
     </row>
     <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="20">
+      <c r="B35" s="19">
         <v>2022</v>
       </c>
-      <c r="C35" s="21">
-        <v>3</v>
+      <c r="C35" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D35" s="8">
         <f t="shared" si="0"/>
@@ -1545,11 +1581,11 @@
       </c>
     </row>
     <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="18">
+      <c r="B36" s="17">
         <v>2022</v>
       </c>
-      <c r="C36" s="19">
-        <v>2</v>
+      <c r="C36" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="0"/>
@@ -1572,11 +1608,11 @@
       </c>
     </row>
     <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="22">
+      <c r="B37" s="21">
         <v>2022</v>
       </c>
-      <c r="C37" s="23">
-        <v>1</v>
+      <c r="C37" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="D37" s="10">
         <f t="shared" si="0"/>
@@ -1599,11 +1635,11 @@
       </c>
     </row>
     <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="24">
+      <c r="B38" s="23">
         <v>2021</v>
       </c>
-      <c r="C38" s="25">
-        <v>12</v>
+      <c r="C38" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="D38" s="12">
         <f t="shared" si="0"/>
@@ -1626,11 +1662,11 @@
       </c>
     </row>
     <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="20">
+      <c r="B39" s="19">
         <v>2021</v>
       </c>
-      <c r="C39" s="21">
-        <v>11</v>
+      <c r="C39" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="0"/>
@@ -1653,11 +1689,11 @@
       </c>
     </row>
     <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="18">
+      <c r="B40" s="17">
         <v>2021</v>
       </c>
-      <c r="C40" s="19">
-        <v>10</v>
+      <c r="C40" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" si="0"/>
@@ -1680,11 +1716,11 @@
       </c>
     </row>
     <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="20">
+      <c r="B41" s="19">
         <v>2021</v>
       </c>
-      <c r="C41" s="21">
-        <v>9</v>
+      <c r="C41" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="D41" s="8">
         <f t="shared" ref="D41:D72" si="2">SUM(E41:I41)</f>
@@ -1707,11 +1743,11 @@
       </c>
     </row>
     <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="18">
+      <c r="B42" s="17">
         <v>2021</v>
       </c>
-      <c r="C42" s="19">
-        <v>8</v>
+      <c r="C42" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="2"/>
@@ -1734,11 +1770,11 @@
       </c>
     </row>
     <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="20">
+      <c r="B43" s="19">
         <v>2021</v>
       </c>
-      <c r="C43" s="21">
-        <v>7</v>
+      <c r="C43" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="D43" s="8">
         <f t="shared" si="2"/>
@@ -1761,11 +1797,11 @@
       </c>
     </row>
     <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="18">
+      <c r="B44" s="17">
         <v>2021</v>
       </c>
-      <c r="C44" s="19">
-        <v>6</v>
+      <c r="C44" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="2"/>
@@ -1788,11 +1824,11 @@
       </c>
     </row>
     <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="20">
+      <c r="B45" s="19">
         <v>2021</v>
       </c>
-      <c r="C45" s="21">
-        <v>5</v>
+      <c r="C45" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D45" s="8">
         <f t="shared" si="2"/>
@@ -1815,11 +1851,11 @@
       </c>
     </row>
     <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="18">
+      <c r="B46" s="17">
         <v>2021</v>
       </c>
-      <c r="C46" s="19">
-        <v>4</v>
+      <c r="C46" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D46" s="9">
         <f t="shared" si="2"/>
@@ -1842,11 +1878,11 @@
       </c>
     </row>
     <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="20">
+      <c r="B47" s="19">
         <v>2021</v>
       </c>
-      <c r="C47" s="21">
-        <v>3</v>
+      <c r="C47" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D47" s="8">
         <f t="shared" si="2"/>
@@ -1869,11 +1905,11 @@
       </c>
     </row>
     <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="18">
+      <c r="B48" s="17">
         <v>2021</v>
       </c>
-      <c r="C48" s="19">
-        <v>2</v>
+      <c r="C48" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D48" s="9">
         <f t="shared" si="2"/>
@@ -1896,11 +1932,11 @@
       </c>
     </row>
     <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="22">
+      <c r="B49" s="21">
         <v>2021</v>
       </c>
-      <c r="C49" s="23">
-        <v>1</v>
+      <c r="C49" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="D49" s="10">
         <f t="shared" si="2"/>
@@ -1923,11 +1959,11 @@
       </c>
     </row>
     <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="24">
+      <c r="B50" s="23">
         <v>2020</v>
       </c>
-      <c r="C50" s="25">
-        <v>12</v>
+      <c r="C50" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="D50" s="12">
         <f t="shared" si="2"/>
@@ -1950,11 +1986,11 @@
       </c>
     </row>
     <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="20">
+      <c r="B51" s="19">
         <v>2020</v>
       </c>
-      <c r="C51" s="21">
-        <v>11</v>
+      <c r="C51" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="D51" s="8">
         <f t="shared" si="2"/>
@@ -1977,11 +2013,11 @@
       </c>
     </row>
     <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="18">
+      <c r="B52" s="17">
         <v>2020</v>
       </c>
-      <c r="C52" s="19">
-        <v>10</v>
+      <c r="C52" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D52" s="9">
         <f t="shared" si="2"/>
@@ -2004,11 +2040,11 @@
       </c>
     </row>
     <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="20">
+      <c r="B53" s="19">
         <v>2020</v>
       </c>
-      <c r="C53" s="21">
-        <v>9</v>
+      <c r="C53" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="D53" s="8">
         <f t="shared" si="2"/>
@@ -2031,11 +2067,11 @@
       </c>
     </row>
     <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="18">
+      <c r="B54" s="17">
         <v>2020</v>
       </c>
-      <c r="C54" s="19">
-        <v>8</v>
+      <c r="C54" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D54" s="9">
         <f t="shared" si="2"/>
@@ -2058,11 +2094,11 @@
       </c>
     </row>
     <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="20">
+      <c r="B55" s="19">
         <v>2020</v>
       </c>
-      <c r="C55" s="21">
-        <v>7</v>
+      <c r="C55" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="D55" s="8">
         <f t="shared" si="2"/>
@@ -2085,11 +2121,11 @@
       </c>
     </row>
     <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="18">
+      <c r="B56" s="17">
         <v>2020</v>
       </c>
-      <c r="C56" s="19">
-        <v>6</v>
+      <c r="C56" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D56" s="9">
         <f t="shared" si="2"/>
@@ -2112,11 +2148,11 @@
       </c>
     </row>
     <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="20">
+      <c r="B57" s="19">
         <v>2020</v>
       </c>
-      <c r="C57" s="21">
-        <v>5</v>
+      <c r="C57" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D57" s="8">
         <f t="shared" si="2"/>
@@ -2139,11 +2175,11 @@
       </c>
     </row>
     <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="18">
+      <c r="B58" s="17">
         <v>2020</v>
       </c>
-      <c r="C58" s="19">
-        <v>4</v>
+      <c r="C58" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D58" s="9">
         <f t="shared" si="2"/>
@@ -2166,11 +2202,11 @@
       </c>
     </row>
     <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="20">
+      <c r="B59" s="19">
         <v>2020</v>
       </c>
-      <c r="C59" s="21">
-        <v>3</v>
+      <c r="C59" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D59" s="8">
         <f t="shared" si="2"/>
@@ -2193,11 +2229,11 @@
       </c>
     </row>
     <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="18">
+      <c r="B60" s="17">
         <v>2020</v>
       </c>
-      <c r="C60" s="19">
-        <v>2</v>
+      <c r="C60" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" si="2"/>
@@ -2220,11 +2256,11 @@
       </c>
     </row>
     <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="22">
+      <c r="B61" s="21">
         <v>2020</v>
       </c>
-      <c r="C61" s="23">
-        <v>1</v>
+      <c r="C61" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="D61" s="10">
         <f t="shared" si="2"/>
@@ -2247,11 +2283,11 @@
       </c>
     </row>
     <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="24">
+      <c r="B62" s="23">
         <v>2019</v>
       </c>
-      <c r="C62" s="25">
-        <v>12</v>
+      <c r="C62" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="D62" s="12">
         <f t="shared" si="2"/>
@@ -2274,11 +2310,11 @@
       </c>
     </row>
     <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="20">
+      <c r="B63" s="19">
         <v>2019</v>
       </c>
-      <c r="C63" s="21">
-        <v>11</v>
+      <c r="C63" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="D63" s="8">
         <f t="shared" si="2"/>
@@ -2301,11 +2337,11 @@
       </c>
     </row>
     <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="18">
+      <c r="B64" s="17">
         <v>2019</v>
       </c>
-      <c r="C64" s="19">
-        <v>10</v>
+      <c r="C64" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D64" s="9">
         <f t="shared" si="2"/>
@@ -2328,11 +2364,11 @@
       </c>
     </row>
     <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="20">
+      <c r="B65" s="19">
         <v>2019</v>
       </c>
-      <c r="C65" s="21">
-        <v>9</v>
+      <c r="C65" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="D65" s="8">
         <f t="shared" si="2"/>
@@ -2355,11 +2391,11 @@
       </c>
     </row>
     <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="18">
+      <c r="B66" s="17">
         <v>2019</v>
       </c>
-      <c r="C66" s="19">
-        <v>8</v>
+      <c r="C66" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" si="2"/>
@@ -2382,11 +2418,11 @@
       </c>
     </row>
     <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="20">
+      <c r="B67" s="19">
         <v>2019</v>
       </c>
-      <c r="C67" s="21">
-        <v>7</v>
+      <c r="C67" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="D67" s="8">
         <f t="shared" si="2"/>
@@ -2409,11 +2445,11 @@
       </c>
     </row>
     <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="18">
+      <c r="B68" s="17">
         <v>2019</v>
       </c>
-      <c r="C68" s="19">
-        <v>6</v>
+      <c r="C68" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" si="2"/>
@@ -2436,11 +2472,11 @@
       </c>
     </row>
     <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="20">
+      <c r="B69" s="19">
         <v>2019</v>
       </c>
-      <c r="C69" s="21">
-        <v>5</v>
+      <c r="C69" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D69" s="8">
         <f t="shared" si="2"/>
@@ -2463,11 +2499,11 @@
       </c>
     </row>
     <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="18">
+      <c r="B70" s="17">
         <v>2019</v>
       </c>
-      <c r="C70" s="19">
-        <v>4</v>
+      <c r="C70" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D70" s="9">
         <f t="shared" si="2"/>
@@ -2490,11 +2526,11 @@
       </c>
     </row>
     <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="20">
+      <c r="B71" s="19">
         <v>2019</v>
       </c>
-      <c r="C71" s="21">
-        <v>3</v>
+      <c r="C71" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D71" s="8">
         <f t="shared" si="2"/>
@@ -2517,11 +2553,11 @@
       </c>
     </row>
     <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="18">
+      <c r="B72" s="17">
         <v>2019</v>
       </c>
-      <c r="C72" s="19">
-        <v>2</v>
+      <c r="C72" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D72" s="9">
         <f t="shared" si="2"/>
@@ -2544,11 +2580,11 @@
       </c>
     </row>
     <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="22">
+      <c r="B73" s="21">
         <v>2019</v>
       </c>
-      <c r="C73" s="23">
-        <v>1</v>
+      <c r="C73" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="D73" s="10">
         <f t="shared" ref="D73:D85" si="3">SUM(E73:I73)</f>
@@ -2571,11 +2607,11 @@
       </c>
     </row>
     <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="19">
+      <c r="B74" s="18">
         <v>2018</v>
       </c>
-      <c r="C74" s="19">
-        <v>12</v>
+      <c r="C74" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D74" s="9">
         <f t="shared" si="3"/>
@@ -2598,11 +2634,11 @@
       </c>
     </row>
     <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="21">
+      <c r="B75" s="20">
         <v>2018</v>
       </c>
-      <c r="C75" s="21">
-        <v>11</v>
+      <c r="C75" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="D75" s="8">
         <f t="shared" si="3"/>
@@ -2625,11 +2661,11 @@
       </c>
     </row>
     <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="19">
+      <c r="B76" s="18">
         <v>2018</v>
       </c>
-      <c r="C76" s="19">
-        <v>10</v>
+      <c r="C76" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D76" s="9">
         <f t="shared" si="3"/>
@@ -2652,11 +2688,11 @@
       </c>
     </row>
     <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="21">
+      <c r="B77" s="20">
         <v>2018</v>
       </c>
-      <c r="C77" s="21">
-        <v>9</v>
+      <c r="C77" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="D77" s="8">
         <f t="shared" si="3"/>
@@ -2679,11 +2715,11 @@
       </c>
     </row>
     <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="19">
+      <c r="B78" s="18">
         <v>2018</v>
       </c>
-      <c r="C78" s="19">
-        <v>8</v>
+      <c r="C78" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D78" s="9">
         <f t="shared" si="3"/>
@@ -2706,11 +2742,11 @@
       </c>
     </row>
     <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="21">
+      <c r="B79" s="20">
         <v>2018</v>
       </c>
-      <c r="C79" s="21">
-        <v>7</v>
+      <c r="C79" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="D79" s="8">
         <f t="shared" si="3"/>
@@ -2733,11 +2769,11 @@
       </c>
     </row>
     <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="19">
+      <c r="B80" s="18">
         <v>2018</v>
       </c>
-      <c r="C80" s="19">
-        <v>6</v>
+      <c r="C80" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" si="3"/>
@@ -2760,11 +2796,11 @@
       </c>
     </row>
     <row r="81" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="21">
+      <c r="B81" s="20">
         <v>2018</v>
       </c>
-      <c r="C81" s="21">
-        <v>5</v>
+      <c r="C81" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D81" s="8">
         <f t="shared" si="3"/>
@@ -2787,11 +2823,11 @@
       </c>
     </row>
     <row r="82" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="19">
+      <c r="B82" s="18">
         <v>2018</v>
       </c>
-      <c r="C82" s="19">
-        <v>4</v>
+      <c r="C82" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D82" s="9">
         <f t="shared" si="3"/>
@@ -2814,11 +2850,11 @@
       </c>
     </row>
     <row r="83" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="21">
+      <c r="B83" s="20">
         <v>2018</v>
       </c>
-      <c r="C83" s="21">
-        <v>3</v>
+      <c r="C83" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D83" s="8">
         <f t="shared" si="3"/>
@@ -2841,11 +2877,11 @@
       </c>
     </row>
     <row r="84" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="19">
+      <c r="B84" s="18">
         <v>2018</v>
       </c>
-      <c r="C84" s="19">
-        <v>2</v>
+      <c r="C84" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D84" s="9">
         <f t="shared" si="3"/>
@@ -2868,11 +2904,11 @@
       </c>
     </row>
     <row r="85" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="21">
+      <c r="B85" s="20">
         <v>2018</v>
       </c>
-      <c r="C85" s="21">
-        <v>1</v>
+      <c r="C85" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="D85" s="8">
         <f t="shared" si="3"/>

--- a/Pasajeros_por_aerolinea_inter.xlsx
+++ b/Pasajeros_por_aerolinea_inter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083A41BA-72F2-443C-90A2-F10C46353ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF705C1-A917-4DFC-8FA0-DA4960A34A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_32" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
   <si>
     <t>Total</t>
   </si>
@@ -113,7 +113,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Noviembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -132,19 +132,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
@@ -158,18 +145,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -273,33 +276,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -309,52 +305,165 @@
     <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
@@ -370,16 +479,40 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Geomanist"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -403,42 +536,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Geomanist"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -453,26 +550,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I87" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="B5:I87" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I88" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:I88" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{2051D858-46B5-4ACF-B1D7-53B660A11E46}" name="Mes" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{2051D858-46B5-4ACF-B1D7-53B660A11E46}" name="Mes" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="7">
       <calculatedColumnFormula>SUM(E6:I6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Asiáticas" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Canadienses" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{F9140D29-C7E4-4D31-B7AE-8EE26419CAD1}" name="Centro y Sudamérica" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{91FE24AB-9044-4B4D-AFB5-421D9D5419B0}" name="EE.UU." dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{5F27ADD4-283D-4D9E-93E7-161DE8FD8403}" name="Europeas" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Asiáticas" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Canadienses" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{F9140D29-C7E4-4D31-B7AE-8EE26419CAD1}" name="Centro y Sudamérica" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{91FE24AB-9044-4B4D-AFB5-421D9D5419B0}" name="EE.UU." dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{5F27ADD4-283D-4D9E-93E7-161DE8FD8403}" name="Europeas" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -701,2311 +797,2339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I90"/>
+  <dimension ref="B2:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="25" t="s">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="17">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="10">
         <v>2024</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="12">
+        <f>SUM(E6:I6)</f>
+        <v>3415.2130000000002</v>
+      </c>
+      <c r="E6" s="13">
+        <v>26.556999999999999</v>
+      </c>
+      <c r="F6" s="13">
+        <v>554.6</v>
+      </c>
+      <c r="G6" s="13">
+        <v>349.10500000000002</v>
+      </c>
+      <c r="H6" s="13">
+        <v>2163.6680000000001</v>
+      </c>
+      <c r="I6" s="13">
+        <v>321.28300000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" ref="D6" si="0">SUM(E6:I6)</f>
+      <c r="D7" s="16">
+        <f t="shared" ref="D7" si="0">SUM(E7:I7)</f>
         <v>2785.9230000000002</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="17">
         <v>26.507999999999999</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="17">
         <v>238.167</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G7" s="17">
         <v>344.82799999999997</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H7" s="17">
         <v>1856.6179999999999</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="17">
         <v>319.80200000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="19">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="10">
         <v>2024</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="8">
-        <f>SUM(E7:I7)</f>
+      <c r="D8" s="12">
+        <f>SUM(E8:I8)</f>
         <v>2297.404</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="13">
         <v>24.936</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="13">
         <v>151.36000000000001</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G8" s="13">
         <v>324.95699999999999</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="13">
         <v>1485.433</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I8" s="13">
         <v>310.71800000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="17">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="14">
         <v>2024</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9">
-        <f t="shared" ref="D8:D42" si="1">SUM(E8:I8)</f>
+      <c r="D9" s="16">
+        <f t="shared" ref="D9:D43" si="1">SUM(E9:I9)</f>
         <v>2952.6910000000003</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="17">
         <v>27.494</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="17">
         <v>206.643</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="17">
         <v>334.22300000000001</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="17">
         <v>2025.6210000000001</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I9" s="17">
         <v>358.71</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="19">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" ref="D9:D11" si="2">SUM(E9:I9)</f>
+      <c r="D10" s="12">
+        <f t="shared" ref="D10:D12" si="2">SUM(E10:I10)</f>
         <v>3420.3579999999997</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="13">
         <v>28.696999999999999</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="13">
         <v>191.22800000000001</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G10" s="13">
         <v>355.32499999999999</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="13">
         <v>2486.1129999999998</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="13">
         <v>358.995</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="17">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="14">
         <v>2024</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="16">
         <f t="shared" si="2"/>
         <v>3285.7019999999998</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="17">
         <v>26.811</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="17">
         <v>174.505</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="17">
         <v>320.03899999999999</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="17">
         <v>2461.1149999999998</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I11" s="17">
         <v>303.23200000000003</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="19">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="12">
         <f t="shared" si="2"/>
         <v>3168.223</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="13">
         <v>25.436</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="13">
         <v>276.85000000000002</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G12" s="13">
         <v>312.62099999999998</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="13">
         <v>2250.1280000000002</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I12" s="13">
         <v>303.18799999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="17">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="14">
         <v>2024</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="16">
         <f t="shared" si="1"/>
         <v>3493.4349999999999</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="17">
         <v>25.603000000000002</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="17">
         <v>482.33699999999999</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G13" s="17">
         <v>320.24099999999999</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H13" s="17">
         <v>2363.6320000000001</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I13" s="17">
         <v>301.62200000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="19">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="12">
         <f t="shared" si="1"/>
         <v>4273.9809999999998</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="13">
         <v>28.280999999999999</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="13">
         <v>629.447</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="13">
         <v>352.47</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H14" s="13">
         <v>2932.24</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I14" s="13">
         <v>331.54300000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="17">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="14">
         <v>2024</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="16">
         <f t="shared" si="1"/>
         <v>3727.7490000000003</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="17">
         <v>20.6</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="17">
         <v>609.51</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G15" s="17">
         <v>331.58600000000001</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H15" s="17">
         <v>2472.3470000000002</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I15" s="17">
         <v>293.70600000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="21">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="18">
         <v>2024</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C16" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D16" s="20">
         <f t="shared" si="1"/>
         <v>3879.373</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="21">
         <v>24.507999999999999</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F16" s="21">
         <v>619.80499999999995</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="21">
         <v>362.28300000000002</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H16" s="21">
         <v>2549.7150000000001</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I16" s="21">
         <v>323.06200000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="23">
+    <row r="17" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="22">
         <v>2023</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="24">
         <f t="shared" si="1"/>
         <v>3885.489</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="25">
         <v>25.065999999999999</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F17" s="17">
         <v>573.83900000000006</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="25">
         <v>360.976</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H17" s="25">
         <v>2597.9949999999999</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I17" s="25">
         <v>327.613</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="19">
+    <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="10">
         <v>2023</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="12">
         <f t="shared" si="1"/>
         <v>3314.3850000000002</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="13">
         <v>26.827000000000002</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F18" s="13">
         <v>435.38299999999998</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G18" s="13">
         <v>356.23</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H18" s="13">
         <v>2187.4830000000002</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="13">
         <v>308.46199999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="17">
+    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="14">
         <v>2023</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="16">
         <f t="shared" si="1"/>
         <v>2815.7780000000002</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="17">
         <v>28.835999999999999</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="17">
         <v>205.179</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G19" s="17">
         <v>360.21499999999997</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H19" s="17">
         <v>1882.681</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I19" s="17">
         <v>338.86700000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="19">
+    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10">
         <v>2023</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="12">
         <f t="shared" si="1"/>
         <v>2398.9490000000001</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="13">
         <v>27.210999999999999</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="13">
         <v>141.84700000000001</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="13">
         <v>329.32</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="13">
         <v>1569.2829999999999</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="13">
         <v>331.28800000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="17">
+    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="14">
         <v>2023</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="16">
         <f t="shared" si="1"/>
         <v>3067.1580000000004</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="17">
         <v>26.527999999999999</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="17">
         <v>163.01300000000001</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G21" s="17">
         <v>353.29</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H21" s="17">
         <v>2153.4250000000002</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I21" s="17">
         <v>370.90199999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="19">
+    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="12">
         <f t="shared" si="1"/>
         <v>3523.893</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="13">
         <v>27.603999999999999</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="13">
         <v>167.29599999999999</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G22" s="13">
         <v>366.84899999999999</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="13">
         <v>2590.7280000000001</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I22" s="13">
         <v>371.416</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="17">
+    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="14">
         <v>2023</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="16">
         <f t="shared" si="1"/>
         <v>3207.4230000000002</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="17">
         <v>26.327000000000002</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="17">
         <v>154.82900000000001</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G23" s="17">
         <v>322.73</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H23" s="17">
         <v>2374.8220000000001</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I23" s="17">
         <v>328.71499999999997</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="19">
+    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="12">
         <f t="shared" si="1"/>
         <v>3040.4479999999999</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="13">
         <v>24.776</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="13">
         <v>223.69300000000001</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G24" s="13">
         <v>337.03899999999999</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="13">
         <v>2130.366</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I24" s="13">
         <v>324.57400000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="17">
+    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="14">
         <v>2023</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C25" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="16">
         <f t="shared" si="1"/>
         <v>3413.116</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="17">
         <v>26.134</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="17">
         <v>453.14400000000001</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G25" s="17">
         <v>348.86700000000002</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H25" s="17">
         <v>2271.5349999999999</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I25" s="17">
         <v>313.43599999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="19">
+    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="12">
         <f t="shared" si="1"/>
         <v>3869.7730000000001</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="13">
         <v>27.422999999999998</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F26" s="13">
         <v>563.51300000000003</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G26" s="13">
         <v>346.08600000000001</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H26" s="13">
         <v>2601.7890000000002</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I26" s="13">
         <v>330.96199999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="17">
+    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="14">
         <v>2023</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="16">
         <f t="shared" si="1"/>
         <v>3361.9970000000003</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E27" s="17">
         <v>21.327999999999999</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F27" s="17">
         <v>517.904</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G27" s="17">
         <v>328.13</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H27" s="17">
         <v>2198.0720000000001</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I27" s="17">
         <v>296.56299999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="21">
+    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="18">
         <v>2023</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="20">
         <f t="shared" si="1"/>
         <v>3688.1180000000004</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="21">
         <v>24.291</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F28" s="21">
         <v>534.15300000000002</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G28" s="21">
         <v>386.87400000000002</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H28" s="21">
         <v>2409.4070000000002</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I28" s="21">
         <v>333.39299999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="23">
+    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="22">
         <v>2022</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="24">
         <f t="shared" si="1"/>
         <v>3593.7140000000004</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="25">
         <v>27.486999999999998</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="25">
         <v>469.17500000000001</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="25">
         <v>367.88099999999997</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H29" s="25">
         <v>2388.1680000000001</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I29" s="25">
         <v>341.00299999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="19">
+    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="10">
         <v>2022</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C30" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="12">
         <f t="shared" si="1"/>
         <v>3176.259</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="13">
         <v>29.056000000000001</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="13">
         <v>352.03500000000003</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G30" s="13">
         <v>362.27800000000002</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H30" s="13">
         <v>2103.806</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I30" s="13">
         <v>329.084</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="17">
+    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="14">
         <v>2022</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D31" s="16">
         <f t="shared" si="1"/>
         <v>2751.3379999999997</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E31" s="17">
         <v>28.736000000000001</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F31" s="17">
         <v>159.065</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G31" s="17">
         <v>370.53800000000001</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H31" s="17">
         <v>1871.356</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I31" s="17">
         <v>321.64299999999997</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="19">
+    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="10">
         <v>2022</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C32" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="12">
         <f t="shared" si="1"/>
         <v>2444.5889999999999</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="13">
         <v>26.556999999999999</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="13">
         <v>109.242</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G32" s="13">
         <v>337.80200000000002</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H32" s="13">
         <v>1647.5429999999999</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I32" s="13">
         <v>323.44499999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="17">
+    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="14">
         <v>2022</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C33" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="16">
         <f t="shared" si="1"/>
         <v>3059.3720000000003</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E33" s="17">
         <v>24.106000000000002</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F33" s="17">
         <v>129.88300000000001</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G33" s="17">
         <v>365.63</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H33" s="17">
         <v>2162.79</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I33" s="17">
         <v>376.96300000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="19">
+    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C34" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="12">
         <f t="shared" si="1"/>
         <v>3435.4599999999996</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="13">
         <v>27.568000000000001</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F34" s="13">
         <v>134.90600000000001</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G34" s="13">
         <v>389.18599999999998</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H34" s="13">
         <v>2512.8739999999998</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I34" s="13">
         <v>370.92599999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="17">
+    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="14">
         <v>2022</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C35" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="16">
         <f t="shared" si="1"/>
         <v>3093.1559999999999</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="17">
         <v>18.965</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F35" s="17">
         <v>110.56100000000001</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G35" s="17">
         <v>334.25400000000002</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H35" s="17">
         <v>2317.81</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I35" s="17">
         <v>311.56599999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="19">
+    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C36" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="12">
         <f t="shared" si="1"/>
         <v>2956.1289999999999</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="13">
         <v>20.163</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F36" s="13">
         <v>149.881</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G36" s="13">
         <v>337.286</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H36" s="13">
         <v>2148.29</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I36" s="13">
         <v>300.50900000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="17">
+    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="14">
         <v>2022</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C37" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="16">
         <f t="shared" si="1"/>
         <v>3203.7719999999999</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E37" s="17">
         <v>15.622</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F37" s="17">
         <v>274.91500000000002</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G37" s="17">
         <v>325.94900000000001</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H37" s="17">
         <v>2277.3000000000002</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I37" s="17">
         <v>309.98599999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="19">
+    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="12">
         <f t="shared" si="1"/>
         <v>3481.9719999999998</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E38" s="13">
         <v>15.776999999999999</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F38" s="13">
         <v>307.79000000000002</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G38" s="13">
         <v>314.92899999999997</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H38" s="13">
         <v>2546.2779999999998</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I38" s="13">
         <v>297.19799999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="17">
+    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="14">
         <v>2022</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C39" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="16">
         <f t="shared" si="1"/>
         <v>2693.7649999999999</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E39" s="17">
         <v>11.359</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F39" s="17">
         <v>222.19499999999999</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G39" s="17">
         <v>271.30700000000002</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H39" s="17">
         <v>1915.4079999999999</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I39" s="17">
         <v>273.49599999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="21">
+    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="18">
         <v>2022</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C40" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="20">
         <f t="shared" si="1"/>
         <v>2769.8220000000001</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E40" s="21">
         <v>13.653</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F40" s="21">
         <v>190.35400000000001</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G40" s="21">
         <v>315.01100000000002</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H40" s="21">
         <v>1937.662</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I40" s="21">
         <v>313.142</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="23">
+    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="22">
         <v>2021</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C41" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D41" s="24">
         <f t="shared" si="1"/>
         <v>3069.6779999999999</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="25">
         <v>16.367000000000001</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="25">
         <v>236.172</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="25">
         <v>311.75400000000002</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H41" s="25">
         <v>2206.415</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I41" s="25">
         <v>298.97000000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="19">
+    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="10">
         <v>2021</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C42" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="12">
         <f t="shared" si="1"/>
         <v>2754.7190000000001</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="13">
         <v>11.896000000000001</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F42" s="13">
         <v>184.82599999999999</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G42" s="13">
         <v>300.41899999999998</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H42" s="13">
         <v>2001.278</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I42" s="13">
         <v>256.3</v>
       </c>
     </row>
-    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="17">
+    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="14">
         <v>2021</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C43" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="16">
         <f t="shared" si="1"/>
         <v>2316.2980000000002</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E43" s="17">
         <v>10.882999999999999</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F43" s="17">
         <v>84.447999999999993</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G43" s="17">
         <v>254.08799999999999</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H43" s="17">
         <v>1782.66</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I43" s="17">
         <v>184.21899999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="19">
+    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="10">
         <v>2021</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C44" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="8">
-        <f t="shared" ref="D43:D74" si="3">SUM(E43:I43)</f>
+      <c r="D44" s="12">
+        <f t="shared" ref="D44:D75" si="3">SUM(E44:I44)</f>
         <v>1865.069</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E44" s="13">
         <v>10.257999999999999</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F44" s="13">
         <v>42.448999999999998</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G44" s="13">
         <v>212.91</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H44" s="13">
         <v>1437.11</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I44" s="13">
         <v>162.34200000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="17">
+    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="14">
         <v>2021</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C45" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="16">
         <f t="shared" si="3"/>
         <v>2398.5659999999998</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E45" s="17">
         <v>14.085000000000001</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F45" s="17">
         <v>32.247</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G45" s="17">
         <v>208.1</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H45" s="17">
         <v>1943.308</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I45" s="17">
         <v>200.82599999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="19">
+    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C46" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="12">
         <f t="shared" si="3"/>
         <v>2799.8330000000001</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E46" s="13">
         <v>8.2119999999999997</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F46" s="13">
         <v>18.641999999999999</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G46" s="13">
         <v>191.12</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H46" s="13">
         <v>2407.3310000000001</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I46" s="13">
         <v>174.52799999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="17">
+    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="14">
         <v>2021</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C47" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="16">
         <f t="shared" si="3"/>
         <v>2533.6980000000003</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E47" s="17">
         <v>2.355</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F47" s="17">
         <v>10.57</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G47" s="17">
         <v>151.47200000000001</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H47" s="17">
         <v>2249.7530000000002</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I47" s="17">
         <v>119.548</v>
       </c>
     </row>
-    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="19">
+    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C48" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D48" s="12">
         <f t="shared" si="3"/>
         <v>2195.2569999999996</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E48" s="13">
         <v>2.0950000000000002</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F48" s="13">
         <v>3.72</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G48" s="13">
         <v>121.184</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H48" s="13">
         <v>1978.444</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I48" s="13">
         <v>89.813999999999993</v>
       </c>
     </row>
-    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="17">
+    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="14">
         <v>2021</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C49" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="16">
         <f t="shared" si="3"/>
         <v>1846.8409999999999</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E49" s="17">
         <v>2.2490000000000001</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F49" s="17">
         <v>3.7770000000000001</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G49" s="17">
         <v>106.904</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H49" s="17">
         <v>1642.9369999999999</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I49" s="17">
         <v>90.974000000000004</v>
       </c>
     </row>
-    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="19">
+    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C50" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="12">
         <f t="shared" si="3"/>
         <v>1665.7650000000001</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E50" s="13">
         <v>2.0640000000000001</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F50" s="13">
         <v>3.0539999999999998</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G50" s="13">
         <v>107.813</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H50" s="13">
         <v>1478.759</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I50" s="13">
         <v>74.075000000000003</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="17">
+    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="14">
         <v>2021</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C51" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="16">
         <f t="shared" si="3"/>
         <v>992.54899999999998</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E51" s="17">
         <v>1.5469999999999999</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F51" s="17">
         <v>4.9349999999999996</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G51" s="17">
         <v>96.123000000000005</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H51" s="17">
         <v>836.42499999999995</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I51" s="17">
         <v>53.518999999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="21">
+    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="18">
         <v>2021</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C52" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D52" s="20">
         <f t="shared" si="3"/>
         <v>1347.152</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E52" s="21">
         <v>2.0640000000000001</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F52" s="21">
         <v>30.795999999999999</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G52" s="21">
         <v>104.605</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H52" s="21">
         <v>1132.894</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I52" s="21">
         <v>76.793000000000006</v>
       </c>
     </row>
-    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="23">
+    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="22">
         <v>2020</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C53" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D53" s="24">
         <f t="shared" si="3"/>
         <v>1510.221</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="25">
         <v>2.4980000000000002</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="25">
         <v>40.029000000000003</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="25">
         <v>90.221999999999994</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H53" s="25">
         <v>1309.4179999999999</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I53" s="25">
         <v>68.054000000000002</v>
       </c>
     </row>
-    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="19">
+    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="10">
         <v>2020</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C54" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="12">
         <f t="shared" si="3"/>
         <v>1221.7620000000002</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E54" s="13">
         <v>1.9019999999999999</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F54" s="13">
         <v>23.92</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G54" s="13">
         <v>62.817999999999998</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H54" s="13">
         <v>1101.2280000000001</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I54" s="13">
         <v>31.893999999999998</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="17">
+    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="14">
         <v>2020</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C55" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D55" s="16">
         <f t="shared" si="3"/>
         <v>993.73</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E55" s="17">
         <v>2.335</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F55" s="17">
         <v>12.250999999999999</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G55" s="17">
         <v>27.582000000000001</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H55" s="17">
         <v>916.55399999999997</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I55" s="17">
         <v>35.008000000000003</v>
       </c>
     </row>
-    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="19">
+    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="10">
         <v>2020</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C56" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D56" s="12">
         <f t="shared" si="3"/>
         <v>668.18899999999996</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E56" s="13">
         <v>1.65</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F56" s="13">
         <v>6.2169999999999996</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G56" s="13">
         <v>3.02</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H56" s="13">
         <v>633.45699999999999</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I56" s="13">
         <v>23.844999999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="17">
+    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="14">
         <v>2020</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C57" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="16">
         <f t="shared" si="3"/>
         <v>611.61700000000008</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E57" s="17">
         <v>1.974</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F57" s="17">
         <v>7.2640000000000002</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G57" s="17">
         <v>0</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H57" s="17">
         <v>579.19000000000005</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I57" s="17">
         <v>23.189</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="19">
+    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="12">
         <f t="shared" si="3"/>
         <v>501.33299999999997</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E58" s="13">
         <v>1.84</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F58" s="13">
         <v>5.6429999999999998</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G58" s="13">
         <v>0</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H58" s="13">
         <v>473.16199999999998</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I58" s="13">
         <v>20.687999999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="17">
+    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="14">
         <v>2020</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C59" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="16">
         <f t="shared" si="3"/>
         <v>184.41</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E59" s="17">
         <v>1.6459999999999999</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F59" s="17">
         <v>3.5059999999999998</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G59" s="17">
         <v>0</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H59" s="17">
         <v>167.31100000000001</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I59" s="17">
         <v>11.946999999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="19">
+    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D60" s="12">
         <f t="shared" si="3"/>
         <v>77.765000000000015</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E60" s="13">
         <v>1.1679999999999999</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F60" s="13">
         <v>3.702</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G60" s="13">
         <v>0</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H60" s="13">
         <v>68.227000000000004</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I60" s="13">
         <v>4.6680000000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="17">
+    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="14">
         <v>2020</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C61" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="16">
         <f t="shared" si="3"/>
         <v>60.438000000000002</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E61" s="17">
         <v>1.752</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F61" s="17">
         <v>2.8279999999999998</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G61" s="17">
         <v>0</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H61" s="17">
         <v>50.856000000000002</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I61" s="17">
         <v>5.0019999999999998</v>
       </c>
     </row>
-    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="19">
+    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="12">
         <f t="shared" si="3"/>
         <v>1954.8980000000001</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E62" s="13">
         <v>9.4830000000000005</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F62" s="13">
         <v>394.98700000000002</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G62" s="13">
         <v>152.84100000000001</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H62" s="13">
         <v>1225.348</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I62" s="13">
         <v>172.239</v>
       </c>
     </row>
-    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="17">
+    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="14">
         <v>2020</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C63" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="16">
         <f t="shared" si="3"/>
         <v>3003.6669999999999</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E63" s="17">
         <v>15.741</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F63" s="17">
         <v>656.69799999999998</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G63" s="17">
         <v>258.47000000000003</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H63" s="17">
         <v>1830.7449999999999</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I63" s="17">
         <v>242.01300000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="21">
+    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="18">
         <v>2020</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C64" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D64" s="20">
         <f t="shared" si="3"/>
         <v>3158.4789999999998</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E64" s="21">
         <v>21.327999999999999</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F64" s="21">
         <v>658.10199999999998</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G64" s="21">
         <v>285.50799999999998</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H64" s="21">
         <v>1930.8779999999999</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I64" s="21">
         <v>262.66300000000001</v>
       </c>
     </row>
-    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="23">
+    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="22">
         <v>2019</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C65" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D65" s="24">
         <f t="shared" si="3"/>
         <v>3053.3690000000001</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E65" s="25">
         <v>21.335999999999999</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="25">
         <v>537.62099999999998</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G65" s="25">
         <v>278.39299999999997</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H65" s="25">
         <v>1967.231</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I65" s="25">
         <v>248.78800000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="19">
+    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="10">
         <v>2019</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C66" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D66" s="12">
         <f t="shared" si="3"/>
         <v>2611.9189999999999</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E66" s="13">
         <v>11.728999999999999</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F66" s="13">
         <v>376.67599999999999</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G66" s="13">
         <v>277.44</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H66" s="13">
         <v>1694.2080000000001</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I66" s="13">
         <v>251.86600000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="17">
+    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="14">
         <v>2019</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C67" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D67" s="16">
         <f t="shared" si="3"/>
         <v>2142.5329999999999</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E67" s="17">
         <v>11.843</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F67" s="17">
         <v>136.84700000000001</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G67" s="17">
         <v>278.23</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H67" s="17">
         <v>1436.271</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I67" s="17">
         <v>279.34199999999998</v>
       </c>
     </row>
-    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="19">
+    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="10">
         <v>2019</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C68" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D68" s="12">
         <f t="shared" si="3"/>
         <v>1823.6279999999999</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E68" s="13">
         <v>12.271000000000001</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F68" s="13">
         <v>89.102000000000004</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G68" s="13">
         <v>268.56099999999998</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H68" s="13">
         <v>1146.97</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I68" s="13">
         <v>306.72399999999999</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="17">
+    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="14">
         <v>2019</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C69" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="16">
         <f t="shared" si="3"/>
         <v>2449.1610000000001</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E69" s="17">
         <v>13.670999999999999</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F69" s="17">
         <v>120.56399999999999</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G69" s="17">
         <v>280.00299999999999</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H69" s="17">
         <v>1673.692</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I69" s="17">
         <v>361.23099999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="19">
+    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C70" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D70" s="12">
         <f t="shared" si="3"/>
         <v>2801.94</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E70" s="13">
         <v>14.319000000000001</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F70" s="13">
         <v>119.633</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G70" s="13">
         <v>293.93</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H70" s="13">
         <v>2011.7629999999999</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I70" s="13">
         <v>362.29500000000002</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="17">
+    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="14">
         <v>2019</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C71" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="16">
         <f t="shared" si="3"/>
         <v>2522.0529999999999</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E71" s="17">
         <v>11.54</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F71" s="17">
         <v>105.586</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G71" s="17">
         <v>282.41399999999999</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H71" s="17">
         <v>1807.0650000000001</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I71" s="17">
         <v>315.44799999999998</v>
       </c>
     </row>
-    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="19">
+    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C72" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D72" s="12">
         <f t="shared" si="3"/>
         <v>2416.165</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E72" s="13">
         <v>11.512</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F72" s="13">
         <v>167.624</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G72" s="13">
         <v>301.21699999999998</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H72" s="13">
         <v>1645.127</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I72" s="13">
         <v>290.685</v>
       </c>
     </row>
-    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="17">
+    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="14">
         <v>2019</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C73" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="16">
         <f t="shared" si="3"/>
         <v>2781.3670000000002</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E73" s="17">
         <v>12.632</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F73" s="17">
         <v>403.54899999999998</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G73" s="17">
         <v>275.21800000000002</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H73" s="17">
         <v>1816.595</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I73" s="17">
         <v>273.37299999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="19">
+    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C74" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D74" s="12">
         <f t="shared" si="3"/>
         <v>3270.3839999999996</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E74" s="13">
         <v>11.318</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F74" s="13">
         <v>556.81700000000001</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G74" s="13">
         <v>283.60500000000002</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H74" s="13">
         <v>2176.8739999999998</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I74" s="13">
         <v>241.77</v>
       </c>
     </row>
-    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="17">
+    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="14">
         <v>2019</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C75" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="16">
         <f t="shared" si="3"/>
         <v>2709.8039999999996</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E75" s="17">
         <v>9.2029999999999994</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F75" s="17">
         <v>523.98800000000006</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G75" s="17">
         <v>268.82900000000001</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H75" s="17">
         <v>1706.7149999999999</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I75" s="17">
         <v>201.06899999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="21">
+    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="18">
         <v>2019</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C76" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="10">
-        <f t="shared" ref="D75:D87" si="4">SUM(E75:I75)</f>
+      <c r="D76" s="20">
+        <f t="shared" ref="D76:D88" si="4">SUM(E76:I76)</f>
         <v>2903.4210000000003</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E76" s="21">
         <v>10.77</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F76" s="21">
         <v>539.04899999999998</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G76" s="21">
         <v>301.86200000000002</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H76" s="21">
         <v>1830.36</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I76" s="21">
         <v>221.38</v>
       </c>
     </row>
-    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="18">
+    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="15">
         <v>2018</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C77" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D77" s="16">
         <f t="shared" si="4"/>
         <v>2900.12</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E77" s="17">
         <v>8.7880000000000003</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F77" s="17">
         <v>442.23399999999998</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G77" s="17">
         <v>286.44600000000003</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H77" s="17">
         <v>1926.6559999999999</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I77" s="17">
         <v>235.99600000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="20">
+    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="11">
         <v>2018</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C78" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="12">
         <f t="shared" si="4"/>
         <v>2516.9179999999997</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E78" s="13">
         <v>9.0220000000000002</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F78" s="13">
         <v>315.29500000000002</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G78" s="13">
         <v>289.45400000000001</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H78" s="13">
         <v>1650.2370000000001</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I78" s="13">
         <v>252.91</v>
       </c>
     </row>
-    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="18">
+    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="15">
         <v>2018</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C79" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D79" s="16">
         <f t="shared" si="4"/>
         <v>2127.0500000000002</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E79" s="17">
         <v>9.5739999999999998</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F79" s="17">
         <v>145.04599999999999</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G79" s="17">
         <v>284.245</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H79" s="17">
         <v>1413.5550000000001</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I79" s="17">
         <v>274.63</v>
       </c>
     </row>
-    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="20">
+    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="11">
         <v>2018</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C80" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="12">
         <f t="shared" si="4"/>
         <v>1820.75</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E80" s="13">
         <v>8.7170000000000005</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F80" s="13">
         <v>115.482</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G80" s="13">
         <v>260.428</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H80" s="13">
         <v>1151.6479999999999</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I80" s="13">
         <v>284.47500000000002</v>
       </c>
     </row>
-    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="18">
+    <row r="81" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="15">
         <v>2018</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C81" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="16">
         <f t="shared" si="4"/>
         <v>2528.9700000000003</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E81" s="17">
         <v>9.6679999999999993</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F81" s="17">
         <v>146.94499999999999</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G81" s="17">
         <v>284.00099999999998</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H81" s="17">
         <v>1759.27</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I81" s="17">
         <v>329.08600000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="20">
+    <row r="82" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="11">
         <v>2018</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C82" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="12">
         <f t="shared" si="4"/>
         <v>2915.5160000000001</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E82" s="13">
         <v>10.211</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F82" s="13">
         <v>149.61199999999999</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G82" s="13">
         <v>301.62799999999999</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H82" s="13">
         <v>2115.8780000000002</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I82" s="13">
         <v>338.18700000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="18">
+    <row r="83" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="15">
         <v>2018</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C83" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="16">
         <f t="shared" si="4"/>
         <v>2658.8760000000002</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E83" s="17">
         <v>8.1470000000000002</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F83" s="17">
         <v>136.459</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G83" s="17">
         <v>274.35500000000002</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H83" s="17">
         <v>1947.4549999999999</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I83" s="17">
         <v>292.45999999999998</v>
       </c>
     </row>
-    <row r="83" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="20">
+    <row r="84" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="11">
         <v>2018</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C84" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D84" s="12">
         <f t="shared" si="4"/>
         <v>2447.692</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E84" s="13">
         <v>8.2739999999999991</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F84" s="13">
         <v>176.994</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G84" s="13">
         <v>289.221</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H84" s="13">
         <v>1710.9349999999999</v>
       </c>
-      <c r="I83" s="4">
+      <c r="I84" s="13">
         <v>262.26799999999997</v>
       </c>
     </row>
-    <row r="84" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="18">
+    <row r="85" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="15">
         <v>2018</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C85" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="16">
         <f t="shared" si="4"/>
         <v>2823.5950000000003</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E85" s="17">
         <v>9.1590000000000007</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F85" s="17">
         <v>394.92700000000002</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G85" s="17">
         <v>277.78800000000001</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H85" s="17">
         <v>1889.2940000000001</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I85" s="17">
         <v>252.42699999999999</v>
       </c>
     </row>
-    <row r="85" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="20">
+    <row r="86" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="11">
         <v>2018</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C86" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="12">
         <f t="shared" si="4"/>
         <v>3332.6780000000003</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E86" s="13">
         <v>9.0150000000000006</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F86" s="13">
         <v>541.36300000000006</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G86" s="13">
         <v>284.77600000000001</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H86" s="13">
         <v>2258.6280000000002</v>
       </c>
-      <c r="I85" s="4">
+      <c r="I86" s="13">
         <v>238.89599999999999</v>
       </c>
     </row>
-    <row r="86" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="18">
+    <row r="87" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="15">
         <v>2018</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C87" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D87" s="16">
         <f t="shared" si="4"/>
         <v>2743.9390000000003</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E87" s="17">
         <v>7.4669999999999996</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F87" s="17">
         <v>478.96199999999999</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G87" s="17">
         <v>269.29000000000002</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H87" s="17">
         <v>1800.797</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I87" s="17">
         <v>187.423</v>
       </c>
     </row>
-    <row r="87" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="20">
+    <row r="88" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="11">
         <v>2018</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C88" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="12">
         <f t="shared" si="4"/>
         <v>3020.2839999999997</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E88" s="13">
         <v>8.3650000000000002</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F88" s="13">
         <v>517.99800000000005</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G88" s="13">
         <v>307.8</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H88" s="13">
         <v>1971.394</v>
       </c>
-      <c r="I87" s="4">
+      <c r="I88" s="13">
         <v>214.727</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B89" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D88"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B90" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B91" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I90" s="3"/>
+      <c r="I91" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D4:I4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Pasajeros_por_aerolinea_inter.xlsx
+++ b/Pasajeros_por_aerolinea_inter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF705C1-A917-4DFC-8FA0-DA4960A34A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A856661-D13C-4178-BDD2-65D4B39B7391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_32" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="26">
   <si>
     <t>Total</t>
   </si>
@@ -113,7 +113,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -293,9 +293,6 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -340,62 +337,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -536,6 +486,56 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -550,8 +550,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I88" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:I88" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I89" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="B5:I89" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -559,16 +559,16 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{2051D858-46B5-4ACF-B1D7-53B660A11E46}" name="Mes" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{2051D858-46B5-4ACF-B1D7-53B660A11E46}" name="Mes" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="5">
       <calculatedColumnFormula>SUM(E6:I6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Asiáticas" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Canadienses" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{F9140D29-C7E4-4D31-B7AE-8EE26419CAD1}" name="Centro y Sudamérica" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{91FE24AB-9044-4B4D-AFB5-421D9D5419B0}" name="EE.UU." dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{5F27ADD4-283D-4D9E-93E7-161DE8FD8403}" name="Europeas" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Asiáticas" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Canadienses" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{F9140D29-C7E4-4D31-B7AE-8EE26419CAD1}" name="Centro y Sudamérica" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{91FE24AB-9044-4B4D-AFB5-421D9D5419B0}" name="EE.UU." dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{5F27ADD4-283D-4D9E-93E7-161DE8FD8403}" name="Europeas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -797,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I91"/>
+  <dimension ref="B2:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -809,11 +809,11 @@
     <col min="2" max="2" width="8.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="6.25" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
@@ -832,2298 +832,2325 @@
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="10">
+      <c r="B6" s="13">
         <v>2024</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="15">
+        <f>SUM(E6:I6)</f>
+        <v>4034.8559999999998</v>
+      </c>
+      <c r="E6" s="16">
+        <v>23.154</v>
+      </c>
+      <c r="F6" s="16">
+        <v>717.15200000000004</v>
+      </c>
+      <c r="G6" s="16">
+        <v>361.37799999999999</v>
+      </c>
+      <c r="H6" s="16">
+        <v>2595.7930000000001</v>
+      </c>
+      <c r="I6" s="16">
+        <v>337.37900000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="12">
-        <f>SUM(E6:I6)</f>
+      <c r="D7" s="11">
+        <f>SUM(E7:I7)</f>
         <v>3415.2130000000002</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E7" s="12">
         <v>26.556999999999999</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="12">
         <v>554.6</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="12">
         <v>349.10500000000002</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H7" s="12">
         <v>2163.6680000000001</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I7" s="12">
         <v>321.28300000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="14">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="13">
         <v>2024</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="16">
-        <f t="shared" ref="D7" si="0">SUM(E7:I7)</f>
+      <c r="D8" s="15">
+        <f t="shared" ref="D8" si="0">SUM(E8:I8)</f>
         <v>2785.9230000000002</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E8" s="16">
         <v>26.507999999999999</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F8" s="16">
         <v>238.167</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G8" s="16">
         <v>344.82799999999997</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H8" s="16">
         <v>1856.6179999999999</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I8" s="16">
         <v>319.80200000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="10">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="9">
         <v>2024</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="12">
-        <f>SUM(E8:I8)</f>
+      <c r="D9" s="11">
+        <f>SUM(E9:I9)</f>
         <v>2297.404</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="12">
         <v>24.936</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="12">
         <v>151.36000000000001</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="12">
         <v>324.95699999999999</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H9" s="12">
         <v>1485.433</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I9" s="12">
         <v>310.71800000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="14">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="13">
         <v>2024</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16">
-        <f t="shared" ref="D9:D43" si="1">SUM(E9:I9)</f>
+      <c r="D10" s="15">
+        <f t="shared" ref="D10:D44" si="1">SUM(E10:I10)</f>
         <v>2952.6910000000003</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E10" s="16">
         <v>27.494</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F10" s="16">
         <v>206.643</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G10" s="16">
         <v>334.22300000000001</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H10" s="16">
         <v>2025.6210000000001</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I10" s="16">
         <v>358.71</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="10">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="12">
-        <f t="shared" ref="D10:D12" si="2">SUM(E10:I10)</f>
+      <c r="D11" s="11">
+        <f t="shared" ref="D11:D13" si="2">SUM(E11:I11)</f>
         <v>3420.3579999999997</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E11" s="12">
         <v>28.696999999999999</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="12">
         <v>191.22800000000001</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="12">
         <v>355.32499999999999</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H11" s="12">
         <v>2486.1129999999998</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I11" s="12">
         <v>358.995</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="14">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="13">
         <v>2024</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D12" s="15">
         <f t="shared" si="2"/>
         <v>3285.7019999999998</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E12" s="16">
         <v>26.811</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F12" s="16">
         <v>174.505</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G12" s="16">
         <v>320.03899999999999</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H12" s="16">
         <v>2461.1149999999998</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I12" s="16">
         <v>303.23200000000003</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="10">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="11">
         <f t="shared" si="2"/>
         <v>3168.223</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E13" s="12">
         <v>25.436</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F13" s="12">
         <v>276.85000000000002</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G13" s="12">
         <v>312.62099999999998</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H13" s="12">
         <v>2250.1280000000002</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I13" s="12">
         <v>303.18799999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="14">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="13">
         <v>2024</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D14" s="15">
         <f t="shared" si="1"/>
         <v>3493.4349999999999</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E14" s="16">
         <v>25.603000000000002</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="16">
         <v>482.33699999999999</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G14" s="16">
         <v>320.24099999999999</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H14" s="16">
         <v>2363.6320000000001</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I14" s="16">
         <v>301.62200000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="10">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="11">
         <f t="shared" si="1"/>
         <v>4273.9809999999998</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="12">
         <v>28.280999999999999</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="12">
         <v>629.447</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="12">
         <v>352.47</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H15" s="12">
         <v>2932.24</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I15" s="12">
         <v>331.54300000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="14">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="13">
         <v>2024</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D16" s="15">
         <f t="shared" si="1"/>
         <v>3727.7490000000003</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E16" s="16">
         <v>20.6</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F16" s="16">
         <v>609.51</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G16" s="16">
         <v>331.58600000000001</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H16" s="16">
         <v>2472.3470000000002</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I16" s="16">
         <v>293.70600000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="18">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="17">
         <v>2024</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D17" s="19">
         <f t="shared" si="1"/>
         <v>3879.373</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E17" s="20">
         <v>24.507999999999999</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F17" s="20">
         <v>619.80499999999995</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G17" s="20">
         <v>362.28300000000002</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H17" s="20">
         <v>2549.7150000000001</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I17" s="20">
         <v>323.06200000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="22">
+    <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="21">
         <v>2023</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D18" s="23">
         <f t="shared" si="1"/>
         <v>3885.489</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E18" s="24">
         <v>25.065999999999999</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F18" s="16">
         <v>573.83900000000006</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G18" s="24">
         <v>360.976</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H18" s="24">
         <v>2597.9949999999999</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I18" s="24">
         <v>327.613</v>
       </c>
     </row>
-    <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="10">
+    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="9">
         <v>2023</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D19" s="11">
         <f t="shared" si="1"/>
         <v>3314.3850000000002</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="12">
         <v>26.827000000000002</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="12">
         <v>435.38299999999998</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="12">
         <v>356.23</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H19" s="12">
         <v>2187.4830000000002</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I19" s="12">
         <v>308.46199999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="14">
+    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="13">
         <v>2023</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D20" s="15">
         <f t="shared" si="1"/>
         <v>2815.7780000000002</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E20" s="16">
         <v>28.835999999999999</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F20" s="16">
         <v>205.179</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G20" s="16">
         <v>360.21499999999997</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H20" s="16">
         <v>1882.681</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I20" s="16">
         <v>338.86700000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10">
+    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="9">
         <v>2023</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="11">
         <f t="shared" si="1"/>
         <v>2398.9490000000001</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="12">
         <v>27.210999999999999</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="12">
         <v>141.84700000000001</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="12">
         <v>329.32</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H21" s="12">
         <v>1569.2829999999999</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I21" s="12">
         <v>331.28800000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="14">
+    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="13">
         <v>2023</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D22" s="15">
         <f t="shared" si="1"/>
         <v>3067.1580000000004</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E22" s="16">
         <v>26.527999999999999</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F22" s="16">
         <v>163.01300000000001</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G22" s="16">
         <v>353.29</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H22" s="16">
         <v>2153.4250000000002</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I22" s="16">
         <v>370.90199999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
+    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="9">
         <v>2023</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="11">
         <f t="shared" si="1"/>
         <v>3523.893</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="12">
         <v>27.603999999999999</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="12">
         <v>167.29599999999999</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="12">
         <v>366.84899999999999</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H23" s="12">
         <v>2590.7280000000001</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I23" s="12">
         <v>371.416</v>
       </c>
     </row>
-    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="14">
+    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="13">
         <v>2023</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D24" s="15">
         <f t="shared" si="1"/>
         <v>3207.4230000000002</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E24" s="16">
         <v>26.327000000000002</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F24" s="16">
         <v>154.82900000000001</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G24" s="16">
         <v>322.73</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H24" s="16">
         <v>2374.8220000000001</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I24" s="16">
         <v>328.71499999999997</v>
       </c>
     </row>
-    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="10">
+    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="9">
         <v>2023</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="11">
         <f t="shared" si="1"/>
         <v>3040.4479999999999</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E25" s="12">
         <v>24.776</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="12">
         <v>223.69300000000001</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="12">
         <v>337.03899999999999</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H25" s="12">
         <v>2130.366</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I25" s="12">
         <v>324.57400000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="14">
+    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="13">
         <v>2023</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D26" s="15">
         <f t="shared" si="1"/>
         <v>3413.116</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E26" s="16">
         <v>26.134</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F26" s="16">
         <v>453.14400000000001</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G26" s="16">
         <v>348.86700000000002</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H26" s="16">
         <v>2271.5349999999999</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I26" s="16">
         <v>313.43599999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
+    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="11">
         <f t="shared" si="1"/>
         <v>3869.7730000000001</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="12">
         <v>27.422999999999998</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="12">
         <v>563.51300000000003</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="12">
         <v>346.08600000000001</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H27" s="12">
         <v>2601.7890000000002</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I27" s="12">
         <v>330.96199999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="14">
+    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="13">
         <v>2023</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D28" s="15">
         <f t="shared" si="1"/>
         <v>3361.9970000000003</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E28" s="16">
         <v>21.327999999999999</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F28" s="16">
         <v>517.904</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G28" s="16">
         <v>328.13</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H28" s="16">
         <v>2198.0720000000001</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I28" s="16">
         <v>296.56299999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="18">
+    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="17">
         <v>2023</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D29" s="19">
         <f t="shared" si="1"/>
         <v>3688.1180000000004</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E29" s="20">
         <v>24.291</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F29" s="20">
         <v>534.15300000000002</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G29" s="20">
         <v>386.87400000000002</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H29" s="20">
         <v>2409.4070000000002</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I29" s="20">
         <v>333.39299999999997</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="22">
+    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="21">
         <v>2022</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D30" s="23">
         <f t="shared" si="1"/>
         <v>3593.7140000000004</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E30" s="24">
         <v>27.486999999999998</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F30" s="24">
         <v>469.17500000000001</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G30" s="24">
         <v>367.88099999999997</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H30" s="24">
         <v>2388.1680000000001</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I30" s="24">
         <v>341.00299999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="10">
+    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="9">
         <v>2022</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="11">
         <f t="shared" si="1"/>
         <v>3176.259</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E31" s="12">
         <v>29.056000000000001</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="12">
         <v>352.03500000000003</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="12">
         <v>362.27800000000002</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H31" s="12">
         <v>2103.806</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I31" s="12">
         <v>329.084</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="14">
+    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="13">
         <v>2022</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D32" s="15">
         <f t="shared" si="1"/>
         <v>2751.3379999999997</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E32" s="16">
         <v>28.736000000000001</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F32" s="16">
         <v>159.065</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G32" s="16">
         <v>370.53800000000001</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H32" s="16">
         <v>1871.356</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I32" s="16">
         <v>321.64299999999997</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10">
+    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="9">
         <v>2022</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D33" s="11">
         <f t="shared" si="1"/>
         <v>2444.5889999999999</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E33" s="12">
         <v>26.556999999999999</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="12">
         <v>109.242</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G33" s="12">
         <v>337.80200000000002</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H33" s="12">
         <v>1647.5429999999999</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I33" s="12">
         <v>323.44499999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="14">
+    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D34" s="15">
         <f t="shared" si="1"/>
         <v>3059.3720000000003</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E34" s="16">
         <v>24.106000000000002</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F34" s="16">
         <v>129.88300000000001</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G34" s="16">
         <v>365.63</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H34" s="16">
         <v>2162.79</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I34" s="16">
         <v>376.96300000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="10">
+    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="9">
         <v>2022</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="11">
         <f t="shared" si="1"/>
         <v>3435.4599999999996</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="12">
         <v>27.568000000000001</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="12">
         <v>134.90600000000001</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="12">
         <v>389.18599999999998</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H35" s="12">
         <v>2512.8739999999998</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I35" s="12">
         <v>370.92599999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="14">
+    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="13">
         <v>2022</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C36" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>3093.1559999999999</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E36" s="16">
         <v>18.965</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F36" s="16">
         <v>110.56100000000001</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G36" s="16">
         <v>334.25400000000002</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H36" s="16">
         <v>2317.81</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I36" s="16">
         <v>311.56599999999997</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10">
+    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="9">
         <v>2022</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37" s="11">
         <f t="shared" si="1"/>
         <v>2956.1289999999999</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="12">
         <v>20.163</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="12">
         <v>149.881</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G37" s="12">
         <v>337.286</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H37" s="12">
         <v>2148.29</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I37" s="12">
         <v>300.50900000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="14">
+    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="13">
         <v>2022</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D38" s="15">
         <f t="shared" si="1"/>
         <v>3203.7719999999999</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E38" s="16">
         <v>15.622</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F38" s="16">
         <v>274.91500000000002</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G38" s="16">
         <v>325.94900000000001</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H38" s="16">
         <v>2277.3000000000002</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I38" s="16">
         <v>309.98599999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="10">
+    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D39" s="11">
         <f t="shared" si="1"/>
         <v>3481.9719999999998</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="12">
         <v>15.776999999999999</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="12">
         <v>307.79000000000002</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="12">
         <v>314.92899999999997</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H39" s="12">
         <v>2546.2779999999998</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I39" s="12">
         <v>297.19799999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="14">
+    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="13">
         <v>2022</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C40" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D40" s="15">
         <f t="shared" si="1"/>
         <v>2693.7649999999999</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E40" s="16">
         <v>11.359</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F40" s="16">
         <v>222.19499999999999</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G40" s="16">
         <v>271.30700000000002</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H40" s="16">
         <v>1915.4079999999999</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I40" s="16">
         <v>273.49599999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="18">
+    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="17">
         <v>2022</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C41" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D41" s="19">
         <f t="shared" si="1"/>
         <v>2769.8220000000001</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E41" s="20">
         <v>13.653</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F41" s="20">
         <v>190.35400000000001</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G41" s="20">
         <v>315.01100000000002</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H41" s="20">
         <v>1937.662</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I41" s="20">
         <v>313.142</v>
       </c>
     </row>
-    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="22">
+    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="21">
         <v>2021</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C42" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D42" s="23">
         <f t="shared" si="1"/>
         <v>3069.6779999999999</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E42" s="24">
         <v>16.367000000000001</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F42" s="24">
         <v>236.172</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G42" s="24">
         <v>311.75400000000002</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H42" s="24">
         <v>2206.415</v>
       </c>
-      <c r="I41" s="25">
+      <c r="I42" s="24">
         <v>298.97000000000003</v>
       </c>
     </row>
-    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="10">
+    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="9">
         <v>2021</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D43" s="11">
         <f t="shared" si="1"/>
         <v>2754.7190000000001</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E43" s="12">
         <v>11.896000000000001</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="12">
         <v>184.82599999999999</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G43" s="12">
         <v>300.41899999999998</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H43" s="12">
         <v>2001.278</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I43" s="12">
         <v>256.3</v>
       </c>
     </row>
-    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="14">
+    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="13">
         <v>2021</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C44" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D44" s="15">
         <f t="shared" si="1"/>
         <v>2316.2980000000002</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E44" s="16">
         <v>10.882999999999999</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F44" s="16">
         <v>84.447999999999993</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G44" s="16">
         <v>254.08799999999999</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H44" s="16">
         <v>1782.66</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I44" s="16">
         <v>184.21899999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="10">
+    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="9">
         <v>2021</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="12">
-        <f t="shared" ref="D44:D75" si="3">SUM(E44:I44)</f>
+      <c r="D45" s="11">
+        <f t="shared" ref="D45:D76" si="3">SUM(E45:I45)</f>
         <v>1865.069</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="12">
         <v>10.257999999999999</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="12">
         <v>42.448999999999998</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G45" s="12">
         <v>212.91</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H45" s="12">
         <v>1437.11</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I45" s="12">
         <v>162.34200000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="14">
+    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D46" s="15">
         <f t="shared" si="3"/>
         <v>2398.5659999999998</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E46" s="16">
         <v>14.085000000000001</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F46" s="16">
         <v>32.247</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G46" s="16">
         <v>208.1</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H46" s="16">
         <v>1943.308</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I46" s="16">
         <v>200.82599999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="10">
+    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D47" s="11">
         <f t="shared" si="3"/>
         <v>2799.8330000000001</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="12">
         <v>8.2119999999999997</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="12">
         <v>18.641999999999999</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G47" s="12">
         <v>191.12</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H47" s="12">
         <v>2407.3310000000001</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I47" s="12">
         <v>174.52799999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="14">
+    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="13">
         <v>2021</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C48" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D48" s="15">
         <f t="shared" si="3"/>
         <v>2533.6980000000003</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E48" s="16">
         <v>2.355</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F48" s="16">
         <v>10.57</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G48" s="16">
         <v>151.47200000000001</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H48" s="16">
         <v>2249.7530000000002</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I48" s="16">
         <v>119.548</v>
       </c>
     </row>
-    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="10">
+    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="9">
         <v>2021</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D49" s="11">
         <f t="shared" si="3"/>
         <v>2195.2569999999996</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E49" s="12">
         <v>2.0950000000000002</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="12">
         <v>3.72</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G49" s="12">
         <v>121.184</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H49" s="12">
         <v>1978.444</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I49" s="12">
         <v>89.813999999999993</v>
       </c>
     </row>
-    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="14">
+    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="13">
         <v>2021</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C50" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D50" s="15">
         <f t="shared" si="3"/>
         <v>1846.8409999999999</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E50" s="16">
         <v>2.2490000000000001</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F50" s="16">
         <v>3.7770000000000001</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G50" s="16">
         <v>106.904</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H50" s="16">
         <v>1642.9369999999999</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I50" s="16">
         <v>90.974000000000004</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="10">
+    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D51" s="11">
         <f t="shared" si="3"/>
         <v>1665.7650000000001</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="12">
         <v>2.0640000000000001</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="12">
         <v>3.0539999999999998</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G51" s="12">
         <v>107.813</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H51" s="12">
         <v>1478.759</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I51" s="12">
         <v>74.075000000000003</v>
       </c>
     </row>
-    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="14">
+    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="13">
         <v>2021</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C52" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D52" s="15">
         <f t="shared" si="3"/>
         <v>992.54899999999998</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E52" s="16">
         <v>1.5469999999999999</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F52" s="16">
         <v>4.9349999999999996</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G52" s="16">
         <v>96.123000000000005</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H52" s="16">
         <v>836.42499999999995</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I52" s="16">
         <v>53.518999999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="18">
+    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="17">
         <v>2021</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C53" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D53" s="19">
         <f t="shared" si="3"/>
         <v>1347.152</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E53" s="20">
         <v>2.0640000000000001</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F53" s="20">
         <v>30.795999999999999</v>
       </c>
-      <c r="G52" s="21">
+      <c r="G53" s="20">
         <v>104.605</v>
       </c>
-      <c r="H52" s="21">
+      <c r="H53" s="20">
         <v>1132.894</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I53" s="20">
         <v>76.793000000000006</v>
       </c>
     </row>
-    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="22">
+    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="21">
         <v>2020</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C54" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="24">
+      <c r="D54" s="23">
         <f t="shared" si="3"/>
         <v>1510.221</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E54" s="24">
         <v>2.4980000000000002</v>
       </c>
-      <c r="F53" s="25">
+      <c r="F54" s="24">
         <v>40.029000000000003</v>
       </c>
-      <c r="G53" s="25">
+      <c r="G54" s="24">
         <v>90.221999999999994</v>
       </c>
-      <c r="H53" s="25">
+      <c r="H54" s="24">
         <v>1309.4179999999999</v>
       </c>
-      <c r="I53" s="25">
+      <c r="I54" s="24">
         <v>68.054000000000002</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="10">
+    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="9">
         <v>2020</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C55" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D55" s="11">
         <f t="shared" si="3"/>
         <v>1221.7620000000002</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E55" s="12">
         <v>1.9019999999999999</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="12">
         <v>23.92</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G55" s="12">
         <v>62.817999999999998</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H55" s="12">
         <v>1101.2280000000001</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I55" s="12">
         <v>31.893999999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="14">
+    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="13">
         <v>2020</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C56" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D56" s="15">
         <f t="shared" si="3"/>
         <v>993.73</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E56" s="16">
         <v>2.335</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F56" s="16">
         <v>12.250999999999999</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G56" s="16">
         <v>27.582000000000001</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H56" s="16">
         <v>916.55399999999997</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I56" s="16">
         <v>35.008000000000003</v>
       </c>
     </row>
-    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="10">
+    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="9">
         <v>2020</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D57" s="11">
         <f t="shared" si="3"/>
         <v>668.18899999999996</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E57" s="12">
         <v>1.65</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F57" s="12">
         <v>6.2169999999999996</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G57" s="12">
         <v>3.02</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H57" s="12">
         <v>633.45699999999999</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I57" s="12">
         <v>23.844999999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="14">
+    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C58" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D58" s="15">
         <f t="shared" si="3"/>
         <v>611.61700000000008</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E58" s="16">
         <v>1.974</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F58" s="16">
         <v>7.2640000000000002</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G58" s="16">
         <v>0</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H58" s="16">
         <v>579.19000000000005</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I58" s="16">
         <v>23.189</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="10">
+    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="9">
         <v>2020</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D59" s="11">
         <f t="shared" si="3"/>
         <v>501.33299999999997</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E59" s="12">
         <v>1.84</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="12">
         <v>5.6429999999999998</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="12">
         <v>0</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H59" s="12">
         <v>473.16199999999998</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I59" s="12">
         <v>20.687999999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="14">
+    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="13">
         <v>2020</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C60" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D60" s="15">
         <f t="shared" si="3"/>
         <v>184.41</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E60" s="16">
         <v>1.6459999999999999</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F60" s="16">
         <v>3.5059999999999998</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G60" s="16">
         <v>0</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H60" s="16">
         <v>167.31100000000001</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I60" s="16">
         <v>11.946999999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="10">
+    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="9">
         <v>2020</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D61" s="11">
         <f t="shared" si="3"/>
         <v>77.765000000000015</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E61" s="12">
         <v>1.1679999999999999</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F61" s="12">
         <v>3.702</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G61" s="12">
         <v>0</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H61" s="12">
         <v>68.227000000000004</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I61" s="12">
         <v>4.6680000000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="14">
+    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="13">
         <v>2020</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C62" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D62" s="15">
         <f t="shared" si="3"/>
         <v>60.438000000000002</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E62" s="16">
         <v>1.752</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F62" s="16">
         <v>2.8279999999999998</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G62" s="16">
         <v>0</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H62" s="16">
         <v>50.856000000000002</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I62" s="16">
         <v>5.0019999999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="10">
+    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D63" s="11">
         <f t="shared" si="3"/>
         <v>1954.8980000000001</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E63" s="12">
         <v>9.4830000000000005</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="12">
         <v>394.98700000000002</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="12">
         <v>152.84100000000001</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H63" s="12">
         <v>1225.348</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I63" s="12">
         <v>172.239</v>
       </c>
     </row>
-    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="14">
+    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="13">
         <v>2020</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C64" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D64" s="15">
         <f t="shared" si="3"/>
         <v>3003.6669999999999</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E64" s="16">
         <v>15.741</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F64" s="16">
         <v>656.69799999999998</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G64" s="16">
         <v>258.47000000000003</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H64" s="16">
         <v>1830.7449999999999</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I64" s="16">
         <v>242.01300000000001</v>
       </c>
     </row>
-    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="18">
+    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="17">
         <v>2020</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C65" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D65" s="19">
         <f t="shared" si="3"/>
         <v>3158.4789999999998</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E65" s="20">
         <v>21.327999999999999</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F65" s="20">
         <v>658.10199999999998</v>
       </c>
-      <c r="G64" s="21">
+      <c r="G65" s="20">
         <v>285.50799999999998</v>
       </c>
-      <c r="H64" s="21">
+      <c r="H65" s="20">
         <v>1930.8779999999999</v>
       </c>
-      <c r="I64" s="21">
+      <c r="I65" s="20">
         <v>262.66300000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="22">
+    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="21">
         <v>2019</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C66" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="24">
+      <c r="D66" s="23">
         <f t="shared" si="3"/>
         <v>3053.3690000000001</v>
       </c>
-      <c r="E65" s="25">
+      <c r="E66" s="24">
         <v>21.335999999999999</v>
       </c>
-      <c r="F65" s="25">
+      <c r="F66" s="24">
         <v>537.62099999999998</v>
       </c>
-      <c r="G65" s="25">
+      <c r="G66" s="24">
         <v>278.39299999999997</v>
       </c>
-      <c r="H65" s="25">
+      <c r="H66" s="24">
         <v>1967.231</v>
       </c>
-      <c r="I65" s="25">
+      <c r="I66" s="24">
         <v>248.78800000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="10">
+    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="9">
         <v>2019</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D67" s="11">
         <f t="shared" si="3"/>
         <v>2611.9189999999999</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E67" s="12">
         <v>11.728999999999999</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F67" s="12">
         <v>376.67599999999999</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G67" s="12">
         <v>277.44</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H67" s="12">
         <v>1694.2080000000001</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I67" s="12">
         <v>251.86600000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="14">
+    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="13">
         <v>2019</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C68" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D68" s="15">
         <f t="shared" si="3"/>
         <v>2142.5329999999999</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E68" s="16">
         <v>11.843</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F68" s="16">
         <v>136.84700000000001</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G68" s="16">
         <v>278.23</v>
       </c>
-      <c r="H67" s="17">
+      <c r="H68" s="16">
         <v>1436.271</v>
       </c>
-      <c r="I67" s="17">
+      <c r="I68" s="16">
         <v>279.34199999999998</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="10">
+    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="9">
         <v>2019</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D69" s="11">
         <f t="shared" si="3"/>
         <v>1823.6279999999999</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E69" s="12">
         <v>12.271000000000001</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F69" s="12">
         <v>89.102000000000004</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G69" s="12">
         <v>268.56099999999998</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H69" s="12">
         <v>1146.97</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I69" s="12">
         <v>306.72399999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="14">
+    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C70" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D70" s="15">
         <f t="shared" si="3"/>
         <v>2449.1610000000001</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E70" s="16">
         <v>13.670999999999999</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F70" s="16">
         <v>120.56399999999999</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G70" s="16">
         <v>280.00299999999999</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H70" s="16">
         <v>1673.692</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I70" s="16">
         <v>361.23099999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="10">
+    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="9">
         <v>2019</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D71" s="11">
         <f t="shared" si="3"/>
         <v>2801.94</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E71" s="12">
         <v>14.319000000000001</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="12">
         <v>119.633</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G71" s="12">
         <v>293.93</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H71" s="12">
         <v>2011.7629999999999</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I71" s="12">
         <v>362.29500000000002</v>
       </c>
     </row>
-    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="14">
+    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="13">
         <v>2019</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C72" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D72" s="15">
         <f t="shared" si="3"/>
         <v>2522.0529999999999</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E72" s="16">
         <v>11.54</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F72" s="16">
         <v>105.586</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G72" s="16">
         <v>282.41399999999999</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H72" s="16">
         <v>1807.0650000000001</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I72" s="16">
         <v>315.44799999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="10">
+    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="9">
         <v>2019</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C73" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D73" s="11">
         <f t="shared" si="3"/>
         <v>2416.165</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E73" s="12">
         <v>11.512</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F73" s="12">
         <v>167.624</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G73" s="12">
         <v>301.21699999999998</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H73" s="12">
         <v>1645.127</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I73" s="12">
         <v>290.685</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="14">
+    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="13">
         <v>2019</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C74" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D74" s="15">
         <f t="shared" si="3"/>
         <v>2781.3670000000002</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E74" s="16">
         <v>12.632</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F74" s="16">
         <v>403.54899999999998</v>
       </c>
-      <c r="G73" s="17">
+      <c r="G74" s="16">
         <v>275.21800000000002</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H74" s="16">
         <v>1816.595</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I74" s="16">
         <v>273.37299999999999</v>
       </c>
     </row>
-    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="10">
+    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C75" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D75" s="11">
         <f t="shared" si="3"/>
         <v>3270.3839999999996</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E75" s="12">
         <v>11.318</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="12">
         <v>556.81700000000001</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G75" s="12">
         <v>283.60500000000002</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H75" s="12">
         <v>2176.8739999999998</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I75" s="12">
         <v>241.77</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="14">
+    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="13">
         <v>2019</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C76" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D76" s="15">
         <f t="shared" si="3"/>
         <v>2709.8039999999996</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E76" s="16">
         <v>9.2029999999999994</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F76" s="16">
         <v>523.98800000000006</v>
       </c>
-      <c r="G75" s="17">
+      <c r="G76" s="16">
         <v>268.82900000000001</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H76" s="16">
         <v>1706.7149999999999</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I76" s="16">
         <v>201.06899999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="18">
+    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="17">
         <v>2019</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C77" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="20">
-        <f t="shared" ref="D76:D88" si="4">SUM(E76:I76)</f>
+      <c r="D77" s="19">
+        <f t="shared" ref="D77:D89" si="4">SUM(E77:I77)</f>
         <v>2903.4210000000003</v>
       </c>
-      <c r="E76" s="21">
+      <c r="E77" s="20">
         <v>10.77</v>
       </c>
-      <c r="F76" s="21">
+      <c r="F77" s="20">
         <v>539.04899999999998</v>
       </c>
-      <c r="G76" s="21">
+      <c r="G77" s="20">
         <v>301.86200000000002</v>
       </c>
-      <c r="H76" s="21">
+      <c r="H77" s="20">
         <v>1830.36</v>
       </c>
-      <c r="I76" s="21">
+      <c r="I77" s="20">
         <v>221.38</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="15">
+    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="14">
         <v>2018</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C78" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D78" s="15">
         <f t="shared" si="4"/>
         <v>2900.12</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E78" s="16">
         <v>8.7880000000000003</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F78" s="16">
         <v>442.23399999999998</v>
       </c>
-      <c r="G77" s="17">
+      <c r="G78" s="16">
         <v>286.44600000000003</v>
       </c>
-      <c r="H77" s="17">
+      <c r="H78" s="16">
         <v>1926.6559999999999</v>
       </c>
-      <c r="I77" s="17">
+      <c r="I78" s="16">
         <v>235.99600000000001</v>
       </c>
     </row>
-    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="11">
+    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="10">
         <v>2018</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C79" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D79" s="11">
         <f t="shared" si="4"/>
         <v>2516.9179999999997</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E79" s="12">
         <v>9.0220000000000002</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F79" s="12">
         <v>315.29500000000002</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G79" s="12">
         <v>289.45400000000001</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H79" s="12">
         <v>1650.2370000000001</v>
       </c>
-      <c r="I78" s="13">
+      <c r="I79" s="12">
         <v>252.91</v>
       </c>
     </row>
-    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="15">
+    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="14">
         <v>2018</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C80" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D80" s="15">
         <f t="shared" si="4"/>
         <v>2127.0500000000002</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E80" s="16">
         <v>9.5739999999999998</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F80" s="16">
         <v>145.04599999999999</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G80" s="16">
         <v>284.245</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H80" s="16">
         <v>1413.5550000000001</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I80" s="16">
         <v>274.63</v>
       </c>
     </row>
-    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="11">
+    <row r="81" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D81" s="11">
         <f t="shared" si="4"/>
         <v>1820.75</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E81" s="12">
         <v>8.7170000000000005</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F81" s="12">
         <v>115.482</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G81" s="12">
         <v>260.428</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H81" s="12">
         <v>1151.6479999999999</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I81" s="12">
         <v>284.47500000000002</v>
       </c>
     </row>
-    <row r="81" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="15">
+    <row r="82" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="14">
         <v>2018</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C82" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D82" s="15">
         <f t="shared" si="4"/>
         <v>2528.9700000000003</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E82" s="16">
         <v>9.6679999999999993</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F82" s="16">
         <v>146.94499999999999</v>
       </c>
-      <c r="G81" s="17">
+      <c r="G82" s="16">
         <v>284.00099999999998</v>
       </c>
-      <c r="H81" s="17">
+      <c r="H82" s="16">
         <v>1759.27</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I82" s="16">
         <v>329.08600000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="11">
+    <row r="83" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="11">
         <f t="shared" si="4"/>
         <v>2915.5160000000001</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E83" s="12">
         <v>10.211</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="12">
         <v>149.61199999999999</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G83" s="12">
         <v>301.62799999999999</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H83" s="12">
         <v>2115.8780000000002</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I83" s="12">
         <v>338.18700000000001</v>
       </c>
     </row>
-    <row r="83" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="15">
+    <row r="84" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="14">
         <v>2018</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C84" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D84" s="15">
         <f t="shared" si="4"/>
         <v>2658.8760000000002</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E84" s="16">
         <v>8.1470000000000002</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F84" s="16">
         <v>136.459</v>
       </c>
-      <c r="G83" s="17">
+      <c r="G84" s="16">
         <v>274.35500000000002</v>
       </c>
-      <c r="H83" s="17">
+      <c r="H84" s="16">
         <v>1947.4549999999999</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I84" s="16">
         <v>292.45999999999998</v>
       </c>
     </row>
-    <row r="84" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="11">
+    <row r="85" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C85" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D85" s="11">
         <f t="shared" si="4"/>
         <v>2447.692</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E85" s="12">
         <v>8.2739999999999991</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F85" s="12">
         <v>176.994</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G85" s="12">
         <v>289.221</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H85" s="12">
         <v>1710.9349999999999</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I85" s="12">
         <v>262.26799999999997</v>
       </c>
     </row>
-    <row r="85" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="15">
+    <row r="86" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="14">
         <v>2018</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C86" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D86" s="15">
         <f t="shared" si="4"/>
         <v>2823.5950000000003</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E86" s="16">
         <v>9.1590000000000007</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F86" s="16">
         <v>394.92700000000002</v>
       </c>
-      <c r="G85" s="17">
+      <c r="G86" s="16">
         <v>277.78800000000001</v>
       </c>
-      <c r="H85" s="17">
+      <c r="H86" s="16">
         <v>1889.2940000000001</v>
       </c>
-      <c r="I85" s="17">
+      <c r="I86" s="16">
         <v>252.42699999999999</v>
       </c>
     </row>
-    <row r="86" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="11">
+    <row r="87" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C87" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D87" s="11">
         <f t="shared" si="4"/>
         <v>3332.6780000000003</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E87" s="12">
         <v>9.0150000000000006</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F87" s="12">
         <v>541.36300000000006</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G87" s="12">
         <v>284.77600000000001</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H87" s="12">
         <v>2258.6280000000002</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I87" s="12">
         <v>238.89599999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="15">
+    <row r="88" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="14">
         <v>2018</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C88" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D88" s="15">
         <f t="shared" si="4"/>
         <v>2743.9390000000003</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E88" s="16">
         <v>7.4669999999999996</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F88" s="16">
         <v>478.96199999999999</v>
       </c>
-      <c r="G87" s="17">
+      <c r="G88" s="16">
         <v>269.29000000000002</v>
       </c>
-      <c r="H87" s="17">
+      <c r="H88" s="16">
         <v>1800.797</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I88" s="16">
         <v>187.423</v>
       </c>
     </row>
-    <row r="88" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="11">
+    <row r="89" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C89" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D89" s="11">
         <f t="shared" si="4"/>
         <v>3020.2839999999997</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E89" s="12">
         <v>8.3650000000000002</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F89" s="12">
         <v>517.99800000000005</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G89" s="12">
         <v>307.8</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H89" s="12">
         <v>1971.394</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I89" s="12">
         <v>214.727</v>
       </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B89" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" s="3"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B90" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D90" s="3"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B91" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B92" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I91" s="26"/>
+      <c r="I92" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_por_aerolinea_inter.xlsx
+++ b/Pasajeros_por_aerolinea_inter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A856661-D13C-4178-BDD2-65D4B39B7391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F2B3B5-5037-4C3A-A8ED-057D1A5415EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_32" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="26">
   <si>
     <t>Total</t>
   </si>
@@ -113,7 +113,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -201,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -273,12 +273,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -340,6 +364,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -550,8 +582,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I89" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="B5:I89" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I90" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="B5:I90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -797,7 +829,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I92"/>
+  <dimension ref="B2:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -868,2289 +900,2316 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="13">
+      <c r="B6" s="27">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="29">
+        <f>SUM(E6:I6)</f>
+        <v>4011.1469999999999</v>
+      </c>
+      <c r="E6" s="30">
+        <v>26.367000000000001</v>
+      </c>
+      <c r="F6" s="30">
+        <v>818.02</v>
+      </c>
+      <c r="G6" s="30">
+        <v>368.82400000000001</v>
+      </c>
+      <c r="H6" s="30">
+        <v>2477.2089999999998</v>
+      </c>
+      <c r="I6" s="30">
+        <v>320.72699999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="13">
         <v>2024</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="15">
-        <f>SUM(E6:I6)</f>
+      <c r="D7" s="15">
+        <f>SUM(E7:I7)</f>
         <v>4034.8559999999998</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E7" s="16">
         <v>23.154</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F7" s="16">
         <v>717.15200000000004</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G7" s="16">
         <v>361.37799999999999</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H7" s="16">
         <v>2595.7930000000001</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I7" s="16">
         <v>337.37900000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="9">
         <v>2024</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="11">
-        <f>SUM(E7:I7)</f>
+      <c r="D8" s="11">
+        <f>SUM(E8:I8)</f>
         <v>3415.2130000000002</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E8" s="12">
         <v>26.556999999999999</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F8" s="12">
         <v>554.6</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G8" s="12">
         <v>349.10500000000002</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H8" s="12">
         <v>2163.6680000000001</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I8" s="12">
         <v>321.28300000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="13">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="13">
         <v>2024</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="15">
-        <f t="shared" ref="D8" si="0">SUM(E8:I8)</f>
+      <c r="D9" s="15">
+        <f t="shared" ref="D9" si="0">SUM(E9:I9)</f>
         <v>2785.9230000000002</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E9" s="16">
         <v>26.507999999999999</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F9" s="16">
         <v>238.167</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G9" s="16">
         <v>344.82799999999997</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H9" s="16">
         <v>1856.6179999999999</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I9" s="16">
         <v>319.80200000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="9">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="11">
-        <f>SUM(E9:I9)</f>
+      <c r="D10" s="11">
+        <f>SUM(E10:I10)</f>
         <v>2297.404</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E10" s="12">
         <v>24.936</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F10" s="12">
         <v>151.36000000000001</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G10" s="12">
         <v>324.95699999999999</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H10" s="12">
         <v>1485.433</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I10" s="12">
         <v>310.71800000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="13">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="13">
         <v>2024</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="15">
-        <f t="shared" ref="D10:D44" si="1">SUM(E10:I10)</f>
+      <c r="D11" s="15">
+        <f t="shared" ref="D11:D45" si="1">SUM(E11:I11)</f>
         <v>2952.6910000000003</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E11" s="16">
         <v>27.494</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F11" s="16">
         <v>206.643</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G11" s="16">
         <v>334.22300000000001</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H11" s="16">
         <v>2025.6210000000001</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I11" s="16">
         <v>358.71</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="9">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11">
-        <f t="shared" ref="D11:D13" si="2">SUM(E11:I11)</f>
+      <c r="D12" s="11">
+        <f t="shared" ref="D12:D14" si="2">SUM(E12:I12)</f>
         <v>3420.3579999999997</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E12" s="12">
         <v>28.696999999999999</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F12" s="12">
         <v>191.22800000000001</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G12" s="12">
         <v>355.32499999999999</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H12" s="12">
         <v>2486.1129999999998</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I12" s="12">
         <v>358.995</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="13">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="13">
         <v>2024</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D13" s="15">
         <f t="shared" si="2"/>
         <v>3285.7019999999998</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E13" s="16">
         <v>26.811</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F13" s="16">
         <v>174.505</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G13" s="16">
         <v>320.03899999999999</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H13" s="16">
         <v>2461.1149999999998</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I13" s="16">
         <v>303.23200000000003</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <f t="shared" si="2"/>
         <v>3168.223</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E14" s="12">
         <v>25.436</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F14" s="12">
         <v>276.85000000000002</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G14" s="12">
         <v>312.62099999999998</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H14" s="12">
         <v>2250.1280000000002</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I14" s="12">
         <v>303.18799999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="13">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="13">
         <v>2024</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D15" s="15">
         <f t="shared" si="1"/>
         <v>3493.4349999999999</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E15" s="16">
         <v>25.603000000000002</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F15" s="16">
         <v>482.33699999999999</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G15" s="16">
         <v>320.24099999999999</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H15" s="16">
         <v>2363.6320000000001</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I15" s="16">
         <v>301.62200000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <f t="shared" si="1"/>
         <v>4273.9809999999998</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E16" s="12">
         <v>28.280999999999999</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F16" s="12">
         <v>629.447</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G16" s="12">
         <v>352.47</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H16" s="12">
         <v>2932.24</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I16" s="12">
         <v>331.54300000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="13">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="13">
         <v>2024</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D17" s="15">
         <f t="shared" si="1"/>
         <v>3727.7490000000003</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E17" s="16">
         <v>20.6</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F17" s="16">
         <v>609.51</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G17" s="16">
         <v>331.58600000000001</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H17" s="16">
         <v>2472.3470000000002</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I17" s="16">
         <v>293.70600000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B17" s="17">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="17">
         <v>2024</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D18" s="19">
         <f t="shared" si="1"/>
         <v>3879.373</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E18" s="20">
         <v>24.507999999999999</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F18" s="20">
         <v>619.80499999999995</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G18" s="20">
         <v>362.28300000000002</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H18" s="20">
         <v>2549.7150000000001</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I18" s="20">
         <v>323.06200000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="21">
+    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="21">
         <v>2023</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D19" s="23">
         <f t="shared" si="1"/>
         <v>3885.489</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E19" s="24">
         <v>25.065999999999999</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F19" s="16">
         <v>573.83900000000006</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G19" s="24">
         <v>360.976</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H19" s="24">
         <v>2597.9949999999999</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I19" s="24">
         <v>327.613</v>
       </c>
     </row>
-    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="9">
+    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="9">
         <v>2023</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <f t="shared" si="1"/>
         <v>3314.3850000000002</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E20" s="12">
         <v>26.827000000000002</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F20" s="12">
         <v>435.38299999999998</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G20" s="12">
         <v>356.23</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H20" s="12">
         <v>2187.4830000000002</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I20" s="12">
         <v>308.46199999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="13">
+    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="13">
         <v>2023</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D21" s="15">
         <f t="shared" si="1"/>
         <v>2815.7780000000002</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E21" s="16">
         <v>28.835999999999999</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F21" s="16">
         <v>205.179</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G21" s="16">
         <v>360.21499999999997</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H21" s="16">
         <v>1882.681</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I21" s="16">
         <v>338.86700000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="9">
+    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="9">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <f t="shared" si="1"/>
         <v>2398.9490000000001</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E22" s="12">
         <v>27.210999999999999</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F22" s="12">
         <v>141.84700000000001</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G22" s="12">
         <v>329.32</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H22" s="12">
         <v>1569.2829999999999</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I22" s="12">
         <v>331.28800000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="13">
+    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="13">
         <v>2023</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D23" s="15">
         <f t="shared" si="1"/>
         <v>3067.1580000000004</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E23" s="16">
         <v>26.527999999999999</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F23" s="16">
         <v>163.01300000000001</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G23" s="16">
         <v>353.29</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H23" s="16">
         <v>2153.4250000000002</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I23" s="16">
         <v>370.90199999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="9">
+    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="9">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <f t="shared" si="1"/>
         <v>3523.893</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E24" s="12">
         <v>27.603999999999999</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F24" s="12">
         <v>167.29599999999999</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G24" s="12">
         <v>366.84899999999999</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H24" s="12">
         <v>2590.7280000000001</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I24" s="12">
         <v>371.416</v>
       </c>
     </row>
-    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="13">
+    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="13">
         <v>2023</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D25" s="15">
         <f t="shared" si="1"/>
         <v>3207.4230000000002</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E25" s="16">
         <v>26.327000000000002</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F25" s="16">
         <v>154.82900000000001</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G25" s="16">
         <v>322.73</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H25" s="16">
         <v>2374.8220000000001</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I25" s="16">
         <v>328.71499999999997</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="9">
+    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <f t="shared" si="1"/>
         <v>3040.4479999999999</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E26" s="12">
         <v>24.776</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F26" s="12">
         <v>223.69300000000001</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G26" s="12">
         <v>337.03899999999999</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H26" s="12">
         <v>2130.366</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I26" s="12">
         <v>324.57400000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="13">
+    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="13">
         <v>2023</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D27" s="15">
         <f t="shared" si="1"/>
         <v>3413.116</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E27" s="16">
         <v>26.134</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F27" s="16">
         <v>453.14400000000001</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G27" s="16">
         <v>348.86700000000002</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H27" s="16">
         <v>2271.5349999999999</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I27" s="16">
         <v>313.43599999999998</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="9">
+    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <f t="shared" si="1"/>
         <v>3869.7730000000001</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E28" s="12">
         <v>27.422999999999998</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F28" s="12">
         <v>563.51300000000003</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G28" s="12">
         <v>346.08600000000001</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H28" s="12">
         <v>2601.7890000000002</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I28" s="12">
         <v>330.96199999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="13">
+    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="13">
         <v>2023</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D29" s="15">
         <f t="shared" si="1"/>
         <v>3361.9970000000003</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E29" s="16">
         <v>21.327999999999999</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F29" s="16">
         <v>517.904</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G29" s="16">
         <v>328.13</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H29" s="16">
         <v>2198.0720000000001</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I29" s="16">
         <v>296.56299999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="17">
+    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="17">
         <v>2023</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C30" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D30" s="19">
         <f t="shared" si="1"/>
         <v>3688.1180000000004</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E30" s="20">
         <v>24.291</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F30" s="20">
         <v>534.15300000000002</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G30" s="20">
         <v>386.87400000000002</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H30" s="20">
         <v>2409.4070000000002</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I30" s="20">
         <v>333.39299999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="21">
+    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="21">
         <v>2022</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C31" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D31" s="23">
         <f t="shared" si="1"/>
         <v>3593.7140000000004</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E31" s="24">
         <v>27.486999999999998</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F31" s="24">
         <v>469.17500000000001</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G31" s="24">
         <v>367.88099999999997</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H31" s="24">
         <v>2388.1680000000001</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I31" s="24">
         <v>341.00299999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="9">
+    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="9">
         <v>2022</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <f t="shared" si="1"/>
         <v>3176.259</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E32" s="12">
         <v>29.056000000000001</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F32" s="12">
         <v>352.03500000000003</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G32" s="12">
         <v>362.27800000000002</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H32" s="12">
         <v>2103.806</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I32" s="12">
         <v>329.084</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="13">
+    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="13">
         <v>2022</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D33" s="15">
         <f t="shared" si="1"/>
         <v>2751.3379999999997</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E33" s="16">
         <v>28.736000000000001</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F33" s="16">
         <v>159.065</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G33" s="16">
         <v>370.53800000000001</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H33" s="16">
         <v>1871.356</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I33" s="16">
         <v>321.64299999999997</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="9">
+    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="9">
         <v>2022</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <f t="shared" si="1"/>
         <v>2444.5889999999999</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E34" s="12">
         <v>26.556999999999999</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F34" s="12">
         <v>109.242</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G34" s="12">
         <v>337.80200000000002</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H34" s="12">
         <v>1647.5429999999999</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I34" s="12">
         <v>323.44499999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="13">
+    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="13">
         <v>2022</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D35" s="15">
         <f t="shared" si="1"/>
         <v>3059.3720000000003</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E35" s="16">
         <v>24.106000000000002</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F35" s="16">
         <v>129.88300000000001</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G35" s="16">
         <v>365.63</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H35" s="16">
         <v>2162.79</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I35" s="16">
         <v>376.96300000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="9">
+    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="9">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <f t="shared" si="1"/>
         <v>3435.4599999999996</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E36" s="12">
         <v>27.568000000000001</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F36" s="12">
         <v>134.90600000000001</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G36" s="12">
         <v>389.18599999999998</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H36" s="12">
         <v>2512.8739999999998</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I36" s="12">
         <v>370.92599999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="13">
+    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="13">
         <v>2022</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D37" s="15">
         <f t="shared" si="1"/>
         <v>3093.1559999999999</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E37" s="16">
         <v>18.965</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F37" s="16">
         <v>110.56100000000001</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G37" s="16">
         <v>334.25400000000002</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H37" s="16">
         <v>2317.81</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I37" s="16">
         <v>311.56599999999997</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="9">
+    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <f t="shared" si="1"/>
         <v>2956.1289999999999</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E38" s="12">
         <v>20.163</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F38" s="12">
         <v>149.881</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G38" s="12">
         <v>337.286</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H38" s="12">
         <v>2148.29</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I38" s="12">
         <v>300.50900000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="13">
+    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="13">
         <v>2022</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C39" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D39" s="15">
         <f t="shared" si="1"/>
         <v>3203.7719999999999</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E39" s="16">
         <v>15.622</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F39" s="16">
         <v>274.91500000000002</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G39" s="16">
         <v>325.94900000000001</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H39" s="16">
         <v>2277.3000000000002</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I39" s="16">
         <v>309.98599999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="9">
+    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <f t="shared" si="1"/>
         <v>3481.9719999999998</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E40" s="12">
         <v>15.776999999999999</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F40" s="12">
         <v>307.79000000000002</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G40" s="12">
         <v>314.92899999999997</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H40" s="12">
         <v>2546.2779999999998</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I40" s="12">
         <v>297.19799999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="13">
+    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="13">
         <v>2022</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D41" s="15">
         <f t="shared" si="1"/>
         <v>2693.7649999999999</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E41" s="16">
         <v>11.359</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F41" s="16">
         <v>222.19499999999999</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G41" s="16">
         <v>271.30700000000002</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H41" s="16">
         <v>1915.4079999999999</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I41" s="16">
         <v>273.49599999999998</v>
       </c>
     </row>
-    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="17">
+    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="17">
         <v>2022</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C42" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D42" s="19">
         <f t="shared" si="1"/>
         <v>2769.8220000000001</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E42" s="20">
         <v>13.653</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F42" s="20">
         <v>190.35400000000001</v>
       </c>
-      <c r="G41" s="20">
+      <c r="G42" s="20">
         <v>315.01100000000002</v>
       </c>
-      <c r="H41" s="20">
+      <c r="H42" s="20">
         <v>1937.662</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I42" s="20">
         <v>313.142</v>
       </c>
     </row>
-    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="21">
+    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="21">
         <v>2021</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C43" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D43" s="23">
         <f t="shared" si="1"/>
         <v>3069.6779999999999</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E43" s="24">
         <v>16.367000000000001</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F43" s="24">
         <v>236.172</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G43" s="24">
         <v>311.75400000000002</v>
       </c>
-      <c r="H42" s="24">
+      <c r="H43" s="24">
         <v>2206.415</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I43" s="24">
         <v>298.97000000000003</v>
       </c>
     </row>
-    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="9">
+    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="9">
         <v>2021</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <f t="shared" si="1"/>
         <v>2754.7190000000001</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E44" s="12">
         <v>11.896000000000001</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F44" s="12">
         <v>184.82599999999999</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G44" s="12">
         <v>300.41899999999998</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H44" s="12">
         <v>2001.278</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I44" s="12">
         <v>256.3</v>
       </c>
     </row>
-    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="13">
+    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="13">
         <v>2021</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D45" s="15">
         <f t="shared" si="1"/>
         <v>2316.2980000000002</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E45" s="16">
         <v>10.882999999999999</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F45" s="16">
         <v>84.447999999999993</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G45" s="16">
         <v>254.08799999999999</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H45" s="16">
         <v>1782.66</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I45" s="16">
         <v>184.21899999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="9">
+    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="9">
         <v>2021</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="11">
-        <f t="shared" ref="D45:D76" si="3">SUM(E45:I45)</f>
+      <c r="D46" s="11">
+        <f t="shared" ref="D46:D77" si="3">SUM(E46:I46)</f>
         <v>1865.069</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E46" s="12">
         <v>10.257999999999999</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F46" s="12">
         <v>42.448999999999998</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G46" s="12">
         <v>212.91</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H46" s="12">
         <v>1437.11</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I46" s="12">
         <v>162.34200000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="13">
+    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D47" s="15">
         <f t="shared" si="3"/>
         <v>2398.5659999999998</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E47" s="16">
         <v>14.085000000000001</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F47" s="16">
         <v>32.247</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G47" s="16">
         <v>208.1</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H47" s="16">
         <v>1943.308</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I47" s="16">
         <v>200.82599999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="9">
+    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="9">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <f t="shared" si="3"/>
         <v>2799.8330000000001</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E48" s="12">
         <v>8.2119999999999997</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F48" s="12">
         <v>18.641999999999999</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G48" s="12">
         <v>191.12</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H48" s="12">
         <v>2407.3310000000001</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I48" s="12">
         <v>174.52799999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="13">
+    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="13">
         <v>2021</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D49" s="15">
         <f t="shared" si="3"/>
         <v>2533.6980000000003</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E49" s="16">
         <v>2.355</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F49" s="16">
         <v>10.57</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G49" s="16">
         <v>151.47200000000001</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H49" s="16">
         <v>2249.7530000000002</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I49" s="16">
         <v>119.548</v>
       </c>
     </row>
-    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="9">
+    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <f t="shared" si="3"/>
         <v>2195.2569999999996</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E50" s="12">
         <v>2.0950000000000002</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F50" s="12">
         <v>3.72</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G50" s="12">
         <v>121.184</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H50" s="12">
         <v>1978.444</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I50" s="12">
         <v>89.813999999999993</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="13">
+    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="13">
         <v>2021</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D51" s="15">
         <f t="shared" si="3"/>
         <v>1846.8409999999999</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E51" s="16">
         <v>2.2490000000000001</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F51" s="16">
         <v>3.7770000000000001</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G51" s="16">
         <v>106.904</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H51" s="16">
         <v>1642.9369999999999</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I51" s="16">
         <v>90.974000000000004</v>
       </c>
     </row>
-    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="9">
+    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <f t="shared" si="3"/>
         <v>1665.7650000000001</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E52" s="12">
         <v>2.0640000000000001</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F52" s="12">
         <v>3.0539999999999998</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G52" s="12">
         <v>107.813</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H52" s="12">
         <v>1478.759</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I52" s="12">
         <v>74.075000000000003</v>
       </c>
     </row>
-    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="13">
+    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="13">
         <v>2021</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D53" s="15">
         <f t="shared" si="3"/>
         <v>992.54899999999998</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E53" s="16">
         <v>1.5469999999999999</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F53" s="16">
         <v>4.9349999999999996</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G53" s="16">
         <v>96.123000000000005</v>
       </c>
-      <c r="H52" s="16">
+      <c r="H53" s="16">
         <v>836.42499999999995</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I53" s="16">
         <v>53.518999999999998</v>
       </c>
     </row>
-    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="17">
+    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="17">
         <v>2021</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C54" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D54" s="19">
         <f t="shared" si="3"/>
         <v>1347.152</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E54" s="20">
         <v>2.0640000000000001</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F54" s="20">
         <v>30.795999999999999</v>
       </c>
-      <c r="G53" s="20">
+      <c r="G54" s="20">
         <v>104.605</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H54" s="20">
         <v>1132.894</v>
       </c>
-      <c r="I53" s="20">
+      <c r="I54" s="20">
         <v>76.793000000000006</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="21">
+    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="21">
         <v>2020</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C55" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D55" s="23">
         <f t="shared" si="3"/>
         <v>1510.221</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E55" s="24">
         <v>2.4980000000000002</v>
       </c>
-      <c r="F54" s="24">
+      <c r="F55" s="24">
         <v>40.029000000000003</v>
       </c>
-      <c r="G54" s="24">
+      <c r="G55" s="24">
         <v>90.221999999999994</v>
       </c>
-      <c r="H54" s="24">
+      <c r="H55" s="24">
         <v>1309.4179999999999</v>
       </c>
-      <c r="I54" s="24">
+      <c r="I55" s="24">
         <v>68.054000000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="9">
+    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="9">
         <v>2020</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <f t="shared" si="3"/>
         <v>1221.7620000000002</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E56" s="12">
         <v>1.9019999999999999</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F56" s="12">
         <v>23.92</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G56" s="12">
         <v>62.817999999999998</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H56" s="12">
         <v>1101.2280000000001</v>
       </c>
-      <c r="I55" s="12">
+      <c r="I56" s="12">
         <v>31.893999999999998</v>
       </c>
     </row>
-    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="13">
+    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="13">
         <v>2020</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D57" s="15">
         <f t="shared" si="3"/>
         <v>993.73</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E57" s="16">
         <v>2.335</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F57" s="16">
         <v>12.250999999999999</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G57" s="16">
         <v>27.582000000000001</v>
       </c>
-      <c r="H56" s="16">
+      <c r="H57" s="16">
         <v>916.55399999999997</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I57" s="16">
         <v>35.008000000000003</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="9">
+    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="9">
         <v>2020</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <f t="shared" si="3"/>
         <v>668.18899999999996</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E58" s="12">
         <v>1.65</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F58" s="12">
         <v>6.2169999999999996</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G58" s="12">
         <v>3.02</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H58" s="12">
         <v>633.45699999999999</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I58" s="12">
         <v>23.844999999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="13">
+    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="13">
         <v>2020</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D59" s="15">
         <f t="shared" si="3"/>
         <v>611.61700000000008</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E59" s="16">
         <v>1.974</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F59" s="16">
         <v>7.2640000000000002</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G59" s="16">
         <v>0</v>
       </c>
-      <c r="H58" s="16">
+      <c r="H59" s="16">
         <v>579.19000000000005</v>
       </c>
-      <c r="I58" s="16">
+      <c r="I59" s="16">
         <v>23.189</v>
       </c>
     </row>
-    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="9">
+    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="9">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <f t="shared" si="3"/>
         <v>501.33299999999997</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E60" s="12">
         <v>1.84</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F60" s="12">
         <v>5.6429999999999998</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G60" s="12">
         <v>0</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H60" s="12">
         <v>473.16199999999998</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I60" s="12">
         <v>20.687999999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="13">
+    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="13">
         <v>2020</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D61" s="15">
         <f t="shared" si="3"/>
         <v>184.41</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E61" s="16">
         <v>1.6459999999999999</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F61" s="16">
         <v>3.5059999999999998</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G61" s="16">
         <v>0</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H61" s="16">
         <v>167.31100000000001</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I61" s="16">
         <v>11.946999999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="9">
+    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <f t="shared" si="3"/>
         <v>77.765000000000015</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E62" s="12">
         <v>1.1679999999999999</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F62" s="12">
         <v>3.702</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G62" s="12">
         <v>0</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H62" s="12">
         <v>68.227000000000004</v>
       </c>
-      <c r="I61" s="12">
+      <c r="I62" s="12">
         <v>4.6680000000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="13">
+    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="13">
         <v>2020</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D63" s="15">
         <f t="shared" si="3"/>
         <v>60.438000000000002</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E63" s="16">
         <v>1.752</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F63" s="16">
         <v>2.8279999999999998</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G63" s="16">
         <v>0</v>
       </c>
-      <c r="H62" s="16">
+      <c r="H63" s="16">
         <v>50.856000000000002</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I63" s="16">
         <v>5.0019999999999998</v>
       </c>
     </row>
-    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="9">
+    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <f t="shared" si="3"/>
         <v>1954.8980000000001</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E64" s="12">
         <v>9.4830000000000005</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F64" s="12">
         <v>394.98700000000002</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G64" s="12">
         <v>152.84100000000001</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H64" s="12">
         <v>1225.348</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I64" s="12">
         <v>172.239</v>
       </c>
     </row>
-    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="13">
+    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="13">
         <v>2020</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C65" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D65" s="15">
         <f t="shared" si="3"/>
         <v>3003.6669999999999</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E65" s="16">
         <v>15.741</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F65" s="16">
         <v>656.69799999999998</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G65" s="16">
         <v>258.47000000000003</v>
       </c>
-      <c r="H64" s="16">
+      <c r="H65" s="16">
         <v>1830.7449999999999</v>
       </c>
-      <c r="I64" s="16">
+      <c r="I65" s="16">
         <v>242.01300000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="17">
+    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="17">
         <v>2020</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C66" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D66" s="19">
         <f t="shared" si="3"/>
         <v>3158.4789999999998</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E66" s="20">
         <v>21.327999999999999</v>
       </c>
-      <c r="F65" s="20">
+      <c r="F66" s="20">
         <v>658.10199999999998</v>
       </c>
-      <c r="G65" s="20">
+      <c r="G66" s="20">
         <v>285.50799999999998</v>
       </c>
-      <c r="H65" s="20">
+      <c r="H66" s="20">
         <v>1930.8779999999999</v>
       </c>
-      <c r="I65" s="20">
+      <c r="I66" s="20">
         <v>262.66300000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="21">
+    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="21">
         <v>2019</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C67" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="23">
+      <c r="D67" s="23">
         <f t="shared" si="3"/>
         <v>3053.3690000000001</v>
       </c>
-      <c r="E66" s="24">
+      <c r="E67" s="24">
         <v>21.335999999999999</v>
       </c>
-      <c r="F66" s="24">
+      <c r="F67" s="24">
         <v>537.62099999999998</v>
       </c>
-      <c r="G66" s="24">
+      <c r="G67" s="24">
         <v>278.39299999999997</v>
       </c>
-      <c r="H66" s="24">
+      <c r="H67" s="24">
         <v>1967.231</v>
       </c>
-      <c r="I66" s="24">
+      <c r="I67" s="24">
         <v>248.78800000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="9">
+    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="9">
         <v>2019</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <f t="shared" si="3"/>
         <v>2611.9189999999999</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E68" s="12">
         <v>11.728999999999999</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F68" s="12">
         <v>376.67599999999999</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G68" s="12">
         <v>277.44</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H68" s="12">
         <v>1694.2080000000001</v>
       </c>
-      <c r="I67" s="12">
+      <c r="I68" s="12">
         <v>251.86600000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="13">
+    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="13">
         <v>2019</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D69" s="15">
         <f t="shared" si="3"/>
         <v>2142.5329999999999</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E69" s="16">
         <v>11.843</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F69" s="16">
         <v>136.84700000000001</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G69" s="16">
         <v>278.23</v>
       </c>
-      <c r="H68" s="16">
+      <c r="H69" s="16">
         <v>1436.271</v>
       </c>
-      <c r="I68" s="16">
+      <c r="I69" s="16">
         <v>279.34199999999998</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="9">
+    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="9">
         <v>2019</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <f t="shared" si="3"/>
         <v>1823.6279999999999</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E70" s="12">
         <v>12.271000000000001</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F70" s="12">
         <v>89.102000000000004</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G70" s="12">
         <v>268.56099999999998</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H70" s="12">
         <v>1146.97</v>
       </c>
-      <c r="I69" s="12">
+      <c r="I70" s="12">
         <v>306.72399999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="13">
+    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="13">
         <v>2019</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C71" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D71" s="15">
         <f t="shared" si="3"/>
         <v>2449.1610000000001</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E71" s="16">
         <v>13.670999999999999</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F71" s="16">
         <v>120.56399999999999</v>
       </c>
-      <c r="G70" s="16">
+      <c r="G71" s="16">
         <v>280.00299999999999</v>
       </c>
-      <c r="H70" s="16">
+      <c r="H71" s="16">
         <v>1673.692</v>
       </c>
-      <c r="I70" s="16">
+      <c r="I71" s="16">
         <v>361.23099999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="9">
+    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="9">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <f t="shared" si="3"/>
         <v>2801.94</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E72" s="12">
         <v>14.319000000000001</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F72" s="12">
         <v>119.633</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G72" s="12">
         <v>293.93</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H72" s="12">
         <v>2011.7629999999999</v>
       </c>
-      <c r="I71" s="12">
+      <c r="I72" s="12">
         <v>362.29500000000002</v>
       </c>
     </row>
-    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="13">
+    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="13">
         <v>2019</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C73" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D73" s="15">
         <f t="shared" si="3"/>
         <v>2522.0529999999999</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E73" s="16">
         <v>11.54</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F73" s="16">
         <v>105.586</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G73" s="16">
         <v>282.41399999999999</v>
       </c>
-      <c r="H72" s="16">
+      <c r="H73" s="16">
         <v>1807.0650000000001</v>
       </c>
-      <c r="I72" s="16">
+      <c r="I73" s="16">
         <v>315.44799999999998</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="9">
+    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <f t="shared" si="3"/>
         <v>2416.165</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E74" s="12">
         <v>11.512</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F74" s="12">
         <v>167.624</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G74" s="12">
         <v>301.21699999999998</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H74" s="12">
         <v>1645.127</v>
       </c>
-      <c r="I73" s="12">
+      <c r="I74" s="12">
         <v>290.685</v>
       </c>
     </row>
-    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="13">
+    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="13">
         <v>2019</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C75" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D75" s="15">
         <f t="shared" si="3"/>
         <v>2781.3670000000002</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E75" s="16">
         <v>12.632</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F75" s="16">
         <v>403.54899999999998</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G75" s="16">
         <v>275.21800000000002</v>
       </c>
-      <c r="H74" s="16">
+      <c r="H75" s="16">
         <v>1816.595</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I75" s="16">
         <v>273.37299999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="9">
+    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <f t="shared" si="3"/>
         <v>3270.3839999999996</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E76" s="12">
         <v>11.318</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F76" s="12">
         <v>556.81700000000001</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G76" s="12">
         <v>283.60500000000002</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H76" s="12">
         <v>2176.8739999999998</v>
       </c>
-      <c r="I75" s="12">
+      <c r="I76" s="12">
         <v>241.77</v>
       </c>
     </row>
-    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="13">
+    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="13">
         <v>2019</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C77" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D77" s="15">
         <f t="shared" si="3"/>
         <v>2709.8039999999996</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E77" s="16">
         <v>9.2029999999999994</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F77" s="16">
         <v>523.98800000000006</v>
       </c>
-      <c r="G76" s="16">
+      <c r="G77" s="16">
         <v>268.82900000000001</v>
       </c>
-      <c r="H76" s="16">
+      <c r="H77" s="16">
         <v>1706.7149999999999</v>
       </c>
-      <c r="I76" s="16">
+      <c r="I77" s="16">
         <v>201.06899999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="17">
+    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="17">
         <v>2019</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C78" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="19">
-        <f t="shared" ref="D77:D89" si="4">SUM(E77:I77)</f>
+      <c r="D78" s="19">
+        <f t="shared" ref="D78:D90" si="4">SUM(E78:I78)</f>
         <v>2903.4210000000003</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E78" s="20">
         <v>10.77</v>
       </c>
-      <c r="F77" s="20">
+      <c r="F78" s="20">
         <v>539.04899999999998</v>
       </c>
-      <c r="G77" s="20">
+      <c r="G78" s="20">
         <v>301.86200000000002</v>
       </c>
-      <c r="H77" s="20">
+      <c r="H78" s="20">
         <v>1830.36</v>
       </c>
-      <c r="I77" s="20">
+      <c r="I78" s="20">
         <v>221.38</v>
       </c>
     </row>
-    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="14">
+    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="14">
         <v>2018</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C79" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D79" s="15">
         <f t="shared" si="4"/>
         <v>2900.12</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E79" s="16">
         <v>8.7880000000000003</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F79" s="16">
         <v>442.23399999999998</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G79" s="16">
         <v>286.44600000000003</v>
       </c>
-      <c r="H78" s="16">
+      <c r="H79" s="16">
         <v>1926.6559999999999</v>
       </c>
-      <c r="I78" s="16">
+      <c r="I79" s="16">
         <v>235.99600000000001</v>
       </c>
     </row>
-    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="10">
+    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <f t="shared" si="4"/>
         <v>2516.9179999999997</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E80" s="12">
         <v>9.0220000000000002</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F80" s="12">
         <v>315.29500000000002</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G80" s="12">
         <v>289.45400000000001</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H80" s="12">
         <v>1650.2370000000001</v>
       </c>
-      <c r="I79" s="12">
+      <c r="I80" s="12">
         <v>252.91</v>
       </c>
     </row>
-    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="14">
+    <row r="81" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="14">
         <v>2018</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C81" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D81" s="15">
         <f t="shared" si="4"/>
         <v>2127.0500000000002</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E81" s="16">
         <v>9.5739999999999998</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F81" s="16">
         <v>145.04599999999999</v>
       </c>
-      <c r="G80" s="16">
+      <c r="G81" s="16">
         <v>284.245</v>
       </c>
-      <c r="H80" s="16">
+      <c r="H81" s="16">
         <v>1413.5550000000001</v>
       </c>
-      <c r="I80" s="16">
+      <c r="I81" s="16">
         <v>274.63</v>
       </c>
     </row>
-    <row r="81" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="10">
+    <row r="82" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <f t="shared" si="4"/>
         <v>1820.75</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E82" s="12">
         <v>8.7170000000000005</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F82" s="12">
         <v>115.482</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G82" s="12">
         <v>260.428</v>
       </c>
-      <c r="H81" s="12">
+      <c r="H82" s="12">
         <v>1151.6479999999999</v>
       </c>
-      <c r="I81" s="12">
+      <c r="I82" s="12">
         <v>284.47500000000002</v>
       </c>
     </row>
-    <row r="82" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="14">
+    <row r="83" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="14">
         <v>2018</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C83" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D83" s="15">
         <f t="shared" si="4"/>
         <v>2528.9700000000003</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E83" s="16">
         <v>9.6679999999999993</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F83" s="16">
         <v>146.94499999999999</v>
       </c>
-      <c r="G82" s="16">
+      <c r="G83" s="16">
         <v>284.00099999999998</v>
       </c>
-      <c r="H82" s="16">
+      <c r="H83" s="16">
         <v>1759.27</v>
       </c>
-      <c r="I82" s="16">
+      <c r="I83" s="16">
         <v>329.08600000000001</v>
       </c>
     </row>
-    <row r="83" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="10">
+    <row r="84" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <f t="shared" si="4"/>
         <v>2915.5160000000001</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E84" s="12">
         <v>10.211</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F84" s="12">
         <v>149.61199999999999</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G84" s="12">
         <v>301.62799999999999</v>
       </c>
-      <c r="H83" s="12">
+      <c r="H84" s="12">
         <v>2115.8780000000002</v>
       </c>
-      <c r="I83" s="12">
+      <c r="I84" s="12">
         <v>338.18700000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="14">
+    <row r="85" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="14">
         <v>2018</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C85" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D85" s="15">
         <f t="shared" si="4"/>
         <v>2658.8760000000002</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E85" s="16">
         <v>8.1470000000000002</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F85" s="16">
         <v>136.459</v>
       </c>
-      <c r="G84" s="16">
+      <c r="G85" s="16">
         <v>274.35500000000002</v>
       </c>
-      <c r="H84" s="16">
+      <c r="H85" s="16">
         <v>1947.4549999999999</v>
       </c>
-      <c r="I84" s="16">
+      <c r="I85" s="16">
         <v>292.45999999999998</v>
       </c>
     </row>
-    <row r="85" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="10">
+    <row r="86" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <f t="shared" si="4"/>
         <v>2447.692</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E86" s="12">
         <v>8.2739999999999991</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F86" s="12">
         <v>176.994</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G86" s="12">
         <v>289.221</v>
       </c>
-      <c r="H85" s="12">
+      <c r="H86" s="12">
         <v>1710.9349999999999</v>
       </c>
-      <c r="I85" s="12">
+      <c r="I86" s="12">
         <v>262.26799999999997</v>
       </c>
     </row>
-    <row r="86" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="14">
+    <row r="87" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="14">
         <v>2018</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C87" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D87" s="15">
         <f t="shared" si="4"/>
         <v>2823.5950000000003</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E87" s="16">
         <v>9.1590000000000007</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F87" s="16">
         <v>394.92700000000002</v>
       </c>
-      <c r="G86" s="16">
+      <c r="G87" s="16">
         <v>277.78800000000001</v>
       </c>
-      <c r="H86" s="16">
+      <c r="H87" s="16">
         <v>1889.2940000000001</v>
       </c>
-      <c r="I86" s="16">
+      <c r="I87" s="16">
         <v>252.42699999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="10">
+    <row r="88" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <f t="shared" si="4"/>
         <v>3332.6780000000003</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E88" s="12">
         <v>9.0150000000000006</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F88" s="12">
         <v>541.36300000000006</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G88" s="12">
         <v>284.77600000000001</v>
       </c>
-      <c r="H87" s="12">
+      <c r="H88" s="12">
         <v>2258.6280000000002</v>
       </c>
-      <c r="I87" s="12">
+      <c r="I88" s="12">
         <v>238.89599999999999</v>
       </c>
     </row>
-    <row r="88" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="14">
+    <row r="89" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="14">
         <v>2018</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C89" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D89" s="15">
         <f t="shared" si="4"/>
         <v>2743.9390000000003</v>
       </c>
-      <c r="E88" s="16">
+      <c r="E89" s="16">
         <v>7.4669999999999996</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F89" s="16">
         <v>478.96199999999999</v>
       </c>
-      <c r="G88" s="16">
+      <c r="G89" s="16">
         <v>269.29000000000002</v>
       </c>
-      <c r="H88" s="16">
+      <c r="H89" s="16">
         <v>1800.797</v>
       </c>
-      <c r="I88" s="16">
+      <c r="I89" s="16">
         <v>187.423</v>
       </c>
     </row>
-    <row r="89" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="10">
+    <row r="90" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <f t="shared" si="4"/>
         <v>3020.2839999999997</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E90" s="12">
         <v>8.3650000000000002</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F90" s="12">
         <v>517.99800000000005</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G90" s="12">
         <v>307.8</v>
       </c>
-      <c r="H89" s="12">
+      <c r="H90" s="12">
         <v>1971.394</v>
       </c>
-      <c r="I89" s="12">
+      <c r="I90" s="12">
         <v>214.727</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B90" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D90" s="3"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B91" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D91" s="3"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B92" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B93" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I92" s="25"/>
+      <c r="I93" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_por_aerolinea_inter.xlsx
+++ b/Pasajeros_por_aerolinea_inter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F2B3B5-5037-4C3A-A8ED-057D1A5415EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E56CDC-92B3-4EDC-A7C0-D6D8A435288B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_32" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="26">
   <si>
     <t>Total</t>
   </si>
@@ -113,7 +113,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -123,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -277,24 +277,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -302,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -316,15 +305,6 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -364,14 +344,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -582,8 +568,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I90" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="B5:I90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I91" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="B5:I91" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -829,13 +815,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I93"/>
+  <dimension ref="B2:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="3" customWidth="1"/>
@@ -849,2367 +835,2394 @@
     <col min="10" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9">
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="6" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9">
       <c r="B6" s="27">
         <v>2025</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="28">
+        <f>SUM(E6:I6)</f>
+        <v>3647.5239999999999</v>
+      </c>
+      <c r="E6" s="29">
+        <v>21.972999999999999</v>
+      </c>
+      <c r="F6" s="29">
+        <v>782.58500000000004</v>
+      </c>
+      <c r="G6" s="29">
+        <v>317.92500000000001</v>
+      </c>
+      <c r="H6" s="29">
+        <v>2244.0259999999998</v>
+      </c>
+      <c r="I6" s="29">
+        <v>281.01499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="29">
-        <f>SUM(E6:I6)</f>
+      <c r="D7" s="16">
+        <f>SUM(E7:I7)</f>
         <v>4011.1469999999999</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E7" s="17">
         <v>26.367000000000001</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F7" s="17">
         <v>818.02</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G7" s="17">
         <v>368.82400000000001</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H7" s="17">
         <v>2477.2089999999998</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I7" s="17">
         <v>320.72699999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="13">
+    <row r="8" spans="2:9">
+      <c r="B8" s="10">
         <v>2024</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="15">
-        <f>SUM(E7:I7)</f>
+      <c r="D8" s="12">
+        <f>SUM(E8:I8)</f>
         <v>4034.8559999999998</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E8" s="13">
         <v>23.154</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F8" s="13">
         <v>717.15200000000004</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G8" s="13">
         <v>361.37799999999999</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H8" s="13">
         <v>2595.7930000000001</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I8" s="13">
         <v>337.37900000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="9">
+    <row r="9" spans="2:9">
+      <c r="B9" s="6">
         <v>2024</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="11">
-        <f>SUM(E8:I8)</f>
+      <c r="D9" s="8">
+        <f>SUM(E9:I9)</f>
         <v>3415.2130000000002</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E9" s="9">
         <v>26.556999999999999</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F9" s="9">
         <v>554.6</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G9" s="9">
         <v>349.10500000000002</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H9" s="9">
         <v>2163.6680000000001</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I9" s="9">
         <v>321.28300000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="13">
+    <row r="10" spans="2:9">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="15">
-        <f t="shared" ref="D9" si="0">SUM(E9:I9)</f>
+      <c r="D10" s="12">
+        <f t="shared" ref="D10" si="0">SUM(E10:I10)</f>
         <v>2785.9230000000002</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E10" s="13">
         <v>26.507999999999999</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F10" s="13">
         <v>238.167</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G10" s="13">
         <v>344.82799999999997</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H10" s="13">
         <v>1856.6179999999999</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I10" s="13">
         <v>319.80200000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="9">
+    <row r="11" spans="2:9">
+      <c r="B11" s="6">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="11">
-        <f>SUM(E10:I10)</f>
+      <c r="D11" s="8">
+        <f>SUM(E11:I11)</f>
         <v>2297.404</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="9">
         <v>24.936</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F11" s="9">
         <v>151.36000000000001</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G11" s="9">
         <v>324.95699999999999</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H11" s="9">
         <v>1485.433</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I11" s="9">
         <v>310.71800000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="13">
+    <row r="12" spans="2:9">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="15">
-        <f t="shared" ref="D11:D45" si="1">SUM(E11:I11)</f>
+      <c r="D12" s="12">
+        <f t="shared" ref="D12:D46" si="1">SUM(E12:I12)</f>
         <v>2952.6910000000003</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E12" s="13">
         <v>27.494</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F12" s="13">
         <v>206.643</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G12" s="13">
         <v>334.22300000000001</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H12" s="13">
         <v>2025.6210000000001</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I12" s="13">
         <v>358.71</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="9">
+    <row r="13" spans="2:9">
+      <c r="B13" s="6">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="11">
-        <f t="shared" ref="D12:D14" si="2">SUM(E12:I12)</f>
+      <c r="D13" s="8">
+        <f t="shared" ref="D13:D15" si="2">SUM(E13:I13)</f>
         <v>3420.3579999999997</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E13" s="9">
         <v>28.696999999999999</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F13" s="9">
         <v>191.22800000000001</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G13" s="9">
         <v>355.32499999999999</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H13" s="9">
         <v>2486.1129999999998</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I13" s="9">
         <v>358.995</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="13">
+    <row r="14" spans="2:9">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D14" s="12">
         <f t="shared" si="2"/>
         <v>3285.7019999999998</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E14" s="13">
         <v>26.811</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F14" s="13">
         <v>174.505</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G14" s="13">
         <v>320.03899999999999</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H14" s="13">
         <v>2461.1149999999998</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I14" s="13">
         <v>303.23200000000003</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="9">
+    <row r="15" spans="2:9">
+      <c r="B15" s="6">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="8">
         <f t="shared" si="2"/>
         <v>3168.223</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="9">
         <v>25.436</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F15" s="9">
         <v>276.85000000000002</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="9">
         <v>312.62099999999998</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H15" s="9">
         <v>2250.1280000000002</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I15" s="9">
         <v>303.18799999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="13">
+    <row r="16" spans="2:9">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D16" s="12">
         <f t="shared" si="1"/>
         <v>3493.4349999999999</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E16" s="13">
         <v>25.603000000000002</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F16" s="13">
         <v>482.33699999999999</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G16" s="13">
         <v>320.24099999999999</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H16" s="13">
         <v>2363.6320000000001</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I16" s="13">
         <v>301.62200000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="9">
+    <row r="17" spans="2:9">
+      <c r="B17" s="6">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="8">
         <f t="shared" si="1"/>
         <v>4273.9809999999998</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E17" s="9">
         <v>28.280999999999999</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F17" s="9">
         <v>629.447</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G17" s="9">
         <v>352.47</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H17" s="9">
         <v>2932.24</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I17" s="9">
         <v>331.54300000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B17" s="13">
+    <row r="18" spans="2:9">
+      <c r="B18" s="10">
         <v>2024</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D18" s="12">
         <f t="shared" si="1"/>
         <v>3727.7490000000003</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E18" s="13">
         <v>20.6</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F18" s="13">
         <v>609.51</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G18" s="13">
         <v>331.58600000000001</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H18" s="13">
         <v>2472.3470000000002</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I18" s="13">
         <v>293.70600000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B18" s="17">
+    <row r="19" spans="2:9">
+      <c r="B19" s="14">
         <v>2024</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D19" s="16">
         <f t="shared" si="1"/>
         <v>3879.373</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E19" s="17">
         <v>24.507999999999999</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F19" s="17">
         <v>619.80499999999995</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G19" s="17">
         <v>362.28300000000002</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H19" s="17">
         <v>2549.7150000000001</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I19" s="17">
         <v>323.06200000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="21">
+    <row r="20" spans="2:9" hidden="1">
+      <c r="B20" s="18">
         <v>2023</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D20" s="20">
         <f t="shared" si="1"/>
         <v>3885.489</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E20" s="21">
         <v>25.065999999999999</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F20" s="13">
         <v>573.83900000000006</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G20" s="21">
         <v>360.976</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H20" s="21">
         <v>2597.9949999999999</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I20" s="21">
         <v>327.613</v>
       </c>
     </row>
-    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="9">
+    <row r="21" spans="2:9" hidden="1">
+      <c r="B21" s="6">
         <v>2023</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="8">
         <f t="shared" si="1"/>
         <v>3314.3850000000002</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="9">
         <v>26.827000000000002</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F21" s="9">
         <v>435.38299999999998</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G21" s="9">
         <v>356.23</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H21" s="9">
         <v>2187.4830000000002</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I21" s="9">
         <v>308.46199999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="13">
+    <row r="22" spans="2:9" hidden="1">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D22" s="12">
         <f t="shared" si="1"/>
         <v>2815.7780000000002</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E22" s="13">
         <v>28.835999999999999</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F22" s="13">
         <v>205.179</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G22" s="13">
         <v>360.21499999999997</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H22" s="13">
         <v>1882.681</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I22" s="13">
         <v>338.86700000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="9">
+    <row r="23" spans="2:9" hidden="1">
+      <c r="B23" s="6">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="8">
         <f t="shared" si="1"/>
         <v>2398.9490000000001</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="9">
         <v>27.210999999999999</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F23" s="9">
         <v>141.84700000000001</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G23" s="9">
         <v>329.32</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H23" s="9">
         <v>1569.2829999999999</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I23" s="9">
         <v>331.28800000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="13">
+    <row r="24" spans="2:9" hidden="1">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D24" s="12">
         <f t="shared" si="1"/>
         <v>3067.1580000000004</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E24" s="13">
         <v>26.527999999999999</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F24" s="13">
         <v>163.01300000000001</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G24" s="13">
         <v>353.29</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H24" s="13">
         <v>2153.4250000000002</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I24" s="13">
         <v>370.90199999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="9">
+    <row r="25" spans="2:9" hidden="1">
+      <c r="B25" s="6">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="8">
         <f t="shared" si="1"/>
         <v>3523.893</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E25" s="9">
         <v>27.603999999999999</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F25" s="9">
         <v>167.29599999999999</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G25" s="9">
         <v>366.84899999999999</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H25" s="9">
         <v>2590.7280000000001</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I25" s="9">
         <v>371.416</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="13">
+    <row r="26" spans="2:9" hidden="1">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D26" s="12">
         <f t="shared" si="1"/>
         <v>3207.4230000000002</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E26" s="13">
         <v>26.327000000000002</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F26" s="13">
         <v>154.82900000000001</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G26" s="13">
         <v>322.73</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H26" s="13">
         <v>2374.8220000000001</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I26" s="13">
         <v>328.71499999999997</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="9">
+    <row r="27" spans="2:9" hidden="1">
+      <c r="B27" s="6">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="8">
         <f t="shared" si="1"/>
         <v>3040.4479999999999</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E27" s="9">
         <v>24.776</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F27" s="9">
         <v>223.69300000000001</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G27" s="9">
         <v>337.03899999999999</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H27" s="9">
         <v>2130.366</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I27" s="9">
         <v>324.57400000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="13">
+    <row r="28" spans="2:9" hidden="1">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D28" s="12">
         <f t="shared" si="1"/>
         <v>3413.116</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E28" s="13">
         <v>26.134</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F28" s="13">
         <v>453.14400000000001</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G28" s="13">
         <v>348.86700000000002</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H28" s="13">
         <v>2271.5349999999999</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I28" s="13">
         <v>313.43599999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="9">
+    <row r="29" spans="2:9" hidden="1">
+      <c r="B29" s="6">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="8">
         <f t="shared" si="1"/>
         <v>3869.7730000000001</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E29" s="9">
         <v>27.422999999999998</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F29" s="9">
         <v>563.51300000000003</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G29" s="9">
         <v>346.08600000000001</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H29" s="9">
         <v>2601.7890000000002</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I29" s="9">
         <v>330.96199999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="13">
+    <row r="30" spans="2:9" hidden="1">
+      <c r="B30" s="10">
         <v>2023</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D30" s="12">
         <f t="shared" si="1"/>
         <v>3361.9970000000003</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E30" s="13">
         <v>21.327999999999999</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F30" s="13">
         <v>517.904</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G30" s="13">
         <v>328.13</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H30" s="13">
         <v>2198.0720000000001</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I30" s="13">
         <v>296.56299999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="17">
+    <row r="31" spans="2:9" hidden="1">
+      <c r="B31" s="14">
         <v>2023</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C31" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D31" s="16">
         <f t="shared" si="1"/>
         <v>3688.1180000000004</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E31" s="17">
         <v>24.291</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F31" s="17">
         <v>534.15300000000002</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G31" s="17">
         <v>386.87400000000002</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H31" s="17">
         <v>2409.4070000000002</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I31" s="17">
         <v>333.39299999999997</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="21">
+    <row r="32" spans="2:9" hidden="1">
+      <c r="B32" s="18">
         <v>2022</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C32" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D32" s="20">
         <f t="shared" si="1"/>
         <v>3593.7140000000004</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E32" s="21">
         <v>27.486999999999998</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F32" s="21">
         <v>469.17500000000001</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G32" s="21">
         <v>367.88099999999997</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H32" s="21">
         <v>2388.1680000000001</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I32" s="21">
         <v>341.00299999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="9">
+    <row r="33" spans="2:9" hidden="1">
+      <c r="B33" s="6">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="8">
         <f t="shared" si="1"/>
         <v>3176.259</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E33" s="9">
         <v>29.056000000000001</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F33" s="9">
         <v>352.03500000000003</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G33" s="9">
         <v>362.27800000000002</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H33" s="9">
         <v>2103.806</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I33" s="9">
         <v>329.084</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="13">
+    <row r="34" spans="2:9" hidden="1">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C34" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D34" s="12">
         <f t="shared" si="1"/>
         <v>2751.3379999999997</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E34" s="13">
         <v>28.736000000000001</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F34" s="13">
         <v>159.065</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G34" s="13">
         <v>370.53800000000001</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H34" s="13">
         <v>1871.356</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I34" s="13">
         <v>321.64299999999997</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="9">
+    <row r="35" spans="2:9" hidden="1">
+      <c r="B35" s="6">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="8">
         <f t="shared" si="1"/>
         <v>2444.5889999999999</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E35" s="9">
         <v>26.556999999999999</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F35" s="9">
         <v>109.242</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G35" s="9">
         <v>337.80200000000002</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H35" s="9">
         <v>1647.5429999999999</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I35" s="9">
         <v>323.44499999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="13">
+    <row r="36" spans="2:9" hidden="1">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D36" s="12">
         <f t="shared" si="1"/>
         <v>3059.3720000000003</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E36" s="13">
         <v>24.106000000000002</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F36" s="13">
         <v>129.88300000000001</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G36" s="13">
         <v>365.63</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H36" s="13">
         <v>2162.79</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I36" s="13">
         <v>376.96300000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="9">
+    <row r="37" spans="2:9" hidden="1">
+      <c r="B37" s="6">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="8">
         <f t="shared" si="1"/>
         <v>3435.4599999999996</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E37" s="9">
         <v>27.568000000000001</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F37" s="9">
         <v>134.90600000000001</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G37" s="9">
         <v>389.18599999999998</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H37" s="9">
         <v>2512.8739999999998</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I37" s="9">
         <v>370.92599999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="13">
+    <row r="38" spans="2:9" hidden="1">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C38" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D38" s="12">
         <f t="shared" si="1"/>
         <v>3093.1559999999999</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E38" s="13">
         <v>18.965</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F38" s="13">
         <v>110.56100000000001</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G38" s="13">
         <v>334.25400000000002</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H38" s="13">
         <v>2317.81</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I38" s="13">
         <v>311.56599999999997</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="9">
+    <row r="39" spans="2:9" hidden="1">
+      <c r="B39" s="6">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="8">
         <f t="shared" si="1"/>
         <v>2956.1289999999999</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E39" s="9">
         <v>20.163</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F39" s="9">
         <v>149.881</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G39" s="9">
         <v>337.286</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H39" s="9">
         <v>2148.29</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I39" s="9">
         <v>300.50900000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="13">
+    <row r="40" spans="2:9" hidden="1">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D40" s="12">
         <f t="shared" si="1"/>
         <v>3203.7719999999999</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E40" s="13">
         <v>15.622</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F40" s="13">
         <v>274.91500000000002</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G40" s="13">
         <v>325.94900000000001</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H40" s="13">
         <v>2277.3000000000002</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I40" s="13">
         <v>309.98599999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="9">
+    <row r="41" spans="2:9" hidden="1">
+      <c r="B41" s="6">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="8">
         <f t="shared" si="1"/>
         <v>3481.9719999999998</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E41" s="9">
         <v>15.776999999999999</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F41" s="9">
         <v>307.79000000000002</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G41" s="9">
         <v>314.92899999999997</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H41" s="9">
         <v>2546.2779999999998</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I41" s="9">
         <v>297.19799999999998</v>
       </c>
     </row>
-    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="13">
+    <row r="42" spans="2:9" hidden="1">
+      <c r="B42" s="10">
         <v>2022</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D42" s="12">
         <f t="shared" si="1"/>
         <v>2693.7649999999999</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E42" s="13">
         <v>11.359</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F42" s="13">
         <v>222.19499999999999</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G42" s="13">
         <v>271.30700000000002</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H42" s="13">
         <v>1915.4079999999999</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I42" s="13">
         <v>273.49599999999998</v>
       </c>
     </row>
-    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="17">
+    <row r="43" spans="2:9" hidden="1">
+      <c r="B43" s="14">
         <v>2022</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C43" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D43" s="16">
         <f t="shared" si="1"/>
         <v>2769.8220000000001</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E43" s="17">
         <v>13.653</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F43" s="17">
         <v>190.35400000000001</v>
       </c>
-      <c r="G42" s="20">
+      <c r="G43" s="17">
         <v>315.01100000000002</v>
       </c>
-      <c r="H42" s="20">
+      <c r="H43" s="17">
         <v>1937.662</v>
       </c>
-      <c r="I42" s="20">
+      <c r="I43" s="17">
         <v>313.142</v>
       </c>
     </row>
-    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="21">
+    <row r="44" spans="2:9" hidden="1">
+      <c r="B44" s="18">
         <v>2021</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C44" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D44" s="20">
         <f t="shared" si="1"/>
         <v>3069.6779999999999</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E44" s="21">
         <v>16.367000000000001</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F44" s="21">
         <v>236.172</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G44" s="21">
         <v>311.75400000000002</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H44" s="21">
         <v>2206.415</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I44" s="21">
         <v>298.97000000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="9">
+    <row r="45" spans="2:9" hidden="1">
+      <c r="B45" s="6">
         <v>2021</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="8">
         <f t="shared" si="1"/>
         <v>2754.7190000000001</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E45" s="9">
         <v>11.896000000000001</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F45" s="9">
         <v>184.82599999999999</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G45" s="9">
         <v>300.41899999999998</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H45" s="9">
         <v>2001.278</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I45" s="9">
         <v>256.3</v>
       </c>
     </row>
-    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="13">
+    <row r="46" spans="2:9" hidden="1">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C46" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D46" s="12">
         <f t="shared" si="1"/>
         <v>2316.2980000000002</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E46" s="13">
         <v>10.882999999999999</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F46" s="13">
         <v>84.447999999999993</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G46" s="13">
         <v>254.08799999999999</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H46" s="13">
         <v>1782.66</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I46" s="13">
         <v>184.21899999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="9">
+    <row r="47" spans="2:9" hidden="1">
+      <c r="B47" s="6">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="11">
-        <f t="shared" ref="D46:D77" si="3">SUM(E46:I46)</f>
+      <c r="D47" s="8">
+        <f t="shared" ref="D47:D78" si="3">SUM(E47:I47)</f>
         <v>1865.069</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E47" s="9">
         <v>10.257999999999999</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F47" s="9">
         <v>42.448999999999998</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G47" s="9">
         <v>212.91</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H47" s="9">
         <v>1437.11</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I47" s="9">
         <v>162.34200000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="13">
+    <row r="48" spans="2:9" hidden="1">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D48" s="12">
         <f t="shared" si="3"/>
         <v>2398.5659999999998</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E48" s="13">
         <v>14.085000000000001</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F48" s="13">
         <v>32.247</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G48" s="13">
         <v>208.1</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H48" s="13">
         <v>1943.308</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I48" s="13">
         <v>200.82599999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="9">
+    <row r="49" spans="2:9" hidden="1">
+      <c r="B49" s="6">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="8">
         <f t="shared" si="3"/>
         <v>2799.8330000000001</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E49" s="9">
         <v>8.2119999999999997</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F49" s="9">
         <v>18.641999999999999</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G49" s="9">
         <v>191.12</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H49" s="9">
         <v>2407.3310000000001</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I49" s="9">
         <v>174.52799999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="13">
+    <row r="50" spans="2:9" hidden="1">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C50" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D50" s="12">
         <f t="shared" si="3"/>
         <v>2533.6980000000003</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E50" s="13">
         <v>2.355</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F50" s="13">
         <v>10.57</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G50" s="13">
         <v>151.47200000000001</v>
       </c>
-      <c r="H49" s="16">
+      <c r="H50" s="13">
         <v>2249.7530000000002</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I50" s="13">
         <v>119.548</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="9">
+    <row r="51" spans="2:9" hidden="1">
+      <c r="B51" s="6">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="8">
         <f t="shared" si="3"/>
         <v>2195.2569999999996</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E51" s="9">
         <v>2.0950000000000002</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F51" s="9">
         <v>3.72</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G51" s="9">
         <v>121.184</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H51" s="9">
         <v>1978.444</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I51" s="9">
         <v>89.813999999999993</v>
       </c>
     </row>
-    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="13">
+    <row r="52" spans="2:9" hidden="1">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C52" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D52" s="12">
         <f t="shared" si="3"/>
         <v>1846.8409999999999</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E52" s="13">
         <v>2.2490000000000001</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F52" s="13">
         <v>3.7770000000000001</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G52" s="13">
         <v>106.904</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H52" s="13">
         <v>1642.9369999999999</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I52" s="13">
         <v>90.974000000000004</v>
       </c>
     </row>
-    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="9">
+    <row r="53" spans="2:9" hidden="1">
+      <c r="B53" s="6">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="8">
         <f t="shared" si="3"/>
         <v>1665.7650000000001</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E53" s="9">
         <v>2.0640000000000001</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F53" s="9">
         <v>3.0539999999999998</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G53" s="9">
         <v>107.813</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H53" s="9">
         <v>1478.759</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I53" s="9">
         <v>74.075000000000003</v>
       </c>
     </row>
-    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="13">
+    <row r="54" spans="2:9" hidden="1">
+      <c r="B54" s="10">
         <v>2021</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D54" s="12">
         <f t="shared" si="3"/>
         <v>992.54899999999998</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E54" s="13">
         <v>1.5469999999999999</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F54" s="13">
         <v>4.9349999999999996</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G54" s="13">
         <v>96.123000000000005</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H54" s="13">
         <v>836.42499999999995</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I54" s="13">
         <v>53.518999999999998</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="17">
+    <row r="55" spans="2:9" hidden="1">
+      <c r="B55" s="14">
         <v>2021</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C55" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D55" s="16">
         <f t="shared" si="3"/>
         <v>1347.152</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E55" s="17">
         <v>2.0640000000000001</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F55" s="17">
         <v>30.795999999999999</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G55" s="17">
         <v>104.605</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H55" s="17">
         <v>1132.894</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I55" s="17">
         <v>76.793000000000006</v>
       </c>
     </row>
-    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="21">
+    <row r="56" spans="2:9" hidden="1">
+      <c r="B56" s="18">
         <v>2020</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C56" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D56" s="20">
         <f t="shared" si="3"/>
         <v>1510.221</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E56" s="21">
         <v>2.4980000000000002</v>
       </c>
-      <c r="F55" s="24">
+      <c r="F56" s="21">
         <v>40.029000000000003</v>
       </c>
-      <c r="G55" s="24">
+      <c r="G56" s="21">
         <v>90.221999999999994</v>
       </c>
-      <c r="H55" s="24">
+      <c r="H56" s="21">
         <v>1309.4179999999999</v>
       </c>
-      <c r="I55" s="24">
+      <c r="I56" s="21">
         <v>68.054000000000002</v>
       </c>
     </row>
-    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="9">
+    <row r="57" spans="2:9" hidden="1">
+      <c r="B57" s="6">
         <v>2020</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="8">
         <f t="shared" si="3"/>
         <v>1221.7620000000002</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E57" s="9">
         <v>1.9019999999999999</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F57" s="9">
         <v>23.92</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G57" s="9">
         <v>62.817999999999998</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H57" s="9">
         <v>1101.2280000000001</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I57" s="9">
         <v>31.893999999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="13">
+    <row r="58" spans="2:9" hidden="1">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D58" s="12">
         <f t="shared" si="3"/>
         <v>993.73</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E58" s="13">
         <v>2.335</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F58" s="13">
         <v>12.250999999999999</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G58" s="13">
         <v>27.582000000000001</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H58" s="13">
         <v>916.55399999999997</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I58" s="13">
         <v>35.008000000000003</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="9">
+    <row r="59" spans="2:9" hidden="1">
+      <c r="B59" s="6">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="8">
         <f t="shared" si="3"/>
         <v>668.18899999999996</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E59" s="9">
         <v>1.65</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F59" s="9">
         <v>6.2169999999999996</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G59" s="9">
         <v>3.02</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H59" s="9">
         <v>633.45699999999999</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I59" s="9">
         <v>23.844999999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="13">
+    <row r="60" spans="2:9" hidden="1">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D60" s="12">
         <f t="shared" si="3"/>
         <v>611.61700000000008</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E60" s="13">
         <v>1.974</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F60" s="13">
         <v>7.2640000000000002</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G60" s="13">
         <v>0</v>
       </c>
-      <c r="H59" s="16">
+      <c r="H60" s="13">
         <v>579.19000000000005</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I60" s="13">
         <v>23.189</v>
       </c>
     </row>
-    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="9">
+    <row r="61" spans="2:9" hidden="1">
+      <c r="B61" s="6">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="8">
         <f t="shared" si="3"/>
         <v>501.33299999999997</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E61" s="9">
         <v>1.84</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F61" s="9">
         <v>5.6429999999999998</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G61" s="9">
         <v>0</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H61" s="9">
         <v>473.16199999999998</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I61" s="9">
         <v>20.687999999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="13">
+    <row r="62" spans="2:9" hidden="1">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C62" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D62" s="12">
         <f t="shared" si="3"/>
         <v>184.41</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E62" s="13">
         <v>1.6459999999999999</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F62" s="13">
         <v>3.5059999999999998</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G62" s="13">
         <v>0</v>
       </c>
-      <c r="H61" s="16">
+      <c r="H62" s="13">
         <v>167.31100000000001</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I62" s="13">
         <v>11.946999999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="9">
+    <row r="63" spans="2:9" hidden="1">
+      <c r="B63" s="6">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="8">
         <f t="shared" si="3"/>
         <v>77.765000000000015</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E63" s="9">
         <v>1.1679999999999999</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F63" s="9">
         <v>3.702</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G63" s="9">
         <v>0</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H63" s="9">
         <v>68.227000000000004</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I63" s="9">
         <v>4.6680000000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="13">
+    <row r="64" spans="2:9" hidden="1">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D64" s="12">
         <f t="shared" si="3"/>
         <v>60.438000000000002</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E64" s="13">
         <v>1.752</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F64" s="13">
         <v>2.8279999999999998</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G64" s="13">
         <v>0</v>
       </c>
-      <c r="H63" s="16">
+      <c r="H64" s="13">
         <v>50.856000000000002</v>
       </c>
-      <c r="I63" s="16">
+      <c r="I64" s="13">
         <v>5.0019999999999998</v>
       </c>
     </row>
-    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="9">
+    <row r="65" spans="2:9" hidden="1">
+      <c r="B65" s="6">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="8">
         <f t="shared" si="3"/>
         <v>1954.8980000000001</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E65" s="9">
         <v>9.4830000000000005</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F65" s="9">
         <v>394.98700000000002</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G65" s="9">
         <v>152.84100000000001</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H65" s="9">
         <v>1225.348</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I65" s="9">
         <v>172.239</v>
       </c>
     </row>
-    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="13">
+    <row r="66" spans="2:9" hidden="1">
+      <c r="B66" s="10">
         <v>2020</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C66" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D66" s="12">
         <f t="shared" si="3"/>
         <v>3003.6669999999999</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E66" s="13">
         <v>15.741</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F66" s="13">
         <v>656.69799999999998</v>
       </c>
-      <c r="G65" s="16">
+      <c r="G66" s="13">
         <v>258.47000000000003</v>
       </c>
-      <c r="H65" s="16">
+      <c r="H66" s="13">
         <v>1830.7449999999999</v>
       </c>
-      <c r="I65" s="16">
+      <c r="I66" s="13">
         <v>242.01300000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="17">
+    <row r="67" spans="2:9" hidden="1">
+      <c r="B67" s="14">
         <v>2020</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C67" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D67" s="16">
         <f t="shared" si="3"/>
         <v>3158.4789999999998</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E67" s="17">
         <v>21.327999999999999</v>
       </c>
-      <c r="F66" s="20">
+      <c r="F67" s="17">
         <v>658.10199999999998</v>
       </c>
-      <c r="G66" s="20">
+      <c r="G67" s="17">
         <v>285.50799999999998</v>
       </c>
-      <c r="H66" s="20">
+      <c r="H67" s="17">
         <v>1930.8779999999999</v>
       </c>
-      <c r="I66" s="20">
+      <c r="I67" s="17">
         <v>262.66300000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="21">
+    <row r="68" spans="2:9" hidden="1">
+      <c r="B68" s="18">
         <v>2019</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C68" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D68" s="20">
         <f t="shared" si="3"/>
         <v>3053.3690000000001</v>
       </c>
-      <c r="E67" s="24">
+      <c r="E68" s="21">
         <v>21.335999999999999</v>
       </c>
-      <c r="F67" s="24">
+      <c r="F68" s="21">
         <v>537.62099999999998</v>
       </c>
-      <c r="G67" s="24">
+      <c r="G68" s="21">
         <v>278.39299999999997</v>
       </c>
-      <c r="H67" s="24">
+      <c r="H68" s="21">
         <v>1967.231</v>
       </c>
-      <c r="I67" s="24">
+      <c r="I68" s="21">
         <v>248.78800000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="9">
+    <row r="69" spans="2:9" hidden="1">
+      <c r="B69" s="6">
         <v>2019</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="8">
         <f t="shared" si="3"/>
         <v>2611.9189999999999</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E69" s="9">
         <v>11.728999999999999</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F69" s="9">
         <v>376.67599999999999</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G69" s="9">
         <v>277.44</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H69" s="9">
         <v>1694.2080000000001</v>
       </c>
-      <c r="I68" s="12">
+      <c r="I69" s="9">
         <v>251.86600000000001</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="13">
+    <row r="70" spans="2:9" hidden="1">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C70" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D70" s="12">
         <f t="shared" si="3"/>
         <v>2142.5329999999999</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E70" s="13">
         <v>11.843</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F70" s="13">
         <v>136.84700000000001</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G70" s="13">
         <v>278.23</v>
       </c>
-      <c r="H69" s="16">
+      <c r="H70" s="13">
         <v>1436.271</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I70" s="13">
         <v>279.34199999999998</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="9">
+    <row r="71" spans="2:9" hidden="1">
+      <c r="B71" s="6">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="8">
         <f t="shared" si="3"/>
         <v>1823.6279999999999</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E71" s="9">
         <v>12.271000000000001</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F71" s="9">
         <v>89.102000000000004</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G71" s="9">
         <v>268.56099999999998</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H71" s="9">
         <v>1146.97</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I71" s="9">
         <v>306.72399999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="13">
+    <row r="72" spans="2:9" hidden="1">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C72" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D72" s="12">
         <f t="shared" si="3"/>
         <v>2449.1610000000001</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E72" s="13">
         <v>13.670999999999999</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F72" s="13">
         <v>120.56399999999999</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G72" s="13">
         <v>280.00299999999999</v>
       </c>
-      <c r="H71" s="16">
+      <c r="H72" s="13">
         <v>1673.692</v>
       </c>
-      <c r="I71" s="16">
+      <c r="I72" s="13">
         <v>361.23099999999999</v>
       </c>
     </row>
-    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="9">
+    <row r="73" spans="2:9" hidden="1">
+      <c r="B73" s="6">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="8">
         <f t="shared" si="3"/>
         <v>2801.94</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E73" s="9">
         <v>14.319000000000001</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F73" s="9">
         <v>119.633</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G73" s="9">
         <v>293.93</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H73" s="9">
         <v>2011.7629999999999</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I73" s="9">
         <v>362.29500000000002</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="13">
+    <row r="74" spans="2:9" hidden="1">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C74" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D74" s="12">
         <f t="shared" si="3"/>
         <v>2522.0529999999999</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E74" s="13">
         <v>11.54</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F74" s="13">
         <v>105.586</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G74" s="13">
         <v>282.41399999999999</v>
       </c>
-      <c r="H73" s="16">
+      <c r="H74" s="13">
         <v>1807.0650000000001</v>
       </c>
-      <c r="I73" s="16">
+      <c r="I74" s="13">
         <v>315.44799999999998</v>
       </c>
     </row>
-    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="9">
+    <row r="75" spans="2:9" hidden="1">
+      <c r="B75" s="6">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="8">
         <f t="shared" si="3"/>
         <v>2416.165</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E75" s="9">
         <v>11.512</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F75" s="9">
         <v>167.624</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G75" s="9">
         <v>301.21699999999998</v>
       </c>
-      <c r="H74" s="12">
+      <c r="H75" s="9">
         <v>1645.127</v>
       </c>
-      <c r="I74" s="12">
+      <c r="I75" s="9">
         <v>290.685</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="13">
+    <row r="76" spans="2:9" hidden="1">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C76" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D76" s="12">
         <f t="shared" si="3"/>
         <v>2781.3670000000002</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E76" s="13">
         <v>12.632</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F76" s="13">
         <v>403.54899999999998</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G76" s="13">
         <v>275.21800000000002</v>
       </c>
-      <c r="H75" s="16">
+      <c r="H76" s="13">
         <v>1816.595</v>
       </c>
-      <c r="I75" s="16">
+      <c r="I76" s="13">
         <v>273.37299999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="9">
+    <row r="77" spans="2:9" hidden="1">
+      <c r="B77" s="6">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="8">
         <f t="shared" si="3"/>
         <v>3270.3839999999996</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E77" s="9">
         <v>11.318</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F77" s="9">
         <v>556.81700000000001</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G77" s="9">
         <v>283.60500000000002</v>
       </c>
-      <c r="H76" s="12">
+      <c r="H77" s="9">
         <v>2176.8739999999998</v>
       </c>
-      <c r="I76" s="12">
+      <c r="I77" s="9">
         <v>241.77</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="13">
+    <row r="78" spans="2:9" hidden="1">
+      <c r="B78" s="10">
         <v>2019</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C78" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D78" s="12">
         <f t="shared" si="3"/>
         <v>2709.8039999999996</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E78" s="13">
         <v>9.2029999999999994</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F78" s="13">
         <v>523.98800000000006</v>
       </c>
-      <c r="G77" s="16">
+      <c r="G78" s="13">
         <v>268.82900000000001</v>
       </c>
-      <c r="H77" s="16">
+      <c r="H78" s="13">
         <v>1706.7149999999999</v>
       </c>
-      <c r="I77" s="16">
+      <c r="I78" s="13">
         <v>201.06899999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="17">
+    <row r="79" spans="2:9" hidden="1">
+      <c r="B79" s="14">
         <v>2019</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C79" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="19">
-        <f t="shared" ref="D78:D90" si="4">SUM(E78:I78)</f>
+      <c r="D79" s="16">
+        <f t="shared" ref="D79:D91" si="4">SUM(E79:I79)</f>
         <v>2903.4210000000003</v>
       </c>
-      <c r="E78" s="20">
+      <c r="E79" s="17">
         <v>10.77</v>
       </c>
-      <c r="F78" s="20">
+      <c r="F79" s="17">
         <v>539.04899999999998</v>
       </c>
-      <c r="G78" s="20">
+      <c r="G79" s="17">
         <v>301.86200000000002</v>
       </c>
-      <c r="H78" s="20">
+      <c r="H79" s="17">
         <v>1830.36</v>
       </c>
-      <c r="I78" s="20">
+      <c r="I79" s="17">
         <v>221.38</v>
       </c>
     </row>
-    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="14">
+    <row r="80" spans="2:9" hidden="1">
+      <c r="B80" s="11">
         <v>2018</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C80" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D80" s="12">
         <f t="shared" si="4"/>
         <v>2900.12</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E80" s="13">
         <v>8.7880000000000003</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F80" s="13">
         <v>442.23399999999998</v>
       </c>
-      <c r="G79" s="16">
+      <c r="G80" s="13">
         <v>286.44600000000003</v>
       </c>
-      <c r="H79" s="16">
+      <c r="H80" s="13">
         <v>1926.6559999999999</v>
       </c>
-      <c r="I79" s="16">
+      <c r="I80" s="13">
         <v>235.99600000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="10">
+    <row r="81" spans="2:9" hidden="1">
+      <c r="B81" s="7">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="8">
         <f t="shared" si="4"/>
         <v>2516.9179999999997</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E81" s="9">
         <v>9.0220000000000002</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F81" s="9">
         <v>315.29500000000002</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G81" s="9">
         <v>289.45400000000001</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H81" s="9">
         <v>1650.2370000000001</v>
       </c>
-      <c r="I80" s="12">
+      <c r="I81" s="9">
         <v>252.91</v>
       </c>
     </row>
-    <row r="81" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="14">
+    <row r="82" spans="2:9" hidden="1">
+      <c r="B82" s="11">
         <v>2018</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C82" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D82" s="12">
         <f t="shared" si="4"/>
         <v>2127.0500000000002</v>
       </c>
-      <c r="E81" s="16">
+      <c r="E82" s="13">
         <v>9.5739999999999998</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F82" s="13">
         <v>145.04599999999999</v>
       </c>
-      <c r="G81" s="16">
+      <c r="G82" s="13">
         <v>284.245</v>
       </c>
-      <c r="H81" s="16">
+      <c r="H82" s="13">
         <v>1413.5550000000001</v>
       </c>
-      <c r="I81" s="16">
+      <c r="I82" s="13">
         <v>274.63</v>
       </c>
     </row>
-    <row r="82" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="10">
+    <row r="83" spans="2:9" hidden="1">
+      <c r="B83" s="7">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="8">
         <f t="shared" si="4"/>
         <v>1820.75</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E83" s="9">
         <v>8.7170000000000005</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F83" s="9">
         <v>115.482</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G83" s="9">
         <v>260.428</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H83" s="9">
         <v>1151.6479999999999</v>
       </c>
-      <c r="I82" s="12">
+      <c r="I83" s="9">
         <v>284.47500000000002</v>
       </c>
     </row>
-    <row r="83" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="14">
+    <row r="84" spans="2:9" hidden="1">
+      <c r="B84" s="11">
         <v>2018</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C84" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D84" s="12">
         <f t="shared" si="4"/>
         <v>2528.9700000000003</v>
       </c>
-      <c r="E83" s="16">
+      <c r="E84" s="13">
         <v>9.6679999999999993</v>
       </c>
-      <c r="F83" s="16">
+      <c r="F84" s="13">
         <v>146.94499999999999</v>
       </c>
-      <c r="G83" s="16">
+      <c r="G84" s="13">
         <v>284.00099999999998</v>
       </c>
-      <c r="H83" s="16">
+      <c r="H84" s="13">
         <v>1759.27</v>
       </c>
-      <c r="I83" s="16">
+      <c r="I84" s="13">
         <v>329.08600000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="10">
+    <row r="85" spans="2:9" hidden="1">
+      <c r="B85" s="7">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="8">
         <f t="shared" si="4"/>
         <v>2915.5160000000001</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E85" s="9">
         <v>10.211</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F85" s="9">
         <v>149.61199999999999</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G85" s="9">
         <v>301.62799999999999</v>
       </c>
-      <c r="H84" s="12">
+      <c r="H85" s="9">
         <v>2115.8780000000002</v>
       </c>
-      <c r="I84" s="12">
+      <c r="I85" s="9">
         <v>338.18700000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="14">
+    <row r="86" spans="2:9" hidden="1">
+      <c r="B86" s="11">
         <v>2018</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C86" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D86" s="12">
         <f t="shared" si="4"/>
         <v>2658.8760000000002</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E86" s="13">
         <v>8.1470000000000002</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F86" s="13">
         <v>136.459</v>
       </c>
-      <c r="G85" s="16">
+      <c r="G86" s="13">
         <v>274.35500000000002</v>
       </c>
-      <c r="H85" s="16">
+      <c r="H86" s="13">
         <v>1947.4549999999999</v>
       </c>
-      <c r="I85" s="16">
+      <c r="I86" s="13">
         <v>292.45999999999998</v>
       </c>
     </row>
-    <row r="86" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="10">
+    <row r="87" spans="2:9" hidden="1">
+      <c r="B87" s="7">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="8">
         <f t="shared" si="4"/>
         <v>2447.692</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E87" s="9">
         <v>8.2739999999999991</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F87" s="9">
         <v>176.994</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G87" s="9">
         <v>289.221</v>
       </c>
-      <c r="H86" s="12">
+      <c r="H87" s="9">
         <v>1710.9349999999999</v>
       </c>
-      <c r="I86" s="12">
+      <c r="I87" s="9">
         <v>262.26799999999997</v>
       </c>
     </row>
-    <row r="87" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="14">
+    <row r="88" spans="2:9" hidden="1">
+      <c r="B88" s="11">
         <v>2018</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C88" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="15">
+      <c r="D88" s="12">
         <f t="shared" si="4"/>
         <v>2823.5950000000003</v>
       </c>
-      <c r="E87" s="16">
+      <c r="E88" s="13">
         <v>9.1590000000000007</v>
       </c>
-      <c r="F87" s="16">
+      <c r="F88" s="13">
         <v>394.92700000000002</v>
       </c>
-      <c r="G87" s="16">
+      <c r="G88" s="13">
         <v>277.78800000000001</v>
       </c>
-      <c r="H87" s="16">
+      <c r="H88" s="13">
         <v>1889.2940000000001</v>
       </c>
-      <c r="I87" s="16">
+      <c r="I88" s="13">
         <v>252.42699999999999</v>
       </c>
     </row>
-    <row r="88" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="10">
+    <row r="89" spans="2:9" hidden="1">
+      <c r="B89" s="7">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="8">
         <f t="shared" si="4"/>
         <v>3332.6780000000003</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E89" s="9">
         <v>9.0150000000000006</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F89" s="9">
         <v>541.36300000000006</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G89" s="9">
         <v>284.77600000000001</v>
       </c>
-      <c r="H88" s="12">
+      <c r="H89" s="9">
         <v>2258.6280000000002</v>
       </c>
-      <c r="I88" s="12">
+      <c r="I89" s="9">
         <v>238.89599999999999</v>
       </c>
     </row>
-    <row r="89" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="14">
+    <row r="90" spans="2:9" hidden="1">
+      <c r="B90" s="11">
         <v>2018</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C90" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="15">
+      <c r="D90" s="12">
         <f t="shared" si="4"/>
         <v>2743.9390000000003</v>
       </c>
-      <c r="E89" s="16">
+      <c r="E90" s="13">
         <v>7.4669999999999996</v>
       </c>
-      <c r="F89" s="16">
+      <c r="F90" s="13">
         <v>478.96199999999999</v>
       </c>
-      <c r="G89" s="16">
+      <c r="G90" s="13">
         <v>269.29000000000002</v>
       </c>
-      <c r="H89" s="16">
+      <c r="H90" s="13">
         <v>1800.797</v>
       </c>
-      <c r="I89" s="16">
+      <c r="I90" s="13">
         <v>187.423</v>
       </c>
     </row>
-    <row r="90" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="10">
+    <row r="91" spans="2:9" hidden="1">
+      <c r="B91" s="7">
         <v>2018</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D91" s="8">
         <f t="shared" si="4"/>
         <v>3020.2839999999997</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E91" s="9">
         <v>8.3650000000000002</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F91" s="9">
         <v>517.99800000000005</v>
       </c>
-      <c r="G90" s="12">
+      <c r="G91" s="9">
         <v>307.8</v>
       </c>
-      <c r="H90" s="12">
+      <c r="H91" s="9">
         <v>1971.394</v>
       </c>
-      <c r="I90" s="12">
+      <c r="I91" s="9">
         <v>214.727</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B91" s="3" t="s">
+    <row r="92" spans="2:9">
+      <c r="B92" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B92" s="3" t="s">
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B93" s="3" t="s">
+    <row r="94" spans="2:9">
+      <c r="B94" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I93" s="25"/>
+      <c r="I94" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_por_aerolinea_inter.xlsx
+++ b/Pasajeros_por_aerolinea_inter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E56CDC-92B3-4EDC-A7C0-D6D8A435288B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95C99A2-F20D-409B-AEFD-84DDC996BF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="26">
   <si>
     <t>Total</t>
   </si>
@@ -113,7 +113,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -201,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -273,25 +273,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -344,20 +331,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -485,7 +467,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -568,11 +550,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I91" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="B5:I91" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I92" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="B5:I92" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
+        <filter val="2025"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -815,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I94"/>
+  <dimension ref="B2:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -886,2343 +869,2370 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="27">
+      <c r="B6" s="6">
         <v>2025</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8">
+        <f>SUM(E6:I6)</f>
+        <v>4329.5889999999999</v>
+      </c>
+      <c r="E6" s="9">
+        <v>26.802</v>
+      </c>
+      <c r="F6" s="9">
+        <v>833.06899999999996</v>
+      </c>
+      <c r="G6" s="9">
+        <v>328.35199999999998</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2849.0970000000002</v>
+      </c>
+      <c r="I6" s="9">
+        <v>292.26900000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="28">
-        <f>SUM(E6:I6)</f>
+      <c r="D7" s="12">
+        <f>SUM(E7:I7)</f>
         <v>3647.5239999999999</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E7" s="13">
         <v>21.972999999999999</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F7" s="13">
         <v>782.58500000000004</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G7" s="13">
         <v>317.92500000000001</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H7" s="13">
         <v>2244.0259999999998</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I7" s="13">
         <v>281.01499999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="14">
+    <row r="8" spans="2:9">
+      <c r="B8" s="14">
         <v>2025</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="16">
-        <f>SUM(E7:I7)</f>
-        <v>4011.1469999999999</v>
-      </c>
-      <c r="E7" s="17">
+      <c r="D8" s="16">
+        <f>SUM(E8:I8)</f>
+        <v>4016.9249999999997</v>
+      </c>
+      <c r="E8" s="17">
         <v>26.367000000000001</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F8" s="17">
         <v>818.02</v>
       </c>
-      <c r="G7" s="17">
-        <v>368.82400000000001</v>
-      </c>
-      <c r="H7" s="17">
+      <c r="G8" s="17">
+        <v>374.60199999999998</v>
+      </c>
+      <c r="H8" s="17">
         <v>2477.2089999999998</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I8" s="17">
         <v>320.72699999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="10">
+    <row r="9" spans="2:9">
+      <c r="B9" s="10">
         <v>2024</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="12">
-        <f>SUM(E8:I8)</f>
+      <c r="D9" s="12">
+        <f>SUM(E9:I9)</f>
         <v>4034.8559999999998</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="13">
         <v>23.154</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="13">
         <v>717.15200000000004</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="13">
         <v>361.37799999999999</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H9" s="13">
         <v>2595.7930000000001</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I9" s="13">
         <v>337.37900000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="6">
+    <row r="10" spans="2:9">
+      <c r="B10" s="6">
         <v>2024</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8">
-        <f>SUM(E9:I9)</f>
+      <c r="D10" s="8">
+        <f>SUM(E10:I10)</f>
         <v>3415.2130000000002</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>26.556999999999999</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <v>554.6</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G10" s="9">
         <v>349.10500000000002</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H10" s="9">
         <v>2163.6680000000001</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I10" s="9">
         <v>321.28300000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="10">
+    <row r="11" spans="2:9">
+      <c r="B11" s="10">
         <v>2024</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="12">
-        <f t="shared" ref="D10" si="0">SUM(E10:I10)</f>
+      <c r="D11" s="12">
+        <f t="shared" ref="D11" si="0">SUM(E11:I11)</f>
         <v>2785.9230000000002</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E11" s="13">
         <v>26.507999999999999</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>238.167</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <v>344.82799999999997</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H11" s="13">
         <v>1856.6179999999999</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I11" s="13">
         <v>319.80200000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="6">
+    <row r="12" spans="2:9">
+      <c r="B12" s="6">
         <v>2024</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="8">
-        <f>SUM(E11:I11)</f>
+      <c r="D12" s="8">
+        <f>SUM(E12:I12)</f>
         <v>2297.404</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="9">
         <v>24.936</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="9">
         <v>151.36000000000001</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G12" s="9">
         <v>324.95699999999999</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H12" s="9">
         <v>1485.433</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I12" s="9">
         <v>310.71800000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="10">
+    <row r="13" spans="2:9">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="12">
-        <f t="shared" ref="D12:D46" si="1">SUM(E12:I12)</f>
+      <c r="D13" s="12">
+        <f t="shared" ref="D13:D47" si="1">SUM(E13:I13)</f>
         <v>2952.6910000000003</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E13" s="13">
         <v>27.494</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F13" s="13">
         <v>206.643</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G13" s="13">
         <v>334.22300000000001</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H13" s="13">
         <v>2025.6210000000001</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I13" s="13">
         <v>358.71</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="6">
+    <row r="14" spans="2:9">
+      <c r="B14" s="6">
         <v>2024</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="8">
-        <f t="shared" ref="D13:D15" si="2">SUM(E13:I13)</f>
+      <c r="D14" s="8">
+        <f t="shared" ref="D14:D16" si="2">SUM(E14:I14)</f>
         <v>3420.3579999999997</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>28.696999999999999</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>191.22800000000001</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G14" s="9">
         <v>355.32499999999999</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H14" s="9">
         <v>2486.1129999999998</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I14" s="9">
         <v>358.995</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="10">
+    <row r="15" spans="2:9">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="12">
         <f t="shared" si="2"/>
         <v>3285.7019999999998</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="13">
         <v>26.811</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="13">
         <v>174.505</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <v>320.03899999999999</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H15" s="13">
         <v>2461.1149999999998</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I15" s="13">
         <v>303.23200000000003</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="6">
+    <row r="16" spans="2:9">
+      <c r="B16" s="6">
         <v>2024</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="8">
         <f t="shared" si="2"/>
         <v>3168.223</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="9">
         <v>25.436</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>276.85000000000002</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="9">
         <v>312.62099999999998</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H16" s="9">
         <v>2250.1280000000002</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I16" s="9">
         <v>303.18799999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="10">
+    <row r="17" spans="2:9">
+      <c r="B17" s="10">
         <v>2024</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="12">
         <f t="shared" si="1"/>
         <v>3493.4349999999999</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="13">
         <v>25.603000000000002</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>482.33699999999999</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="13">
         <v>320.24099999999999</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H17" s="13">
         <v>2363.6320000000001</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I17" s="13">
         <v>301.62200000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="6">
+    <row r="18" spans="2:9">
+      <c r="B18" s="6">
         <v>2024</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <f t="shared" si="1"/>
         <v>4273.9809999999998</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>28.280999999999999</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="9">
         <v>629.447</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G18" s="9">
         <v>352.47</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H18" s="9">
         <v>2932.24</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I18" s="9">
         <v>331.54300000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="10">
+    <row r="19" spans="2:9">
+      <c r="B19" s="10">
         <v>2024</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D19" s="12">
         <f t="shared" si="1"/>
         <v>3727.7490000000003</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="13">
         <v>20.6</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="13">
         <v>609.51</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="13">
         <v>331.58600000000001</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H19" s="13">
         <v>2472.3470000000002</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I19" s="13">
         <v>293.70600000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="14">
+    <row r="20" spans="2:9">
+      <c r="B20" s="14">
         <v>2024</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D20" s="16">
         <f t="shared" si="1"/>
         <v>3879.373</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E20" s="17">
         <v>24.507999999999999</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F20" s="17">
         <v>619.80499999999995</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G20" s="17">
         <v>362.28300000000002</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H20" s="17">
         <v>2549.7150000000001</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I20" s="17">
         <v>323.06200000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:9" hidden="1">
-      <c r="B20" s="18">
+    <row r="21" spans="2:9" hidden="1">
+      <c r="B21" s="18">
         <v>2023</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D21" s="20">
         <f t="shared" si="1"/>
         <v>3885.489</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E21" s="21">
         <v>25.065999999999999</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>573.83900000000006</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G21" s="21">
         <v>360.976</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H21" s="21">
         <v>2597.9949999999999</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I21" s="21">
         <v>327.613</v>
       </c>
     </row>
-    <row r="21" spans="2:9" hidden="1">
-      <c r="B21" s="6">
+    <row r="22" spans="2:9" hidden="1">
+      <c r="B22" s="6">
         <v>2023</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <f t="shared" si="1"/>
         <v>3314.3850000000002</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="9">
         <v>26.827000000000002</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="9">
         <v>435.38299999999998</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G22" s="9">
         <v>356.23</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H22" s="9">
         <v>2187.4830000000002</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I22" s="9">
         <v>308.46199999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1">
-      <c r="B22" s="10">
+    <row r="23" spans="2:9" hidden="1">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12">
         <f t="shared" si="1"/>
         <v>2815.7780000000002</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>28.835999999999999</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>205.179</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>360.21499999999997</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H23" s="13">
         <v>1882.681</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I23" s="13">
         <v>338.86700000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:9" hidden="1">
-      <c r="B23" s="6">
+    <row r="24" spans="2:9" hidden="1">
+      <c r="B24" s="6">
         <v>2023</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="8">
         <f t="shared" si="1"/>
         <v>2398.9490000000001</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E24" s="9">
         <v>27.210999999999999</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F24" s="9">
         <v>141.84700000000001</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G24" s="9">
         <v>329.32</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H24" s="9">
         <v>1569.2829999999999</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I24" s="9">
         <v>331.28800000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:9" hidden="1">
-      <c r="B24" s="10">
+    <row r="25" spans="2:9" hidden="1">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="12">
         <f t="shared" si="1"/>
         <v>3067.1580000000004</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E25" s="13">
         <v>26.527999999999999</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="13">
         <v>163.01300000000001</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="13">
         <v>353.29</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H25" s="13">
         <v>2153.4250000000002</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I25" s="13">
         <v>370.90199999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1">
-      <c r="B25" s="6">
+    <row r="26" spans="2:9" hidden="1">
+      <c r="B26" s="6">
         <v>2023</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="8">
         <f t="shared" si="1"/>
         <v>3523.893</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <v>27.603999999999999</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <v>167.29599999999999</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G26" s="9">
         <v>366.84899999999999</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H26" s="9">
         <v>2590.7280000000001</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I26" s="9">
         <v>371.416</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1">
-      <c r="B26" s="10">
+    <row r="27" spans="2:9" hidden="1">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="12">
         <f t="shared" si="1"/>
         <v>3207.4230000000002</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="13">
         <v>26.327000000000002</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>154.82900000000001</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>322.73</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H27" s="13">
         <v>2374.8220000000001</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I27" s="13">
         <v>328.71499999999997</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1">
-      <c r="B27" s="6">
+    <row r="28" spans="2:9" hidden="1">
+      <c r="B28" s="6">
         <v>2023</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <f t="shared" si="1"/>
         <v>3040.4479999999999</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <v>24.776</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>223.69300000000001</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G28" s="9">
         <v>337.03899999999999</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H28" s="9">
         <v>2130.366</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I28" s="9">
         <v>324.57400000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1">
-      <c r="B28" s="10">
+    <row r="29" spans="2:9" hidden="1">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="12">
         <f t="shared" si="1"/>
         <v>3413.116</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <v>26.134</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>453.14400000000001</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <v>348.86700000000002</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H29" s="13">
         <v>2271.5349999999999</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I29" s="13">
         <v>313.43599999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1">
-      <c r="B29" s="6">
+    <row r="30" spans="2:9" hidden="1">
+      <c r="B30" s="6">
         <v>2023</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <f t="shared" si="1"/>
         <v>3869.7730000000001</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <v>27.422999999999998</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <v>563.51300000000003</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G30" s="9">
         <v>346.08600000000001</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H30" s="9">
         <v>2601.7890000000002</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I30" s="9">
         <v>330.96199999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1">
-      <c r="B30" s="10">
+    <row r="31" spans="2:9" hidden="1">
+      <c r="B31" s="10">
         <v>2023</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="12">
         <f t="shared" si="1"/>
         <v>3361.9970000000003</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E31" s="13">
         <v>21.327999999999999</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="13">
         <v>517.904</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="13">
         <v>328.13</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H31" s="13">
         <v>2198.0720000000001</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I31" s="13">
         <v>296.56299999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1">
-      <c r="B31" s="14">
+    <row r="32" spans="2:9" hidden="1">
+      <c r="B32" s="14">
         <v>2023</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D32" s="16">
         <f t="shared" si="1"/>
         <v>3688.1180000000004</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E32" s="17">
         <v>24.291</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F32" s="17">
         <v>534.15300000000002</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G32" s="17">
         <v>386.87400000000002</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H32" s="17">
         <v>2409.4070000000002</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I32" s="17">
         <v>333.39299999999997</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1">
-      <c r="B32" s="18">
+    <row r="33" spans="2:9" hidden="1">
+      <c r="B33" s="18">
         <v>2022</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D33" s="20">
         <f t="shared" si="1"/>
         <v>3593.7140000000004</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E33" s="21">
         <v>27.486999999999998</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F33" s="21">
         <v>469.17500000000001</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G33" s="21">
         <v>367.88099999999997</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H33" s="21">
         <v>2388.1680000000001</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I33" s="21">
         <v>341.00299999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1">
-      <c r="B33" s="6">
+    <row r="34" spans="2:9" hidden="1">
+      <c r="B34" s="6">
         <v>2022</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="8">
         <f t="shared" si="1"/>
         <v>3176.259</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="9">
         <v>29.056000000000001</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F34" s="9">
         <v>352.03500000000003</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G34" s="9">
         <v>362.27800000000002</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H34" s="9">
         <v>2103.806</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I34" s="9">
         <v>329.084</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1">
-      <c r="B34" s="10">
+    <row r="35" spans="2:9" hidden="1">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="12">
         <f t="shared" si="1"/>
         <v>2751.3379999999997</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>28.736000000000001</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>159.065</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="13">
         <v>370.53800000000001</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H35" s="13">
         <v>1871.356</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I35" s="13">
         <v>321.64299999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1">
-      <c r="B35" s="6">
+    <row r="36" spans="2:9" hidden="1">
+      <c r="B36" s="6">
         <v>2022</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="8">
         <f t="shared" si="1"/>
         <v>2444.5889999999999</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E36" s="9">
         <v>26.556999999999999</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F36" s="9">
         <v>109.242</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G36" s="9">
         <v>337.80200000000002</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H36" s="9">
         <v>1647.5429999999999</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I36" s="9">
         <v>323.44499999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1">
-      <c r="B36" s="10">
+    <row r="37" spans="2:9" hidden="1">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37" s="12">
         <f t="shared" si="1"/>
         <v>3059.3720000000003</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="13">
         <v>24.106000000000002</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="13">
         <v>129.88300000000001</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G37" s="13">
         <v>365.63</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H37" s="13">
         <v>2162.79</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I37" s="13">
         <v>376.96300000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1">
-      <c r="B37" s="6">
+    <row r="38" spans="2:9" hidden="1">
+      <c r="B38" s="6">
         <v>2022</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="8">
         <f t="shared" si="1"/>
         <v>3435.4599999999996</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="9">
         <v>27.568000000000001</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F38" s="9">
         <v>134.90600000000001</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G38" s="9">
         <v>389.18599999999998</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H38" s="9">
         <v>2512.8739999999998</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I38" s="9">
         <v>370.92599999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1">
-      <c r="B38" s="10">
+    <row r="39" spans="2:9" hidden="1">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D39" s="12">
         <f t="shared" si="1"/>
         <v>3093.1559999999999</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="13">
         <v>18.965</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>110.56100000000001</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="13">
         <v>334.25400000000002</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H39" s="13">
         <v>2317.81</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I39" s="13">
         <v>311.56599999999997</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1">
-      <c r="B39" s="6">
+    <row r="40" spans="2:9" hidden="1">
+      <c r="B40" s="6">
         <v>2022</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="8">
         <f t="shared" si="1"/>
         <v>2956.1289999999999</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="9">
         <v>20.163</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F40" s="9">
         <v>149.881</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G40" s="9">
         <v>337.286</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H40" s="9">
         <v>2148.29</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I40" s="9">
         <v>300.50900000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1">
-      <c r="B40" s="10">
+    <row r="41" spans="2:9" hidden="1">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D41" s="12">
         <f t="shared" si="1"/>
         <v>3203.7719999999999</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="13">
         <v>15.622</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>274.91500000000002</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="13">
         <v>325.94900000000001</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H41" s="13">
         <v>2277.3000000000002</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I41" s="13">
         <v>309.98599999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:9" hidden="1">
-      <c r="B41" s="6">
+    <row r="42" spans="2:9" hidden="1">
+      <c r="B42" s="6">
         <v>2022</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="8">
         <f t="shared" si="1"/>
         <v>3481.9719999999998</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E42" s="9">
         <v>15.776999999999999</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F42" s="9">
         <v>307.79000000000002</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G42" s="9">
         <v>314.92899999999997</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H42" s="9">
         <v>2546.2779999999998</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I42" s="9">
         <v>297.19799999999998</v>
       </c>
     </row>
-    <row r="42" spans="2:9" hidden="1">
-      <c r="B42" s="10">
+    <row r="43" spans="2:9" hidden="1">
+      <c r="B43" s="10">
         <v>2022</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D43" s="12">
         <f t="shared" si="1"/>
         <v>2693.7649999999999</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E43" s="13">
         <v>11.359</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="13">
         <v>222.19499999999999</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G43" s="13">
         <v>271.30700000000002</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H43" s="13">
         <v>1915.4079999999999</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I43" s="13">
         <v>273.49599999999998</v>
       </c>
     </row>
-    <row r="43" spans="2:9" hidden="1">
-      <c r="B43" s="14">
+    <row r="44" spans="2:9" hidden="1">
+      <c r="B44" s="14">
         <v>2022</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D44" s="16">
         <f t="shared" si="1"/>
         <v>2769.8220000000001</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E44" s="17">
         <v>13.653</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F44" s="17">
         <v>190.35400000000001</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G44" s="17">
         <v>315.01100000000002</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H44" s="17">
         <v>1937.662</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I44" s="17">
         <v>313.142</v>
       </c>
     </row>
-    <row r="44" spans="2:9" hidden="1">
-      <c r="B44" s="18">
+    <row r="45" spans="2:9" hidden="1">
+      <c r="B45" s="18">
         <v>2021</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C45" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D45" s="20">
         <f t="shared" si="1"/>
         <v>3069.6779999999999</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E45" s="21">
         <v>16.367000000000001</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F45" s="21">
         <v>236.172</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G45" s="21">
         <v>311.75400000000002</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H45" s="21">
         <v>2206.415</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I45" s="21">
         <v>298.97000000000003</v>
       </c>
     </row>
-    <row r="45" spans="2:9" hidden="1">
-      <c r="B45" s="6">
+    <row r="46" spans="2:9" hidden="1">
+      <c r="B46" s="6">
         <v>2021</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="8">
         <f t="shared" si="1"/>
         <v>2754.7190000000001</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="9">
         <v>11.896000000000001</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F46" s="9">
         <v>184.82599999999999</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G46" s="9">
         <v>300.41899999999998</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H46" s="9">
         <v>2001.278</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I46" s="9">
         <v>256.3</v>
       </c>
     </row>
-    <row r="46" spans="2:9" hidden="1">
-      <c r="B46" s="10">
+    <row r="47" spans="2:9" hidden="1">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D47" s="12">
         <f t="shared" si="1"/>
         <v>2316.2980000000002</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="13">
         <v>10.882999999999999</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>84.447999999999993</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G47" s="13">
         <v>254.08799999999999</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H47" s="13">
         <v>1782.66</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I47" s="13">
         <v>184.21899999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:9" hidden="1">
-      <c r="B47" s="6">
+    <row r="48" spans="2:9" hidden="1">
+      <c r="B48" s="6">
         <v>2021</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="8">
-        <f t="shared" ref="D47:D78" si="3">SUM(E47:I47)</f>
+      <c r="D48" s="8">
+        <f t="shared" ref="D48:D79" si="3">SUM(E48:I48)</f>
         <v>1865.069</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E48" s="9">
         <v>10.257999999999999</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F48" s="9">
         <v>42.448999999999998</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G48" s="9">
         <v>212.91</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H48" s="9">
         <v>1437.11</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I48" s="9">
         <v>162.34200000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:9" hidden="1">
-      <c r="B48" s="10">
+    <row r="49" spans="2:9" hidden="1">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D49" s="12">
         <f t="shared" si="3"/>
         <v>2398.5659999999998</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E49" s="13">
         <v>14.085000000000001</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="13">
         <v>32.247</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G49" s="13">
         <v>208.1</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H49" s="13">
         <v>1943.308</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I49" s="13">
         <v>200.82599999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:9" hidden="1">
-      <c r="B49" s="6">
+    <row r="50" spans="2:9" hidden="1">
+      <c r="B50" s="6">
         <v>2021</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="8">
         <f t="shared" si="3"/>
         <v>2799.8330000000001</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="9">
         <v>8.2119999999999997</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F50" s="9">
         <v>18.641999999999999</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G50" s="9">
         <v>191.12</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H50" s="9">
         <v>2407.3310000000001</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I50" s="9">
         <v>174.52799999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1">
-      <c r="B50" s="10">
+    <row r="51" spans="2:9" hidden="1">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D51" s="12">
         <f t="shared" si="3"/>
         <v>2533.6980000000003</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="13">
         <v>2.355</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>10.57</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G51" s="13">
         <v>151.47200000000001</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H51" s="13">
         <v>2249.7530000000002</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I51" s="13">
         <v>119.548</v>
       </c>
     </row>
-    <row r="51" spans="2:9" hidden="1">
-      <c r="B51" s="6">
+    <row r="52" spans="2:9" hidden="1">
+      <c r="B52" s="6">
         <v>2021</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D52" s="8">
         <f t="shared" si="3"/>
         <v>2195.2569999999996</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E52" s="9">
         <v>2.0950000000000002</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F52" s="9">
         <v>3.72</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G52" s="9">
         <v>121.184</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H52" s="9">
         <v>1978.444</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I52" s="9">
         <v>89.813999999999993</v>
       </c>
     </row>
-    <row r="52" spans="2:9" hidden="1">
-      <c r="B52" s="10">
+    <row r="53" spans="2:9" hidden="1">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D53" s="12">
         <f t="shared" si="3"/>
         <v>1846.8409999999999</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="13">
         <v>2.2490000000000001</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>3.7770000000000001</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="13">
         <v>106.904</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H53" s="13">
         <v>1642.9369999999999</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I53" s="13">
         <v>90.974000000000004</v>
       </c>
     </row>
-    <row r="53" spans="2:9" hidden="1">
-      <c r="B53" s="6">
+    <row r="54" spans="2:9" hidden="1">
+      <c r="B54" s="6">
         <v>2021</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="8">
         <f t="shared" si="3"/>
         <v>1665.7650000000001</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E54" s="9">
         <v>2.0640000000000001</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F54" s="9">
         <v>3.0539999999999998</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G54" s="9">
         <v>107.813</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H54" s="9">
         <v>1478.759</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I54" s="9">
         <v>74.075000000000003</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1">
-      <c r="B54" s="10">
+    <row r="55" spans="2:9" hidden="1">
+      <c r="B55" s="10">
         <v>2021</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C55" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D55" s="12">
         <f t="shared" si="3"/>
         <v>992.54899999999998</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E55" s="13">
         <v>1.5469999999999999</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="13">
         <v>4.9349999999999996</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G55" s="13">
         <v>96.123000000000005</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H55" s="13">
         <v>836.42499999999995</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I55" s="13">
         <v>53.518999999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:9" hidden="1">
-      <c r="B55" s="14">
+    <row r="56" spans="2:9" hidden="1">
+      <c r="B56" s="14">
         <v>2021</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C56" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D56" s="16">
         <f t="shared" si="3"/>
         <v>1347.152</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E56" s="17">
         <v>2.0640000000000001</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F56" s="17">
         <v>30.795999999999999</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G56" s="17">
         <v>104.605</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H56" s="17">
         <v>1132.894</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I56" s="17">
         <v>76.793000000000006</v>
       </c>
     </row>
-    <row r="56" spans="2:9" hidden="1">
-      <c r="B56" s="18">
+    <row r="57" spans="2:9" hidden="1">
+      <c r="B57" s="18">
         <v>2020</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D57" s="20">
         <f t="shared" si="3"/>
         <v>1510.221</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E57" s="21">
         <v>2.4980000000000002</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F57" s="21">
         <v>40.029000000000003</v>
       </c>
-      <c r="G56" s="21">
+      <c r="G57" s="21">
         <v>90.221999999999994</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H57" s="21">
         <v>1309.4179999999999</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I57" s="21">
         <v>68.054000000000002</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1">
-      <c r="B57" s="6">
+    <row r="58" spans="2:9" hidden="1">
+      <c r="B58" s="6">
         <v>2020</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="8">
         <f t="shared" si="3"/>
         <v>1221.7620000000002</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="9">
         <v>1.9019999999999999</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F58" s="9">
         <v>23.92</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G58" s="9">
         <v>62.817999999999998</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H58" s="9">
         <v>1101.2280000000001</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I58" s="9">
         <v>31.893999999999998</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1">
-      <c r="B58" s="10">
+    <row r="59" spans="2:9" hidden="1">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D59" s="12">
         <f t="shared" si="3"/>
         <v>993.73</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E59" s="13">
         <v>2.335</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>12.250999999999999</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="13">
         <v>27.582000000000001</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H59" s="13">
         <v>916.55399999999997</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I59" s="13">
         <v>35.008000000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:9" hidden="1">
-      <c r="B59" s="6">
+    <row r="60" spans="2:9" hidden="1">
+      <c r="B60" s="6">
         <v>2020</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D60" s="8">
         <f t="shared" si="3"/>
         <v>668.18899999999996</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E60" s="9">
         <v>1.65</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F60" s="9">
         <v>6.2169999999999996</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G60" s="9">
         <v>3.02</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H60" s="9">
         <v>633.45699999999999</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I60" s="9">
         <v>23.844999999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:9" hidden="1">
-      <c r="B60" s="10">
+    <row r="61" spans="2:9" hidden="1">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D61" s="12">
         <f t="shared" si="3"/>
         <v>611.61700000000008</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E61" s="13">
         <v>1.974</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F61" s="13">
         <v>7.2640000000000002</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G61" s="13">
         <v>0</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H61" s="13">
         <v>579.19000000000005</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I61" s="13">
         <v>23.189</v>
       </c>
     </row>
-    <row r="61" spans="2:9" hidden="1">
-      <c r="B61" s="6">
+    <row r="62" spans="2:9" hidden="1">
+      <c r="B62" s="6">
         <v>2020</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="8">
         <f t="shared" si="3"/>
         <v>501.33299999999997</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="9">
         <v>1.84</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F62" s="9">
         <v>5.6429999999999998</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G62" s="9">
         <v>0</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H62" s="9">
         <v>473.16199999999998</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I62" s="9">
         <v>20.687999999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:9" hidden="1">
-      <c r="B62" s="10">
+    <row r="63" spans="2:9" hidden="1">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D63" s="12">
         <f t="shared" si="3"/>
         <v>184.41</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E63" s="13">
         <v>1.6459999999999999</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="13">
         <v>3.5059999999999998</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="13">
         <v>0</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H63" s="13">
         <v>167.31100000000001</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I63" s="13">
         <v>11.946999999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:9" hidden="1">
-      <c r="B63" s="6">
+    <row r="64" spans="2:9" hidden="1">
+      <c r="B64" s="6">
         <v>2020</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D64" s="8">
         <f t="shared" si="3"/>
         <v>77.765000000000015</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E64" s="9">
         <v>1.1679999999999999</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F64" s="9">
         <v>3.702</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G64" s="9">
         <v>0</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H64" s="9">
         <v>68.227000000000004</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I64" s="9">
         <v>4.6680000000000001</v>
       </c>
     </row>
-    <row r="64" spans="2:9" hidden="1">
-      <c r="B64" s="10">
+    <row r="65" spans="2:9" hidden="1">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D65" s="12">
         <f t="shared" si="3"/>
         <v>60.438000000000002</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E65" s="13">
         <v>1.752</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="13">
         <v>2.8279999999999998</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G65" s="13">
         <v>0</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H65" s="13">
         <v>50.856000000000002</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I65" s="13">
         <v>5.0019999999999998</v>
       </c>
     </row>
-    <row r="65" spans="2:9" hidden="1">
-      <c r="B65" s="6">
+    <row r="66" spans="2:9" hidden="1">
+      <c r="B66" s="6">
         <v>2020</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D66" s="8">
         <f t="shared" si="3"/>
         <v>1954.8980000000001</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E66" s="9">
         <v>9.4830000000000005</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F66" s="9">
         <v>394.98700000000002</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G66" s="9">
         <v>152.84100000000001</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H66" s="9">
         <v>1225.348</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I66" s="9">
         <v>172.239</v>
       </c>
     </row>
-    <row r="66" spans="2:9" hidden="1">
-      <c r="B66" s="10">
+    <row r="67" spans="2:9" hidden="1">
+      <c r="B67" s="10">
         <v>2020</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C67" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D67" s="12">
         <f t="shared" si="3"/>
         <v>3003.6669999999999</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E67" s="13">
         <v>15.741</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F67" s="13">
         <v>656.69799999999998</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G67" s="13">
         <v>258.47000000000003</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H67" s="13">
         <v>1830.7449999999999</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I67" s="13">
         <v>242.01300000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:9" hidden="1">
-      <c r="B67" s="14">
+    <row r="68" spans="2:9" hidden="1">
+      <c r="B68" s="14">
         <v>2020</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C68" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D68" s="16">
         <f t="shared" si="3"/>
         <v>3158.4789999999998</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E68" s="17">
         <v>21.327999999999999</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F68" s="17">
         <v>658.10199999999998</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G68" s="17">
         <v>285.50799999999998</v>
       </c>
-      <c r="H67" s="17">
+      <c r="H68" s="17">
         <v>1930.8779999999999</v>
       </c>
-      <c r="I67" s="17">
+      <c r="I68" s="17">
         <v>262.66300000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1">
-      <c r="B68" s="18">
+    <row r="69" spans="2:9" hidden="1">
+      <c r="B69" s="18">
         <v>2019</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C69" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D69" s="20">
         <f t="shared" si="3"/>
         <v>3053.3690000000001</v>
       </c>
-      <c r="E68" s="21">
+      <c r="E69" s="21">
         <v>21.335999999999999</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F69" s="21">
         <v>537.62099999999998</v>
       </c>
-      <c r="G68" s="21">
+      <c r="G69" s="21">
         <v>278.39299999999997</v>
       </c>
-      <c r="H68" s="21">
+      <c r="H69" s="21">
         <v>1967.231</v>
       </c>
-      <c r="I68" s="21">
+      <c r="I69" s="21">
         <v>248.78800000000001</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1">
-      <c r="B69" s="6">
+    <row r="70" spans="2:9" hidden="1">
+      <c r="B70" s="6">
         <v>2019</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D70" s="8">
         <f t="shared" si="3"/>
         <v>2611.9189999999999</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="9">
         <v>11.728999999999999</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F70" s="9">
         <v>376.67599999999999</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G70" s="9">
         <v>277.44</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H70" s="9">
         <v>1694.2080000000001</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I70" s="9">
         <v>251.86600000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1">
-      <c r="B70" s="10">
+    <row r="71" spans="2:9" hidden="1">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D71" s="12">
         <f t="shared" si="3"/>
         <v>2142.5329999999999</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E71" s="13">
         <v>11.843</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="13">
         <v>136.84700000000001</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G71" s="13">
         <v>278.23</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H71" s="13">
         <v>1436.271</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I71" s="13">
         <v>279.34199999999998</v>
       </c>
     </row>
-    <row r="71" spans="2:9" hidden="1">
-      <c r="B71" s="6">
+    <row r="72" spans="2:9" hidden="1">
+      <c r="B72" s="6">
         <v>2019</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D72" s="8">
         <f t="shared" si="3"/>
         <v>1823.6279999999999</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E72" s="9">
         <v>12.271000000000001</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F72" s="9">
         <v>89.102000000000004</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G72" s="9">
         <v>268.56099999999998</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H72" s="9">
         <v>1146.97</v>
       </c>
-      <c r="I71" s="9">
+      <c r="I72" s="9">
         <v>306.72399999999999</v>
       </c>
     </row>
-    <row r="72" spans="2:9" hidden="1">
-      <c r="B72" s="10">
+    <row r="73" spans="2:9" hidden="1">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C73" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D73" s="12">
         <f t="shared" si="3"/>
         <v>2449.1610000000001</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E73" s="13">
         <v>13.670999999999999</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F73" s="13">
         <v>120.56399999999999</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G73" s="13">
         <v>280.00299999999999</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H73" s="13">
         <v>1673.692</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I73" s="13">
         <v>361.23099999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1">
-      <c r="B73" s="6">
+    <row r="74" spans="2:9" hidden="1">
+      <c r="B74" s="6">
         <v>2019</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D74" s="8">
         <f t="shared" si="3"/>
         <v>2801.94</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E74" s="9">
         <v>14.319000000000001</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F74" s="9">
         <v>119.633</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G74" s="9">
         <v>293.93</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H74" s="9">
         <v>2011.7629999999999</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I74" s="9">
         <v>362.29500000000002</v>
       </c>
     </row>
-    <row r="74" spans="2:9" hidden="1">
-      <c r="B74" s="10">
+    <row r="75" spans="2:9" hidden="1">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D75" s="12">
         <f t="shared" si="3"/>
         <v>2522.0529999999999</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E75" s="13">
         <v>11.54</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="13">
         <v>105.586</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G75" s="13">
         <v>282.41399999999999</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H75" s="13">
         <v>1807.0650000000001</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I75" s="13">
         <v>315.44799999999998</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1">
-      <c r="B75" s="6">
+    <row r="76" spans="2:9" hidden="1">
+      <c r="B76" s="6">
         <v>2019</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D76" s="8">
         <f t="shared" si="3"/>
         <v>2416.165</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E76" s="9">
         <v>11.512</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F76" s="9">
         <v>167.624</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G76" s="9">
         <v>301.21699999999998</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H76" s="9">
         <v>1645.127</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I76" s="9">
         <v>290.685</v>
       </c>
     </row>
-    <row r="76" spans="2:9" hidden="1">
-      <c r="B76" s="10">
+    <row r="77" spans="2:9" hidden="1">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C77" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D77" s="12">
         <f t="shared" si="3"/>
         <v>2781.3670000000002</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E77" s="13">
         <v>12.632</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="13">
         <v>403.54899999999998</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G77" s="13">
         <v>275.21800000000002</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H77" s="13">
         <v>1816.595</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I77" s="13">
         <v>273.37299999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1">
-      <c r="B77" s="6">
+    <row r="78" spans="2:9" hidden="1">
+      <c r="B78" s="6">
         <v>2019</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="8">
         <f t="shared" si="3"/>
         <v>3270.3839999999996</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E78" s="9">
         <v>11.318</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F78" s="9">
         <v>556.81700000000001</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G78" s="9">
         <v>283.60500000000002</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H78" s="9">
         <v>2176.8739999999998</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I78" s="9">
         <v>241.77</v>
       </c>
     </row>
-    <row r="78" spans="2:9" hidden="1">
-      <c r="B78" s="10">
+    <row r="79" spans="2:9" hidden="1">
+      <c r="B79" s="10">
         <v>2019</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C79" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D79" s="12">
         <f t="shared" si="3"/>
         <v>2709.8039999999996</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E79" s="13">
         <v>9.2029999999999994</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F79" s="13">
         <v>523.98800000000006</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G79" s="13">
         <v>268.82900000000001</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H79" s="13">
         <v>1706.7149999999999</v>
       </c>
-      <c r="I78" s="13">
+      <c r="I79" s="13">
         <v>201.06899999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:9" hidden="1">
-      <c r="B79" s="14">
+    <row r="80" spans="2:9" hidden="1">
+      <c r="B80" s="14">
         <v>2019</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C80" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="16">
-        <f t="shared" ref="D79:D91" si="4">SUM(E79:I79)</f>
+      <c r="D80" s="16">
+        <f t="shared" ref="D80:D92" si="4">SUM(E80:I80)</f>
         <v>2903.4210000000003</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E80" s="17">
         <v>10.77</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F80" s="17">
         <v>539.04899999999998</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G80" s="17">
         <v>301.86200000000002</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H80" s="17">
         <v>1830.36</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I80" s="17">
         <v>221.38</v>
       </c>
     </row>
-    <row r="80" spans="2:9" hidden="1">
-      <c r="B80" s="11">
+    <row r="81" spans="2:9" hidden="1">
+      <c r="B81" s="11">
         <v>2018</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C81" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D81" s="12">
         <f t="shared" si="4"/>
         <v>2900.12</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E81" s="13">
         <v>8.7880000000000003</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F81" s="13">
         <v>442.23399999999998</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G81" s="13">
         <v>286.44600000000003</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H81" s="13">
         <v>1926.6559999999999</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I81" s="13">
         <v>235.99600000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:9" hidden="1">
-      <c r="B81" s="7">
+    <row r="82" spans="2:9" hidden="1">
+      <c r="B82" s="7">
         <v>2018</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C82" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="8">
         <f t="shared" si="4"/>
         <v>2516.9179999999997</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E82" s="9">
         <v>9.0220000000000002</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F82" s="9">
         <v>315.29500000000002</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G82" s="9">
         <v>289.45400000000001</v>
       </c>
-      <c r="H81" s="9">
+      <c r="H82" s="9">
         <v>1650.2370000000001</v>
       </c>
-      <c r="I81" s="9">
+      <c r="I82" s="9">
         <v>252.91</v>
       </c>
     </row>
-    <row r="82" spans="2:9" hidden="1">
-      <c r="B82" s="11">
+    <row r="83" spans="2:9" hidden="1">
+      <c r="B83" s="11">
         <v>2018</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="12">
         <f t="shared" si="4"/>
         <v>2127.0500000000002</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E83" s="13">
         <v>9.5739999999999998</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="13">
         <v>145.04599999999999</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G83" s="13">
         <v>284.245</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H83" s="13">
         <v>1413.5550000000001</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I83" s="13">
         <v>274.63</v>
       </c>
     </row>
-    <row r="83" spans="2:9" hidden="1">
-      <c r="B83" s="7">
+    <row r="84" spans="2:9" hidden="1">
+      <c r="B84" s="7">
         <v>2018</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C84" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D84" s="8">
         <f t="shared" si="4"/>
         <v>1820.75</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E84" s="9">
         <v>8.7170000000000005</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F84" s="9">
         <v>115.482</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G84" s="9">
         <v>260.428</v>
       </c>
-      <c r="H83" s="9">
+      <c r="H84" s="9">
         <v>1151.6479999999999</v>
       </c>
-      <c r="I83" s="9">
+      <c r="I84" s="9">
         <v>284.47500000000002</v>
       </c>
     </row>
-    <row r="84" spans="2:9" hidden="1">
-      <c r="B84" s="11">
+    <row r="85" spans="2:9" hidden="1">
+      <c r="B85" s="11">
         <v>2018</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C85" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D85" s="12">
         <f t="shared" si="4"/>
         <v>2528.9700000000003</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E85" s="13">
         <v>9.6679999999999993</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F85" s="13">
         <v>146.94499999999999</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G85" s="13">
         <v>284.00099999999998</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H85" s="13">
         <v>1759.27</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I85" s="13">
         <v>329.08600000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:9" hidden="1">
-      <c r="B85" s="7">
+    <row r="86" spans="2:9" hidden="1">
+      <c r="B86" s="7">
         <v>2018</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="8">
         <f t="shared" si="4"/>
         <v>2915.5160000000001</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E86" s="9">
         <v>10.211</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F86" s="9">
         <v>149.61199999999999</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G86" s="9">
         <v>301.62799999999999</v>
       </c>
-      <c r="H85" s="9">
+      <c r="H86" s="9">
         <v>2115.8780000000002</v>
       </c>
-      <c r="I85" s="9">
+      <c r="I86" s="9">
         <v>338.18700000000001</v>
       </c>
     </row>
-    <row r="86" spans="2:9" hidden="1">
-      <c r="B86" s="11">
+    <row r="87" spans="2:9" hidden="1">
+      <c r="B87" s="11">
         <v>2018</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C87" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D87" s="12">
         <f t="shared" si="4"/>
         <v>2658.8760000000002</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E87" s="13">
         <v>8.1470000000000002</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F87" s="13">
         <v>136.459</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G87" s="13">
         <v>274.35500000000002</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H87" s="13">
         <v>1947.4549999999999</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I87" s="13">
         <v>292.45999999999998</v>
       </c>
     </row>
-    <row r="87" spans="2:9" hidden="1">
-      <c r="B87" s="7">
+    <row r="88" spans="2:9" hidden="1">
+      <c r="B88" s="7">
         <v>2018</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="8">
         <f t="shared" si="4"/>
         <v>2447.692</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E88" s="9">
         <v>8.2739999999999991</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F88" s="9">
         <v>176.994</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G88" s="9">
         <v>289.221</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H88" s="9">
         <v>1710.9349999999999</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I88" s="9">
         <v>262.26799999999997</v>
       </c>
     </row>
-    <row r="88" spans="2:9" hidden="1">
-      <c r="B88" s="11">
+    <row r="89" spans="2:9" hidden="1">
+      <c r="B89" s="11">
         <v>2018</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D89" s="12">
         <f t="shared" si="4"/>
         <v>2823.5950000000003</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E89" s="13">
         <v>9.1590000000000007</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F89" s="13">
         <v>394.92700000000002</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G89" s="13">
         <v>277.78800000000001</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H89" s="13">
         <v>1889.2940000000001</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I89" s="13">
         <v>252.42699999999999</v>
       </c>
     </row>
-    <row r="89" spans="2:9" hidden="1">
-      <c r="B89" s="7">
+    <row r="90" spans="2:9" hidden="1">
+      <c r="B90" s="7">
         <v>2018</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D90" s="8">
         <f t="shared" si="4"/>
         <v>3332.6780000000003</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E90" s="9">
         <v>9.0150000000000006</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F90" s="9">
         <v>541.36300000000006</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G90" s="9">
         <v>284.77600000000001</v>
       </c>
-      <c r="H89" s="9">
+      <c r="H90" s="9">
         <v>2258.6280000000002</v>
       </c>
-      <c r="I89" s="9">
+      <c r="I90" s="9">
         <v>238.89599999999999</v>
       </c>
     </row>
-    <row r="90" spans="2:9" hidden="1">
-      <c r="B90" s="11">
+    <row r="91" spans="2:9" hidden="1">
+      <c r="B91" s="11">
         <v>2018</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C91" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D91" s="12">
         <f t="shared" si="4"/>
         <v>2743.9390000000003</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E91" s="13">
         <v>7.4669999999999996</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F91" s="13">
         <v>478.96199999999999</v>
       </c>
-      <c r="G90" s="13">
+      <c r="G91" s="13">
         <v>269.29000000000002</v>
       </c>
-      <c r="H90" s="13">
+      <c r="H91" s="13">
         <v>1800.797</v>
       </c>
-      <c r="I90" s="13">
+      <c r="I91" s="13">
         <v>187.423</v>
       </c>
     </row>
-    <row r="91" spans="2:9" hidden="1">
-      <c r="B91" s="7">
+    <row r="92" spans="2:9" hidden="1">
+      <c r="B92" s="7">
         <v>2018</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D92" s="8">
         <f t="shared" si="4"/>
         <v>3020.2839999999997</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E92" s="9">
         <v>8.3650000000000002</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F92" s="9">
         <v>517.99800000000005</v>
       </c>
-      <c r="G91" s="9">
+      <c r="G92" s="9">
         <v>307.8</v>
       </c>
-      <c r="H91" s="9">
+      <c r="H92" s="9">
         <v>1971.394</v>
       </c>
-      <c r="I91" s="9">
+      <c r="I92" s="9">
         <v>214.727</v>
       </c>
-    </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D92" s="3"/>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D93" s="3"/>
     </row>
     <row r="94" spans="2:9">
       <c r="B94" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I94" s="22"/>
+      <c r="I95" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_por_aerolinea_inter.xlsx
+++ b/Pasajeros_por_aerolinea_inter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95C99A2-F20D-409B-AEFD-84DDC996BF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11772C27-1F45-4B16-82D1-DDAFB21CE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_32" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="26">
   <si>
     <t>Total</t>
   </si>
@@ -113,7 +113,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -328,9 +328,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -339,6 +336,9 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -550,8 +550,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I92" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="B5:I92" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I93" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="B5:I93" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -798,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I95"/>
+  <dimension ref="B2:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -833,2406 +833,2433 @@
     <row r="4" spans="2:9">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="6">
+      <c r="B6" s="11">
         <v>2025</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="12">
+        <f>SUM(E6:I6)</f>
+        <v>3583.201</v>
+      </c>
+      <c r="E6" s="13">
+        <v>28.684000000000001</v>
+      </c>
+      <c r="F6" s="13">
+        <v>612.49300000000005</v>
+      </c>
+      <c r="G6" s="13">
+        <v>333.91699999999997</v>
+      </c>
+      <c r="H6" s="13">
+        <v>2305.9450000000002</v>
+      </c>
+      <c r="I6" s="13">
+        <v>302.16199999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8">
-        <f>SUM(E6:I6)</f>
+      <c r="D7" s="8">
+        <f>SUM(E7:I7)</f>
         <v>4329.5889999999999</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="9">
         <v>26.802</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <v>833.06899999999996</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G7" s="9">
         <v>328.35199999999998</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H7" s="9">
         <v>2849.0970000000002</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I7" s="9">
         <v>292.26900000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="11">
+    <row r="8" spans="2:9">
+      <c r="B8" s="11">
         <v>2025</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="12">
-        <f>SUM(E7:I7)</f>
+      <c r="D8" s="12">
+        <f>SUM(E8:I8)</f>
         <v>3647.5239999999999</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E8" s="13">
         <v>21.972999999999999</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="13">
         <v>782.58500000000004</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G8" s="13">
         <v>317.92500000000001</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H8" s="13">
         <v>2244.0259999999998</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I8" s="13">
         <v>281.01499999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="14">
+    <row r="9" spans="2:9">
+      <c r="B9" s="14">
         <v>2025</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="16">
-        <f>SUM(E8:I8)</f>
+      <c r="D9" s="16">
+        <f>SUM(E9:I9)</f>
         <v>4016.9249999999997</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="17">
         <v>26.367000000000001</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="17">
         <v>818.02</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G9" s="17">
         <v>374.60199999999998</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H9" s="17">
         <v>2477.2089999999998</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I9" s="17">
         <v>320.72699999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="10">
+    <row r="10" spans="2:9">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="12">
-        <f>SUM(E9:I9)</f>
+      <c r="D10" s="12">
+        <f>SUM(E10:I10)</f>
         <v>4034.8559999999998</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="13">
         <v>23.154</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>717.15200000000004</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
         <v>361.37799999999999</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H10" s="13">
         <v>2595.7930000000001</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I10" s="13">
         <v>337.37900000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="6">
+    <row r="11" spans="2:9">
+      <c r="B11" s="6">
         <v>2024</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="8">
-        <f>SUM(E10:I10)</f>
+      <c r="D11" s="8">
+        <f>SUM(E11:I11)</f>
         <v>3415.2130000000002</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>26.556999999999999</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>554.6</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="9">
         <v>349.10500000000002</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H11" s="9">
         <v>2163.6680000000001</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I11" s="9">
         <v>321.28300000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="10">
+    <row r="12" spans="2:9">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12">
-        <f t="shared" ref="D11" si="0">SUM(E11:I11)</f>
+      <c r="D12" s="12">
+        <f t="shared" ref="D12" si="0">SUM(E12:I12)</f>
         <v>2785.9230000000002</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="13">
         <v>26.507999999999999</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>238.167</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G12" s="13">
         <v>344.82799999999997</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H12" s="13">
         <v>1856.6179999999999</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I12" s="13">
         <v>319.80200000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="6">
+    <row r="13" spans="2:9">
+      <c r="B13" s="6">
         <v>2024</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="8">
-        <f>SUM(E12:I12)</f>
+      <c r="D13" s="8">
+        <f>SUM(E13:I13)</f>
         <v>2297.404</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>24.936</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>151.36000000000001</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G13" s="9">
         <v>324.95699999999999</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H13" s="9">
         <v>1485.433</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I13" s="9">
         <v>310.71800000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="10">
+    <row r="14" spans="2:9">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="12">
-        <f t="shared" ref="D13:D47" si="1">SUM(E13:I13)</f>
+      <c r="D14" s="12">
+        <f t="shared" ref="D14:D48" si="1">SUM(E14:I14)</f>
         <v>2952.6910000000003</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>27.494</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>206.643</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <v>334.22300000000001</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H14" s="13">
         <v>2025.6210000000001</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I14" s="13">
         <v>358.71</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="6">
+    <row r="15" spans="2:9">
+      <c r="B15" s="6">
         <v>2024</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="8">
-        <f t="shared" ref="D14:D16" si="2">SUM(E14:I14)</f>
+      <c r="D15" s="8">
+        <f t="shared" ref="D15:D17" si="2">SUM(E15:I15)</f>
         <v>3420.3579999999997</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>28.696999999999999</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>191.22800000000001</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G15" s="9">
         <v>355.32499999999999</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H15" s="9">
         <v>2486.1129999999998</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I15" s="9">
         <v>358.995</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="10">
+    <row r="16" spans="2:9">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D16" s="12">
         <f t="shared" si="2"/>
         <v>3285.7019999999998</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>26.811</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>174.505</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <v>320.03899999999999</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H16" s="13">
         <v>2461.1149999999998</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I16" s="13">
         <v>303.23200000000003</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="6">
+    <row r="17" spans="2:9">
+      <c r="B17" s="6">
         <v>2024</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="8">
         <f t="shared" si="2"/>
         <v>3168.223</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="9">
         <v>25.436</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="9">
         <v>276.85000000000002</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G17" s="9">
         <v>312.62099999999998</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H17" s="9">
         <v>2250.1280000000002</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I17" s="9">
         <v>303.18799999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="10">
+    <row r="18" spans="2:9">
+      <c r="B18" s="10">
         <v>2024</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D18" s="12">
         <f t="shared" si="1"/>
         <v>3493.4349999999999</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="13">
         <v>25.603000000000002</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="13">
         <v>482.33699999999999</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="13">
         <v>320.24099999999999</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H18" s="13">
         <v>2363.6320000000001</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I18" s="13">
         <v>301.62200000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="6">
+    <row r="19" spans="2:9">
+      <c r="B19" s="6">
         <v>2024</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <f t="shared" si="1"/>
         <v>4273.9809999999998</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="9">
         <v>28.280999999999999</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <v>629.447</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G19" s="9">
         <v>352.47</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H19" s="9">
         <v>2932.24</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I19" s="9">
         <v>331.54300000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="10">
+    <row r="20" spans="2:9">
+      <c r="B20" s="10">
         <v>2024</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="12">
         <f t="shared" si="1"/>
         <v>3727.7490000000003</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E20" s="13">
         <v>20.6</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="13">
         <v>609.51</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G20" s="13">
         <v>331.58600000000001</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H20" s="13">
         <v>2472.3470000000002</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I20" s="13">
         <v>293.70600000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="14">
+    <row r="21" spans="2:9">
+      <c r="B21" s="14">
         <v>2024</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D21" s="16">
         <f t="shared" si="1"/>
         <v>3879.373</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E21" s="17">
         <v>24.507999999999999</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F21" s="17">
         <v>619.80499999999995</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G21" s="17">
         <v>362.28300000000002</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H21" s="17">
         <v>2549.7150000000001</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I21" s="17">
         <v>323.06200000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:9" hidden="1">
-      <c r="B21" s="18">
+    <row r="22" spans="2:9" hidden="1">
+      <c r="B22" s="18">
         <v>2023</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C22" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D22" s="20">
         <f t="shared" si="1"/>
         <v>3885.489</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E22" s="21">
         <v>25.065999999999999</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>573.83900000000006</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G22" s="21">
         <v>360.976</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H22" s="21">
         <v>2597.9949999999999</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I22" s="21">
         <v>327.613</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1">
-      <c r="B22" s="6">
+    <row r="23" spans="2:9" hidden="1">
+      <c r="B23" s="6">
         <v>2023</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <f t="shared" si="1"/>
         <v>3314.3850000000002</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="9">
         <v>26.827000000000002</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <v>435.38299999999998</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G23" s="9">
         <v>356.23</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H23" s="9">
         <v>2187.4830000000002</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I23" s="9">
         <v>308.46199999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:9" hidden="1">
-      <c r="B23" s="10">
+    <row r="24" spans="2:9" hidden="1">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D24" s="12">
         <f t="shared" si="1"/>
         <v>2815.7780000000002</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="13">
         <v>28.835999999999999</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <v>205.179</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="13">
         <v>360.21499999999997</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H24" s="13">
         <v>1882.681</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I24" s="13">
         <v>338.86700000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:9" hidden="1">
-      <c r="B24" s="6">
+    <row r="25" spans="2:9" hidden="1">
+      <c r="B25" s="6">
         <v>2023</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D25" s="8">
         <f t="shared" si="1"/>
         <v>2398.9490000000001</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E25" s="9">
         <v>27.210999999999999</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F25" s="9">
         <v>141.84700000000001</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G25" s="9">
         <v>329.32</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H25" s="9">
         <v>1569.2829999999999</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I25" s="9">
         <v>331.28800000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1">
-      <c r="B25" s="10">
+    <row r="26" spans="2:9" hidden="1">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D26" s="12">
         <f t="shared" si="1"/>
         <v>3067.1580000000004</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="13">
         <v>26.527999999999999</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>163.01300000000001</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <v>353.29</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H26" s="13">
         <v>2153.4250000000002</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I26" s="13">
         <v>370.90199999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1">
-      <c r="B26" s="6">
+    <row r="27" spans="2:9" hidden="1">
+      <c r="B27" s="6">
         <v>2023</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D27" s="8">
         <f t="shared" si="1"/>
         <v>3523.893</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>27.603999999999999</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>167.29599999999999</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G27" s="9">
         <v>366.84899999999999</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H27" s="9">
         <v>2590.7280000000001</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I27" s="9">
         <v>371.416</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1">
-      <c r="B27" s="10">
+    <row r="28" spans="2:9" hidden="1">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D28" s="12">
         <f t="shared" si="1"/>
         <v>3207.4230000000002</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>26.327000000000002</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>154.82900000000001</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>322.73</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H28" s="13">
         <v>2374.8220000000001</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I28" s="13">
         <v>328.71499999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1">
-      <c r="B28" s="6">
+    <row r="29" spans="2:9" hidden="1">
+      <c r="B29" s="6">
         <v>2023</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="8">
         <f t="shared" si="1"/>
         <v>3040.4479999999999</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <v>24.776</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <v>223.69300000000001</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G29" s="9">
         <v>337.03899999999999</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H29" s="9">
         <v>2130.366</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I29" s="9">
         <v>324.57400000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1">
-      <c r="B29" s="10">
+    <row r="30" spans="2:9" hidden="1">
+      <c r="B30" s="10">
         <v>2023</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D30" s="12">
         <f t="shared" si="1"/>
         <v>3413.116</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="13">
         <v>26.134</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="13">
         <v>453.14400000000001</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="13">
         <v>348.86700000000002</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H30" s="13">
         <v>2271.5349999999999</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I30" s="13">
         <v>313.43599999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1">
-      <c r="B30" s="6">
+    <row r="31" spans="2:9" hidden="1">
+      <c r="B31" s="6">
         <v>2023</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D31" s="8">
         <f t="shared" si="1"/>
         <v>3869.7730000000001</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>27.422999999999998</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>563.51300000000003</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G31" s="9">
         <v>346.08600000000001</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H31" s="9">
         <v>2601.7890000000002</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I31" s="9">
         <v>330.96199999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1">
-      <c r="B31" s="10">
+    <row r="32" spans="2:9" hidden="1">
+      <c r="B32" s="10">
         <v>2023</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D32" s="12">
         <f t="shared" si="1"/>
         <v>3361.9970000000003</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="13">
         <v>21.327999999999999</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="13">
         <v>517.904</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G32" s="13">
         <v>328.13</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H32" s="13">
         <v>2198.0720000000001</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I32" s="13">
         <v>296.56299999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1">
-      <c r="B32" s="14">
+    <row r="33" spans="2:9" hidden="1">
+      <c r="B33" s="14">
         <v>2023</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D33" s="16">
         <f t="shared" si="1"/>
         <v>3688.1180000000004</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E33" s="17">
         <v>24.291</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F33" s="17">
         <v>534.15300000000002</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G33" s="17">
         <v>386.87400000000002</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H33" s="17">
         <v>2409.4070000000002</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I33" s="17">
         <v>333.39299999999997</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1">
-      <c r="B33" s="18">
+    <row r="34" spans="2:9" hidden="1">
+      <c r="B34" s="18">
         <v>2022</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C34" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D34" s="20">
         <f t="shared" si="1"/>
         <v>3593.7140000000004</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E34" s="21">
         <v>27.486999999999998</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F34" s="21">
         <v>469.17500000000001</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G34" s="21">
         <v>367.88099999999997</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H34" s="21">
         <v>2388.1680000000001</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I34" s="21">
         <v>341.00299999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1">
-      <c r="B34" s="6">
+    <row r="35" spans="2:9" hidden="1">
+      <c r="B35" s="6">
         <v>2022</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D35" s="8">
         <f t="shared" si="1"/>
         <v>3176.259</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="9">
         <v>29.056000000000001</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F35" s="9">
         <v>352.03500000000003</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G35" s="9">
         <v>362.27800000000002</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H35" s="9">
         <v>2103.806</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I35" s="9">
         <v>329.084</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1">
-      <c r="B35" s="10">
+    <row r="36" spans="2:9" hidden="1">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D36" s="12">
         <f t="shared" si="1"/>
         <v>2751.3379999999997</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>28.736000000000001</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>159.065</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="13">
         <v>370.53800000000001</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H36" s="13">
         <v>1871.356</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I36" s="13">
         <v>321.64299999999997</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1">
-      <c r="B36" s="6">
+    <row r="37" spans="2:9" hidden="1">
+      <c r="B37" s="6">
         <v>2022</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D37" s="8">
         <f t="shared" si="1"/>
         <v>2444.5889999999999</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E37" s="9">
         <v>26.556999999999999</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F37" s="9">
         <v>109.242</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G37" s="9">
         <v>337.80200000000002</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H37" s="9">
         <v>1647.5429999999999</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I37" s="9">
         <v>323.44499999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1">
-      <c r="B37" s="10">
+    <row r="38" spans="2:9" hidden="1">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D38" s="12">
         <f t="shared" si="1"/>
         <v>3059.3720000000003</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="13">
         <v>24.106000000000002</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>129.88300000000001</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G38" s="13">
         <v>365.63</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H38" s="13">
         <v>2162.79</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I38" s="13">
         <v>376.96300000000002</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1">
-      <c r="B38" s="6">
+    <row r="39" spans="2:9" hidden="1">
+      <c r="B39" s="6">
         <v>2022</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D39" s="8">
         <f t="shared" si="1"/>
         <v>3435.4599999999996</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>27.568000000000001</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F39" s="9">
         <v>134.90600000000001</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G39" s="9">
         <v>389.18599999999998</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H39" s="9">
         <v>2512.8739999999998</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I39" s="9">
         <v>370.92599999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1">
-      <c r="B39" s="10">
+    <row r="40" spans="2:9" hidden="1">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D40" s="12">
         <f t="shared" si="1"/>
         <v>3093.1559999999999</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>18.965</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>110.56100000000001</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="13">
         <v>334.25400000000002</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H40" s="13">
         <v>2317.81</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I40" s="13">
         <v>311.56599999999997</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1">
-      <c r="B40" s="6">
+    <row r="41" spans="2:9" hidden="1">
+      <c r="B41" s="6">
         <v>2022</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D41" s="8">
         <f t="shared" si="1"/>
         <v>2956.1289999999999</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="9">
         <v>20.163</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F41" s="9">
         <v>149.881</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G41" s="9">
         <v>337.286</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H41" s="9">
         <v>2148.29</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I41" s="9">
         <v>300.50900000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:9" hidden="1">
-      <c r="B41" s="10">
+    <row r="42" spans="2:9" hidden="1">
+      <c r="B42" s="10">
         <v>2022</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D42" s="12">
         <f t="shared" si="1"/>
         <v>3203.7719999999999</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="13">
         <v>15.622</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="13">
         <v>274.91500000000002</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G42" s="13">
         <v>325.94900000000001</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H42" s="13">
         <v>2277.3000000000002</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I42" s="13">
         <v>309.98599999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:9" hidden="1">
-      <c r="B42" s="6">
+    <row r="43" spans="2:9" hidden="1">
+      <c r="B43" s="6">
         <v>2022</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D43" s="8">
         <f t="shared" si="1"/>
         <v>3481.9719999999998</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="9">
         <v>15.776999999999999</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F43" s="9">
         <v>307.79000000000002</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G43" s="9">
         <v>314.92899999999997</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H43" s="9">
         <v>2546.2779999999998</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I43" s="9">
         <v>297.19799999999998</v>
       </c>
     </row>
-    <row r="43" spans="2:9" hidden="1">
-      <c r="B43" s="10">
+    <row r="44" spans="2:9" hidden="1">
+      <c r="B44" s="10">
         <v>2022</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D44" s="12">
         <f t="shared" si="1"/>
         <v>2693.7649999999999</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E44" s="13">
         <v>11.359</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="13">
         <v>222.19499999999999</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G44" s="13">
         <v>271.30700000000002</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H44" s="13">
         <v>1915.4079999999999</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I44" s="13">
         <v>273.49599999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:9" hidden="1">
-      <c r="B44" s="14">
+    <row r="45" spans="2:9" hidden="1">
+      <c r="B45" s="14">
         <v>2022</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D45" s="16">
         <f t="shared" si="1"/>
         <v>2769.8220000000001</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E45" s="17">
         <v>13.653</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F45" s="17">
         <v>190.35400000000001</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G45" s="17">
         <v>315.01100000000002</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H45" s="17">
         <v>1937.662</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I45" s="17">
         <v>313.142</v>
       </c>
     </row>
-    <row r="45" spans="2:9" hidden="1">
-      <c r="B45" s="18">
+    <row r="46" spans="2:9" hidden="1">
+      <c r="B46" s="18">
         <v>2021</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C46" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D46" s="20">
         <f t="shared" si="1"/>
         <v>3069.6779999999999</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E46" s="21">
         <v>16.367000000000001</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F46" s="21">
         <v>236.172</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G46" s="21">
         <v>311.75400000000002</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H46" s="21">
         <v>2206.415</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I46" s="21">
         <v>298.97000000000003</v>
       </c>
     </row>
-    <row r="46" spans="2:9" hidden="1">
-      <c r="B46" s="6">
+    <row r="47" spans="2:9" hidden="1">
+      <c r="B47" s="6">
         <v>2021</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D47" s="8">
         <f t="shared" si="1"/>
         <v>2754.7190000000001</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="9">
         <v>11.896000000000001</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F47" s="9">
         <v>184.82599999999999</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G47" s="9">
         <v>300.41899999999998</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H47" s="9">
         <v>2001.278</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I47" s="9">
         <v>256.3</v>
       </c>
     </row>
-    <row r="47" spans="2:9" hidden="1">
-      <c r="B47" s="10">
+    <row r="48" spans="2:9" hidden="1">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D48" s="12">
         <f t="shared" si="1"/>
         <v>2316.2980000000002</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="13">
         <v>10.882999999999999</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>84.447999999999993</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G48" s="13">
         <v>254.08799999999999</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H48" s="13">
         <v>1782.66</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I48" s="13">
         <v>184.21899999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:9" hidden="1">
-      <c r="B48" s="6">
+    <row r="49" spans="2:9" hidden="1">
+      <c r="B49" s="6">
         <v>2021</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="8">
-        <f t="shared" ref="D48:D79" si="3">SUM(E48:I48)</f>
+      <c r="D49" s="8">
+        <f t="shared" ref="D49:D80" si="3">SUM(E49:I49)</f>
         <v>1865.069</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E49" s="9">
         <v>10.257999999999999</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F49" s="9">
         <v>42.448999999999998</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G49" s="9">
         <v>212.91</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H49" s="9">
         <v>1437.11</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I49" s="9">
         <v>162.34200000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:9" hidden="1">
-      <c r="B49" s="10">
+    <row r="50" spans="2:9" hidden="1">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D50" s="12">
         <f t="shared" si="3"/>
         <v>2398.5659999999998</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="13">
         <v>14.085000000000001</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>32.247</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G50" s="13">
         <v>208.1</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H50" s="13">
         <v>1943.308</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I50" s="13">
         <v>200.82599999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1">
-      <c r="B50" s="6">
+    <row r="51" spans="2:9" hidden="1">
+      <c r="B51" s="6">
         <v>2021</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D51" s="8">
         <f t="shared" si="3"/>
         <v>2799.8330000000001</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E51" s="9">
         <v>8.2119999999999997</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F51" s="9">
         <v>18.641999999999999</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G51" s="9">
         <v>191.12</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H51" s="9">
         <v>2407.3310000000001</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I51" s="9">
         <v>174.52799999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:9" hidden="1">
-      <c r="B51" s="10">
+    <row r="52" spans="2:9" hidden="1">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D52" s="12">
         <f t="shared" si="3"/>
         <v>2533.6980000000003</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>2.355</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>10.57</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="13">
         <v>151.47200000000001</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H52" s="13">
         <v>2249.7530000000002</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I52" s="13">
         <v>119.548</v>
       </c>
     </row>
-    <row r="52" spans="2:9" hidden="1">
-      <c r="B52" s="6">
+    <row r="53" spans="2:9" hidden="1">
+      <c r="B53" s="6">
         <v>2021</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D53" s="8">
         <f t="shared" si="3"/>
         <v>2195.2569999999996</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E53" s="9">
         <v>2.0950000000000002</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F53" s="9">
         <v>3.72</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G53" s="9">
         <v>121.184</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H53" s="9">
         <v>1978.444</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I53" s="9">
         <v>89.813999999999993</v>
       </c>
     </row>
-    <row r="53" spans="2:9" hidden="1">
-      <c r="B53" s="10">
+    <row r="54" spans="2:9" hidden="1">
+      <c r="B54" s="10">
         <v>2021</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D54" s="12">
         <f t="shared" si="3"/>
         <v>1846.8409999999999</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="13">
         <v>2.2490000000000001</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="13">
         <v>3.7770000000000001</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G54" s="13">
         <v>106.904</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H54" s="13">
         <v>1642.9369999999999</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I54" s="13">
         <v>90.974000000000004</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1">
-      <c r="B54" s="6">
+    <row r="55" spans="2:9" hidden="1">
+      <c r="B55" s="6">
         <v>2021</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D55" s="8">
         <f t="shared" si="3"/>
         <v>1665.7650000000001</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E55" s="9">
         <v>2.0640000000000001</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F55" s="9">
         <v>3.0539999999999998</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G55" s="9">
         <v>107.813</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H55" s="9">
         <v>1478.759</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I55" s="9">
         <v>74.075000000000003</v>
       </c>
     </row>
-    <row r="55" spans="2:9" hidden="1">
-      <c r="B55" s="10">
+    <row r="56" spans="2:9" hidden="1">
+      <c r="B56" s="10">
         <v>2021</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D56" s="12">
         <f t="shared" si="3"/>
         <v>992.54899999999998</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E56" s="13">
         <v>1.5469999999999999</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="13">
         <v>4.9349999999999996</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G56" s="13">
         <v>96.123000000000005</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H56" s="13">
         <v>836.42499999999995</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I56" s="13">
         <v>53.518999999999998</v>
       </c>
     </row>
-    <row r="56" spans="2:9" hidden="1">
-      <c r="B56" s="14">
+    <row r="57" spans="2:9" hidden="1">
+      <c r="B57" s="14">
         <v>2021</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D57" s="16">
         <f t="shared" si="3"/>
         <v>1347.152</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E57" s="17">
         <v>2.0640000000000001</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F57" s="17">
         <v>30.795999999999999</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G57" s="17">
         <v>104.605</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H57" s="17">
         <v>1132.894</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I57" s="17">
         <v>76.793000000000006</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1">
-      <c r="B57" s="18">
+    <row r="58" spans="2:9" hidden="1">
+      <c r="B58" s="18">
         <v>2020</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C58" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D58" s="20">
         <f t="shared" si="3"/>
         <v>1510.221</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E58" s="21">
         <v>2.4980000000000002</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F58" s="21">
         <v>40.029000000000003</v>
       </c>
-      <c r="G57" s="21">
+      <c r="G58" s="21">
         <v>90.221999999999994</v>
       </c>
-      <c r="H57" s="21">
+      <c r="H58" s="21">
         <v>1309.4179999999999</v>
       </c>
-      <c r="I57" s="21">
+      <c r="I58" s="21">
         <v>68.054000000000002</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1">
-      <c r="B58" s="6">
+    <row r="59" spans="2:9" hidden="1">
+      <c r="B59" s="6">
         <v>2020</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D59" s="8">
         <f t="shared" si="3"/>
         <v>1221.7620000000002</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E59" s="9">
         <v>1.9019999999999999</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F59" s="9">
         <v>23.92</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G59" s="9">
         <v>62.817999999999998</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H59" s="9">
         <v>1101.2280000000001</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I59" s="9">
         <v>31.893999999999998</v>
       </c>
     </row>
-    <row r="59" spans="2:9" hidden="1">
-      <c r="B59" s="10">
+    <row r="60" spans="2:9" hidden="1">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D60" s="12">
         <f t="shared" si="3"/>
         <v>993.73</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E60" s="13">
         <v>2.335</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>12.250999999999999</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G60" s="13">
         <v>27.582000000000001</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H60" s="13">
         <v>916.55399999999997</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I60" s="13">
         <v>35.008000000000003</v>
       </c>
     </row>
-    <row r="60" spans="2:9" hidden="1">
-      <c r="B60" s="6">
+    <row r="61" spans="2:9" hidden="1">
+      <c r="B61" s="6">
         <v>2020</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D61" s="8">
         <f t="shared" si="3"/>
         <v>668.18899999999996</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E61" s="9">
         <v>1.65</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F61" s="9">
         <v>6.2169999999999996</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G61" s="9">
         <v>3.02</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H61" s="9">
         <v>633.45699999999999</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I61" s="9">
         <v>23.844999999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:9" hidden="1">
-      <c r="B61" s="10">
+    <row r="62" spans="2:9" hidden="1">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D62" s="12">
         <f t="shared" si="3"/>
         <v>611.61700000000008</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E62" s="13">
         <v>1.974</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="13">
         <v>7.2640000000000002</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G62" s="13">
         <v>0</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H62" s="13">
         <v>579.19000000000005</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I62" s="13">
         <v>23.189</v>
       </c>
     </row>
-    <row r="62" spans="2:9" hidden="1">
-      <c r="B62" s="6">
+    <row r="63" spans="2:9" hidden="1">
+      <c r="B63" s="6">
         <v>2020</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D63" s="8">
         <f t="shared" si="3"/>
         <v>501.33299999999997</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E63" s="9">
         <v>1.84</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F63" s="9">
         <v>5.6429999999999998</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G63" s="9">
         <v>0</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H63" s="9">
         <v>473.16199999999998</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I63" s="9">
         <v>20.687999999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:9" hidden="1">
-      <c r="B63" s="10">
+    <row r="64" spans="2:9" hidden="1">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D64" s="12">
         <f t="shared" si="3"/>
         <v>184.41</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>1.6459999999999999</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>3.5059999999999998</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="13">
         <v>0</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H64" s="13">
         <v>167.31100000000001</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I64" s="13">
         <v>11.946999999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:9" hidden="1">
-      <c r="B64" s="6">
+    <row r="65" spans="2:9" hidden="1">
+      <c r="B65" s="6">
         <v>2020</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D65" s="8">
         <f t="shared" si="3"/>
         <v>77.765000000000015</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E65" s="9">
         <v>1.1679999999999999</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F65" s="9">
         <v>3.702</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G65" s="9">
         <v>0</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H65" s="9">
         <v>68.227000000000004</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I65" s="9">
         <v>4.6680000000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:9" hidden="1">
-      <c r="B65" s="10">
+    <row r="66" spans="2:9" hidden="1">
+      <c r="B66" s="10">
         <v>2020</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C66" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D66" s="12">
         <f t="shared" si="3"/>
         <v>60.438000000000002</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E66" s="13">
         <v>1.752</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F66" s="13">
         <v>2.8279999999999998</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G66" s="13">
         <v>0</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H66" s="13">
         <v>50.856000000000002</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I66" s="13">
         <v>5.0019999999999998</v>
       </c>
     </row>
-    <row r="66" spans="2:9" hidden="1">
-      <c r="B66" s="6">
+    <row r="67" spans="2:9" hidden="1">
+      <c r="B67" s="6">
         <v>2020</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D67" s="8">
         <f t="shared" si="3"/>
         <v>1954.8980000000001</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E67" s="9">
         <v>9.4830000000000005</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F67" s="9">
         <v>394.98700000000002</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G67" s="9">
         <v>152.84100000000001</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H67" s="9">
         <v>1225.348</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I67" s="9">
         <v>172.239</v>
       </c>
     </row>
-    <row r="67" spans="2:9" hidden="1">
-      <c r="B67" s="10">
+    <row r="68" spans="2:9" hidden="1">
+      <c r="B68" s="10">
         <v>2020</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D68" s="12">
         <f t="shared" si="3"/>
         <v>3003.6669999999999</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E68" s="13">
         <v>15.741</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="13">
         <v>656.69799999999998</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G68" s="13">
         <v>258.47000000000003</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H68" s="13">
         <v>1830.7449999999999</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I68" s="13">
         <v>242.01300000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1">
-      <c r="B68" s="14">
+    <row r="69" spans="2:9" hidden="1">
+      <c r="B69" s="14">
         <v>2020</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D69" s="16">
         <f t="shared" si="3"/>
         <v>3158.4789999999998</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E69" s="17">
         <v>21.327999999999999</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F69" s="17">
         <v>658.10199999999998</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G69" s="17">
         <v>285.50799999999998</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H69" s="17">
         <v>1930.8779999999999</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I69" s="17">
         <v>262.66300000000001</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1">
-      <c r="B69" s="18">
+    <row r="70" spans="2:9" hidden="1">
+      <c r="B70" s="18">
         <v>2019</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C70" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D70" s="20">
         <f t="shared" si="3"/>
         <v>3053.3690000000001</v>
       </c>
-      <c r="E69" s="21">
+      <c r="E70" s="21">
         <v>21.335999999999999</v>
       </c>
-      <c r="F69" s="21">
+      <c r="F70" s="21">
         <v>537.62099999999998</v>
       </c>
-      <c r="G69" s="21">
+      <c r="G70" s="21">
         <v>278.39299999999997</v>
       </c>
-      <c r="H69" s="21">
+      <c r="H70" s="21">
         <v>1967.231</v>
       </c>
-      <c r="I69" s="21">
+      <c r="I70" s="21">
         <v>248.78800000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1">
-      <c r="B70" s="6">
+    <row r="71" spans="2:9" hidden="1">
+      <c r="B71" s="6">
         <v>2019</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D71" s="8">
         <f t="shared" si="3"/>
         <v>2611.9189999999999</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E71" s="9">
         <v>11.728999999999999</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F71" s="9">
         <v>376.67599999999999</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G71" s="9">
         <v>277.44</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H71" s="9">
         <v>1694.2080000000001</v>
       </c>
-      <c r="I70" s="9">
+      <c r="I71" s="9">
         <v>251.86600000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:9" hidden="1">
-      <c r="B71" s="10">
+    <row r="72" spans="2:9" hidden="1">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D72" s="12">
         <f t="shared" si="3"/>
         <v>2142.5329999999999</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E72" s="13">
         <v>11.843</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>136.84700000000001</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G72" s="13">
         <v>278.23</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H72" s="13">
         <v>1436.271</v>
       </c>
-      <c r="I71" s="13">
+      <c r="I72" s="13">
         <v>279.34199999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:9" hidden="1">
-      <c r="B72" s="6">
+    <row r="73" spans="2:9" hidden="1">
+      <c r="B73" s="6">
         <v>2019</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D73" s="8">
         <f t="shared" si="3"/>
         <v>1823.6279999999999</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E73" s="9">
         <v>12.271000000000001</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F73" s="9">
         <v>89.102000000000004</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G73" s="9">
         <v>268.56099999999998</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H73" s="9">
         <v>1146.97</v>
       </c>
-      <c r="I72" s="9">
+      <c r="I73" s="9">
         <v>306.72399999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1">
-      <c r="B73" s="10">
+    <row r="74" spans="2:9" hidden="1">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C74" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D74" s="12">
         <f t="shared" si="3"/>
         <v>2449.1610000000001</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E74" s="13">
         <v>13.670999999999999</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="13">
         <v>120.56399999999999</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G74" s="13">
         <v>280.00299999999999</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H74" s="13">
         <v>1673.692</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I74" s="13">
         <v>361.23099999999999</v>
       </c>
     </row>
-    <row r="74" spans="2:9" hidden="1">
-      <c r="B74" s="6">
+    <row r="75" spans="2:9" hidden="1">
+      <c r="B75" s="6">
         <v>2019</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D75" s="8">
         <f t="shared" si="3"/>
         <v>2801.94</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E75" s="9">
         <v>14.319000000000001</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F75" s="9">
         <v>119.633</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G75" s="9">
         <v>293.93</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H75" s="9">
         <v>2011.7629999999999</v>
       </c>
-      <c r="I74" s="9">
+      <c r="I75" s="9">
         <v>362.29500000000002</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1">
-      <c r="B75" s="10">
+    <row r="76" spans="2:9" hidden="1">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D76" s="12">
         <f t="shared" si="3"/>
         <v>2522.0529999999999</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E76" s="13">
         <v>11.54</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>105.586</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G76" s="13">
         <v>282.41399999999999</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H76" s="13">
         <v>1807.0650000000001</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I76" s="13">
         <v>315.44799999999998</v>
       </c>
     </row>
-    <row r="76" spans="2:9" hidden="1">
-      <c r="B76" s="6">
+    <row r="77" spans="2:9" hidden="1">
+      <c r="B77" s="6">
         <v>2019</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D77" s="8">
         <f t="shared" si="3"/>
         <v>2416.165</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E77" s="9">
         <v>11.512</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F77" s="9">
         <v>167.624</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G77" s="9">
         <v>301.21699999999998</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H77" s="9">
         <v>1645.127</v>
       </c>
-      <c r="I76" s="9">
+      <c r="I77" s="9">
         <v>290.685</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1">
-      <c r="B77" s="10">
+    <row r="78" spans="2:9" hidden="1">
+      <c r="B78" s="10">
         <v>2019</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C78" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D78" s="12">
         <f t="shared" si="3"/>
         <v>2781.3670000000002</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E78" s="13">
         <v>12.632</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F78" s="13">
         <v>403.54899999999998</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G78" s="13">
         <v>275.21800000000002</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H78" s="13">
         <v>1816.595</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I78" s="13">
         <v>273.37299999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:9" hidden="1">
-      <c r="B78" s="6">
+    <row r="79" spans="2:9" hidden="1">
+      <c r="B79" s="6">
         <v>2019</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D79" s="8">
         <f t="shared" si="3"/>
         <v>3270.3839999999996</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E79" s="9">
         <v>11.318</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F79" s="9">
         <v>556.81700000000001</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G79" s="9">
         <v>283.60500000000002</v>
       </c>
-      <c r="H78" s="9">
+      <c r="H79" s="9">
         <v>2176.8739999999998</v>
       </c>
-      <c r="I78" s="9">
+      <c r="I79" s="9">
         <v>241.77</v>
       </c>
     </row>
-    <row r="79" spans="2:9" hidden="1">
-      <c r="B79" s="10">
+    <row r="80" spans="2:9" hidden="1">
+      <c r="B80" s="10">
         <v>2019</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D80" s="12">
         <f t="shared" si="3"/>
         <v>2709.8039999999996</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E80" s="13">
         <v>9.2029999999999994</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F80" s="13">
         <v>523.98800000000006</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G80" s="13">
         <v>268.82900000000001</v>
       </c>
-      <c r="H79" s="13">
+      <c r="H80" s="13">
         <v>1706.7149999999999</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I80" s="13">
         <v>201.06899999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:9" hidden="1">
-      <c r="B80" s="14">
+    <row r="81" spans="2:9" hidden="1">
+      <c r="B81" s="14">
         <v>2019</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C81" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="16">
-        <f t="shared" ref="D80:D92" si="4">SUM(E80:I80)</f>
+      <c r="D81" s="16">
+        <f t="shared" ref="D81:D93" si="4">SUM(E81:I81)</f>
         <v>2903.4210000000003</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E81" s="17">
         <v>10.77</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F81" s="17">
         <v>539.04899999999998</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G81" s="17">
         <v>301.86200000000002</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H81" s="17">
         <v>1830.36</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I81" s="17">
         <v>221.38</v>
       </c>
     </row>
-    <row r="81" spans="2:9" hidden="1">
-      <c r="B81" s="11">
+    <row r="82" spans="2:9" hidden="1">
+      <c r="B82" s="11">
         <v>2018</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C82" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D82" s="12">
         <f t="shared" si="4"/>
         <v>2900.12</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E82" s="13">
         <v>8.7880000000000003</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F82" s="13">
         <v>442.23399999999998</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G82" s="13">
         <v>286.44600000000003</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H82" s="13">
         <v>1926.6559999999999</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I82" s="13">
         <v>235.99600000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:9" hidden="1">
-      <c r="B82" s="7">
+    <row r="83" spans="2:9" hidden="1">
+      <c r="B83" s="7">
         <v>2018</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D83" s="8">
         <f t="shared" si="4"/>
         <v>2516.9179999999997</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E83" s="9">
         <v>9.0220000000000002</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F83" s="9">
         <v>315.29500000000002</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G83" s="9">
         <v>289.45400000000001</v>
       </c>
-      <c r="H82" s="9">
+      <c r="H83" s="9">
         <v>1650.2370000000001</v>
       </c>
-      <c r="I82" s="9">
+      <c r="I83" s="9">
         <v>252.91</v>
       </c>
     </row>
-    <row r="83" spans="2:9" hidden="1">
-      <c r="B83" s="11">
+    <row r="84" spans="2:9" hidden="1">
+      <c r="B84" s="11">
         <v>2018</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D84" s="12">
         <f t="shared" si="4"/>
         <v>2127.0500000000002</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E84" s="13">
         <v>9.5739999999999998</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F84" s="13">
         <v>145.04599999999999</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G84" s="13">
         <v>284.245</v>
       </c>
-      <c r="H83" s="13">
+      <c r="H84" s="13">
         <v>1413.5550000000001</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I84" s="13">
         <v>274.63</v>
       </c>
     </row>
-    <row r="84" spans="2:9" hidden="1">
-      <c r="B84" s="7">
+    <row r="85" spans="2:9" hidden="1">
+      <c r="B85" s="7">
         <v>2018</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C85" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D85" s="8">
         <f t="shared" si="4"/>
         <v>1820.75</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E85" s="9">
         <v>8.7170000000000005</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F85" s="9">
         <v>115.482</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G85" s="9">
         <v>260.428</v>
       </c>
-      <c r="H84" s="9">
+      <c r="H85" s="9">
         <v>1151.6479999999999</v>
       </c>
-      <c r="I84" s="9">
+      <c r="I85" s="9">
         <v>284.47500000000002</v>
       </c>
     </row>
-    <row r="85" spans="2:9" hidden="1">
-      <c r="B85" s="11">
+    <row r="86" spans="2:9" hidden="1">
+      <c r="B86" s="11">
         <v>2018</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D86" s="12">
         <f t="shared" si="4"/>
         <v>2528.9700000000003</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E86" s="13">
         <v>9.6679999999999993</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F86" s="13">
         <v>146.94499999999999</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G86" s="13">
         <v>284.00099999999998</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H86" s="13">
         <v>1759.27</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I86" s="13">
         <v>329.08600000000001</v>
       </c>
     </row>
-    <row r="86" spans="2:9" hidden="1">
-      <c r="B86" s="7">
+    <row r="87" spans="2:9" hidden="1">
+      <c r="B87" s="7">
         <v>2018</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C87" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D87" s="8">
         <f t="shared" si="4"/>
         <v>2915.5160000000001</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E87" s="9">
         <v>10.211</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F87" s="9">
         <v>149.61199999999999</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G87" s="9">
         <v>301.62799999999999</v>
       </c>
-      <c r="H86" s="9">
+      <c r="H87" s="9">
         <v>2115.8780000000002</v>
       </c>
-      <c r="I86" s="9">
+      <c r="I87" s="9">
         <v>338.18700000000001</v>
       </c>
     </row>
-    <row r="87" spans="2:9" hidden="1">
-      <c r="B87" s="11">
+    <row r="88" spans="2:9" hidden="1">
+      <c r="B88" s="11">
         <v>2018</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D88" s="12">
         <f t="shared" si="4"/>
         <v>2658.8760000000002</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E88" s="13">
         <v>8.1470000000000002</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F88" s="13">
         <v>136.459</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G88" s="13">
         <v>274.35500000000002</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H88" s="13">
         <v>1947.4549999999999</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I88" s="13">
         <v>292.45999999999998</v>
       </c>
     </row>
-    <row r="88" spans="2:9" hidden="1">
-      <c r="B88" s="7">
+    <row r="89" spans="2:9" hidden="1">
+      <c r="B89" s="7">
         <v>2018</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D89" s="8">
         <f t="shared" si="4"/>
         <v>2447.692</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E89" s="9">
         <v>8.2739999999999991</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F89" s="9">
         <v>176.994</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G89" s="9">
         <v>289.221</v>
       </c>
-      <c r="H88" s="9">
+      <c r="H89" s="9">
         <v>1710.9349999999999</v>
       </c>
-      <c r="I88" s="9">
+      <c r="I89" s="9">
         <v>262.26799999999997</v>
       </c>
     </row>
-    <row r="89" spans="2:9" hidden="1">
-      <c r="B89" s="11">
+    <row r="90" spans="2:9" hidden="1">
+      <c r="B90" s="11">
         <v>2018</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C90" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D90" s="12">
         <f t="shared" si="4"/>
         <v>2823.5950000000003</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E90" s="13">
         <v>9.1590000000000007</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F90" s="13">
         <v>394.92700000000002</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G90" s="13">
         <v>277.78800000000001</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H90" s="13">
         <v>1889.2940000000001</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I90" s="13">
         <v>252.42699999999999</v>
       </c>
     </row>
-    <row r="90" spans="2:9" hidden="1">
-      <c r="B90" s="7">
+    <row r="91" spans="2:9" hidden="1">
+      <c r="B91" s="7">
         <v>2018</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D91" s="8">
         <f t="shared" si="4"/>
         <v>3332.6780000000003</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E91" s="9">
         <v>9.0150000000000006</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F91" s="9">
         <v>541.36300000000006</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G91" s="9">
         <v>284.77600000000001</v>
       </c>
-      <c r="H90" s="9">
+      <c r="H91" s="9">
         <v>2258.6280000000002</v>
       </c>
-      <c r="I90" s="9">
+      <c r="I91" s="9">
         <v>238.89599999999999</v>
       </c>
     </row>
-    <row r="91" spans="2:9" hidden="1">
-      <c r="B91" s="11">
+    <row r="92" spans="2:9" hidden="1">
+      <c r="B92" s="11">
         <v>2018</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C92" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D92" s="12">
         <f t="shared" si="4"/>
         <v>2743.9390000000003</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E92" s="13">
         <v>7.4669999999999996</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F92" s="13">
         <v>478.96199999999999</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G92" s="13">
         <v>269.29000000000002</v>
       </c>
-      <c r="H91" s="13">
+      <c r="H92" s="13">
         <v>1800.797</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I92" s="13">
         <v>187.423</v>
       </c>
     </row>
-    <row r="92" spans="2:9" hidden="1">
-      <c r="B92" s="7">
+    <row r="93" spans="2:9" hidden="1">
+      <c r="B93" s="7">
         <v>2018</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D93" s="8">
         <f t="shared" si="4"/>
         <v>3020.2839999999997</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E93" s="9">
         <v>8.3650000000000002</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F93" s="9">
         <v>517.99800000000005</v>
       </c>
-      <c r="G92" s="9">
+      <c r="G93" s="9">
         <v>307.8</v>
       </c>
-      <c r="H92" s="9">
+      <c r="H93" s="9">
         <v>1971.394</v>
       </c>
-      <c r="I92" s="9">
+      <c r="I93" s="9">
         <v>214.727</v>
       </c>
-    </row>
-    <row r="93" spans="2:9">
-      <c r="B93" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D93" s="3"/>
     </row>
     <row r="94" spans="2:9">
       <c r="B94" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D94" s="3"/>
     </row>
     <row r="95" spans="2:9">
       <c r="B95" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I95" s="22"/>
+      <c r="I96" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_por_aerolinea_inter.xlsx
+++ b/Pasajeros_por_aerolinea_inter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11772C27-1F45-4B16-82D1-DDAFB21CE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FD9380-2269-492A-A6B6-CC237229C31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="26">
   <si>
     <t>Total</t>
   </si>
@@ -113,7 +113,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -550,8 +550,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I93" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="B5:I93" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I95" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="B5:I95" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -798,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I96"/>
+  <dimension ref="B2:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -873,26 +873,26 @@
         <v>2025</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="12">
         <f>SUM(E6:I6)</f>
-        <v>3583.201</v>
+        <v>3215.7610000000004</v>
       </c>
       <c r="E6" s="13">
-        <v>28.684000000000001</v>
+        <v>28.652999999999999</v>
       </c>
       <c r="F6" s="13">
-        <v>612.49300000000005</v>
+        <v>194.989</v>
       </c>
       <c r="G6" s="13">
-        <v>333.91699999999997</v>
+        <v>325.02800000000002</v>
       </c>
       <c r="H6" s="13">
-        <v>2305.9450000000002</v>
+        <v>2372.4670000000001</v>
       </c>
       <c r="I6" s="13">
-        <v>302.16199999999998</v>
+        <v>294.62400000000002</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -900,26 +900,26 @@
         <v>2025</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="8">
         <f>SUM(E7:I7)</f>
-        <v>4329.5889999999999</v>
+        <v>3049.364</v>
       </c>
       <c r="E7" s="9">
-        <v>26.802</v>
+        <v>29.518000000000001</v>
       </c>
       <c r="F7" s="9">
-        <v>833.06899999999996</v>
+        <v>256.26400000000001</v>
       </c>
       <c r="G7" s="9">
-        <v>328.35199999999998</v>
+        <v>327.99900000000002</v>
       </c>
       <c r="H7" s="9">
-        <v>2849.0970000000002</v>
+        <v>2135.8130000000001</v>
       </c>
       <c r="I7" s="9">
-        <v>292.26900000000001</v>
+        <v>299.77</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -927,107 +927,107 @@
         <v>2025</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" ref="D8:D13" si="0">SUM(E8:I8)</f>
+        <v>3583.3269999999998</v>
+      </c>
+      <c r="E8" s="13">
+        <v>28.684000000000001</v>
+      </c>
+      <c r="F8" s="13">
+        <v>612.49300000000005</v>
+      </c>
+      <c r="G8" s="13">
+        <v>334.04300000000001</v>
+      </c>
+      <c r="H8" s="13">
+        <v>2305.9450000000002</v>
+      </c>
+      <c r="I8" s="13">
+        <v>302.16199999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>4330.058</v>
+      </c>
+      <c r="E9" s="9">
+        <v>26.802</v>
+      </c>
+      <c r="F9" s="9">
+        <v>833.06899999999996</v>
+      </c>
+      <c r="G9" s="9">
+        <v>328.82100000000003</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2849.0970000000002</v>
+      </c>
+      <c r="I9" s="9">
+        <v>292.26900000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="12">
-        <f>SUM(E8:I8)</f>
+      <c r="D10" s="12">
+        <f t="shared" si="0"/>
         <v>3647.5239999999999</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E10" s="13">
         <v>21.972999999999999</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F10" s="13">
         <v>782.58500000000004</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G10" s="13">
         <v>317.92500000000001</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H10" s="13">
         <v>2244.0259999999998</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I10" s="13">
         <v>281.01499999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="14">
+    <row r="11" spans="2:9">
+      <c r="B11" s="14">
         <v>2025</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="16">
-        <f>SUM(E9:I9)</f>
+      <c r="D11" s="16">
+        <f t="shared" si="0"/>
         <v>4016.9249999999997</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E11" s="17">
         <v>26.367000000000001</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F11" s="17">
         <v>818.02</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G11" s="17">
         <v>374.60199999999998</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H11" s="17">
         <v>2477.2089999999998</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I11" s="17">
         <v>320.72699999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="12">
-        <f>SUM(E10:I10)</f>
-        <v>4034.8559999999998</v>
-      </c>
-      <c r="E10" s="13">
-        <v>23.154</v>
-      </c>
-      <c r="F10" s="13">
-        <v>717.15200000000004</v>
-      </c>
-      <c r="G10" s="13">
-        <v>361.37799999999999</v>
-      </c>
-      <c r="H10" s="13">
-        <v>2595.7930000000001</v>
-      </c>
-      <c r="I10" s="13">
-        <v>337.37900000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="6">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="8">
-        <f>SUM(E11:I11)</f>
-        <v>3415.2130000000002</v>
-      </c>
-      <c r="E11" s="9">
-        <v>26.556999999999999</v>
-      </c>
-      <c r="F11" s="9">
-        <v>554.6</v>
-      </c>
-      <c r="G11" s="9">
-        <v>349.10500000000002</v>
-      </c>
-      <c r="H11" s="9">
-        <v>2163.6680000000001</v>
-      </c>
-      <c r="I11" s="9">
-        <v>321.28300000000002</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -1035,26 +1035,26 @@
         <v>2024</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="12">
-        <f t="shared" ref="D12" si="0">SUM(E12:I12)</f>
-        <v>2785.9230000000002</v>
+        <f t="shared" si="0"/>
+        <v>4044.009</v>
       </c>
       <c r="E12" s="13">
-        <v>26.507999999999999</v>
+        <v>25.542000000000002</v>
       </c>
       <c r="F12" s="13">
-        <v>238.167</v>
+        <v>717.15200000000004</v>
       </c>
       <c r="G12" s="13">
-        <v>344.82799999999997</v>
+        <v>368.14299999999997</v>
       </c>
       <c r="H12" s="13">
-        <v>1856.6179999999999</v>
+        <v>2595.7930000000001</v>
       </c>
       <c r="I12" s="13">
-        <v>319.80200000000002</v>
+        <v>337.37900000000002</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -1062,26 +1062,26 @@
         <v>2024</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="8">
-        <f>SUM(E13:I13)</f>
-        <v>2297.404</v>
+        <f t="shared" si="0"/>
+        <v>3421.2509999999997</v>
       </c>
       <c r="E13" s="9">
-        <v>24.936</v>
+        <v>29.279</v>
       </c>
       <c r="F13" s="9">
-        <v>151.36000000000001</v>
+        <v>554.6</v>
       </c>
       <c r="G13" s="9">
-        <v>324.95699999999999</v>
+        <v>352.42099999999999</v>
       </c>
       <c r="H13" s="9">
-        <v>1485.433</v>
+        <v>2163.6680000000001</v>
       </c>
       <c r="I13" s="9">
-        <v>310.71800000000002</v>
+        <v>321.28300000000002</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -1089,26 +1089,26 @@
         <v>2024</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D14" s="12">
-        <f t="shared" ref="D14:D48" si="1">SUM(E14:I14)</f>
-        <v>2952.6910000000003</v>
+        <f t="shared" ref="D14" si="1">SUM(E14:I14)</f>
+        <v>2791.895</v>
       </c>
       <c r="E14" s="13">
-        <v>27.494</v>
+        <v>29.082999999999998</v>
       </c>
       <c r="F14" s="13">
-        <v>206.643</v>
+        <v>238.167</v>
       </c>
       <c r="G14" s="13">
-        <v>334.22300000000001</v>
+        <v>348.22500000000002</v>
       </c>
       <c r="H14" s="13">
-        <v>2025.6210000000001</v>
+        <v>1856.6179999999999</v>
       </c>
       <c r="I14" s="13">
-        <v>358.71</v>
+        <v>319.80200000000002</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -1116,26 +1116,26 @@
         <v>2024</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" ref="D15:D17" si="2">SUM(E15:I15)</f>
-        <v>3420.3579999999997</v>
+        <f>SUM(E15:I15)</f>
+        <v>2304.4699999999998</v>
       </c>
       <c r="E15" s="9">
-        <v>28.696999999999999</v>
+        <v>27.292999999999999</v>
       </c>
       <c r="F15" s="9">
-        <v>191.22800000000001</v>
+        <v>151.36000000000001</v>
       </c>
       <c r="G15" s="9">
-        <v>355.32499999999999</v>
+        <v>329.666</v>
       </c>
       <c r="H15" s="9">
-        <v>2486.1129999999998</v>
+        <v>1485.433</v>
       </c>
       <c r="I15" s="9">
-        <v>358.995</v>
+        <v>310.71800000000002</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -1143,26 +1143,26 @@
         <v>2024</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" s="12">
-        <f t="shared" si="2"/>
-        <v>3285.7019999999998</v>
+        <f t="shared" ref="D16:D50" si="2">SUM(E16:I16)</f>
+        <v>2956.98</v>
       </c>
       <c r="E16" s="13">
-        <v>26.811</v>
+        <v>27.494</v>
       </c>
       <c r="F16" s="13">
-        <v>174.505</v>
+        <v>206.643</v>
       </c>
       <c r="G16" s="13">
-        <v>320.03899999999999</v>
+        <v>338.512</v>
       </c>
       <c r="H16" s="13">
-        <v>2461.1149999999998</v>
+        <v>2025.6210000000001</v>
       </c>
       <c r="I16" s="13">
-        <v>303.23200000000003</v>
+        <v>358.71</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -1170,26 +1170,26 @@
         <v>2024</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="2"/>
-        <v>3168.223</v>
+        <f t="shared" ref="D17:D19" si="3">SUM(E17:I17)</f>
+        <v>3425.9629999999997</v>
       </c>
       <c r="E17" s="9">
-        <v>25.436</v>
+        <v>31.13</v>
       </c>
       <c r="F17" s="9">
-        <v>276.85000000000002</v>
+        <v>191.22800000000001</v>
       </c>
       <c r="G17" s="9">
-        <v>312.62099999999998</v>
+        <v>358.49700000000001</v>
       </c>
       <c r="H17" s="9">
-        <v>2250.1280000000002</v>
+        <v>2486.1129999999998</v>
       </c>
       <c r="I17" s="9">
-        <v>303.18799999999999</v>
+        <v>358.995</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -1197,26 +1197,26 @@
         <v>2024</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="12">
-        <f t="shared" si="1"/>
-        <v>3493.4349999999999</v>
+        <f t="shared" si="3"/>
+        <v>3290.2299999999996</v>
       </c>
       <c r="E18" s="13">
-        <v>25.603000000000002</v>
+        <v>29.17</v>
       </c>
       <c r="F18" s="13">
-        <v>482.33699999999999</v>
+        <v>174.505</v>
       </c>
       <c r="G18" s="13">
-        <v>320.24099999999999</v>
+        <v>322.20800000000003</v>
       </c>
       <c r="H18" s="13">
-        <v>2363.6320000000001</v>
+        <v>2461.1149999999998</v>
       </c>
       <c r="I18" s="13">
-        <v>301.62200000000001</v>
+        <v>303.23200000000003</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -1224,26 +1224,26 @@
         <v>2024</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="1"/>
-        <v>4273.9809999999998</v>
+        <f t="shared" si="3"/>
+        <v>3170.2150000000001</v>
       </c>
       <c r="E19" s="9">
-        <v>28.280999999999999</v>
+        <v>25.436</v>
       </c>
       <c r="F19" s="9">
-        <v>629.447</v>
+        <v>276.85000000000002</v>
       </c>
       <c r="G19" s="9">
-        <v>352.47</v>
+        <v>314.613</v>
       </c>
       <c r="H19" s="9">
-        <v>2932.24</v>
+        <v>2250.1280000000002</v>
       </c>
       <c r="I19" s="9">
-        <v>331.54300000000001</v>
+        <v>303.18799999999999</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -1251,134 +1251,134 @@
         <v>2024</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="2"/>
+        <v>3495.9689999999996</v>
+      </c>
+      <c r="E20" s="13">
+        <v>25.603000000000002</v>
+      </c>
+      <c r="F20" s="13">
+        <v>482.33699999999999</v>
+      </c>
+      <c r="G20" s="13">
+        <v>322.77499999999998</v>
+      </c>
+      <c r="H20" s="13">
+        <v>2363.6320000000001</v>
+      </c>
+      <c r="I20" s="13">
+        <v>301.62200000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="2"/>
+        <v>4276.7569999999996</v>
+      </c>
+      <c r="E21" s="9">
+        <v>28.280999999999999</v>
+      </c>
+      <c r="F21" s="9">
+        <v>629.447</v>
+      </c>
+      <c r="G21" s="9">
+        <v>355.24599999999998</v>
+      </c>
+      <c r="H21" s="9">
+        <v>2932.24</v>
+      </c>
+      <c r="I21" s="9">
+        <v>331.54300000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="12">
-        <f t="shared" si="1"/>
-        <v>3727.7490000000003</v>
-      </c>
-      <c r="E20" s="13">
+      <c r="D22" s="12">
+        <f t="shared" si="2"/>
+        <v>3729.9340000000002</v>
+      </c>
+      <c r="E22" s="13">
         <v>20.6</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F22" s="13">
         <v>609.51</v>
       </c>
-      <c r="G20" s="13">
-        <v>331.58600000000001</v>
-      </c>
-      <c r="H20" s="13">
+      <c r="G22" s="13">
+        <v>333.77100000000002</v>
+      </c>
+      <c r="H22" s="13">
         <v>2472.3470000000002</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I22" s="13">
         <v>293.70600000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="14">
+    <row r="23" spans="2:9">
+      <c r="B23" s="14">
         <v>2024</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="16">
-        <f t="shared" si="1"/>
-        <v>3879.373</v>
-      </c>
-      <c r="E21" s="17">
+      <c r="D23" s="16">
+        <f t="shared" si="2"/>
+        <v>3883.8310000000001</v>
+      </c>
+      <c r="E23" s="17">
         <v>24.507999999999999</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F23" s="17">
         <v>619.80499999999995</v>
       </c>
-      <c r="G21" s="17">
-        <v>362.28300000000002</v>
-      </c>
-      <c r="H21" s="17">
+      <c r="G23" s="17">
+        <v>366.74099999999999</v>
+      </c>
+      <c r="H23" s="17">
         <v>2549.7150000000001</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I23" s="17">
         <v>323.06200000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1">
-      <c r="B22" s="18">
+    <row r="24" spans="2:9" hidden="1">
+      <c r="B24" s="18">
         <v>2023</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="20">
-        <f t="shared" si="1"/>
+      <c r="D24" s="20">
+        <f t="shared" si="2"/>
         <v>3885.489</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E24" s="21">
         <v>25.065999999999999</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F24" s="13">
         <v>573.83900000000006</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G24" s="21">
         <v>360.976</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H24" s="21">
         <v>2597.9949999999999</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I24" s="21">
         <v>327.613</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" hidden="1">
-      <c r="B23" s="6">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="8">
-        <f t="shared" si="1"/>
-        <v>3314.3850000000002</v>
-      </c>
-      <c r="E23" s="9">
-        <v>26.827000000000002</v>
-      </c>
-      <c r="F23" s="9">
-        <v>435.38299999999998</v>
-      </c>
-      <c r="G23" s="9">
-        <v>356.23</v>
-      </c>
-      <c r="H23" s="9">
-        <v>2187.4830000000002</v>
-      </c>
-      <c r="I23" s="9">
-        <v>308.46199999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" hidden="1">
-      <c r="B24" s="10">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="12">
-        <f t="shared" si="1"/>
-        <v>2815.7780000000002</v>
-      </c>
-      <c r="E24" s="13">
-        <v>28.835999999999999</v>
-      </c>
-      <c r="F24" s="13">
-        <v>205.179</v>
-      </c>
-      <c r="G24" s="13">
-        <v>360.21499999999997</v>
-      </c>
-      <c r="H24" s="13">
-        <v>1882.681</v>
-      </c>
-      <c r="I24" s="13">
-        <v>338.86700000000002</v>
       </c>
     </row>
     <row r="25" spans="2:9" hidden="1">
@@ -1386,26 +1386,26 @@
         <v>2023</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" si="1"/>
-        <v>2398.9490000000001</v>
+        <f t="shared" si="2"/>
+        <v>3314.3850000000002</v>
       </c>
       <c r="E25" s="9">
-        <v>27.210999999999999</v>
+        <v>26.827000000000002</v>
       </c>
       <c r="F25" s="9">
-        <v>141.84700000000001</v>
+        <v>435.38299999999998</v>
       </c>
       <c r="G25" s="9">
-        <v>329.32</v>
+        <v>356.23</v>
       </c>
       <c r="H25" s="9">
-        <v>1569.2829999999999</v>
+        <v>2187.4830000000002</v>
       </c>
       <c r="I25" s="9">
-        <v>331.28800000000001</v>
+        <v>308.46199999999999</v>
       </c>
     </row>
     <row r="26" spans="2:9" hidden="1">
@@ -1413,26 +1413,26 @@
         <v>2023</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D26" s="12">
-        <f t="shared" si="1"/>
-        <v>3067.1580000000004</v>
+        <f t="shared" si="2"/>
+        <v>2815.7780000000002</v>
       </c>
       <c r="E26" s="13">
-        <v>26.527999999999999</v>
+        <v>28.835999999999999</v>
       </c>
       <c r="F26" s="13">
-        <v>163.01300000000001</v>
+        <v>205.179</v>
       </c>
       <c r="G26" s="13">
-        <v>353.29</v>
+        <v>360.21499999999997</v>
       </c>
       <c r="H26" s="13">
-        <v>2153.4250000000002</v>
+        <v>1882.681</v>
       </c>
       <c r="I26" s="13">
-        <v>370.90199999999999</v>
+        <v>338.86700000000002</v>
       </c>
     </row>
     <row r="27" spans="2:9" hidden="1">
@@ -1440,26 +1440,26 @@
         <v>2023</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="1"/>
-        <v>3523.893</v>
+        <f t="shared" si="2"/>
+        <v>2398.9490000000001</v>
       </c>
       <c r="E27" s="9">
-        <v>27.603999999999999</v>
+        <v>27.210999999999999</v>
       </c>
       <c r="F27" s="9">
-        <v>167.29599999999999</v>
+        <v>141.84700000000001</v>
       </c>
       <c r="G27" s="9">
-        <v>366.84899999999999</v>
+        <v>329.32</v>
       </c>
       <c r="H27" s="9">
-        <v>2590.7280000000001</v>
+        <v>1569.2829999999999</v>
       </c>
       <c r="I27" s="9">
-        <v>371.416</v>
+        <v>331.28800000000001</v>
       </c>
     </row>
     <row r="28" spans="2:9" hidden="1">
@@ -1467,26 +1467,26 @@
         <v>2023</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" si="1"/>
-        <v>3207.4230000000002</v>
+        <f t="shared" si="2"/>
+        <v>3067.1580000000004</v>
       </c>
       <c r="E28" s="13">
-        <v>26.327000000000002</v>
+        <v>26.527999999999999</v>
       </c>
       <c r="F28" s="13">
-        <v>154.82900000000001</v>
+        <v>163.01300000000001</v>
       </c>
       <c r="G28" s="13">
-        <v>322.73</v>
+        <v>353.29</v>
       </c>
       <c r="H28" s="13">
-        <v>2374.8220000000001</v>
+        <v>2153.4250000000002</v>
       </c>
       <c r="I28" s="13">
-        <v>328.71499999999997</v>
+        <v>370.90199999999999</v>
       </c>
     </row>
     <row r="29" spans="2:9" hidden="1">
@@ -1494,26 +1494,26 @@
         <v>2023</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" s="8">
-        <f t="shared" si="1"/>
-        <v>3040.4479999999999</v>
+        <f t="shared" si="2"/>
+        <v>3523.893</v>
       </c>
       <c r="E29" s="9">
-        <v>24.776</v>
+        <v>27.603999999999999</v>
       </c>
       <c r="F29" s="9">
-        <v>223.69300000000001</v>
+        <v>167.29599999999999</v>
       </c>
       <c r="G29" s="9">
-        <v>337.03899999999999</v>
+        <v>366.84899999999999</v>
       </c>
       <c r="H29" s="9">
-        <v>2130.366</v>
+        <v>2590.7280000000001</v>
       </c>
       <c r="I29" s="9">
-        <v>324.57400000000001</v>
+        <v>371.416</v>
       </c>
     </row>
     <row r="30" spans="2:9" hidden="1">
@@ -1521,26 +1521,26 @@
         <v>2023</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D30" s="12">
-        <f t="shared" si="1"/>
-        <v>3413.116</v>
+        <f t="shared" si="2"/>
+        <v>3207.4230000000002</v>
       </c>
       <c r="E30" s="13">
-        <v>26.134</v>
+        <v>26.327000000000002</v>
       </c>
       <c r="F30" s="13">
-        <v>453.14400000000001</v>
+        <v>154.82900000000001</v>
       </c>
       <c r="G30" s="13">
-        <v>348.86700000000002</v>
+        <v>322.73</v>
       </c>
       <c r="H30" s="13">
-        <v>2271.5349999999999</v>
+        <v>2374.8220000000001</v>
       </c>
       <c r="I30" s="13">
-        <v>313.43599999999998</v>
+        <v>328.71499999999997</v>
       </c>
     </row>
     <row r="31" spans="2:9" hidden="1">
@@ -1548,26 +1548,26 @@
         <v>2023</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" si="1"/>
-        <v>3869.7730000000001</v>
+        <f t="shared" si="2"/>
+        <v>3040.4479999999999</v>
       </c>
       <c r="E31" s="9">
-        <v>27.422999999999998</v>
+        <v>24.776</v>
       </c>
       <c r="F31" s="9">
-        <v>563.51300000000003</v>
+        <v>223.69300000000001</v>
       </c>
       <c r="G31" s="9">
-        <v>346.08600000000001</v>
+        <v>337.03899999999999</v>
       </c>
       <c r="H31" s="9">
-        <v>2601.7890000000002</v>
+        <v>2130.366</v>
       </c>
       <c r="I31" s="9">
-        <v>330.96199999999999</v>
+        <v>324.57400000000001</v>
       </c>
     </row>
     <row r="32" spans="2:9" hidden="1">
@@ -1575,134 +1575,134 @@
         <v>2023</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" si="2"/>
+        <v>3413.116</v>
+      </c>
+      <c r="E32" s="13">
+        <v>26.134</v>
+      </c>
+      <c r="F32" s="13">
+        <v>453.14400000000001</v>
+      </c>
+      <c r="G32" s="13">
+        <v>348.86700000000002</v>
+      </c>
+      <c r="H32" s="13">
+        <v>2271.5349999999999</v>
+      </c>
+      <c r="I32" s="13">
+        <v>313.43599999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" hidden="1">
+      <c r="B33" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="8">
+        <f t="shared" si="2"/>
+        <v>3869.7730000000001</v>
+      </c>
+      <c r="E33" s="9">
+        <v>27.422999999999998</v>
+      </c>
+      <c r="F33" s="9">
+        <v>563.51300000000003</v>
+      </c>
+      <c r="G33" s="9">
+        <v>346.08600000000001</v>
+      </c>
+      <c r="H33" s="9">
+        <v>2601.7890000000002</v>
+      </c>
+      <c r="I33" s="9">
+        <v>330.96199999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" hidden="1">
+      <c r="B34" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="12">
-        <f t="shared" si="1"/>
+      <c r="D34" s="12">
+        <f t="shared" si="2"/>
         <v>3361.9970000000003</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E34" s="13">
         <v>21.327999999999999</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F34" s="13">
         <v>517.904</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G34" s="13">
         <v>328.13</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H34" s="13">
         <v>2198.0720000000001</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I34" s="13">
         <v>296.56299999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1">
-      <c r="B33" s="14">
+    <row r="35" spans="2:9" hidden="1">
+      <c r="B35" s="14">
         <v>2023</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="16">
-        <f t="shared" si="1"/>
+      <c r="D35" s="16">
+        <f t="shared" si="2"/>
         <v>3688.1180000000004</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E35" s="17">
         <v>24.291</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F35" s="17">
         <v>534.15300000000002</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G35" s="17">
         <v>386.87400000000002</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H35" s="17">
         <v>2409.4070000000002</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I35" s="17">
         <v>333.39299999999997</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1">
-      <c r="B34" s="18">
+    <row r="36" spans="2:9" hidden="1">
+      <c r="B36" s="18">
         <v>2022</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C36" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="20">
-        <f t="shared" si="1"/>
+      <c r="D36" s="20">
+        <f t="shared" si="2"/>
         <v>3593.7140000000004</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E36" s="21">
         <v>27.486999999999998</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F36" s="21">
         <v>469.17500000000001</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G36" s="21">
         <v>367.88099999999997</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H36" s="21">
         <v>2388.1680000000001</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I36" s="21">
         <v>341.00299999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" hidden="1">
-      <c r="B35" s="6">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="8">
-        <f t="shared" si="1"/>
-        <v>3176.259</v>
-      </c>
-      <c r="E35" s="9">
-        <v>29.056000000000001</v>
-      </c>
-      <c r="F35" s="9">
-        <v>352.03500000000003</v>
-      </c>
-      <c r="G35" s="9">
-        <v>362.27800000000002</v>
-      </c>
-      <c r="H35" s="9">
-        <v>2103.806</v>
-      </c>
-      <c r="I35" s="9">
-        <v>329.084</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" hidden="1">
-      <c r="B36" s="10">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="12">
-        <f t="shared" si="1"/>
-        <v>2751.3379999999997</v>
-      </c>
-      <c r="E36" s="13">
-        <v>28.736000000000001</v>
-      </c>
-      <c r="F36" s="13">
-        <v>159.065</v>
-      </c>
-      <c r="G36" s="13">
-        <v>370.53800000000001</v>
-      </c>
-      <c r="H36" s="13">
-        <v>1871.356</v>
-      </c>
-      <c r="I36" s="13">
-        <v>321.64299999999997</v>
       </c>
     </row>
     <row r="37" spans="2:9" hidden="1">
@@ -1710,26 +1710,26 @@
         <v>2022</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D37" s="8">
-        <f t="shared" si="1"/>
-        <v>2444.5889999999999</v>
+        <f t="shared" si="2"/>
+        <v>3176.259</v>
       </c>
       <c r="E37" s="9">
-        <v>26.556999999999999</v>
+        <v>29.056000000000001</v>
       </c>
       <c r="F37" s="9">
-        <v>109.242</v>
+        <v>352.03500000000003</v>
       </c>
       <c r="G37" s="9">
-        <v>337.80200000000002</v>
+        <v>362.27800000000002</v>
       </c>
       <c r="H37" s="9">
-        <v>1647.5429999999999</v>
+        <v>2103.806</v>
       </c>
       <c r="I37" s="9">
-        <v>323.44499999999999</v>
+        <v>329.084</v>
       </c>
     </row>
     <row r="38" spans="2:9" hidden="1">
@@ -1737,26 +1737,26 @@
         <v>2022</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D38" s="12">
-        <f t="shared" si="1"/>
-        <v>3059.3720000000003</v>
+        <f t="shared" si="2"/>
+        <v>2751.3379999999997</v>
       </c>
       <c r="E38" s="13">
-        <v>24.106000000000002</v>
+        <v>28.736000000000001</v>
       </c>
       <c r="F38" s="13">
-        <v>129.88300000000001</v>
+        <v>159.065</v>
       </c>
       <c r="G38" s="13">
-        <v>365.63</v>
+        <v>370.53800000000001</v>
       </c>
       <c r="H38" s="13">
-        <v>2162.79</v>
+        <v>1871.356</v>
       </c>
       <c r="I38" s="13">
-        <v>376.96300000000002</v>
+        <v>321.64299999999997</v>
       </c>
     </row>
     <row r="39" spans="2:9" hidden="1">
@@ -1764,26 +1764,26 @@
         <v>2022</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D39" s="8">
-        <f t="shared" si="1"/>
-        <v>3435.4599999999996</v>
+        <f t="shared" si="2"/>
+        <v>2444.5889999999999</v>
       </c>
       <c r="E39" s="9">
-        <v>27.568000000000001</v>
+        <v>26.556999999999999</v>
       </c>
       <c r="F39" s="9">
-        <v>134.90600000000001</v>
+        <v>109.242</v>
       </c>
       <c r="G39" s="9">
-        <v>389.18599999999998</v>
+        <v>337.80200000000002</v>
       </c>
       <c r="H39" s="9">
-        <v>2512.8739999999998</v>
+        <v>1647.5429999999999</v>
       </c>
       <c r="I39" s="9">
-        <v>370.92599999999999</v>
+        <v>323.44499999999999</v>
       </c>
     </row>
     <row r="40" spans="2:9" hidden="1">
@@ -1791,26 +1791,26 @@
         <v>2022</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D40" s="12">
-        <f t="shared" si="1"/>
-        <v>3093.1559999999999</v>
+        <f t="shared" si="2"/>
+        <v>3059.3720000000003</v>
       </c>
       <c r="E40" s="13">
-        <v>18.965</v>
+        <v>24.106000000000002</v>
       </c>
       <c r="F40" s="13">
-        <v>110.56100000000001</v>
+        <v>129.88300000000001</v>
       </c>
       <c r="G40" s="13">
-        <v>334.25400000000002</v>
+        <v>365.63</v>
       </c>
       <c r="H40" s="13">
-        <v>2317.81</v>
+        <v>2162.79</v>
       </c>
       <c r="I40" s="13">
-        <v>311.56599999999997</v>
+        <v>376.96300000000002</v>
       </c>
     </row>
     <row r="41" spans="2:9" hidden="1">
@@ -1818,26 +1818,26 @@
         <v>2022</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" si="1"/>
-        <v>2956.1289999999999</v>
+        <f t="shared" si="2"/>
+        <v>3435.4599999999996</v>
       </c>
       <c r="E41" s="9">
-        <v>20.163</v>
+        <v>27.568000000000001</v>
       </c>
       <c r="F41" s="9">
-        <v>149.881</v>
+        <v>134.90600000000001</v>
       </c>
       <c r="G41" s="9">
-        <v>337.286</v>
+        <v>389.18599999999998</v>
       </c>
       <c r="H41" s="9">
-        <v>2148.29</v>
+        <v>2512.8739999999998</v>
       </c>
       <c r="I41" s="9">
-        <v>300.50900000000001</v>
+        <v>370.92599999999999</v>
       </c>
     </row>
     <row r="42" spans="2:9" hidden="1">
@@ -1845,26 +1845,26 @@
         <v>2022</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D42" s="12">
-        <f t="shared" si="1"/>
-        <v>3203.7719999999999</v>
+        <f t="shared" si="2"/>
+        <v>3093.1559999999999</v>
       </c>
       <c r="E42" s="13">
-        <v>15.622</v>
+        <v>18.965</v>
       </c>
       <c r="F42" s="13">
-        <v>274.91500000000002</v>
+        <v>110.56100000000001</v>
       </c>
       <c r="G42" s="13">
-        <v>325.94900000000001</v>
+        <v>334.25400000000002</v>
       </c>
       <c r="H42" s="13">
-        <v>2277.3000000000002</v>
+        <v>2317.81</v>
       </c>
       <c r="I42" s="13">
-        <v>309.98599999999999</v>
+        <v>311.56599999999997</v>
       </c>
     </row>
     <row r="43" spans="2:9" hidden="1">
@@ -1872,26 +1872,26 @@
         <v>2022</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D43" s="8">
-        <f t="shared" si="1"/>
-        <v>3481.9719999999998</v>
+        <f t="shared" si="2"/>
+        <v>2956.1289999999999</v>
       </c>
       <c r="E43" s="9">
-        <v>15.776999999999999</v>
+        <v>20.163</v>
       </c>
       <c r="F43" s="9">
-        <v>307.79000000000002</v>
+        <v>149.881</v>
       </c>
       <c r="G43" s="9">
-        <v>314.92899999999997</v>
+        <v>337.286</v>
       </c>
       <c r="H43" s="9">
-        <v>2546.2779999999998</v>
+        <v>2148.29</v>
       </c>
       <c r="I43" s="9">
-        <v>297.19799999999998</v>
+        <v>300.50900000000001</v>
       </c>
     </row>
     <row r="44" spans="2:9" hidden="1">
@@ -1899,134 +1899,134 @@
         <v>2022</v>
       </c>
       <c r="C44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="12">
+        <f t="shared" si="2"/>
+        <v>3203.7719999999999</v>
+      </c>
+      <c r="E44" s="13">
+        <v>15.622</v>
+      </c>
+      <c r="F44" s="13">
+        <v>274.91500000000002</v>
+      </c>
+      <c r="G44" s="13">
+        <v>325.94900000000001</v>
+      </c>
+      <c r="H44" s="13">
+        <v>2277.3000000000002</v>
+      </c>
+      <c r="I44" s="13">
+        <v>309.98599999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" hidden="1">
+      <c r="B45" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="8">
+        <f t="shared" si="2"/>
+        <v>3481.9719999999998</v>
+      </c>
+      <c r="E45" s="9">
+        <v>15.776999999999999</v>
+      </c>
+      <c r="F45" s="9">
+        <v>307.79000000000002</v>
+      </c>
+      <c r="G45" s="9">
+        <v>314.92899999999997</v>
+      </c>
+      <c r="H45" s="9">
+        <v>2546.2779999999998</v>
+      </c>
+      <c r="I45" s="9">
+        <v>297.19799999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" hidden="1">
+      <c r="B46" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="12">
-        <f t="shared" si="1"/>
+      <c r="D46" s="12">
+        <f t="shared" si="2"/>
         <v>2693.7649999999999</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E46" s="13">
         <v>11.359</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F46" s="13">
         <v>222.19499999999999</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G46" s="13">
         <v>271.30700000000002</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H46" s="13">
         <v>1915.4079999999999</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I46" s="13">
         <v>273.49599999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:9" hidden="1">
-      <c r="B45" s="14">
+    <row r="47" spans="2:9" hidden="1">
+      <c r="B47" s="14">
         <v>2022</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="16">
-        <f t="shared" si="1"/>
+      <c r="D47" s="16">
+        <f t="shared" si="2"/>
         <v>2769.8220000000001</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E47" s="17">
         <v>13.653</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F47" s="17">
         <v>190.35400000000001</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G47" s="17">
         <v>315.01100000000002</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H47" s="17">
         <v>1937.662</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I47" s="17">
         <v>313.142</v>
       </c>
     </row>
-    <row r="46" spans="2:9" hidden="1">
-      <c r="B46" s="18">
+    <row r="48" spans="2:9" hidden="1">
+      <c r="B48" s="18">
         <v>2021</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C48" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="20">
-        <f t="shared" si="1"/>
+      <c r="D48" s="20">
+        <f t="shared" si="2"/>
         <v>3069.6779999999999</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E48" s="21">
         <v>16.367000000000001</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F48" s="21">
         <v>236.172</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G48" s="21">
         <v>311.75400000000002</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H48" s="21">
         <v>2206.415</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I48" s="21">
         <v>298.97000000000003</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" hidden="1">
-      <c r="B47" s="6">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="8">
-        <f t="shared" si="1"/>
-        <v>2754.7190000000001</v>
-      </c>
-      <c r="E47" s="9">
-        <v>11.896000000000001</v>
-      </c>
-      <c r="F47" s="9">
-        <v>184.82599999999999</v>
-      </c>
-      <c r="G47" s="9">
-        <v>300.41899999999998</v>
-      </c>
-      <c r="H47" s="9">
-        <v>2001.278</v>
-      </c>
-      <c r="I47" s="9">
-        <v>256.3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" hidden="1">
-      <c r="B48" s="10">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="12">
-        <f t="shared" si="1"/>
-        <v>2316.2980000000002</v>
-      </c>
-      <c r="E48" s="13">
-        <v>10.882999999999999</v>
-      </c>
-      <c r="F48" s="13">
-        <v>84.447999999999993</v>
-      </c>
-      <c r="G48" s="13">
-        <v>254.08799999999999</v>
-      </c>
-      <c r="H48" s="13">
-        <v>1782.66</v>
-      </c>
-      <c r="I48" s="13">
-        <v>184.21899999999999</v>
       </c>
     </row>
     <row r="49" spans="2:9" hidden="1">
@@ -2034,26 +2034,26 @@
         <v>2021</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D49" s="8">
-        <f t="shared" ref="D49:D80" si="3">SUM(E49:I49)</f>
-        <v>1865.069</v>
+        <f t="shared" si="2"/>
+        <v>2754.7190000000001</v>
       </c>
       <c r="E49" s="9">
-        <v>10.257999999999999</v>
+        <v>11.896000000000001</v>
       </c>
       <c r="F49" s="9">
-        <v>42.448999999999998</v>
+        <v>184.82599999999999</v>
       </c>
       <c r="G49" s="9">
-        <v>212.91</v>
+        <v>300.41899999999998</v>
       </c>
       <c r="H49" s="9">
-        <v>1437.11</v>
+        <v>2001.278</v>
       </c>
       <c r="I49" s="9">
-        <v>162.34200000000001</v>
+        <v>256.3</v>
       </c>
     </row>
     <row r="50" spans="2:9" hidden="1">
@@ -2061,26 +2061,26 @@
         <v>2021</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D50" s="12">
-        <f t="shared" si="3"/>
-        <v>2398.5659999999998</v>
+        <f t="shared" si="2"/>
+        <v>2316.2980000000002</v>
       </c>
       <c r="E50" s="13">
-        <v>14.085000000000001</v>
+        <v>10.882999999999999</v>
       </c>
       <c r="F50" s="13">
-        <v>32.247</v>
+        <v>84.447999999999993</v>
       </c>
       <c r="G50" s="13">
-        <v>208.1</v>
+        <v>254.08799999999999</v>
       </c>
       <c r="H50" s="13">
-        <v>1943.308</v>
+        <v>1782.66</v>
       </c>
       <c r="I50" s="13">
-        <v>200.82599999999999</v>
+        <v>184.21899999999999</v>
       </c>
     </row>
     <row r="51" spans="2:9" hidden="1">
@@ -2088,26 +2088,26 @@
         <v>2021</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D51" s="8">
-        <f t="shared" si="3"/>
-        <v>2799.8330000000001</v>
+        <f t="shared" ref="D51:D82" si="4">SUM(E51:I51)</f>
+        <v>1865.069</v>
       </c>
       <c r="E51" s="9">
-        <v>8.2119999999999997</v>
+        <v>10.257999999999999</v>
       </c>
       <c r="F51" s="9">
-        <v>18.641999999999999</v>
+        <v>42.448999999999998</v>
       </c>
       <c r="G51" s="9">
-        <v>191.12</v>
+        <v>212.91</v>
       </c>
       <c r="H51" s="9">
-        <v>2407.3310000000001</v>
+        <v>1437.11</v>
       </c>
       <c r="I51" s="9">
-        <v>174.52799999999999</v>
+        <v>162.34200000000001</v>
       </c>
     </row>
     <row r="52" spans="2:9" hidden="1">
@@ -2115,26 +2115,26 @@
         <v>2021</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D52" s="12">
-        <f t="shared" si="3"/>
-        <v>2533.6980000000003</v>
+        <f t="shared" si="4"/>
+        <v>2398.5659999999998</v>
       </c>
       <c r="E52" s="13">
-        <v>2.355</v>
+        <v>14.085000000000001</v>
       </c>
       <c r="F52" s="13">
-        <v>10.57</v>
+        <v>32.247</v>
       </c>
       <c r="G52" s="13">
-        <v>151.47200000000001</v>
+        <v>208.1</v>
       </c>
       <c r="H52" s="13">
-        <v>2249.7530000000002</v>
+        <v>1943.308</v>
       </c>
       <c r="I52" s="13">
-        <v>119.548</v>
+        <v>200.82599999999999</v>
       </c>
     </row>
     <row r="53" spans="2:9" hidden="1">
@@ -2142,26 +2142,26 @@
         <v>2021</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D53" s="8">
-        <f t="shared" si="3"/>
-        <v>2195.2569999999996</v>
+        <f t="shared" si="4"/>
+        <v>2799.8330000000001</v>
       </c>
       <c r="E53" s="9">
-        <v>2.0950000000000002</v>
+        <v>8.2119999999999997</v>
       </c>
       <c r="F53" s="9">
-        <v>3.72</v>
+        <v>18.641999999999999</v>
       </c>
       <c r="G53" s="9">
-        <v>121.184</v>
+        <v>191.12</v>
       </c>
       <c r="H53" s="9">
-        <v>1978.444</v>
+        <v>2407.3310000000001</v>
       </c>
       <c r="I53" s="9">
-        <v>89.813999999999993</v>
+        <v>174.52799999999999</v>
       </c>
     </row>
     <row r="54" spans="2:9" hidden="1">
@@ -2169,26 +2169,26 @@
         <v>2021</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D54" s="12">
-        <f t="shared" si="3"/>
-        <v>1846.8409999999999</v>
+        <f t="shared" si="4"/>
+        <v>2533.6980000000003</v>
       </c>
       <c r="E54" s="13">
-        <v>2.2490000000000001</v>
+        <v>2.355</v>
       </c>
       <c r="F54" s="13">
-        <v>3.7770000000000001</v>
+        <v>10.57</v>
       </c>
       <c r="G54" s="13">
-        <v>106.904</v>
+        <v>151.47200000000001</v>
       </c>
       <c r="H54" s="13">
-        <v>1642.9369999999999</v>
+        <v>2249.7530000000002</v>
       </c>
       <c r="I54" s="13">
-        <v>90.974000000000004</v>
+        <v>119.548</v>
       </c>
     </row>
     <row r="55" spans="2:9" hidden="1">
@@ -2196,26 +2196,26 @@
         <v>2021</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D55" s="8">
-        <f t="shared" si="3"/>
-        <v>1665.7650000000001</v>
+        <f t="shared" si="4"/>
+        <v>2195.2569999999996</v>
       </c>
       <c r="E55" s="9">
-        <v>2.0640000000000001</v>
+        <v>2.0950000000000002</v>
       </c>
       <c r="F55" s="9">
-        <v>3.0539999999999998</v>
+        <v>3.72</v>
       </c>
       <c r="G55" s="9">
-        <v>107.813</v>
+        <v>121.184</v>
       </c>
       <c r="H55" s="9">
-        <v>1478.759</v>
+        <v>1978.444</v>
       </c>
       <c r="I55" s="9">
-        <v>74.075000000000003</v>
+        <v>89.813999999999993</v>
       </c>
     </row>
     <row r="56" spans="2:9" hidden="1">
@@ -2223,134 +2223,134 @@
         <v>2021</v>
       </c>
       <c r="C56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="12">
+        <f t="shared" si="4"/>
+        <v>1846.8409999999999</v>
+      </c>
+      <c r="E56" s="13">
+        <v>2.2490000000000001</v>
+      </c>
+      <c r="F56" s="13">
+        <v>3.7770000000000001</v>
+      </c>
+      <c r="G56" s="13">
+        <v>106.904</v>
+      </c>
+      <c r="H56" s="13">
+        <v>1642.9369999999999</v>
+      </c>
+      <c r="I56" s="13">
+        <v>90.974000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" hidden="1">
+      <c r="B57" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="8">
+        <f t="shared" si="4"/>
+        <v>1665.7650000000001</v>
+      </c>
+      <c r="E57" s="9">
+        <v>2.0640000000000001</v>
+      </c>
+      <c r="F57" s="9">
+        <v>3.0539999999999998</v>
+      </c>
+      <c r="G57" s="9">
+        <v>107.813</v>
+      </c>
+      <c r="H57" s="9">
+        <v>1478.759</v>
+      </c>
+      <c r="I57" s="9">
+        <v>74.075000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" hidden="1">
+      <c r="B58" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="12">
-        <f t="shared" si="3"/>
+      <c r="D58" s="12">
+        <f t="shared" si="4"/>
         <v>992.54899999999998</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E58" s="13">
         <v>1.5469999999999999</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F58" s="13">
         <v>4.9349999999999996</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G58" s="13">
         <v>96.123000000000005</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H58" s="13">
         <v>836.42499999999995</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I58" s="13">
         <v>53.518999999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1">
-      <c r="B57" s="14">
+    <row r="59" spans="2:9" hidden="1">
+      <c r="B59" s="14">
         <v>2021</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="16">
-        <f t="shared" si="3"/>
+      <c r="D59" s="16">
+        <f t="shared" si="4"/>
         <v>1347.152</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E59" s="17">
         <v>2.0640000000000001</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F59" s="17">
         <v>30.795999999999999</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G59" s="17">
         <v>104.605</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H59" s="17">
         <v>1132.894</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I59" s="17">
         <v>76.793000000000006</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1">
-      <c r="B58" s="18">
+    <row r="60" spans="2:9" hidden="1">
+      <c r="B60" s="18">
         <v>2020</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C60" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="20">
-        <f t="shared" si="3"/>
+      <c r="D60" s="20">
+        <f t="shared" si="4"/>
         <v>1510.221</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E60" s="21">
         <v>2.4980000000000002</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F60" s="21">
         <v>40.029000000000003</v>
       </c>
-      <c r="G58" s="21">
+      <c r="G60" s="21">
         <v>90.221999999999994</v>
       </c>
-      <c r="H58" s="21">
+      <c r="H60" s="21">
         <v>1309.4179999999999</v>
       </c>
-      <c r="I58" s="21">
+      <c r="I60" s="21">
         <v>68.054000000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" hidden="1">
-      <c r="B59" s="6">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="8">
-        <f t="shared" si="3"/>
-        <v>1221.7620000000002</v>
-      </c>
-      <c r="E59" s="9">
-        <v>1.9019999999999999</v>
-      </c>
-      <c r="F59" s="9">
-        <v>23.92</v>
-      </c>
-      <c r="G59" s="9">
-        <v>62.817999999999998</v>
-      </c>
-      <c r="H59" s="9">
-        <v>1101.2280000000001</v>
-      </c>
-      <c r="I59" s="9">
-        <v>31.893999999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" hidden="1">
-      <c r="B60" s="10">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="12">
-        <f t="shared" si="3"/>
-        <v>993.73</v>
-      </c>
-      <c r="E60" s="13">
-        <v>2.335</v>
-      </c>
-      <c r="F60" s="13">
-        <v>12.250999999999999</v>
-      </c>
-      <c r="G60" s="13">
-        <v>27.582000000000001</v>
-      </c>
-      <c r="H60" s="13">
-        <v>916.55399999999997</v>
-      </c>
-      <c r="I60" s="13">
-        <v>35.008000000000003</v>
       </c>
     </row>
     <row r="61" spans="2:9" hidden="1">
@@ -2358,26 +2358,26 @@
         <v>2020</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D61" s="8">
-        <f t="shared" si="3"/>
-        <v>668.18899999999996</v>
+        <f t="shared" si="4"/>
+        <v>1221.7620000000002</v>
       </c>
       <c r="E61" s="9">
-        <v>1.65</v>
+        <v>1.9019999999999999</v>
       </c>
       <c r="F61" s="9">
-        <v>6.2169999999999996</v>
+        <v>23.92</v>
       </c>
       <c r="G61" s="9">
-        <v>3.02</v>
+        <v>62.817999999999998</v>
       </c>
       <c r="H61" s="9">
-        <v>633.45699999999999</v>
+        <v>1101.2280000000001</v>
       </c>
       <c r="I61" s="9">
-        <v>23.844999999999999</v>
+        <v>31.893999999999998</v>
       </c>
     </row>
     <row r="62" spans="2:9" hidden="1">
@@ -2385,26 +2385,26 @@
         <v>2020</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D62" s="12">
-        <f t="shared" si="3"/>
-        <v>611.61700000000008</v>
+        <f t="shared" si="4"/>
+        <v>993.73</v>
       </c>
       <c r="E62" s="13">
-        <v>1.974</v>
+        <v>2.335</v>
       </c>
       <c r="F62" s="13">
-        <v>7.2640000000000002</v>
+        <v>12.250999999999999</v>
       </c>
       <c r="G62" s="13">
-        <v>0</v>
+        <v>27.582000000000001</v>
       </c>
       <c r="H62" s="13">
-        <v>579.19000000000005</v>
+        <v>916.55399999999997</v>
       </c>
       <c r="I62" s="13">
-        <v>23.189</v>
+        <v>35.008000000000003</v>
       </c>
     </row>
     <row r="63" spans="2:9" hidden="1">
@@ -2412,26 +2412,26 @@
         <v>2020</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D63" s="8">
-        <f t="shared" si="3"/>
-        <v>501.33299999999997</v>
+        <f t="shared" si="4"/>
+        <v>668.18899999999996</v>
       </c>
       <c r="E63" s="9">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="F63" s="9">
-        <v>5.6429999999999998</v>
+        <v>6.2169999999999996</v>
       </c>
       <c r="G63" s="9">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="H63" s="9">
-        <v>473.16199999999998</v>
+        <v>633.45699999999999</v>
       </c>
       <c r="I63" s="9">
-        <v>20.687999999999999</v>
+        <v>23.844999999999999</v>
       </c>
     </row>
     <row r="64" spans="2:9" hidden="1">
@@ -2439,26 +2439,26 @@
         <v>2020</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D64" s="12">
-        <f t="shared" si="3"/>
-        <v>184.41</v>
+        <f t="shared" si="4"/>
+        <v>611.61700000000008</v>
       </c>
       <c r="E64" s="13">
-        <v>1.6459999999999999</v>
+        <v>1.974</v>
       </c>
       <c r="F64" s="13">
-        <v>3.5059999999999998</v>
+        <v>7.2640000000000002</v>
       </c>
       <c r="G64" s="13">
         <v>0</v>
       </c>
       <c r="H64" s="13">
-        <v>167.31100000000001</v>
+        <v>579.19000000000005</v>
       </c>
       <c r="I64" s="13">
-        <v>11.946999999999999</v>
+        <v>23.189</v>
       </c>
     </row>
     <row r="65" spans="2:9" hidden="1">
@@ -2466,26 +2466,26 @@
         <v>2020</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D65" s="8">
-        <f t="shared" si="3"/>
-        <v>77.765000000000015</v>
+        <f t="shared" si="4"/>
+        <v>501.33299999999997</v>
       </c>
       <c r="E65" s="9">
-        <v>1.1679999999999999</v>
+        <v>1.84</v>
       </c>
       <c r="F65" s="9">
-        <v>3.702</v>
+        <v>5.6429999999999998</v>
       </c>
       <c r="G65" s="9">
         <v>0</v>
       </c>
       <c r="H65" s="9">
-        <v>68.227000000000004</v>
+        <v>473.16199999999998</v>
       </c>
       <c r="I65" s="9">
-        <v>4.6680000000000001</v>
+        <v>20.687999999999999</v>
       </c>
     </row>
     <row r="66" spans="2:9" hidden="1">
@@ -2493,26 +2493,26 @@
         <v>2020</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D66" s="12">
-        <f t="shared" si="3"/>
-        <v>60.438000000000002</v>
+        <f t="shared" si="4"/>
+        <v>184.41</v>
       </c>
       <c r="E66" s="13">
-        <v>1.752</v>
+        <v>1.6459999999999999</v>
       </c>
       <c r="F66" s="13">
-        <v>2.8279999999999998</v>
+        <v>3.5059999999999998</v>
       </c>
       <c r="G66" s="13">
         <v>0</v>
       </c>
       <c r="H66" s="13">
-        <v>50.856000000000002</v>
+        <v>167.31100000000001</v>
       </c>
       <c r="I66" s="13">
-        <v>5.0019999999999998</v>
+        <v>11.946999999999999</v>
       </c>
     </row>
     <row r="67" spans="2:9" hidden="1">
@@ -2520,26 +2520,26 @@
         <v>2020</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D67" s="8">
-        <f t="shared" si="3"/>
-        <v>1954.8980000000001</v>
+        <f t="shared" si="4"/>
+        <v>77.765000000000015</v>
       </c>
       <c r="E67" s="9">
-        <v>9.4830000000000005</v>
+        <v>1.1679999999999999</v>
       </c>
       <c r="F67" s="9">
-        <v>394.98700000000002</v>
+        <v>3.702</v>
       </c>
       <c r="G67" s="9">
-        <v>152.84100000000001</v>
+        <v>0</v>
       </c>
       <c r="H67" s="9">
-        <v>1225.348</v>
+        <v>68.227000000000004</v>
       </c>
       <c r="I67" s="9">
-        <v>172.239</v>
+        <v>4.6680000000000001</v>
       </c>
     </row>
     <row r="68" spans="2:9" hidden="1">
@@ -2547,134 +2547,134 @@
         <v>2020</v>
       </c>
       <c r="C68" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="12">
+        <f t="shared" si="4"/>
+        <v>60.438000000000002</v>
+      </c>
+      <c r="E68" s="13">
+        <v>1.752</v>
+      </c>
+      <c r="F68" s="13">
+        <v>2.8279999999999998</v>
+      </c>
+      <c r="G68" s="13">
+        <v>0</v>
+      </c>
+      <c r="H68" s="13">
+        <v>50.856000000000002</v>
+      </c>
+      <c r="I68" s="13">
+        <v>5.0019999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" hidden="1">
+      <c r="B69" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="8">
+        <f t="shared" si="4"/>
+        <v>1954.8980000000001</v>
+      </c>
+      <c r="E69" s="9">
+        <v>9.4830000000000005</v>
+      </c>
+      <c r="F69" s="9">
+        <v>394.98700000000002</v>
+      </c>
+      <c r="G69" s="9">
+        <v>152.84100000000001</v>
+      </c>
+      <c r="H69" s="9">
+        <v>1225.348</v>
+      </c>
+      <c r="I69" s="9">
+        <v>172.239</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" hidden="1">
+      <c r="B70" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="12">
-        <f t="shared" si="3"/>
+      <c r="D70" s="12">
+        <f t="shared" si="4"/>
         <v>3003.6669999999999</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E70" s="13">
         <v>15.741</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F70" s="13">
         <v>656.69799999999998</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G70" s="13">
         <v>258.47000000000003</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H70" s="13">
         <v>1830.7449999999999</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I70" s="13">
         <v>242.01300000000001</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1">
-      <c r="B69" s="14">
+    <row r="71" spans="2:9" hidden="1">
+      <c r="B71" s="14">
         <v>2020</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="16">
-        <f t="shared" si="3"/>
+      <c r="D71" s="16">
+        <f t="shared" si="4"/>
         <v>3158.4789999999998</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E71" s="17">
         <v>21.327999999999999</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F71" s="17">
         <v>658.10199999999998</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G71" s="17">
         <v>285.50799999999998</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H71" s="17">
         <v>1930.8779999999999</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I71" s="17">
         <v>262.66300000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1">
-      <c r="B70" s="18">
+    <row r="72" spans="2:9" hidden="1">
+      <c r="B72" s="18">
         <v>2019</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C72" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="20">
-        <f t="shared" si="3"/>
+      <c r="D72" s="20">
+        <f t="shared" si="4"/>
         <v>3053.3690000000001</v>
       </c>
-      <c r="E70" s="21">
+      <c r="E72" s="21">
         <v>21.335999999999999</v>
       </c>
-      <c r="F70" s="21">
+      <c r="F72" s="21">
         <v>537.62099999999998</v>
       </c>
-      <c r="G70" s="21">
+      <c r="G72" s="21">
         <v>278.39299999999997</v>
       </c>
-      <c r="H70" s="21">
+      <c r="H72" s="21">
         <v>1967.231</v>
       </c>
-      <c r="I70" s="21">
+      <c r="I72" s="21">
         <v>248.78800000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" hidden="1">
-      <c r="B71" s="6">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="8">
-        <f t="shared" si="3"/>
-        <v>2611.9189999999999</v>
-      </c>
-      <c r="E71" s="9">
-        <v>11.728999999999999</v>
-      </c>
-      <c r="F71" s="9">
-        <v>376.67599999999999</v>
-      </c>
-      <c r="G71" s="9">
-        <v>277.44</v>
-      </c>
-      <c r="H71" s="9">
-        <v>1694.2080000000001</v>
-      </c>
-      <c r="I71" s="9">
-        <v>251.86600000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" hidden="1">
-      <c r="B72" s="10">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="12">
-        <f t="shared" si="3"/>
-        <v>2142.5329999999999</v>
-      </c>
-      <c r="E72" s="13">
-        <v>11.843</v>
-      </c>
-      <c r="F72" s="13">
-        <v>136.84700000000001</v>
-      </c>
-      <c r="G72" s="13">
-        <v>278.23</v>
-      </c>
-      <c r="H72" s="13">
-        <v>1436.271</v>
-      </c>
-      <c r="I72" s="13">
-        <v>279.34199999999998</v>
       </c>
     </row>
     <row r="73" spans="2:9" hidden="1">
@@ -2682,26 +2682,26 @@
         <v>2019</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D73" s="8">
-        <f t="shared" si="3"/>
-        <v>1823.6279999999999</v>
+        <f t="shared" si="4"/>
+        <v>2611.9189999999999</v>
       </c>
       <c r="E73" s="9">
-        <v>12.271000000000001</v>
+        <v>11.728999999999999</v>
       </c>
       <c r="F73" s="9">
-        <v>89.102000000000004</v>
+        <v>376.67599999999999</v>
       </c>
       <c r="G73" s="9">
-        <v>268.56099999999998</v>
+        <v>277.44</v>
       </c>
       <c r="H73" s="9">
-        <v>1146.97</v>
+        <v>1694.2080000000001</v>
       </c>
       <c r="I73" s="9">
-        <v>306.72399999999999</v>
+        <v>251.86600000000001</v>
       </c>
     </row>
     <row r="74" spans="2:9" hidden="1">
@@ -2709,26 +2709,26 @@
         <v>2019</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D74" s="12">
-        <f t="shared" si="3"/>
-        <v>2449.1610000000001</v>
+        <f t="shared" si="4"/>
+        <v>2142.5329999999999</v>
       </c>
       <c r="E74" s="13">
-        <v>13.670999999999999</v>
+        <v>11.843</v>
       </c>
       <c r="F74" s="13">
-        <v>120.56399999999999</v>
+        <v>136.84700000000001</v>
       </c>
       <c r="G74" s="13">
-        <v>280.00299999999999</v>
+        <v>278.23</v>
       </c>
       <c r="H74" s="13">
-        <v>1673.692</v>
+        <v>1436.271</v>
       </c>
       <c r="I74" s="13">
-        <v>361.23099999999999</v>
+        <v>279.34199999999998</v>
       </c>
     </row>
     <row r="75" spans="2:9" hidden="1">
@@ -2736,26 +2736,26 @@
         <v>2019</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D75" s="8">
-        <f t="shared" si="3"/>
-        <v>2801.94</v>
+        <f t="shared" si="4"/>
+        <v>1823.6279999999999</v>
       </c>
       <c r="E75" s="9">
-        <v>14.319000000000001</v>
+        <v>12.271000000000001</v>
       </c>
       <c r="F75" s="9">
-        <v>119.633</v>
+        <v>89.102000000000004</v>
       </c>
       <c r="G75" s="9">
-        <v>293.93</v>
+        <v>268.56099999999998</v>
       </c>
       <c r="H75" s="9">
-        <v>2011.7629999999999</v>
+        <v>1146.97</v>
       </c>
       <c r="I75" s="9">
-        <v>362.29500000000002</v>
+        <v>306.72399999999999</v>
       </c>
     </row>
     <row r="76" spans="2:9" hidden="1">
@@ -2763,26 +2763,26 @@
         <v>2019</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D76" s="12">
-        <f t="shared" si="3"/>
-        <v>2522.0529999999999</v>
+        <f t="shared" si="4"/>
+        <v>2449.1610000000001</v>
       </c>
       <c r="E76" s="13">
-        <v>11.54</v>
+        <v>13.670999999999999</v>
       </c>
       <c r="F76" s="13">
-        <v>105.586</v>
+        <v>120.56399999999999</v>
       </c>
       <c r="G76" s="13">
-        <v>282.41399999999999</v>
+        <v>280.00299999999999</v>
       </c>
       <c r="H76" s="13">
-        <v>1807.0650000000001</v>
+        <v>1673.692</v>
       </c>
       <c r="I76" s="13">
-        <v>315.44799999999998</v>
+        <v>361.23099999999999</v>
       </c>
     </row>
     <row r="77" spans="2:9" hidden="1">
@@ -2790,26 +2790,26 @@
         <v>2019</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D77" s="8">
-        <f t="shared" si="3"/>
-        <v>2416.165</v>
+        <f t="shared" si="4"/>
+        <v>2801.94</v>
       </c>
       <c r="E77" s="9">
-        <v>11.512</v>
+        <v>14.319000000000001</v>
       </c>
       <c r="F77" s="9">
-        <v>167.624</v>
+        <v>119.633</v>
       </c>
       <c r="G77" s="9">
-        <v>301.21699999999998</v>
+        <v>293.93</v>
       </c>
       <c r="H77" s="9">
-        <v>1645.127</v>
+        <v>2011.7629999999999</v>
       </c>
       <c r="I77" s="9">
-        <v>290.685</v>
+        <v>362.29500000000002</v>
       </c>
     </row>
     <row r="78" spans="2:9" hidden="1">
@@ -2817,26 +2817,26 @@
         <v>2019</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D78" s="12">
-        <f t="shared" si="3"/>
-        <v>2781.3670000000002</v>
+        <f t="shared" si="4"/>
+        <v>2522.0529999999999</v>
       </c>
       <c r="E78" s="13">
-        <v>12.632</v>
+        <v>11.54</v>
       </c>
       <c r="F78" s="13">
-        <v>403.54899999999998</v>
+        <v>105.586</v>
       </c>
       <c r="G78" s="13">
-        <v>275.21800000000002</v>
+        <v>282.41399999999999</v>
       </c>
       <c r="H78" s="13">
-        <v>1816.595</v>
+        <v>1807.0650000000001</v>
       </c>
       <c r="I78" s="13">
-        <v>273.37299999999999</v>
+        <v>315.44799999999998</v>
       </c>
     </row>
     <row r="79" spans="2:9" hidden="1">
@@ -2844,26 +2844,26 @@
         <v>2019</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D79" s="8">
-        <f t="shared" si="3"/>
-        <v>3270.3839999999996</v>
+        <f t="shared" si="4"/>
+        <v>2416.165</v>
       </c>
       <c r="E79" s="9">
-        <v>11.318</v>
+        <v>11.512</v>
       </c>
       <c r="F79" s="9">
-        <v>556.81700000000001</v>
+        <v>167.624</v>
       </c>
       <c r="G79" s="9">
-        <v>283.60500000000002</v>
+        <v>301.21699999999998</v>
       </c>
       <c r="H79" s="9">
-        <v>2176.8739999999998</v>
+        <v>1645.127</v>
       </c>
       <c r="I79" s="9">
-        <v>241.77</v>
+        <v>290.685</v>
       </c>
     </row>
     <row r="80" spans="2:9" hidden="1">
@@ -2871,107 +2871,107 @@
         <v>2019</v>
       </c>
       <c r="C80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="12">
+        <f t="shared" si="4"/>
+        <v>2781.3670000000002</v>
+      </c>
+      <c r="E80" s="13">
+        <v>12.632</v>
+      </c>
+      <c r="F80" s="13">
+        <v>403.54899999999998</v>
+      </c>
+      <c r="G80" s="13">
+        <v>275.21800000000002</v>
+      </c>
+      <c r="H80" s="13">
+        <v>1816.595</v>
+      </c>
+      <c r="I80" s="13">
+        <v>273.37299999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" hidden="1">
+      <c r="B81" s="6">
+        <v>2019</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="8">
+        <f t="shared" si="4"/>
+        <v>3270.3839999999996</v>
+      </c>
+      <c r="E81" s="9">
+        <v>11.318</v>
+      </c>
+      <c r="F81" s="9">
+        <v>556.81700000000001</v>
+      </c>
+      <c r="G81" s="9">
+        <v>283.60500000000002</v>
+      </c>
+      <c r="H81" s="9">
+        <v>2176.8739999999998</v>
+      </c>
+      <c r="I81" s="9">
+        <v>241.77</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" hidden="1">
+      <c r="B82" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="D80" s="12">
-        <f t="shared" si="3"/>
-        <v>2709.8039999999996</v>
-      </c>
-      <c r="E80" s="13">
-        <v>9.2029999999999994</v>
-      </c>
-      <c r="F80" s="13">
-        <v>523.98800000000006</v>
-      </c>
-      <c r="G80" s="13">
-        <v>268.82900000000001</v>
-      </c>
-      <c r="H80" s="13">
-        <v>1706.7149999999999</v>
-      </c>
-      <c r="I80" s="13">
-        <v>201.06899999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" hidden="1">
-      <c r="B81" s="14">
-        <v>2019</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81" s="16">
-        <f t="shared" ref="D81:D93" si="4">SUM(E81:I81)</f>
-        <v>2903.4210000000003</v>
-      </c>
-      <c r="E81" s="17">
-        <v>10.77</v>
-      </c>
-      <c r="F81" s="17">
-        <v>539.04899999999998</v>
-      </c>
-      <c r="G81" s="17">
-        <v>301.86200000000002</v>
-      </c>
-      <c r="H81" s="17">
-        <v>1830.36</v>
-      </c>
-      <c r="I81" s="17">
-        <v>221.38</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" hidden="1">
-      <c r="B82" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="D82" s="12">
         <f t="shared" si="4"/>
-        <v>2900.12</v>
+        <v>2709.8039999999996</v>
       </c>
       <c r="E82" s="13">
-        <v>8.7880000000000003</v>
+        <v>9.2029999999999994</v>
       </c>
       <c r="F82" s="13">
-        <v>442.23399999999998</v>
+        <v>523.98800000000006</v>
       </c>
       <c r="G82" s="13">
-        <v>286.44600000000003</v>
+        <v>268.82900000000001</v>
       </c>
       <c r="H82" s="13">
-        <v>1926.6559999999999</v>
+        <v>1706.7149999999999</v>
       </c>
       <c r="I82" s="13">
-        <v>235.99600000000001</v>
+        <v>201.06899999999999</v>
       </c>
     </row>
     <row r="83" spans="2:9" hidden="1">
-      <c r="B83" s="7">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83" s="8">
-        <f t="shared" si="4"/>
-        <v>2516.9179999999997</v>
-      </c>
-      <c r="E83" s="9">
-        <v>9.0220000000000002</v>
-      </c>
-      <c r="F83" s="9">
-        <v>315.29500000000002</v>
-      </c>
-      <c r="G83" s="9">
-        <v>289.45400000000001</v>
-      </c>
-      <c r="H83" s="9">
-        <v>1650.2370000000001</v>
-      </c>
-      <c r="I83" s="9">
-        <v>252.91</v>
+      <c r="B83" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="16">
+        <f t="shared" ref="D83:D95" si="5">SUM(E83:I83)</f>
+        <v>2903.4210000000003</v>
+      </c>
+      <c r="E83" s="17">
+        <v>10.77</v>
+      </c>
+      <c r="F83" s="17">
+        <v>539.04899999999998</v>
+      </c>
+      <c r="G83" s="17">
+        <v>301.86200000000002</v>
+      </c>
+      <c r="H83" s="17">
+        <v>1830.36</v>
+      </c>
+      <c r="I83" s="17">
+        <v>221.38</v>
       </c>
     </row>
     <row r="84" spans="2:9" hidden="1">
@@ -2979,26 +2979,26 @@
         <v>2018</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D84" s="12">
-        <f t="shared" si="4"/>
-        <v>2127.0500000000002</v>
+        <f t="shared" si="5"/>
+        <v>2900.12</v>
       </c>
       <c r="E84" s="13">
-        <v>9.5739999999999998</v>
+        <v>8.7880000000000003</v>
       </c>
       <c r="F84" s="13">
-        <v>145.04599999999999</v>
+        <v>442.23399999999998</v>
       </c>
       <c r="G84" s="13">
-        <v>284.245</v>
+        <v>286.44600000000003</v>
       </c>
       <c r="H84" s="13">
-        <v>1413.5550000000001</v>
+        <v>1926.6559999999999</v>
       </c>
       <c r="I84" s="13">
-        <v>274.63</v>
+        <v>235.99600000000001</v>
       </c>
     </row>
     <row r="85" spans="2:9" hidden="1">
@@ -3006,26 +3006,26 @@
         <v>2018</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D85" s="8">
-        <f t="shared" si="4"/>
-        <v>1820.75</v>
+        <f t="shared" si="5"/>
+        <v>2516.9179999999997</v>
       </c>
       <c r="E85" s="9">
-        <v>8.7170000000000005</v>
+        <v>9.0220000000000002</v>
       </c>
       <c r="F85" s="9">
-        <v>115.482</v>
+        <v>315.29500000000002</v>
       </c>
       <c r="G85" s="9">
-        <v>260.428</v>
+        <v>289.45400000000001</v>
       </c>
       <c r="H85" s="9">
-        <v>1151.6479999999999</v>
+        <v>1650.2370000000001</v>
       </c>
       <c r="I85" s="9">
-        <v>284.47500000000002</v>
+        <v>252.91</v>
       </c>
     </row>
     <row r="86" spans="2:9" hidden="1">
@@ -3033,26 +3033,26 @@
         <v>2018</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D86" s="12">
-        <f t="shared" si="4"/>
-        <v>2528.9700000000003</v>
+        <f t="shared" si="5"/>
+        <v>2127.0500000000002</v>
       </c>
       <c r="E86" s="13">
-        <v>9.6679999999999993</v>
+        <v>9.5739999999999998</v>
       </c>
       <c r="F86" s="13">
-        <v>146.94499999999999</v>
+        <v>145.04599999999999</v>
       </c>
       <c r="G86" s="13">
-        <v>284.00099999999998</v>
+        <v>284.245</v>
       </c>
       <c r="H86" s="13">
-        <v>1759.27</v>
+        <v>1413.5550000000001</v>
       </c>
       <c r="I86" s="13">
-        <v>329.08600000000001</v>
+        <v>274.63</v>
       </c>
     </row>
     <row r="87" spans="2:9" hidden="1">
@@ -3060,26 +3060,26 @@
         <v>2018</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D87" s="8">
-        <f t="shared" si="4"/>
-        <v>2915.5160000000001</v>
+        <f t="shared" si="5"/>
+        <v>1820.75</v>
       </c>
       <c r="E87" s="9">
-        <v>10.211</v>
+        <v>8.7170000000000005</v>
       </c>
       <c r="F87" s="9">
-        <v>149.61199999999999</v>
+        <v>115.482</v>
       </c>
       <c r="G87" s="9">
-        <v>301.62799999999999</v>
+        <v>260.428</v>
       </c>
       <c r="H87" s="9">
-        <v>2115.8780000000002</v>
+        <v>1151.6479999999999</v>
       </c>
       <c r="I87" s="9">
-        <v>338.18700000000001</v>
+        <v>284.47500000000002</v>
       </c>
     </row>
     <row r="88" spans="2:9" hidden="1">
@@ -3087,26 +3087,26 @@
         <v>2018</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D88" s="12">
-        <f t="shared" si="4"/>
-        <v>2658.8760000000002</v>
+        <f t="shared" si="5"/>
+        <v>2528.9700000000003</v>
       </c>
       <c r="E88" s="13">
-        <v>8.1470000000000002</v>
+        <v>9.6679999999999993</v>
       </c>
       <c r="F88" s="13">
-        <v>136.459</v>
+        <v>146.94499999999999</v>
       </c>
       <c r="G88" s="13">
-        <v>274.35500000000002</v>
+        <v>284.00099999999998</v>
       </c>
       <c r="H88" s="13">
-        <v>1947.4549999999999</v>
+        <v>1759.27</v>
       </c>
       <c r="I88" s="13">
-        <v>292.45999999999998</v>
+        <v>329.08600000000001</v>
       </c>
     </row>
     <row r="89" spans="2:9" hidden="1">
@@ -3114,26 +3114,26 @@
         <v>2018</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D89" s="8">
-        <f t="shared" si="4"/>
-        <v>2447.692</v>
+        <f t="shared" si="5"/>
+        <v>2915.5160000000001</v>
       </c>
       <c r="E89" s="9">
-        <v>8.2739999999999991</v>
+        <v>10.211</v>
       </c>
       <c r="F89" s="9">
-        <v>176.994</v>
+        <v>149.61199999999999</v>
       </c>
       <c r="G89" s="9">
-        <v>289.221</v>
+        <v>301.62799999999999</v>
       </c>
       <c r="H89" s="9">
-        <v>1710.9349999999999</v>
+        <v>2115.8780000000002</v>
       </c>
       <c r="I89" s="9">
-        <v>262.26799999999997</v>
+        <v>338.18700000000001</v>
       </c>
     </row>
     <row r="90" spans="2:9" hidden="1">
@@ -3141,26 +3141,26 @@
         <v>2018</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D90" s="12">
-        <f t="shared" si="4"/>
-        <v>2823.5950000000003</v>
+        <f t="shared" si="5"/>
+        <v>2658.8760000000002</v>
       </c>
       <c r="E90" s="13">
-        <v>9.1590000000000007</v>
+        <v>8.1470000000000002</v>
       </c>
       <c r="F90" s="13">
-        <v>394.92700000000002</v>
+        <v>136.459</v>
       </c>
       <c r="G90" s="13">
-        <v>277.78800000000001</v>
+        <v>274.35500000000002</v>
       </c>
       <c r="H90" s="13">
-        <v>1889.2940000000001</v>
+        <v>1947.4549999999999</v>
       </c>
       <c r="I90" s="13">
-        <v>252.42699999999999</v>
+        <v>292.45999999999998</v>
       </c>
     </row>
     <row r="91" spans="2:9" hidden="1">
@@ -3168,26 +3168,26 @@
         <v>2018</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D91" s="8">
-        <f t="shared" si="4"/>
-        <v>3332.6780000000003</v>
+        <f t="shared" si="5"/>
+        <v>2447.692</v>
       </c>
       <c r="E91" s="9">
-        <v>9.0150000000000006</v>
+        <v>8.2739999999999991</v>
       </c>
       <c r="F91" s="9">
-        <v>541.36300000000006</v>
+        <v>176.994</v>
       </c>
       <c r="G91" s="9">
-        <v>284.77600000000001</v>
+        <v>289.221</v>
       </c>
       <c r="H91" s="9">
-        <v>2258.6280000000002</v>
+        <v>1710.9349999999999</v>
       </c>
       <c r="I91" s="9">
-        <v>238.89599999999999</v>
+        <v>262.26799999999997</v>
       </c>
     </row>
     <row r="92" spans="2:9" hidden="1">
@@ -3195,26 +3195,26 @@
         <v>2018</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D92" s="12">
-        <f t="shared" si="4"/>
-        <v>2743.9390000000003</v>
+        <f t="shared" si="5"/>
+        <v>2823.5950000000003</v>
       </c>
       <c r="E92" s="13">
-        <v>7.4669999999999996</v>
+        <v>9.1590000000000007</v>
       </c>
       <c r="F92" s="13">
-        <v>478.96199999999999</v>
+        <v>394.92700000000002</v>
       </c>
       <c r="G92" s="13">
-        <v>269.29000000000002</v>
+        <v>277.78800000000001</v>
       </c>
       <c r="H92" s="13">
-        <v>1800.797</v>
+        <v>1889.2940000000001</v>
       </c>
       <c r="I92" s="13">
-        <v>187.423</v>
+        <v>252.42699999999999</v>
       </c>
     </row>
     <row r="93" spans="2:9" hidden="1">
@@ -3222,44 +3222,98 @@
         <v>2018</v>
       </c>
       <c r="C93" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="8">
+        <f t="shared" si="5"/>
+        <v>3332.6780000000003</v>
+      </c>
+      <c r="E93" s="9">
+        <v>9.0150000000000006</v>
+      </c>
+      <c r="F93" s="9">
+        <v>541.36300000000006</v>
+      </c>
+      <c r="G93" s="9">
+        <v>284.77600000000001</v>
+      </c>
+      <c r="H93" s="9">
+        <v>2258.6280000000002</v>
+      </c>
+      <c r="I93" s="9">
+        <v>238.89599999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" hidden="1">
+      <c r="B94" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="12">
+        <f t="shared" si="5"/>
+        <v>2743.9390000000003</v>
+      </c>
+      <c r="E94" s="13">
+        <v>7.4669999999999996</v>
+      </c>
+      <c r="F94" s="13">
+        <v>478.96199999999999</v>
+      </c>
+      <c r="G94" s="13">
+        <v>269.29000000000002</v>
+      </c>
+      <c r="H94" s="13">
+        <v>1800.797</v>
+      </c>
+      <c r="I94" s="13">
+        <v>187.423</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" hidden="1">
+      <c r="B95" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="8">
-        <f t="shared" si="4"/>
+      <c r="D95" s="8">
+        <f t="shared" si="5"/>
         <v>3020.2839999999997</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E95" s="9">
         <v>8.3650000000000002</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F95" s="9">
         <v>517.99800000000005</v>
       </c>
-      <c r="G93" s="9">
+      <c r="G95" s="9">
         <v>307.8</v>
       </c>
-      <c r="H93" s="9">
+      <c r="H95" s="9">
         <v>1971.394</v>
       </c>
-      <c r="I93" s="9">
+      <c r="I95" s="9">
         <v>214.727</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9">
-      <c r="B94" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="2:9">
-      <c r="B95" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="96" spans="2:9">
       <c r="B96" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I96" s="22"/>
+      <c r="I98" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_por_aerolinea_inter.xlsx
+++ b/Pasajeros_por_aerolinea_inter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FD9380-2269-492A-A6B6-CC237229C31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5042FBB-F897-48EB-B969-205DC45B72F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="26">
   <si>
     <t>Total</t>
   </si>
@@ -113,7 +113,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -550,8 +550,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I95" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="B5:I95" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I96" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="B5:I96" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -798,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I98"/>
+  <dimension ref="B2:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -869,2451 +869,2478 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="11">
+      <c r="B6" s="6">
         <v>2025</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8">
+        <f>SUM(E6:I6)</f>
+        <v>3487.5740000000005</v>
+      </c>
+      <c r="E6" s="9">
+        <v>32.555</v>
+      </c>
+      <c r="F6" s="9">
+        <v>210.517</v>
+      </c>
+      <c r="G6" s="9">
+        <v>374.483</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2513.5940000000001</v>
+      </c>
+      <c r="I6" s="9">
+        <v>356.42500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="12">
-        <f>SUM(E6:I6)</f>
+      <c r="D7" s="12">
+        <f>SUM(E7:I7)</f>
         <v>3215.7610000000004</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E7" s="13">
         <v>28.652999999999999</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>194.989</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="13">
         <v>325.02800000000002</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H7" s="13">
         <v>2372.4670000000001</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I7" s="13">
         <v>294.62400000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="6">
+    <row r="8" spans="2:9">
+      <c r="B8" s="6">
         <v>2025</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8">
-        <f>SUM(E7:I7)</f>
+      <c r="D8" s="8">
+        <f>SUM(E8:I8)</f>
         <v>3049.364</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="9">
         <v>29.518000000000001</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F8" s="9">
         <v>256.26400000000001</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G8" s="9">
         <v>327.99900000000002</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H8" s="9">
         <v>2135.8130000000001</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I8" s="9">
         <v>299.77</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="11">
+    <row r="9" spans="2:9">
+      <c r="B9" s="11">
         <v>2025</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="12">
-        <f t="shared" ref="D8:D13" si="0">SUM(E8:I8)</f>
+      <c r="D9" s="12">
+        <f t="shared" ref="D9:D14" si="0">SUM(E9:I9)</f>
         <v>3583.3269999999998</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="13">
         <v>28.684000000000001</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="13">
         <v>612.49300000000005</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="13">
         <v>334.04300000000001</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H9" s="13">
         <v>2305.9450000000002</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I9" s="13">
         <v>302.16199999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="6">
+    <row r="10" spans="2:9">
+      <c r="B10" s="6">
         <v>2025</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>4330.058</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>26.802</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <v>833.06899999999996</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G10" s="9">
         <v>328.82100000000003</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H10" s="9">
         <v>2849.0970000000002</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I10" s="9">
         <v>292.26900000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="11">
+    <row r="11" spans="2:9">
+      <c r="B11" s="11">
         <v>2025</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
         <v>3647.5239999999999</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E11" s="13">
         <v>21.972999999999999</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>782.58500000000004</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <v>317.92500000000001</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H11" s="13">
         <v>2244.0259999999998</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I11" s="13">
         <v>281.01499999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="14">
+    <row r="12" spans="2:9">
+      <c r="B12" s="14">
         <v>2025</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D12" s="16">
         <f t="shared" si="0"/>
         <v>4016.9249999999997</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E12" s="17">
         <v>26.367000000000001</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F12" s="17">
         <v>818.02</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G12" s="17">
         <v>374.60199999999998</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H12" s="17">
         <v>2477.2089999999998</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I12" s="17">
         <v>320.72699999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="10">
+    <row r="13" spans="2:9">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="12">
         <f t="shared" si="0"/>
         <v>4044.009</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E13" s="13">
         <v>25.542000000000002</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F13" s="13">
         <v>717.15200000000004</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G13" s="13">
         <v>368.14299999999997</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H13" s="13">
         <v>2595.7930000000001</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I13" s="13">
         <v>337.37900000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="6">
+    <row r="14" spans="2:9">
+      <c r="B14" s="6">
         <v>2024</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="8">
         <f t="shared" si="0"/>
         <v>3421.2509999999997</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>29.279</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>554.6</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G14" s="9">
         <v>352.42099999999999</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H14" s="9">
         <v>2163.6680000000001</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I14" s="9">
         <v>321.28300000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="10">
+    <row r="15" spans="2:9">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="12">
-        <f t="shared" ref="D14" si="1">SUM(E14:I14)</f>
+      <c r="D15" s="12">
+        <f t="shared" ref="D15" si="1">SUM(E15:I15)</f>
         <v>2791.895</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="13">
         <v>29.082999999999998</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="13">
         <v>238.167</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <v>348.22500000000002</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H15" s="13">
         <v>1856.6179999999999</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I15" s="13">
         <v>319.80200000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="6">
+    <row r="16" spans="2:9">
+      <c r="B16" s="6">
         <v>2024</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="8">
-        <f>SUM(E15:I15)</f>
+      <c r="D16" s="8">
+        <f>SUM(E16:I16)</f>
         <v>2304.4699999999998</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="9">
         <v>27.292999999999999</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>151.36000000000001</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="9">
         <v>329.666</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H16" s="9">
         <v>1485.433</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I16" s="9">
         <v>310.71800000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="10">
+    <row r="17" spans="2:9">
+      <c r="B17" s="10">
         <v>2024</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="12">
-        <f t="shared" ref="D16:D50" si="2">SUM(E16:I16)</f>
+      <c r="D17" s="12">
+        <f t="shared" ref="D17:D51" si="2">SUM(E17:I17)</f>
         <v>2956.98</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="13">
         <v>27.494</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>206.643</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="13">
         <v>338.512</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H17" s="13">
         <v>2025.6210000000001</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I17" s="13">
         <v>358.71</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="6">
+    <row r="18" spans="2:9">
+      <c r="B18" s="6">
         <v>2024</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="8">
-        <f t="shared" ref="D17:D19" si="3">SUM(E17:I17)</f>
+      <c r="D18" s="8">
+        <f t="shared" ref="D18:D20" si="3">SUM(E18:I18)</f>
         <v>3425.9629999999997</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>31.13</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="9">
         <v>191.22800000000001</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G18" s="9">
         <v>358.49700000000001</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H18" s="9">
         <v>2486.1129999999998</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I18" s="9">
         <v>358.995</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="10">
+    <row r="19" spans="2:9">
+      <c r="B19" s="10">
         <v>2024</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D19" s="12">
         <f t="shared" si="3"/>
         <v>3290.2299999999996</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="13">
         <v>29.17</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="13">
         <v>174.505</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="13">
         <v>322.20800000000003</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H19" s="13">
         <v>2461.1149999999998</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I19" s="13">
         <v>303.23200000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="6">
+    <row r="20" spans="2:9">
+      <c r="B20" s="6">
         <v>2024</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="8">
         <f t="shared" si="3"/>
         <v>3170.2150000000001</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="9">
         <v>25.436</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <v>276.85000000000002</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G20" s="9">
         <v>314.613</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H20" s="9">
         <v>2250.1280000000002</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I20" s="9">
         <v>303.18799999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="10">
+    <row r="21" spans="2:9">
+      <c r="B21" s="10">
         <v>2024</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="12">
         <f t="shared" si="2"/>
         <v>3495.9689999999996</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="13">
         <v>25.603000000000002</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>482.33699999999999</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <v>322.77499999999998</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H21" s="13">
         <v>2363.6320000000001</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I21" s="13">
         <v>301.62200000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="6">
+    <row r="22" spans="2:9">
+      <c r="B22" s="6">
         <v>2024</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <f t="shared" si="2"/>
         <v>4276.7569999999996</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="9">
         <v>28.280999999999999</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="9">
         <v>629.447</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G22" s="9">
         <v>355.24599999999998</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H22" s="9">
         <v>2932.24</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I22" s="9">
         <v>331.54300000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="10">
+    <row r="23" spans="2:9">
+      <c r="B23" s="10">
         <v>2024</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12">
         <f t="shared" si="2"/>
         <v>3729.9340000000002</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>20.6</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>609.51</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>333.77100000000002</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H23" s="13">
         <v>2472.3470000000002</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I23" s="13">
         <v>293.70600000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="14">
+    <row r="24" spans="2:9">
+      <c r="B24" s="14">
         <v>2024</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D24" s="16">
         <f t="shared" si="2"/>
         <v>3883.8310000000001</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E24" s="17">
         <v>24.507999999999999</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F24" s="17">
         <v>619.80499999999995</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G24" s="17">
         <v>366.74099999999999</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H24" s="17">
         <v>2549.7150000000001</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I24" s="17">
         <v>323.06200000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:9" hidden="1">
-      <c r="B24" s="18">
+    <row r="25" spans="2:9" hidden="1">
+      <c r="B25" s="18">
         <v>2023</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D25" s="20">
         <f t="shared" si="2"/>
         <v>3885.489</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E25" s="21">
         <v>25.065999999999999</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="13">
         <v>573.83900000000006</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G25" s="21">
         <v>360.976</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H25" s="21">
         <v>2597.9949999999999</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I25" s="21">
         <v>327.613</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1">
-      <c r="B25" s="6">
+    <row r="26" spans="2:9" hidden="1">
+      <c r="B26" s="6">
         <v>2023</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="8">
         <f t="shared" si="2"/>
         <v>3314.3850000000002</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <v>26.827000000000002</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <v>435.38299999999998</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G26" s="9">
         <v>356.23</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H26" s="9">
         <v>2187.4830000000002</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I26" s="9">
         <v>308.46199999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1">
-      <c r="B26" s="10">
+    <row r="27" spans="2:9" hidden="1">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="12">
         <f t="shared" si="2"/>
         <v>2815.7780000000002</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="13">
         <v>28.835999999999999</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>205.179</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>360.21499999999997</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H27" s="13">
         <v>1882.681</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I27" s="13">
         <v>338.86700000000002</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1">
-      <c r="B27" s="6">
+    <row r="28" spans="2:9" hidden="1">
+      <c r="B28" s="6">
         <v>2023</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <f t="shared" si="2"/>
         <v>2398.9490000000001</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <v>27.210999999999999</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>141.84700000000001</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G28" s="9">
         <v>329.32</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H28" s="9">
         <v>1569.2829999999999</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I28" s="9">
         <v>331.28800000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1">
-      <c r="B28" s="10">
+    <row r="29" spans="2:9" hidden="1">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="12">
         <f t="shared" si="2"/>
         <v>3067.1580000000004</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <v>26.527999999999999</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>163.01300000000001</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <v>353.29</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H29" s="13">
         <v>2153.4250000000002</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I29" s="13">
         <v>370.90199999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1">
-      <c r="B29" s="6">
+    <row r="30" spans="2:9" hidden="1">
+      <c r="B30" s="6">
         <v>2023</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <f t="shared" si="2"/>
         <v>3523.893</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <v>27.603999999999999</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <v>167.29599999999999</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G30" s="9">
         <v>366.84899999999999</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H30" s="9">
         <v>2590.7280000000001</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I30" s="9">
         <v>371.416</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1">
-      <c r="B30" s="10">
+    <row r="31" spans="2:9" hidden="1">
+      <c r="B31" s="10">
         <v>2023</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="12">
         <f t="shared" si="2"/>
         <v>3207.4230000000002</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E31" s="13">
         <v>26.327000000000002</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="13">
         <v>154.82900000000001</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="13">
         <v>322.73</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H31" s="13">
         <v>2374.8220000000001</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I31" s="13">
         <v>328.71499999999997</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1">
-      <c r="B31" s="6">
+    <row r="32" spans="2:9" hidden="1">
+      <c r="B32" s="6">
         <v>2023</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="8">
         <f t="shared" si="2"/>
         <v>3040.4479999999999</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <v>24.776</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F32" s="9">
         <v>223.69300000000001</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G32" s="9">
         <v>337.03899999999999</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H32" s="9">
         <v>2130.366</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I32" s="9">
         <v>324.57400000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1">
-      <c r="B32" s="10">
+    <row r="33" spans="2:9" hidden="1">
+      <c r="B33" s="10">
         <v>2023</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D33" s="12">
         <f t="shared" si="2"/>
         <v>3413.116</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E33" s="13">
         <v>26.134</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="13">
         <v>453.14400000000001</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G33" s="13">
         <v>348.86700000000002</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H33" s="13">
         <v>2271.5349999999999</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I33" s="13">
         <v>313.43599999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1">
-      <c r="B33" s="6">
+    <row r="34" spans="2:9" hidden="1">
+      <c r="B34" s="6">
         <v>2023</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="8">
         <f t="shared" si="2"/>
         <v>3869.7730000000001</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="9">
         <v>27.422999999999998</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F34" s="9">
         <v>563.51300000000003</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G34" s="9">
         <v>346.08600000000001</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H34" s="9">
         <v>2601.7890000000002</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I34" s="9">
         <v>330.96199999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1">
-      <c r="B34" s="10">
+    <row r="35" spans="2:9" hidden="1">
+      <c r="B35" s="10">
         <v>2023</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="12">
         <f t="shared" si="2"/>
         <v>3361.9970000000003</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>21.327999999999999</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>517.904</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="13">
         <v>328.13</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H35" s="13">
         <v>2198.0720000000001</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I35" s="13">
         <v>296.56299999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1">
-      <c r="B35" s="14">
+    <row r="36" spans="2:9" hidden="1">
+      <c r="B36" s="14">
         <v>2023</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D36" s="16">
         <f t="shared" si="2"/>
         <v>3688.1180000000004</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E36" s="17">
         <v>24.291</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F36" s="17">
         <v>534.15300000000002</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G36" s="17">
         <v>386.87400000000002</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H36" s="17">
         <v>2409.4070000000002</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I36" s="17">
         <v>333.39299999999997</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1">
-      <c r="B36" s="18">
+    <row r="37" spans="2:9" hidden="1">
+      <c r="B37" s="18">
         <v>2022</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C37" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D37" s="20">
         <f t="shared" si="2"/>
         <v>3593.7140000000004</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E37" s="21">
         <v>27.486999999999998</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F37" s="21">
         <v>469.17500000000001</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G37" s="21">
         <v>367.88099999999997</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H37" s="21">
         <v>2388.1680000000001</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I37" s="21">
         <v>341.00299999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1">
-      <c r="B37" s="6">
+    <row r="38" spans="2:9" hidden="1">
+      <c r="B38" s="6">
         <v>2022</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="8">
         <f t="shared" si="2"/>
         <v>3176.259</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="9">
         <v>29.056000000000001</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F38" s="9">
         <v>352.03500000000003</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G38" s="9">
         <v>362.27800000000002</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H38" s="9">
         <v>2103.806</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I38" s="9">
         <v>329.084</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1">
-      <c r="B38" s="10">
+    <row r="39" spans="2:9" hidden="1">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D39" s="12">
         <f t="shared" si="2"/>
         <v>2751.3379999999997</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="13">
         <v>28.736000000000001</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>159.065</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="13">
         <v>370.53800000000001</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H39" s="13">
         <v>1871.356</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I39" s="13">
         <v>321.64299999999997</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1">
-      <c r="B39" s="6">
+    <row r="40" spans="2:9" hidden="1">
+      <c r="B40" s="6">
         <v>2022</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="8">
         <f t="shared" si="2"/>
         <v>2444.5889999999999</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="9">
         <v>26.556999999999999</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F40" s="9">
         <v>109.242</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G40" s="9">
         <v>337.80200000000002</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H40" s="9">
         <v>1647.5429999999999</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I40" s="9">
         <v>323.44499999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1">
-      <c r="B40" s="10">
+    <row r="41" spans="2:9" hidden="1">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D41" s="12">
         <f t="shared" si="2"/>
         <v>3059.3720000000003</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="13">
         <v>24.106000000000002</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>129.88300000000001</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="13">
         <v>365.63</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H41" s="13">
         <v>2162.79</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I41" s="13">
         <v>376.96300000000002</v>
       </c>
     </row>
-    <row r="41" spans="2:9" hidden="1">
-      <c r="B41" s="6">
+    <row r="42" spans="2:9" hidden="1">
+      <c r="B42" s="6">
         <v>2022</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="8">
         <f t="shared" si="2"/>
         <v>3435.4599999999996</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E42" s="9">
         <v>27.568000000000001</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F42" s="9">
         <v>134.90600000000001</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G42" s="9">
         <v>389.18599999999998</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H42" s="9">
         <v>2512.8739999999998</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I42" s="9">
         <v>370.92599999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:9" hidden="1">
-      <c r="B42" s="10">
+    <row r="43" spans="2:9" hidden="1">
+      <c r="B43" s="10">
         <v>2022</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D43" s="12">
         <f t="shared" si="2"/>
         <v>3093.1559999999999</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E43" s="13">
         <v>18.965</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="13">
         <v>110.56100000000001</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G43" s="13">
         <v>334.25400000000002</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H43" s="13">
         <v>2317.81</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I43" s="13">
         <v>311.56599999999997</v>
       </c>
     </row>
-    <row r="43" spans="2:9" hidden="1">
-      <c r="B43" s="6">
+    <row r="44" spans="2:9" hidden="1">
+      <c r="B44" s="6">
         <v>2022</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D44" s="8">
         <f t="shared" si="2"/>
         <v>2956.1289999999999</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="9">
         <v>20.163</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F44" s="9">
         <v>149.881</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G44" s="9">
         <v>337.286</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H44" s="9">
         <v>2148.29</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I44" s="9">
         <v>300.50900000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:9" hidden="1">
-      <c r="B44" s="10">
+    <row r="45" spans="2:9" hidden="1">
+      <c r="B45" s="10">
         <v>2022</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D45" s="12">
         <f t="shared" si="2"/>
         <v>3203.7719999999999</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="13">
         <v>15.622</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="13">
         <v>274.91500000000002</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G45" s="13">
         <v>325.94900000000001</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H45" s="13">
         <v>2277.3000000000002</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I45" s="13">
         <v>309.98599999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:9" hidden="1">
-      <c r="B45" s="6">
+    <row r="46" spans="2:9" hidden="1">
+      <c r="B46" s="6">
         <v>2022</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="8">
         <f t="shared" si="2"/>
         <v>3481.9719999999998</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="9">
         <v>15.776999999999999</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F46" s="9">
         <v>307.79000000000002</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G46" s="9">
         <v>314.92899999999997</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H46" s="9">
         <v>2546.2779999999998</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I46" s="9">
         <v>297.19799999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:9" hidden="1">
-      <c r="B46" s="10">
+    <row r="47" spans="2:9" hidden="1">
+      <c r="B47" s="10">
         <v>2022</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D47" s="12">
         <f t="shared" si="2"/>
         <v>2693.7649999999999</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="13">
         <v>11.359</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>222.19499999999999</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G47" s="13">
         <v>271.30700000000002</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H47" s="13">
         <v>1915.4079999999999</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I47" s="13">
         <v>273.49599999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:9" hidden="1">
-      <c r="B47" s="14">
+    <row r="48" spans="2:9" hidden="1">
+      <c r="B48" s="14">
         <v>2022</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D48" s="16">
         <f t="shared" si="2"/>
         <v>2769.8220000000001</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E48" s="17">
         <v>13.653</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F48" s="17">
         <v>190.35400000000001</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G48" s="17">
         <v>315.01100000000002</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H48" s="17">
         <v>1937.662</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I48" s="17">
         <v>313.142</v>
       </c>
     </row>
-    <row r="48" spans="2:9" hidden="1">
-      <c r="B48" s="18">
+    <row r="49" spans="2:9" hidden="1">
+      <c r="B49" s="18">
         <v>2021</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C49" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D49" s="20">
         <f t="shared" si="2"/>
         <v>3069.6779999999999</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E49" s="21">
         <v>16.367000000000001</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F49" s="21">
         <v>236.172</v>
       </c>
-      <c r="G48" s="21">
+      <c r="G49" s="21">
         <v>311.75400000000002</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H49" s="21">
         <v>2206.415</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I49" s="21">
         <v>298.97000000000003</v>
       </c>
     </row>
-    <row r="49" spans="2:9" hidden="1">
-      <c r="B49" s="6">
+    <row r="50" spans="2:9" hidden="1">
+      <c r="B50" s="6">
         <v>2021</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="8">
         <f t="shared" si="2"/>
         <v>2754.7190000000001</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="9">
         <v>11.896000000000001</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F50" s="9">
         <v>184.82599999999999</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G50" s="9">
         <v>300.41899999999998</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H50" s="9">
         <v>2001.278</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I50" s="9">
         <v>256.3</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1">
-      <c r="B50" s="10">
+    <row r="51" spans="2:9" hidden="1">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D51" s="12">
         <f t="shared" si="2"/>
         <v>2316.2980000000002</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="13">
         <v>10.882999999999999</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>84.447999999999993</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G51" s="13">
         <v>254.08799999999999</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H51" s="13">
         <v>1782.66</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I51" s="13">
         <v>184.21899999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:9" hidden="1">
-      <c r="B51" s="6">
+    <row r="52" spans="2:9" hidden="1">
+      <c r="B52" s="6">
         <v>2021</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="8">
-        <f t="shared" ref="D51:D82" si="4">SUM(E51:I51)</f>
+      <c r="D52" s="8">
+        <f t="shared" ref="D52:D83" si="4">SUM(E52:I52)</f>
         <v>1865.069</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E52" s="9">
         <v>10.257999999999999</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F52" s="9">
         <v>42.448999999999998</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G52" s="9">
         <v>212.91</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H52" s="9">
         <v>1437.11</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I52" s="9">
         <v>162.34200000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:9" hidden="1">
-      <c r="B52" s="10">
+    <row r="53" spans="2:9" hidden="1">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D53" s="12">
         <f t="shared" si="4"/>
         <v>2398.5659999999998</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="13">
         <v>14.085000000000001</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>32.247</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="13">
         <v>208.1</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H53" s="13">
         <v>1943.308</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I53" s="13">
         <v>200.82599999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:9" hidden="1">
-      <c r="B53" s="6">
+    <row r="54" spans="2:9" hidden="1">
+      <c r="B54" s="6">
         <v>2021</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="8">
         <f t="shared" si="4"/>
         <v>2799.8330000000001</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E54" s="9">
         <v>8.2119999999999997</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F54" s="9">
         <v>18.641999999999999</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G54" s="9">
         <v>191.12</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H54" s="9">
         <v>2407.3310000000001</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I54" s="9">
         <v>174.52799999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1">
-      <c r="B54" s="10">
+    <row r="55" spans="2:9" hidden="1">
+      <c r="B55" s="10">
         <v>2021</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C55" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D55" s="12">
         <f t="shared" si="4"/>
         <v>2533.6980000000003</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E55" s="13">
         <v>2.355</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="13">
         <v>10.57</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G55" s="13">
         <v>151.47200000000001</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H55" s="13">
         <v>2249.7530000000002</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I55" s="13">
         <v>119.548</v>
       </c>
     </row>
-    <row r="55" spans="2:9" hidden="1">
-      <c r="B55" s="6">
+    <row r="56" spans="2:9" hidden="1">
+      <c r="B56" s="6">
         <v>2021</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D56" s="8">
         <f t="shared" si="4"/>
         <v>2195.2569999999996</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E56" s="9">
         <v>2.0950000000000002</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F56" s="9">
         <v>3.72</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G56" s="9">
         <v>121.184</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H56" s="9">
         <v>1978.444</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I56" s="9">
         <v>89.813999999999993</v>
       </c>
     </row>
-    <row r="56" spans="2:9" hidden="1">
-      <c r="B56" s="10">
+    <row r="57" spans="2:9" hidden="1">
+      <c r="B57" s="10">
         <v>2021</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C57" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D57" s="12">
         <f t="shared" si="4"/>
         <v>1846.8409999999999</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E57" s="13">
         <v>2.2490000000000001</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F57" s="13">
         <v>3.7770000000000001</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G57" s="13">
         <v>106.904</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H57" s="13">
         <v>1642.9369999999999</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I57" s="13">
         <v>90.974000000000004</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1">
-      <c r="B57" s="6">
+    <row r="58" spans="2:9" hidden="1">
+      <c r="B58" s="6">
         <v>2021</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="8">
         <f t="shared" si="4"/>
         <v>1665.7650000000001</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="9">
         <v>2.0640000000000001</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F58" s="9">
         <v>3.0539999999999998</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G58" s="9">
         <v>107.813</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H58" s="9">
         <v>1478.759</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I58" s="9">
         <v>74.075000000000003</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1">
-      <c r="B58" s="10">
+    <row r="59" spans="2:9" hidden="1">
+      <c r="B59" s="10">
         <v>2021</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D59" s="12">
         <f t="shared" si="4"/>
         <v>992.54899999999998</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E59" s="13">
         <v>1.5469999999999999</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>4.9349999999999996</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="13">
         <v>96.123000000000005</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H59" s="13">
         <v>836.42499999999995</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I59" s="13">
         <v>53.518999999999998</v>
       </c>
     </row>
-    <row r="59" spans="2:9" hidden="1">
-      <c r="B59" s="14">
+    <row r="60" spans="2:9" hidden="1">
+      <c r="B60" s="14">
         <v>2021</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D60" s="16">
         <f t="shared" si="4"/>
         <v>1347.152</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E60" s="17">
         <v>2.0640000000000001</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F60" s="17">
         <v>30.795999999999999</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G60" s="17">
         <v>104.605</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H60" s="17">
         <v>1132.894</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I60" s="17">
         <v>76.793000000000006</v>
       </c>
     </row>
-    <row r="60" spans="2:9" hidden="1">
-      <c r="B60" s="18">
+    <row r="61" spans="2:9" hidden="1">
+      <c r="B61" s="18">
         <v>2020</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C61" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D61" s="20">
         <f t="shared" si="4"/>
         <v>1510.221</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E61" s="21">
         <v>2.4980000000000002</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F61" s="21">
         <v>40.029000000000003</v>
       </c>
-      <c r="G60" s="21">
+      <c r="G61" s="21">
         <v>90.221999999999994</v>
       </c>
-      <c r="H60" s="21">
+      <c r="H61" s="21">
         <v>1309.4179999999999</v>
       </c>
-      <c r="I60" s="21">
+      <c r="I61" s="21">
         <v>68.054000000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:9" hidden="1">
-      <c r="B61" s="6">
+    <row r="62" spans="2:9" hidden="1">
+      <c r="B62" s="6">
         <v>2020</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="8">
         <f t="shared" si="4"/>
         <v>1221.7620000000002</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="9">
         <v>1.9019999999999999</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F62" s="9">
         <v>23.92</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G62" s="9">
         <v>62.817999999999998</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H62" s="9">
         <v>1101.2280000000001</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I62" s="9">
         <v>31.893999999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:9" hidden="1">
-      <c r="B62" s="10">
+    <row r="63" spans="2:9" hidden="1">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D63" s="12">
         <f t="shared" si="4"/>
         <v>993.73</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E63" s="13">
         <v>2.335</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="13">
         <v>12.250999999999999</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="13">
         <v>27.582000000000001</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H63" s="13">
         <v>916.55399999999997</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I63" s="13">
         <v>35.008000000000003</v>
       </c>
     </row>
-    <row r="63" spans="2:9" hidden="1">
-      <c r="B63" s="6">
+    <row r="64" spans="2:9" hidden="1">
+      <c r="B64" s="6">
         <v>2020</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D64" s="8">
         <f t="shared" si="4"/>
         <v>668.18899999999996</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E64" s="9">
         <v>1.65</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F64" s="9">
         <v>6.2169999999999996</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G64" s="9">
         <v>3.02</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H64" s="9">
         <v>633.45699999999999</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I64" s="9">
         <v>23.844999999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:9" hidden="1">
-      <c r="B64" s="10">
+    <row r="65" spans="2:9" hidden="1">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D65" s="12">
         <f t="shared" si="4"/>
         <v>611.61700000000008</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E65" s="13">
         <v>1.974</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="13">
         <v>7.2640000000000002</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G65" s="13">
         <v>0</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H65" s="13">
         <v>579.19000000000005</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I65" s="13">
         <v>23.189</v>
       </c>
     </row>
-    <row r="65" spans="2:9" hidden="1">
-      <c r="B65" s="6">
+    <row r="66" spans="2:9" hidden="1">
+      <c r="B66" s="6">
         <v>2020</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D66" s="8">
         <f t="shared" si="4"/>
         <v>501.33299999999997</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E66" s="9">
         <v>1.84</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F66" s="9">
         <v>5.6429999999999998</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G66" s="9">
         <v>0</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H66" s="9">
         <v>473.16199999999998</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I66" s="9">
         <v>20.687999999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:9" hidden="1">
-      <c r="B66" s="10">
+    <row r="67" spans="2:9" hidden="1">
+      <c r="B67" s="10">
         <v>2020</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C67" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D67" s="12">
         <f t="shared" si="4"/>
         <v>184.41</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E67" s="13">
         <v>1.6459999999999999</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F67" s="13">
         <v>3.5059999999999998</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G67" s="13">
         <v>0</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H67" s="13">
         <v>167.31100000000001</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I67" s="13">
         <v>11.946999999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:9" hidden="1">
-      <c r="B67" s="6">
+    <row r="68" spans="2:9" hidden="1">
+      <c r="B68" s="6">
         <v>2020</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C68" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D68" s="8">
         <f t="shared" si="4"/>
         <v>77.765000000000015</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E68" s="9">
         <v>1.1679999999999999</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F68" s="9">
         <v>3.702</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G68" s="9">
         <v>0</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H68" s="9">
         <v>68.227000000000004</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I68" s="9">
         <v>4.6680000000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1">
-      <c r="B68" s="10">
+    <row r="69" spans="2:9" hidden="1">
+      <c r="B69" s="10">
         <v>2020</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C69" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D69" s="12">
         <f t="shared" si="4"/>
         <v>60.438000000000002</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E69" s="13">
         <v>1.752</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F69" s="13">
         <v>2.8279999999999998</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G69" s="13">
         <v>0</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H69" s="13">
         <v>50.856000000000002</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I69" s="13">
         <v>5.0019999999999998</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1">
-      <c r="B69" s="6">
+    <row r="70" spans="2:9" hidden="1">
+      <c r="B70" s="6">
         <v>2020</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D70" s="8">
         <f t="shared" si="4"/>
         <v>1954.8980000000001</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="9">
         <v>9.4830000000000005</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F70" s="9">
         <v>394.98700000000002</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G70" s="9">
         <v>152.84100000000001</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H70" s="9">
         <v>1225.348</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I70" s="9">
         <v>172.239</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1">
-      <c r="B70" s="10">
+    <row r="71" spans="2:9" hidden="1">
+      <c r="B71" s="10">
         <v>2020</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D71" s="12">
         <f t="shared" si="4"/>
         <v>3003.6669999999999</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E71" s="13">
         <v>15.741</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="13">
         <v>656.69799999999998</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G71" s="13">
         <v>258.47000000000003</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H71" s="13">
         <v>1830.7449999999999</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I71" s="13">
         <v>242.01300000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:9" hidden="1">
-      <c r="B71" s="14">
+    <row r="72" spans="2:9" hidden="1">
+      <c r="B72" s="14">
         <v>2020</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D72" s="16">
         <f t="shared" si="4"/>
         <v>3158.4789999999998</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E72" s="17">
         <v>21.327999999999999</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F72" s="17">
         <v>658.10199999999998</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G72" s="17">
         <v>285.50799999999998</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H72" s="17">
         <v>1930.8779999999999</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I72" s="17">
         <v>262.66300000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:9" hidden="1">
-      <c r="B72" s="18">
+    <row r="73" spans="2:9" hidden="1">
+      <c r="B73" s="18">
         <v>2019</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C73" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D73" s="20">
         <f t="shared" si="4"/>
         <v>3053.3690000000001</v>
       </c>
-      <c r="E72" s="21">
+      <c r="E73" s="21">
         <v>21.335999999999999</v>
       </c>
-      <c r="F72" s="21">
+      <c r="F73" s="21">
         <v>537.62099999999998</v>
       </c>
-      <c r="G72" s="21">
+      <c r="G73" s="21">
         <v>278.39299999999997</v>
       </c>
-      <c r="H72" s="21">
+      <c r="H73" s="21">
         <v>1967.231</v>
       </c>
-      <c r="I72" s="21">
+      <c r="I73" s="21">
         <v>248.78800000000001</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1">
-      <c r="B73" s="6">
+    <row r="74" spans="2:9" hidden="1">
+      <c r="B74" s="6">
         <v>2019</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D74" s="8">
         <f t="shared" si="4"/>
         <v>2611.9189999999999</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E74" s="9">
         <v>11.728999999999999</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F74" s="9">
         <v>376.67599999999999</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G74" s="9">
         <v>277.44</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H74" s="9">
         <v>1694.2080000000001</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I74" s="9">
         <v>251.86600000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:9" hidden="1">
-      <c r="B74" s="10">
+    <row r="75" spans="2:9" hidden="1">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D75" s="12">
         <f t="shared" si="4"/>
         <v>2142.5329999999999</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E75" s="13">
         <v>11.843</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="13">
         <v>136.84700000000001</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G75" s="13">
         <v>278.23</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H75" s="13">
         <v>1436.271</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I75" s="13">
         <v>279.34199999999998</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1">
-      <c r="B75" s="6">
+    <row r="76" spans="2:9" hidden="1">
+      <c r="B76" s="6">
         <v>2019</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D76" s="8">
         <f t="shared" si="4"/>
         <v>1823.6279999999999</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E76" s="9">
         <v>12.271000000000001</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F76" s="9">
         <v>89.102000000000004</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G76" s="9">
         <v>268.56099999999998</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H76" s="9">
         <v>1146.97</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I76" s="9">
         <v>306.72399999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:9" hidden="1">
-      <c r="B76" s="10">
+    <row r="77" spans="2:9" hidden="1">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C77" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D77" s="12">
         <f t="shared" si="4"/>
         <v>2449.1610000000001</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E77" s="13">
         <v>13.670999999999999</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="13">
         <v>120.56399999999999</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G77" s="13">
         <v>280.00299999999999</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H77" s="13">
         <v>1673.692</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I77" s="13">
         <v>361.23099999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1">
-      <c r="B77" s="6">
+    <row r="78" spans="2:9" hidden="1">
+      <c r="B78" s="6">
         <v>2019</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="8">
         <f t="shared" si="4"/>
         <v>2801.94</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E78" s="9">
         <v>14.319000000000001</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F78" s="9">
         <v>119.633</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G78" s="9">
         <v>293.93</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H78" s="9">
         <v>2011.7629999999999</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I78" s="9">
         <v>362.29500000000002</v>
       </c>
     </row>
-    <row r="78" spans="2:9" hidden="1">
-      <c r="B78" s="10">
+    <row r="79" spans="2:9" hidden="1">
+      <c r="B79" s="10">
         <v>2019</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C79" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D79" s="12">
         <f t="shared" si="4"/>
         <v>2522.0529999999999</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E79" s="13">
         <v>11.54</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F79" s="13">
         <v>105.586</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G79" s="13">
         <v>282.41399999999999</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H79" s="13">
         <v>1807.0650000000001</v>
       </c>
-      <c r="I78" s="13">
+      <c r="I79" s="13">
         <v>315.44799999999998</v>
       </c>
     </row>
-    <row r="79" spans="2:9" hidden="1">
-      <c r="B79" s="6">
+    <row r="80" spans="2:9" hidden="1">
+      <c r="B80" s="6">
         <v>2019</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="8">
         <f t="shared" si="4"/>
         <v>2416.165</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E80" s="9">
         <v>11.512</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F80" s="9">
         <v>167.624</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G80" s="9">
         <v>301.21699999999998</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H80" s="9">
         <v>1645.127</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I80" s="9">
         <v>290.685</v>
       </c>
     </row>
-    <row r="80" spans="2:9" hidden="1">
-      <c r="B80" s="10">
+    <row r="81" spans="2:9" hidden="1">
+      <c r="B81" s="10">
         <v>2019</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C81" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D81" s="12">
         <f t="shared" si="4"/>
         <v>2781.3670000000002</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E81" s="13">
         <v>12.632</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F81" s="13">
         <v>403.54899999999998</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G81" s="13">
         <v>275.21800000000002</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H81" s="13">
         <v>1816.595</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I81" s="13">
         <v>273.37299999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:9" hidden="1">
-      <c r="B81" s="6">
+    <row r="82" spans="2:9" hidden="1">
+      <c r="B82" s="6">
         <v>2019</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C82" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="8">
         <f t="shared" si="4"/>
         <v>3270.3839999999996</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E82" s="9">
         <v>11.318</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F82" s="9">
         <v>556.81700000000001</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G82" s="9">
         <v>283.60500000000002</v>
       </c>
-      <c r="H81" s="9">
+      <c r="H82" s="9">
         <v>2176.8739999999998</v>
       </c>
-      <c r="I81" s="9">
+      <c r="I82" s="9">
         <v>241.77</v>
       </c>
     </row>
-    <row r="82" spans="2:9" hidden="1">
-      <c r="B82" s="10">
+    <row r="83" spans="2:9" hidden="1">
+      <c r="B83" s="10">
         <v>2019</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="12">
         <f t="shared" si="4"/>
         <v>2709.8039999999996</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E83" s="13">
         <v>9.2029999999999994</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="13">
         <v>523.98800000000006</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G83" s="13">
         <v>268.82900000000001</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H83" s="13">
         <v>1706.7149999999999</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I83" s="13">
         <v>201.06899999999999</v>
       </c>
     </row>
-    <row r="83" spans="2:9" hidden="1">
-      <c r="B83" s="14">
+    <row r="84" spans="2:9" hidden="1">
+      <c r="B84" s="14">
         <v>2019</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C84" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="16">
-        <f t="shared" ref="D83:D95" si="5">SUM(E83:I83)</f>
+      <c r="D84" s="16">
+        <f t="shared" ref="D84:D96" si="5">SUM(E84:I84)</f>
         <v>2903.4210000000003</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E84" s="17">
         <v>10.77</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F84" s="17">
         <v>539.04899999999998</v>
       </c>
-      <c r="G83" s="17">
+      <c r="G84" s="17">
         <v>301.86200000000002</v>
       </c>
-      <c r="H83" s="17">
+      <c r="H84" s="17">
         <v>1830.36</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I84" s="17">
         <v>221.38</v>
       </c>
     </row>
-    <row r="84" spans="2:9" hidden="1">
-      <c r="B84" s="11">
+    <row r="85" spans="2:9" hidden="1">
+      <c r="B85" s="11">
         <v>2018</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C85" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D85" s="12">
         <f t="shared" si="5"/>
         <v>2900.12</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E85" s="13">
         <v>8.7880000000000003</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F85" s="13">
         <v>442.23399999999998</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G85" s="13">
         <v>286.44600000000003</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H85" s="13">
         <v>1926.6559999999999</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I85" s="13">
         <v>235.99600000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:9" hidden="1">
-      <c r="B85" s="7">
+    <row r="86" spans="2:9" hidden="1">
+      <c r="B86" s="7">
         <v>2018</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="8">
         <f t="shared" si="5"/>
         <v>2516.9179999999997</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E86" s="9">
         <v>9.0220000000000002</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F86" s="9">
         <v>315.29500000000002</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G86" s="9">
         <v>289.45400000000001</v>
       </c>
-      <c r="H85" s="9">
+      <c r="H86" s="9">
         <v>1650.2370000000001</v>
       </c>
-      <c r="I85" s="9">
+      <c r="I86" s="9">
         <v>252.91</v>
       </c>
     </row>
-    <row r="86" spans="2:9" hidden="1">
-      <c r="B86" s="11">
+    <row r="87" spans="2:9" hidden="1">
+      <c r="B87" s="11">
         <v>2018</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C87" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D87" s="12">
         <f t="shared" si="5"/>
         <v>2127.0500000000002</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E87" s="13">
         <v>9.5739999999999998</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F87" s="13">
         <v>145.04599999999999</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G87" s="13">
         <v>284.245</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H87" s="13">
         <v>1413.5550000000001</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I87" s="13">
         <v>274.63</v>
       </c>
     </row>
-    <row r="87" spans="2:9" hidden="1">
-      <c r="B87" s="7">
+    <row r="88" spans="2:9" hidden="1">
+      <c r="B88" s="7">
         <v>2018</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="8">
         <f t="shared" si="5"/>
         <v>1820.75</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E88" s="9">
         <v>8.7170000000000005</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F88" s="9">
         <v>115.482</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G88" s="9">
         <v>260.428</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H88" s="9">
         <v>1151.6479999999999</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I88" s="9">
         <v>284.47500000000002</v>
       </c>
     </row>
-    <row r="88" spans="2:9" hidden="1">
-      <c r="B88" s="11">
+    <row r="89" spans="2:9" hidden="1">
+      <c r="B89" s="11">
         <v>2018</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D89" s="12">
         <f t="shared" si="5"/>
         <v>2528.9700000000003</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E89" s="13">
         <v>9.6679999999999993</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F89" s="13">
         <v>146.94499999999999</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G89" s="13">
         <v>284.00099999999998</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H89" s="13">
         <v>1759.27</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I89" s="13">
         <v>329.08600000000001</v>
       </c>
     </row>
-    <row r="89" spans="2:9" hidden="1">
-      <c r="B89" s="7">
+    <row r="90" spans="2:9" hidden="1">
+      <c r="B90" s="7">
         <v>2018</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D90" s="8">
         <f t="shared" si="5"/>
         <v>2915.5160000000001</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E90" s="9">
         <v>10.211</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F90" s="9">
         <v>149.61199999999999</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G90" s="9">
         <v>301.62799999999999</v>
       </c>
-      <c r="H89" s="9">
+      <c r="H90" s="9">
         <v>2115.8780000000002</v>
       </c>
-      <c r="I89" s="9">
+      <c r="I90" s="9">
         <v>338.18700000000001</v>
       </c>
     </row>
-    <row r="90" spans="2:9" hidden="1">
-      <c r="B90" s="11">
+    <row r="91" spans="2:9" hidden="1">
+      <c r="B91" s="11">
         <v>2018</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C91" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D91" s="12">
         <f t="shared" si="5"/>
         <v>2658.8760000000002</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E91" s="13">
         <v>8.1470000000000002</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F91" s="13">
         <v>136.459</v>
       </c>
-      <c r="G90" s="13">
+      <c r="G91" s="13">
         <v>274.35500000000002</v>
       </c>
-      <c r="H90" s="13">
+      <c r="H91" s="13">
         <v>1947.4549999999999</v>
       </c>
-      <c r="I90" s="13">
+      <c r="I91" s="13">
         <v>292.45999999999998</v>
       </c>
     </row>
-    <row r="91" spans="2:9" hidden="1">
-      <c r="B91" s="7">
+    <row r="92" spans="2:9" hidden="1">
+      <c r="B92" s="7">
         <v>2018</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D92" s="8">
         <f t="shared" si="5"/>
         <v>2447.692</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E92" s="9">
         <v>8.2739999999999991</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F92" s="9">
         <v>176.994</v>
       </c>
-      <c r="G91" s="9">
+      <c r="G92" s="9">
         <v>289.221</v>
       </c>
-      <c r="H91" s="9">
+      <c r="H92" s="9">
         <v>1710.9349999999999</v>
       </c>
-      <c r="I91" s="9">
+      <c r="I92" s="9">
         <v>262.26799999999997</v>
       </c>
     </row>
-    <row r="92" spans="2:9" hidden="1">
-      <c r="B92" s="11">
+    <row r="93" spans="2:9" hidden="1">
+      <c r="B93" s="11">
         <v>2018</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C93" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D93" s="12">
         <f t="shared" si="5"/>
         <v>2823.5950000000003</v>
       </c>
-      <c r="E92" s="13">
+      <c r="E93" s="13">
         <v>9.1590000000000007</v>
       </c>
-      <c r="F92" s="13">
+      <c r="F93" s="13">
         <v>394.92700000000002</v>
       </c>
-      <c r="G92" s="13">
+      <c r="G93" s="13">
         <v>277.78800000000001</v>
       </c>
-      <c r="H92" s="13">
+      <c r="H93" s="13">
         <v>1889.2940000000001</v>
       </c>
-      <c r="I92" s="13">
+      <c r="I93" s="13">
         <v>252.42699999999999</v>
       </c>
     </row>
-    <row r="93" spans="2:9" hidden="1">
-      <c r="B93" s="7">
+    <row r="94" spans="2:9" hidden="1">
+      <c r="B94" s="7">
         <v>2018</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C94" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D94" s="8">
         <f t="shared" si="5"/>
         <v>3332.6780000000003</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E94" s="9">
         <v>9.0150000000000006</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F94" s="9">
         <v>541.36300000000006</v>
       </c>
-      <c r="G93" s="9">
+      <c r="G94" s="9">
         <v>284.77600000000001</v>
       </c>
-      <c r="H93" s="9">
+      <c r="H94" s="9">
         <v>2258.6280000000002</v>
       </c>
-      <c r="I93" s="9">
+      <c r="I94" s="9">
         <v>238.89599999999999</v>
       </c>
     </row>
-    <row r="94" spans="2:9" hidden="1">
-      <c r="B94" s="11">
+    <row r="95" spans="2:9" hidden="1">
+      <c r="B95" s="11">
         <v>2018</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C95" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D95" s="12">
         <f t="shared" si="5"/>
         <v>2743.9390000000003</v>
       </c>
-      <c r="E94" s="13">
+      <c r="E95" s="13">
         <v>7.4669999999999996</v>
       </c>
-      <c r="F94" s="13">
+      <c r="F95" s="13">
         <v>478.96199999999999</v>
       </c>
-      <c r="G94" s="13">
+      <c r="G95" s="13">
         <v>269.29000000000002</v>
       </c>
-      <c r="H94" s="13">
+      <c r="H95" s="13">
         <v>1800.797</v>
       </c>
-      <c r="I94" s="13">
+      <c r="I95" s="13">
         <v>187.423</v>
       </c>
     </row>
-    <row r="95" spans="2:9" hidden="1">
-      <c r="B95" s="7">
+    <row r="96" spans="2:9" hidden="1">
+      <c r="B96" s="7">
         <v>2018</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C96" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D96" s="8">
         <f t="shared" si="5"/>
         <v>3020.2839999999997</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E96" s="9">
         <v>8.3650000000000002</v>
       </c>
-      <c r="F95" s="9">
+      <c r="F96" s="9">
         <v>517.99800000000005</v>
       </c>
-      <c r="G95" s="9">
+      <c r="G96" s="9">
         <v>307.8</v>
       </c>
-      <c r="H95" s="9">
+      <c r="H96" s="9">
         <v>1971.394</v>
       </c>
-      <c r="I95" s="9">
+      <c r="I96" s="9">
         <v>214.727</v>
       </c>
-    </row>
-    <row r="96" spans="2:9">
-      <c r="B96" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D96" s="3"/>
     </row>
     <row r="97" spans="2:9">
       <c r="B97" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="2:9">
       <c r="B98" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I98" s="22"/>
+      <c r="I99" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_por_aerolinea_inter.xlsx
+++ b/Pasajeros_por_aerolinea_inter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5042FBB-F897-48EB-B969-205DC45B72F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F19D1AA-F386-41D9-9C13-351EDA58888D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="26">
   <si>
     <t>Total</t>
   </si>
@@ -113,7 +113,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -550,8 +550,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I96" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="B5:I96" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I97" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="B5:I97" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -798,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I99"/>
+  <dimension ref="B2:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -869,2478 +869,2505 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="6">
+      <c r="B6" s="11">
         <v>2025</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="12">
+        <f>SUM(E6:I6)</f>
+        <v>2919.1349999999998</v>
+      </c>
+      <c r="E6" s="13">
+        <v>31.14</v>
+      </c>
+      <c r="F6" s="13">
+        <v>207.797</v>
+      </c>
+      <c r="G6" s="13">
+        <v>347.43099999999998</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1969.473</v>
+      </c>
+      <c r="I6" s="13">
+        <v>363.29399999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8">
-        <f>SUM(E6:I6)</f>
-        <v>3487.5740000000005</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D7" s="8">
+        <f>SUM(E7:I7)</f>
+        <v>3486.5870000000004</v>
+      </c>
+      <c r="E7" s="9">
         <v>32.555</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <v>210.517</v>
       </c>
-      <c r="G6" s="9">
-        <v>374.483</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="G7" s="9">
+        <v>373.49599999999998</v>
+      </c>
+      <c r="H7" s="9">
         <v>2513.5940000000001</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I7" s="9">
         <v>356.42500000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="11">
+    <row r="8" spans="2:9">
+      <c r="B8" s="11">
         <v>2025</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="12">
-        <f>SUM(E7:I7)</f>
+      <c r="D8" s="12">
+        <f>SUM(E8:I8)</f>
         <v>3215.7610000000004</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E8" s="13">
         <v>28.652999999999999</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="13">
         <v>194.989</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G8" s="13">
         <v>325.02800000000002</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H8" s="13">
         <v>2372.4670000000001</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I8" s="13">
         <v>294.62400000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="6">
+    <row r="9" spans="2:9">
+      <c r="B9" s="6">
         <v>2025</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8">
-        <f>SUM(E8:I8)</f>
+      <c r="D9" s="8">
+        <f>SUM(E9:I9)</f>
         <v>3049.364</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="9">
         <v>29.518000000000001</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <v>256.26400000000001</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G9" s="9">
         <v>327.99900000000002</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H9" s="9">
         <v>2135.8130000000001</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I9" s="9">
         <v>299.77</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="11">
+    <row r="10" spans="2:9">
+      <c r="B10" s="11">
         <v>2025</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="12">
-        <f t="shared" ref="D9:D14" si="0">SUM(E9:I9)</f>
+      <c r="D10" s="12">
+        <f t="shared" ref="D10:D15" si="0">SUM(E10:I10)</f>
         <v>3583.3269999999998</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="13">
         <v>28.684000000000001</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>612.49300000000005</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
         <v>334.04300000000001</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H10" s="13">
         <v>2305.9450000000002</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I10" s="13">
         <v>302.16199999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="6">
+    <row r="11" spans="2:9">
+      <c r="B11" s="6">
         <v>2025</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>4330.058</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>26.802</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>833.06899999999996</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="9">
         <v>328.82100000000003</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H11" s="9">
         <v>2849.0970000000002</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I11" s="9">
         <v>292.26900000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="11">
+    <row r="12" spans="2:9">
+      <c r="B12" s="11">
         <v>2025</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D12" s="12">
         <f t="shared" si="0"/>
         <v>3647.5239999999999</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="13">
         <v>21.972999999999999</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>782.58500000000004</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G12" s="13">
         <v>317.92500000000001</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H12" s="13">
         <v>2244.0259999999998</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I12" s="13">
         <v>281.01499999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="14">
+    <row r="13" spans="2:9">
+      <c r="B13" s="14">
         <v>2025</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>4016.9249999999997</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="17">
         <v>26.367000000000001</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="17">
         <v>818.02</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G13" s="17">
         <v>374.60199999999998</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H13" s="17">
         <v>2477.2089999999998</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I13" s="17">
         <v>320.72699999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="10">
+    <row r="14" spans="2:9">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>4044.009</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>25.542000000000002</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>717.15200000000004</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <v>368.14299999999997</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H14" s="13">
         <v>2595.7930000000001</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I14" s="13">
         <v>337.37900000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="6">
+    <row r="15" spans="2:9">
+      <c r="B15" s="6">
         <v>2024</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D15" s="8">
         <f t="shared" si="0"/>
         <v>3421.2509999999997</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>29.279</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>554.6</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G15" s="9">
         <v>352.42099999999999</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H15" s="9">
         <v>2163.6680000000001</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I15" s="9">
         <v>321.28300000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="10">
+    <row r="16" spans="2:9">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="12">
-        <f t="shared" ref="D15" si="1">SUM(E15:I15)</f>
+      <c r="D16" s="12">
+        <f t="shared" ref="D16" si="1">SUM(E16:I16)</f>
         <v>2791.895</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>29.082999999999998</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>238.167</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <v>348.22500000000002</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H16" s="13">
         <v>1856.6179999999999</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I16" s="13">
         <v>319.80200000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="6">
+    <row r="17" spans="2:9">
+      <c r="B17" s="6">
         <v>2024</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="8">
-        <f>SUM(E16:I16)</f>
+      <c r="D17" s="8">
+        <f>SUM(E17:I17)</f>
         <v>2304.4699999999998</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="9">
         <v>27.292999999999999</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="9">
         <v>151.36000000000001</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G17" s="9">
         <v>329.666</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H17" s="9">
         <v>1485.433</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I17" s="9">
         <v>310.71800000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="10">
+    <row r="18" spans="2:9">
+      <c r="B18" s="10">
         <v>2024</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="12">
-        <f t="shared" ref="D17:D51" si="2">SUM(E17:I17)</f>
+      <c r="D18" s="12">
+        <f t="shared" ref="D18:D52" si="2">SUM(E18:I18)</f>
         <v>2956.98</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="13">
         <v>27.494</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="13">
         <v>206.643</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="13">
         <v>338.512</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H18" s="13">
         <v>2025.6210000000001</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I18" s="13">
         <v>358.71</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="6">
+    <row r="19" spans="2:9">
+      <c r="B19" s="6">
         <v>2024</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="8">
-        <f t="shared" ref="D18:D20" si="3">SUM(E18:I18)</f>
+      <c r="D19" s="8">
+        <f t="shared" ref="D19:D21" si="3">SUM(E19:I19)</f>
         <v>3425.9629999999997</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="9">
         <v>31.13</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <v>191.22800000000001</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G19" s="9">
         <v>358.49700000000001</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H19" s="9">
         <v>2486.1129999999998</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I19" s="9">
         <v>358.995</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="10">
+    <row r="20" spans="2:9">
+      <c r="B20" s="10">
         <v>2024</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="12">
         <f t="shared" si="3"/>
         <v>3290.2299999999996</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E20" s="13">
         <v>29.17</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="13">
         <v>174.505</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G20" s="13">
         <v>322.20800000000003</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H20" s="13">
         <v>2461.1149999999998</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I20" s="13">
         <v>303.23200000000003</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="6">
+    <row r="21" spans="2:9">
+      <c r="B21" s="6">
         <v>2024</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D21" s="8">
         <f t="shared" si="3"/>
         <v>3170.2150000000001</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>25.436</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <v>276.85000000000002</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G21" s="9">
         <v>314.613</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H21" s="9">
         <v>2250.1280000000002</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I21" s="9">
         <v>303.18799999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="10">
+    <row r="22" spans="2:9">
+      <c r="B22" s="10">
         <v>2024</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D22" s="12">
         <f t="shared" si="2"/>
         <v>3495.9689999999996</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="13">
         <v>25.603000000000002</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>482.33699999999999</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <v>322.77499999999998</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H22" s="13">
         <v>2363.6320000000001</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I22" s="13">
         <v>301.62200000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="6">
+    <row r="23" spans="2:9">
+      <c r="B23" s="6">
         <v>2024</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <f t="shared" si="2"/>
         <v>4276.7569999999996</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="9">
         <v>28.280999999999999</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <v>629.447</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G23" s="9">
         <v>355.24599999999998</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H23" s="9">
         <v>2932.24</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I23" s="9">
         <v>331.54300000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="10">
+    <row r="24" spans="2:9">
+      <c r="B24" s="10">
         <v>2024</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D24" s="12">
         <f t="shared" si="2"/>
         <v>3729.9340000000002</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="13">
         <v>20.6</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <v>609.51</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="13">
         <v>333.77100000000002</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H24" s="13">
         <v>2472.3470000000002</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I24" s="13">
         <v>293.70600000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="14">
+    <row r="25" spans="2:9">
+      <c r="B25" s="14">
         <v>2024</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D25" s="16">
         <f t="shared" si="2"/>
         <v>3883.8310000000001</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E25" s="17">
         <v>24.507999999999999</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F25" s="17">
         <v>619.80499999999995</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G25" s="17">
         <v>366.74099999999999</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H25" s="17">
         <v>2549.7150000000001</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I25" s="17">
         <v>323.06200000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1">
-      <c r="B25" s="18">
+    <row r="26" spans="2:9" hidden="1">
+      <c r="B26" s="18">
         <v>2023</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D26" s="20">
         <f t="shared" si="2"/>
         <v>3885.489</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E26" s="21">
         <v>25.065999999999999</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>573.83900000000006</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G26" s="21">
         <v>360.976</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H26" s="21">
         <v>2597.9949999999999</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I26" s="21">
         <v>327.613</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1">
-      <c r="B26" s="6">
+    <row r="27" spans="2:9" hidden="1">
+      <c r="B27" s="6">
         <v>2023</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D27" s="8">
         <f t="shared" si="2"/>
         <v>3314.3850000000002</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>26.827000000000002</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>435.38299999999998</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G27" s="9">
         <v>356.23</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H27" s="9">
         <v>2187.4830000000002</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I27" s="9">
         <v>308.46199999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1">
-      <c r="B27" s="10">
+    <row r="28" spans="2:9" hidden="1">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D28" s="12">
         <f t="shared" si="2"/>
         <v>2815.7780000000002</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>28.835999999999999</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>205.179</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>360.21499999999997</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H28" s="13">
         <v>1882.681</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I28" s="13">
         <v>338.86700000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1">
-      <c r="B28" s="6">
+    <row r="29" spans="2:9" hidden="1">
+      <c r="B29" s="6">
         <v>2023</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="8">
         <f t="shared" si="2"/>
         <v>2398.9490000000001</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <v>27.210999999999999</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <v>141.84700000000001</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G29" s="9">
         <v>329.32</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H29" s="9">
         <v>1569.2829999999999</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I29" s="9">
         <v>331.28800000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1">
-      <c r="B29" s="10">
+    <row r="30" spans="2:9" hidden="1">
+      <c r="B30" s="10">
         <v>2023</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D30" s="12">
         <f t="shared" si="2"/>
         <v>3067.1580000000004</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="13">
         <v>26.527999999999999</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="13">
         <v>163.01300000000001</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="13">
         <v>353.29</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H30" s="13">
         <v>2153.4250000000002</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I30" s="13">
         <v>370.90199999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1">
-      <c r="B30" s="6">
+    <row r="31" spans="2:9" hidden="1">
+      <c r="B31" s="6">
         <v>2023</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D31" s="8">
         <f t="shared" si="2"/>
         <v>3523.893</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>27.603999999999999</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>167.29599999999999</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G31" s="9">
         <v>366.84899999999999</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H31" s="9">
         <v>2590.7280000000001</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I31" s="9">
         <v>371.416</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1">
-      <c r="B31" s="10">
+    <row r="32" spans="2:9" hidden="1">
+      <c r="B32" s="10">
         <v>2023</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D32" s="12">
         <f t="shared" si="2"/>
         <v>3207.4230000000002</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="13">
         <v>26.327000000000002</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="13">
         <v>154.82900000000001</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G32" s="13">
         <v>322.73</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H32" s="13">
         <v>2374.8220000000001</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I32" s="13">
         <v>328.71499999999997</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1">
-      <c r="B32" s="6">
+    <row r="33" spans="2:9" hidden="1">
+      <c r="B33" s="6">
         <v>2023</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D33" s="8">
         <f t="shared" si="2"/>
         <v>3040.4479999999999</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E33" s="9">
         <v>24.776</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F33" s="9">
         <v>223.69300000000001</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G33" s="9">
         <v>337.03899999999999</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H33" s="9">
         <v>2130.366</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I33" s="9">
         <v>324.57400000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1">
-      <c r="B33" s="10">
+    <row r="34" spans="2:9" hidden="1">
+      <c r="B34" s="10">
         <v>2023</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D34" s="12">
         <f t="shared" si="2"/>
         <v>3413.116</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="13">
         <v>26.134</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>453.14400000000001</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G34" s="13">
         <v>348.86700000000002</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H34" s="13">
         <v>2271.5349999999999</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I34" s="13">
         <v>313.43599999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1">
-      <c r="B34" s="6">
+    <row r="35" spans="2:9" hidden="1">
+      <c r="B35" s="6">
         <v>2023</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D35" s="8">
         <f t="shared" si="2"/>
         <v>3869.7730000000001</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="9">
         <v>27.422999999999998</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F35" s="9">
         <v>563.51300000000003</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G35" s="9">
         <v>346.08600000000001</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H35" s="9">
         <v>2601.7890000000002</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I35" s="9">
         <v>330.96199999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1">
-      <c r="B35" s="10">
+    <row r="36" spans="2:9" hidden="1">
+      <c r="B36" s="10">
         <v>2023</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D36" s="12">
         <f t="shared" si="2"/>
         <v>3361.9970000000003</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>21.327999999999999</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>517.904</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="13">
         <v>328.13</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H36" s="13">
         <v>2198.0720000000001</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I36" s="13">
         <v>296.56299999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1">
-      <c r="B36" s="14">
+    <row r="37" spans="2:9" hidden="1">
+      <c r="B37" s="14">
         <v>2023</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D37" s="16">
         <f t="shared" si="2"/>
         <v>3688.1180000000004</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E37" s="17">
         <v>24.291</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F37" s="17">
         <v>534.15300000000002</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G37" s="17">
         <v>386.87400000000002</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H37" s="17">
         <v>2409.4070000000002</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I37" s="17">
         <v>333.39299999999997</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1">
-      <c r="B37" s="18">
+    <row r="38" spans="2:9" hidden="1">
+      <c r="B38" s="18">
         <v>2022</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C38" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D38" s="20">
         <f t="shared" si="2"/>
         <v>3593.7140000000004</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E38" s="21">
         <v>27.486999999999998</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F38" s="21">
         <v>469.17500000000001</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G38" s="21">
         <v>367.88099999999997</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H38" s="21">
         <v>2388.1680000000001</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I38" s="21">
         <v>341.00299999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1">
-      <c r="B38" s="6">
+    <row r="39" spans="2:9" hidden="1">
+      <c r="B39" s="6">
         <v>2022</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D39" s="8">
         <f t="shared" si="2"/>
         <v>3176.259</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>29.056000000000001</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F39" s="9">
         <v>352.03500000000003</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G39" s="9">
         <v>362.27800000000002</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H39" s="9">
         <v>2103.806</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I39" s="9">
         <v>329.084</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1">
-      <c r="B39" s="10">
+    <row r="40" spans="2:9" hidden="1">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D40" s="12">
         <f t="shared" si="2"/>
         <v>2751.3379999999997</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>28.736000000000001</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>159.065</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="13">
         <v>370.53800000000001</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H40" s="13">
         <v>1871.356</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I40" s="13">
         <v>321.64299999999997</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1">
-      <c r="B40" s="6">
+    <row r="41" spans="2:9" hidden="1">
+      <c r="B41" s="6">
         <v>2022</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D41" s="8">
         <f t="shared" si="2"/>
         <v>2444.5889999999999</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="9">
         <v>26.556999999999999</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F41" s="9">
         <v>109.242</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G41" s="9">
         <v>337.80200000000002</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H41" s="9">
         <v>1647.5429999999999</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I41" s="9">
         <v>323.44499999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:9" hidden="1">
-      <c r="B41" s="10">
+    <row r="42" spans="2:9" hidden="1">
+      <c r="B42" s="10">
         <v>2022</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D42" s="12">
         <f t="shared" si="2"/>
         <v>3059.3720000000003</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="13">
         <v>24.106000000000002</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="13">
         <v>129.88300000000001</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G42" s="13">
         <v>365.63</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H42" s="13">
         <v>2162.79</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I42" s="13">
         <v>376.96300000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:9" hidden="1">
-      <c r="B42" s="6">
+    <row r="43" spans="2:9" hidden="1">
+      <c r="B43" s="6">
         <v>2022</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D43" s="8">
         <f t="shared" si="2"/>
         <v>3435.4599999999996</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="9">
         <v>27.568000000000001</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F43" s="9">
         <v>134.90600000000001</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G43" s="9">
         <v>389.18599999999998</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H43" s="9">
         <v>2512.8739999999998</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I43" s="9">
         <v>370.92599999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:9" hidden="1">
-      <c r="B43" s="10">
+    <row r="44" spans="2:9" hidden="1">
+      <c r="B44" s="10">
         <v>2022</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D44" s="12">
         <f t="shared" si="2"/>
         <v>3093.1559999999999</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E44" s="13">
         <v>18.965</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="13">
         <v>110.56100000000001</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G44" s="13">
         <v>334.25400000000002</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H44" s="13">
         <v>2317.81</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I44" s="13">
         <v>311.56599999999997</v>
       </c>
     </row>
-    <row r="44" spans="2:9" hidden="1">
-      <c r="B44" s="6">
+    <row r="45" spans="2:9" hidden="1">
+      <c r="B45" s="6">
         <v>2022</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D45" s="8">
         <f t="shared" si="2"/>
         <v>2956.1289999999999</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E45" s="9">
         <v>20.163</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F45" s="9">
         <v>149.881</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G45" s="9">
         <v>337.286</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H45" s="9">
         <v>2148.29</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I45" s="9">
         <v>300.50900000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:9" hidden="1">
-      <c r="B45" s="10">
+    <row r="46" spans="2:9" hidden="1">
+      <c r="B46" s="10">
         <v>2022</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D46" s="12">
         <f t="shared" si="2"/>
         <v>3203.7719999999999</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="13">
         <v>15.622</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>274.91500000000002</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="13">
         <v>325.94900000000001</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H46" s="13">
         <v>2277.3000000000002</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I46" s="13">
         <v>309.98599999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:9" hidden="1">
-      <c r="B46" s="6">
+    <row r="47" spans="2:9" hidden="1">
+      <c r="B47" s="6">
         <v>2022</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D47" s="8">
         <f t="shared" si="2"/>
         <v>3481.9719999999998</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="9">
         <v>15.776999999999999</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F47" s="9">
         <v>307.79000000000002</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G47" s="9">
         <v>314.92899999999997</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H47" s="9">
         <v>2546.2779999999998</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I47" s="9">
         <v>297.19799999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:9" hidden="1">
-      <c r="B47" s="10">
+    <row r="48" spans="2:9" hidden="1">
+      <c r="B48" s="10">
         <v>2022</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D48" s="12">
         <f t="shared" si="2"/>
         <v>2693.7649999999999</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="13">
         <v>11.359</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>222.19499999999999</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G48" s="13">
         <v>271.30700000000002</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H48" s="13">
         <v>1915.4079999999999</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I48" s="13">
         <v>273.49599999999998</v>
       </c>
     </row>
-    <row r="48" spans="2:9" hidden="1">
-      <c r="B48" s="14">
+    <row r="49" spans="2:9" hidden="1">
+      <c r="B49" s="14">
         <v>2022</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D49" s="16">
         <f t="shared" si="2"/>
         <v>2769.8220000000001</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E49" s="17">
         <v>13.653</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F49" s="17">
         <v>190.35400000000001</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G49" s="17">
         <v>315.01100000000002</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H49" s="17">
         <v>1937.662</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I49" s="17">
         <v>313.142</v>
       </c>
     </row>
-    <row r="49" spans="2:9" hidden="1">
-      <c r="B49" s="18">
+    <row r="50" spans="2:9" hidden="1">
+      <c r="B50" s="18">
         <v>2021</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C50" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D50" s="20">
         <f t="shared" si="2"/>
         <v>3069.6779999999999</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E50" s="21">
         <v>16.367000000000001</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F50" s="21">
         <v>236.172</v>
       </c>
-      <c r="G49" s="21">
+      <c r="G50" s="21">
         <v>311.75400000000002</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H50" s="21">
         <v>2206.415</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I50" s="21">
         <v>298.97000000000003</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1">
-      <c r="B50" s="6">
+    <row r="51" spans="2:9" hidden="1">
+      <c r="B51" s="6">
         <v>2021</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D51" s="8">
         <f t="shared" si="2"/>
         <v>2754.7190000000001</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E51" s="9">
         <v>11.896000000000001</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F51" s="9">
         <v>184.82599999999999</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G51" s="9">
         <v>300.41899999999998</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H51" s="9">
         <v>2001.278</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I51" s="9">
         <v>256.3</v>
       </c>
     </row>
-    <row r="51" spans="2:9" hidden="1">
-      <c r="B51" s="10">
+    <row r="52" spans="2:9" hidden="1">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D52" s="12">
         <f t="shared" si="2"/>
         <v>2316.2980000000002</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>10.882999999999999</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>84.447999999999993</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="13">
         <v>254.08799999999999</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H52" s="13">
         <v>1782.66</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I52" s="13">
         <v>184.21899999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:9" hidden="1">
-      <c r="B52" s="6">
+    <row r="53" spans="2:9" hidden="1">
+      <c r="B53" s="6">
         <v>2021</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="8">
-        <f t="shared" ref="D52:D83" si="4">SUM(E52:I52)</f>
+      <c r="D53" s="8">
+        <f t="shared" ref="D53:D84" si="4">SUM(E53:I53)</f>
         <v>1865.069</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E53" s="9">
         <v>10.257999999999999</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F53" s="9">
         <v>42.448999999999998</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G53" s="9">
         <v>212.91</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H53" s="9">
         <v>1437.11</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I53" s="9">
         <v>162.34200000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:9" hidden="1">
-      <c r="B53" s="10">
+    <row r="54" spans="2:9" hidden="1">
+      <c r="B54" s="10">
         <v>2021</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D54" s="12">
         <f t="shared" si="4"/>
         <v>2398.5659999999998</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="13">
         <v>14.085000000000001</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="13">
         <v>32.247</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G54" s="13">
         <v>208.1</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H54" s="13">
         <v>1943.308</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I54" s="13">
         <v>200.82599999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1">
-      <c r="B54" s="6">
+    <row r="55" spans="2:9" hidden="1">
+      <c r="B55" s="6">
         <v>2021</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D55" s="8">
         <f t="shared" si="4"/>
         <v>2799.8330000000001</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E55" s="9">
         <v>8.2119999999999997</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F55" s="9">
         <v>18.641999999999999</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G55" s="9">
         <v>191.12</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H55" s="9">
         <v>2407.3310000000001</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I55" s="9">
         <v>174.52799999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:9" hidden="1">
-      <c r="B55" s="10">
+    <row r="56" spans="2:9" hidden="1">
+      <c r="B56" s="10">
         <v>2021</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D56" s="12">
         <f t="shared" si="4"/>
         <v>2533.6980000000003</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E56" s="13">
         <v>2.355</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="13">
         <v>10.57</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G56" s="13">
         <v>151.47200000000001</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H56" s="13">
         <v>2249.7530000000002</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I56" s="13">
         <v>119.548</v>
       </c>
     </row>
-    <row r="56" spans="2:9" hidden="1">
-      <c r="B56" s="6">
+    <row r="57" spans="2:9" hidden="1">
+      <c r="B57" s="6">
         <v>2021</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D57" s="8">
         <f t="shared" si="4"/>
         <v>2195.2569999999996</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E57" s="9">
         <v>2.0950000000000002</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F57" s="9">
         <v>3.72</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G57" s="9">
         <v>121.184</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H57" s="9">
         <v>1978.444</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I57" s="9">
         <v>89.813999999999993</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1">
-      <c r="B57" s="10">
+    <row r="58" spans="2:9" hidden="1">
+      <c r="B58" s="10">
         <v>2021</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D58" s="12">
         <f t="shared" si="4"/>
         <v>1846.8409999999999</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E58" s="13">
         <v>2.2490000000000001</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="13">
         <v>3.7770000000000001</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G58" s="13">
         <v>106.904</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H58" s="13">
         <v>1642.9369999999999</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I58" s="13">
         <v>90.974000000000004</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1">
-      <c r="B58" s="6">
+    <row r="59" spans="2:9" hidden="1">
+      <c r="B59" s="6">
         <v>2021</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D59" s="8">
         <f t="shared" si="4"/>
         <v>1665.7650000000001</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E59" s="9">
         <v>2.0640000000000001</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F59" s="9">
         <v>3.0539999999999998</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G59" s="9">
         <v>107.813</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H59" s="9">
         <v>1478.759</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I59" s="9">
         <v>74.075000000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:9" hidden="1">
-      <c r="B59" s="10">
+    <row r="60" spans="2:9" hidden="1">
+      <c r="B60" s="10">
         <v>2021</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D60" s="12">
         <f t="shared" si="4"/>
         <v>992.54899999999998</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E60" s="13">
         <v>1.5469999999999999</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>4.9349999999999996</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G60" s="13">
         <v>96.123000000000005</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H60" s="13">
         <v>836.42499999999995</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I60" s="13">
         <v>53.518999999999998</v>
       </c>
     </row>
-    <row r="60" spans="2:9" hidden="1">
-      <c r="B60" s="14">
+    <row r="61" spans="2:9" hidden="1">
+      <c r="B61" s="14">
         <v>2021</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D61" s="16">
         <f t="shared" si="4"/>
         <v>1347.152</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E61" s="17">
         <v>2.0640000000000001</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F61" s="17">
         <v>30.795999999999999</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G61" s="17">
         <v>104.605</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H61" s="17">
         <v>1132.894</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I61" s="17">
         <v>76.793000000000006</v>
       </c>
     </row>
-    <row r="61" spans="2:9" hidden="1">
-      <c r="B61" s="18">
+    <row r="62" spans="2:9" hidden="1">
+      <c r="B62" s="18">
         <v>2020</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C62" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D62" s="20">
         <f t="shared" si="4"/>
         <v>1510.221</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E62" s="21">
         <v>2.4980000000000002</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F62" s="21">
         <v>40.029000000000003</v>
       </c>
-      <c r="G61" s="21">
+      <c r="G62" s="21">
         <v>90.221999999999994</v>
       </c>
-      <c r="H61" s="21">
+      <c r="H62" s="21">
         <v>1309.4179999999999</v>
       </c>
-      <c r="I61" s="21">
+      <c r="I62" s="21">
         <v>68.054000000000002</v>
       </c>
     </row>
-    <row r="62" spans="2:9" hidden="1">
-      <c r="B62" s="6">
+    <row r="63" spans="2:9" hidden="1">
+      <c r="B63" s="6">
         <v>2020</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D63" s="8">
         <f t="shared" si="4"/>
         <v>1221.7620000000002</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E63" s="9">
         <v>1.9019999999999999</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F63" s="9">
         <v>23.92</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G63" s="9">
         <v>62.817999999999998</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H63" s="9">
         <v>1101.2280000000001</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I63" s="9">
         <v>31.893999999999998</v>
       </c>
     </row>
-    <row r="63" spans="2:9" hidden="1">
-      <c r="B63" s="10">
+    <row r="64" spans="2:9" hidden="1">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D64" s="12">
         <f t="shared" si="4"/>
         <v>993.73</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>2.335</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>12.250999999999999</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="13">
         <v>27.582000000000001</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H64" s="13">
         <v>916.55399999999997</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I64" s="13">
         <v>35.008000000000003</v>
       </c>
     </row>
-    <row r="64" spans="2:9" hidden="1">
-      <c r="B64" s="6">
+    <row r="65" spans="2:9" hidden="1">
+      <c r="B65" s="6">
         <v>2020</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D65" s="8">
         <f t="shared" si="4"/>
         <v>668.18899999999996</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E65" s="9">
         <v>1.65</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F65" s="9">
         <v>6.2169999999999996</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G65" s="9">
         <v>3.02</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H65" s="9">
         <v>633.45699999999999</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I65" s="9">
         <v>23.844999999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:9" hidden="1">
-      <c r="B65" s="10">
+    <row r="66" spans="2:9" hidden="1">
+      <c r="B66" s="10">
         <v>2020</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C66" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D66" s="12">
         <f t="shared" si="4"/>
         <v>611.61700000000008</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E66" s="13">
         <v>1.974</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F66" s="13">
         <v>7.2640000000000002</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G66" s="13">
         <v>0</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H66" s="13">
         <v>579.19000000000005</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I66" s="13">
         <v>23.189</v>
       </c>
     </row>
-    <row r="66" spans="2:9" hidden="1">
-      <c r="B66" s="6">
+    <row r="67" spans="2:9" hidden="1">
+      <c r="B67" s="6">
         <v>2020</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D67" s="8">
         <f t="shared" si="4"/>
         <v>501.33299999999997</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E67" s="9">
         <v>1.84</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F67" s="9">
         <v>5.6429999999999998</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G67" s="9">
         <v>0</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H67" s="9">
         <v>473.16199999999998</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I67" s="9">
         <v>20.687999999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:9" hidden="1">
-      <c r="B67" s="10">
+    <row r="68" spans="2:9" hidden="1">
+      <c r="B68" s="10">
         <v>2020</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D68" s="12">
         <f t="shared" si="4"/>
         <v>184.41</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E68" s="13">
         <v>1.6459999999999999</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="13">
         <v>3.5059999999999998</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G68" s="13">
         <v>0</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H68" s="13">
         <v>167.31100000000001</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I68" s="13">
         <v>11.946999999999999</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1">
-      <c r="B68" s="6">
+    <row r="69" spans="2:9" hidden="1">
+      <c r="B69" s="6">
         <v>2020</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D69" s="8">
         <f t="shared" si="4"/>
         <v>77.765000000000015</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E69" s="9">
         <v>1.1679999999999999</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F69" s="9">
         <v>3.702</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G69" s="9">
         <v>0</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H69" s="9">
         <v>68.227000000000004</v>
       </c>
-      <c r="I68" s="9">
+      <c r="I69" s="9">
         <v>4.6680000000000001</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1">
-      <c r="B69" s="10">
+    <row r="70" spans="2:9" hidden="1">
+      <c r="B70" s="10">
         <v>2020</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D70" s="12">
         <f t="shared" si="4"/>
         <v>60.438000000000002</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E70" s="13">
         <v>1.752</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F70" s="13">
         <v>2.8279999999999998</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G70" s="13">
         <v>0</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H70" s="13">
         <v>50.856000000000002</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I70" s="13">
         <v>5.0019999999999998</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1">
-      <c r="B70" s="6">
+    <row r="71" spans="2:9" hidden="1">
+      <c r="B71" s="6">
         <v>2020</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D71" s="8">
         <f t="shared" si="4"/>
         <v>1954.8980000000001</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E71" s="9">
         <v>9.4830000000000005</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F71" s="9">
         <v>394.98700000000002</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G71" s="9">
         <v>152.84100000000001</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H71" s="9">
         <v>1225.348</v>
       </c>
-      <c r="I70" s="9">
+      <c r="I71" s="9">
         <v>172.239</v>
       </c>
     </row>
-    <row r="71" spans="2:9" hidden="1">
-      <c r="B71" s="10">
+    <row r="72" spans="2:9" hidden="1">
+      <c r="B72" s="10">
         <v>2020</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D72" s="12">
         <f t="shared" si="4"/>
         <v>3003.6669999999999</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E72" s="13">
         <v>15.741</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>656.69799999999998</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G72" s="13">
         <v>258.47000000000003</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H72" s="13">
         <v>1830.7449999999999</v>
       </c>
-      <c r="I71" s="13">
+      <c r="I72" s="13">
         <v>242.01300000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:9" hidden="1">
-      <c r="B72" s="14">
+    <row r="73" spans="2:9" hidden="1">
+      <c r="B73" s="14">
         <v>2020</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C73" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D73" s="16">
         <f t="shared" si="4"/>
         <v>3158.4789999999998</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E73" s="17">
         <v>21.327999999999999</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F73" s="17">
         <v>658.10199999999998</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G73" s="17">
         <v>285.50799999999998</v>
       </c>
-      <c r="H72" s="17">
+      <c r="H73" s="17">
         <v>1930.8779999999999</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I73" s="17">
         <v>262.66300000000001</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1">
-      <c r="B73" s="18">
+    <row r="74" spans="2:9" hidden="1">
+      <c r="B74" s="18">
         <v>2019</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C74" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D74" s="20">
         <f t="shared" si="4"/>
         <v>3053.3690000000001</v>
       </c>
-      <c r="E73" s="21">
+      <c r="E74" s="21">
         <v>21.335999999999999</v>
       </c>
-      <c r="F73" s="21">
+      <c r="F74" s="21">
         <v>537.62099999999998</v>
       </c>
-      <c r="G73" s="21">
+      <c r="G74" s="21">
         <v>278.39299999999997</v>
       </c>
-      <c r="H73" s="21">
+      <c r="H74" s="21">
         <v>1967.231</v>
       </c>
-      <c r="I73" s="21">
+      <c r="I74" s="21">
         <v>248.78800000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:9" hidden="1">
-      <c r="B74" s="6">
+    <row r="75" spans="2:9" hidden="1">
+      <c r="B75" s="6">
         <v>2019</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D75" s="8">
         <f t="shared" si="4"/>
         <v>2611.9189999999999</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E75" s="9">
         <v>11.728999999999999</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F75" s="9">
         <v>376.67599999999999</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G75" s="9">
         <v>277.44</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H75" s="9">
         <v>1694.2080000000001</v>
       </c>
-      <c r="I74" s="9">
+      <c r="I75" s="9">
         <v>251.86600000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1">
-      <c r="B75" s="10">
+    <row r="76" spans="2:9" hidden="1">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D76" s="12">
         <f t="shared" si="4"/>
         <v>2142.5329999999999</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E76" s="13">
         <v>11.843</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>136.84700000000001</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G76" s="13">
         <v>278.23</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H76" s="13">
         <v>1436.271</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I76" s="13">
         <v>279.34199999999998</v>
       </c>
     </row>
-    <row r="76" spans="2:9" hidden="1">
-      <c r="B76" s="6">
+    <row r="77" spans="2:9" hidden="1">
+      <c r="B77" s="6">
         <v>2019</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D77" s="8">
         <f t="shared" si="4"/>
         <v>1823.6279999999999</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E77" s="9">
         <v>12.271000000000001</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F77" s="9">
         <v>89.102000000000004</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G77" s="9">
         <v>268.56099999999998</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H77" s="9">
         <v>1146.97</v>
       </c>
-      <c r="I76" s="9">
+      <c r="I77" s="9">
         <v>306.72399999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1">
-      <c r="B77" s="10">
+    <row r="78" spans="2:9" hidden="1">
+      <c r="B78" s="10">
         <v>2019</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C78" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D78" s="12">
         <f t="shared" si="4"/>
         <v>2449.1610000000001</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E78" s="13">
         <v>13.670999999999999</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F78" s="13">
         <v>120.56399999999999</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G78" s="13">
         <v>280.00299999999999</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H78" s="13">
         <v>1673.692</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I78" s="13">
         <v>361.23099999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:9" hidden="1">
-      <c r="B78" s="6">
+    <row r="79" spans="2:9" hidden="1">
+      <c r="B79" s="6">
         <v>2019</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D79" s="8">
         <f t="shared" si="4"/>
         <v>2801.94</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E79" s="9">
         <v>14.319000000000001</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F79" s="9">
         <v>119.633</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G79" s="9">
         <v>293.93</v>
       </c>
-      <c r="H78" s="9">
+      <c r="H79" s="9">
         <v>2011.7629999999999</v>
       </c>
-      <c r="I78" s="9">
+      <c r="I79" s="9">
         <v>362.29500000000002</v>
       </c>
     </row>
-    <row r="79" spans="2:9" hidden="1">
-      <c r="B79" s="10">
+    <row r="80" spans="2:9" hidden="1">
+      <c r="B80" s="10">
         <v>2019</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D80" s="12">
         <f t="shared" si="4"/>
         <v>2522.0529999999999</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E80" s="13">
         <v>11.54</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F80" s="13">
         <v>105.586</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G80" s="13">
         <v>282.41399999999999</v>
       </c>
-      <c r="H79" s="13">
+      <c r="H80" s="13">
         <v>1807.0650000000001</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I80" s="13">
         <v>315.44799999999998</v>
       </c>
     </row>
-    <row r="80" spans="2:9" hidden="1">
-      <c r="B80" s="6">
+    <row r="81" spans="2:9" hidden="1">
+      <c r="B81" s="6">
         <v>2019</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D81" s="8">
         <f t="shared" si="4"/>
         <v>2416.165</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E81" s="9">
         <v>11.512</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F81" s="9">
         <v>167.624</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G81" s="9">
         <v>301.21699999999998</v>
       </c>
-      <c r="H80" s="9">
+      <c r="H81" s="9">
         <v>1645.127</v>
       </c>
-      <c r="I80" s="9">
+      <c r="I81" s="9">
         <v>290.685</v>
       </c>
     </row>
-    <row r="81" spans="2:9" hidden="1">
-      <c r="B81" s="10">
+    <row r="82" spans="2:9" hidden="1">
+      <c r="B82" s="10">
         <v>2019</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C82" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D82" s="12">
         <f t="shared" si="4"/>
         <v>2781.3670000000002</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E82" s="13">
         <v>12.632</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F82" s="13">
         <v>403.54899999999998</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G82" s="13">
         <v>275.21800000000002</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H82" s="13">
         <v>1816.595</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I82" s="13">
         <v>273.37299999999999</v>
       </c>
     </row>
-    <row r="82" spans="2:9" hidden="1">
-      <c r="B82" s="6">
+    <row r="83" spans="2:9" hidden="1">
+      <c r="B83" s="6">
         <v>2019</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D83" s="8">
         <f t="shared" si="4"/>
         <v>3270.3839999999996</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E83" s="9">
         <v>11.318</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F83" s="9">
         <v>556.81700000000001</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G83" s="9">
         <v>283.60500000000002</v>
       </c>
-      <c r="H82" s="9">
+      <c r="H83" s="9">
         <v>2176.8739999999998</v>
       </c>
-      <c r="I82" s="9">
+      <c r="I83" s="9">
         <v>241.77</v>
       </c>
     </row>
-    <row r="83" spans="2:9" hidden="1">
-      <c r="B83" s="10">
+    <row r="84" spans="2:9" hidden="1">
+      <c r="B84" s="10">
         <v>2019</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D84" s="12">
         <f t="shared" si="4"/>
         <v>2709.8039999999996</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E84" s="13">
         <v>9.2029999999999994</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F84" s="13">
         <v>523.98800000000006</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G84" s="13">
         <v>268.82900000000001</v>
       </c>
-      <c r="H83" s="13">
+      <c r="H84" s="13">
         <v>1706.7149999999999</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I84" s="13">
         <v>201.06899999999999</v>
       </c>
     </row>
-    <row r="84" spans="2:9" hidden="1">
-      <c r="B84" s="14">
+    <row r="85" spans="2:9" hidden="1">
+      <c r="B85" s="14">
         <v>2019</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C85" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="16">
-        <f t="shared" ref="D84:D96" si="5">SUM(E84:I84)</f>
+      <c r="D85" s="16">
+        <f t="shared" ref="D85:D97" si="5">SUM(E85:I85)</f>
         <v>2903.4210000000003</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E85" s="17">
         <v>10.77</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F85" s="17">
         <v>539.04899999999998</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G85" s="17">
         <v>301.86200000000002</v>
       </c>
-      <c r="H84" s="17">
+      <c r="H85" s="17">
         <v>1830.36</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I85" s="17">
         <v>221.38</v>
       </c>
     </row>
-    <row r="85" spans="2:9" hidden="1">
-      <c r="B85" s="11">
+    <row r="86" spans="2:9" hidden="1">
+      <c r="B86" s="11">
         <v>2018</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D86" s="12">
         <f t="shared" si="5"/>
         <v>2900.12</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E86" s="13">
         <v>8.7880000000000003</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F86" s="13">
         <v>442.23399999999998</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G86" s="13">
         <v>286.44600000000003</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H86" s="13">
         <v>1926.6559999999999</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I86" s="13">
         <v>235.99600000000001</v>
       </c>
     </row>
-    <row r="86" spans="2:9" hidden="1">
-      <c r="B86" s="7">
+    <row r="87" spans="2:9" hidden="1">
+      <c r="B87" s="7">
         <v>2018</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C87" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D87" s="8">
         <f t="shared" si="5"/>
         <v>2516.9179999999997</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E87" s="9">
         <v>9.0220000000000002</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F87" s="9">
         <v>315.29500000000002</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G87" s="9">
         <v>289.45400000000001</v>
       </c>
-      <c r="H86" s="9">
+      <c r="H87" s="9">
         <v>1650.2370000000001</v>
       </c>
-      <c r="I86" s="9">
+      <c r="I87" s="9">
         <v>252.91</v>
       </c>
     </row>
-    <row r="87" spans="2:9" hidden="1">
-      <c r="B87" s="11">
+    <row r="88" spans="2:9" hidden="1">
+      <c r="B88" s="11">
         <v>2018</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D88" s="12">
         <f t="shared" si="5"/>
         <v>2127.0500000000002</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E88" s="13">
         <v>9.5739999999999998</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F88" s="13">
         <v>145.04599999999999</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G88" s="13">
         <v>284.245</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H88" s="13">
         <v>1413.5550000000001</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I88" s="13">
         <v>274.63</v>
       </c>
     </row>
-    <row r="88" spans="2:9" hidden="1">
-      <c r="B88" s="7">
+    <row r="89" spans="2:9" hidden="1">
+      <c r="B89" s="7">
         <v>2018</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D89" s="8">
         <f t="shared" si="5"/>
         <v>1820.75</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E89" s="9">
         <v>8.7170000000000005</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F89" s="9">
         <v>115.482</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G89" s="9">
         <v>260.428</v>
       </c>
-      <c r="H88" s="9">
+      <c r="H89" s="9">
         <v>1151.6479999999999</v>
       </c>
-      <c r="I88" s="9">
+      <c r="I89" s="9">
         <v>284.47500000000002</v>
       </c>
     </row>
-    <row r="89" spans="2:9" hidden="1">
-      <c r="B89" s="11">
+    <row r="90" spans="2:9" hidden="1">
+      <c r="B90" s="11">
         <v>2018</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C90" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D90" s="12">
         <f t="shared" si="5"/>
         <v>2528.9700000000003</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E90" s="13">
         <v>9.6679999999999993</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F90" s="13">
         <v>146.94499999999999</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G90" s="13">
         <v>284.00099999999998</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H90" s="13">
         <v>1759.27</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I90" s="13">
         <v>329.08600000000001</v>
       </c>
     </row>
-    <row r="90" spans="2:9" hidden="1">
-      <c r="B90" s="7">
+    <row r="91" spans="2:9" hidden="1">
+      <c r="B91" s="7">
         <v>2018</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D91" s="8">
         <f t="shared" si="5"/>
         <v>2915.5160000000001</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E91" s="9">
         <v>10.211</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F91" s="9">
         <v>149.61199999999999</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G91" s="9">
         <v>301.62799999999999</v>
       </c>
-      <c r="H90" s="9">
+      <c r="H91" s="9">
         <v>2115.8780000000002</v>
       </c>
-      <c r="I90" s="9">
+      <c r="I91" s="9">
         <v>338.18700000000001</v>
       </c>
     </row>
-    <row r="91" spans="2:9" hidden="1">
-      <c r="B91" s="11">
+    <row r="92" spans="2:9" hidden="1">
+      <c r="B92" s="11">
         <v>2018</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C92" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D92" s="12">
         <f t="shared" si="5"/>
         <v>2658.8760000000002</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E92" s="13">
         <v>8.1470000000000002</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F92" s="13">
         <v>136.459</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G92" s="13">
         <v>274.35500000000002</v>
       </c>
-      <c r="H91" s="13">
+      <c r="H92" s="13">
         <v>1947.4549999999999</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I92" s="13">
         <v>292.45999999999998</v>
       </c>
     </row>
-    <row r="92" spans="2:9" hidden="1">
-      <c r="B92" s="7">
+    <row r="93" spans="2:9" hidden="1">
+      <c r="B93" s="7">
         <v>2018</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D93" s="8">
         <f t="shared" si="5"/>
         <v>2447.692</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E93" s="9">
         <v>8.2739999999999991</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F93" s="9">
         <v>176.994</v>
       </c>
-      <c r="G92" s="9">
+      <c r="G93" s="9">
         <v>289.221</v>
       </c>
-      <c r="H92" s="9">
+      <c r="H93" s="9">
         <v>1710.9349999999999</v>
       </c>
-      <c r="I92" s="9">
+      <c r="I93" s="9">
         <v>262.26799999999997</v>
       </c>
     </row>
-    <row r="93" spans="2:9" hidden="1">
-      <c r="B93" s="11">
+    <row r="94" spans="2:9" hidden="1">
+      <c r="B94" s="11">
         <v>2018</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C94" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D94" s="12">
         <f t="shared" si="5"/>
         <v>2823.5950000000003</v>
       </c>
-      <c r="E93" s="13">
+      <c r="E94" s="13">
         <v>9.1590000000000007</v>
       </c>
-      <c r="F93" s="13">
+      <c r="F94" s="13">
         <v>394.92700000000002</v>
       </c>
-      <c r="G93" s="13">
+      <c r="G94" s="13">
         <v>277.78800000000001</v>
       </c>
-      <c r="H93" s="13">
+      <c r="H94" s="13">
         <v>1889.2940000000001</v>
       </c>
-      <c r="I93" s="13">
+      <c r="I94" s="13">
         <v>252.42699999999999</v>
       </c>
     </row>
-    <row r="94" spans="2:9" hidden="1">
-      <c r="B94" s="7">
+    <row r="95" spans="2:9" hidden="1">
+      <c r="B95" s="7">
         <v>2018</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C95" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D95" s="8">
         <f t="shared" si="5"/>
         <v>3332.6780000000003</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E95" s="9">
         <v>9.0150000000000006</v>
       </c>
-      <c r="F94" s="9">
+      <c r="F95" s="9">
         <v>541.36300000000006</v>
       </c>
-      <c r="G94" s="9">
+      <c r="G95" s="9">
         <v>284.77600000000001</v>
       </c>
-      <c r="H94" s="9">
+      <c r="H95" s="9">
         <v>2258.6280000000002</v>
       </c>
-      <c r="I94" s="9">
+      <c r="I95" s="9">
         <v>238.89599999999999</v>
       </c>
     </row>
-    <row r="95" spans="2:9" hidden="1">
-      <c r="B95" s="11">
+    <row r="96" spans="2:9" hidden="1">
+      <c r="B96" s="11">
         <v>2018</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C96" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D95" s="12">
+      <c r="D96" s="12">
         <f t="shared" si="5"/>
         <v>2743.9390000000003</v>
       </c>
-      <c r="E95" s="13">
+      <c r="E96" s="13">
         <v>7.4669999999999996</v>
       </c>
-      <c r="F95" s="13">
+      <c r="F96" s="13">
         <v>478.96199999999999</v>
       </c>
-      <c r="G95" s="13">
+      <c r="G96" s="13">
         <v>269.29000000000002</v>
       </c>
-      <c r="H95" s="13">
+      <c r="H96" s="13">
         <v>1800.797</v>
       </c>
-      <c r="I95" s="13">
+      <c r="I96" s="13">
         <v>187.423</v>
       </c>
     </row>
-    <row r="96" spans="2:9" hidden="1">
-      <c r="B96" s="7">
+    <row r="97" spans="2:9" hidden="1">
+      <c r="B97" s="7">
         <v>2018</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C97" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D97" s="8">
         <f t="shared" si="5"/>
         <v>3020.2839999999997</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E97" s="9">
         <v>8.3650000000000002</v>
       </c>
-      <c r="F96" s="9">
+      <c r="F97" s="9">
         <v>517.99800000000005</v>
       </c>
-      <c r="G96" s="9">
+      <c r="G97" s="9">
         <v>307.8</v>
       </c>
-      <c r="H96" s="9">
+      <c r="H97" s="9">
         <v>1971.394</v>
       </c>
-      <c r="I96" s="9">
+      <c r="I97" s="9">
         <v>214.727</v>
       </c>
-    </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="2:9">
       <c r="B98" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D98" s="3"/>
     </row>
     <row r="99" spans="2:9">
       <c r="B99" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I99" s="22"/>
+      <c r="I100" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
